--- a/dist/modelsConfig.xlsx
+++ b/dist/modelsConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="556">
   <si>
     <t>序号，lora唯一标识码，同类型不可重复</t>
   </si>
@@ -130,6 +130,9 @@
     <t>3d人物，兼容尚可</t>
   </si>
   <si>
+    <t>cute</t>
+  </si>
+  <si>
     <t>cutegirl25d</t>
   </si>
   <si>
@@ -166,6 +169,9 @@
     <t>★★★★ 亚洲女孩脸</t>
   </si>
   <si>
+    <t>meng</t>
+  </si>
+  <si>
     <t>MengX girl_Mix</t>
   </si>
   <si>
@@ -925,6 +931,9 @@
     <t>小红书</t>
   </si>
   <si>
+    <t>shinya</t>
+  </si>
+  <si>
     <t>ShinyAngel</t>
   </si>
   <si>
@@ -934,6 +943,9 @@
     <t>★★★★ 璀璨天使 82294@108027</t>
   </si>
   <si>
+    <t>icea</t>
+  </si>
+  <si>
     <t>SnowAngel</t>
   </si>
   <si>
@@ -1003,6 +1015,9 @@
     <t>★★★ TCTH-Fairy 蝴蝶裙子</t>
   </si>
   <si>
+    <t>fullmm</t>
+  </si>
+  <si>
     <t>PerfectFullBreasts</t>
   </si>
   <si>
@@ -1027,6 +1042,9 @@
     <t>实现衣服等战损的效果  outfit torn clothes</t>
   </si>
   <si>
+    <t>ax</t>
+  </si>
+  <si>
     <t>anxiang_L</t>
   </si>
   <si>
@@ -1516,6 +1534,9 @@
     <t>★★★★★ AGM 还有其他很多风格：https://civitai.com/models/94772/agm-style-loha</t>
   </si>
   <si>
+    <t>bl</t>
+  </si>
+  <si>
     <t>beautylegs_v01</t>
   </si>
   <si>
@@ -1523,6 +1544,9 @@
   </si>
   <si>
     <t>★★★★★ beautylegs 111195@119933</t>
+  </si>
+  <si>
+    <t>dream</t>
   </si>
   <si>
     <t>Dreamwave</t>
@@ -1666,38 +1690,16 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1718,9 +1720,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1734,7 +1760,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1748,6 +1782,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1755,25 +1797,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1786,9 +1811,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1803,23 +1835,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1846,7 +1870,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1858,19 +1936,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1882,55 +1978,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1948,49 +2002,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2008,25 +2032,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2043,17 +2067,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2069,6 +2084,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2091,8 +2115,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2122,114 +2161,99 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2238,56 +2262,56 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2314,9 +2338,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2346,24 +2367,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2688,7 +2691,9 @@
   <dimension ref="A1:M237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C201" sqref="C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2703,7 +2708,7 @@
     <col min="9" max="9" width="41.8461538461538" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2722,10 +2727,10 @@
       <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -2736,16 +2741,16 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="9">
+      <c r="A2" s="3">
         <v>101</v>
       </c>
-      <c r="B2" s="9">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="6">
@@ -2757,7 +2762,7 @@
       <c r="G2" s="6">
         <v>0.6</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="15"/>
       <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
@@ -2767,16 +2772,16 @@
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="9">
+      <c r="A3" s="3">
         <v>102</v>
       </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="6">
         <v>0.6</v>
       </c>
@@ -2786,7 +2791,7 @@
       <c r="G3" s="6">
         <v>0.65</v>
       </c>
-      <c r="H3" s="16"/>
+      <c r="H3" s="15"/>
       <c r="I3" s="3" t="s">
         <v>14</v>
       </c>
@@ -2796,16 +2801,16 @@
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="9">
+      <c r="A4" s="3">
         <v>103</v>
       </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="6">
         <v>0.6</v>
       </c>
@@ -2815,7 +2820,7 @@
       <c r="G4" s="6">
         <v>0.8</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="3" t="s">
         <v>16</v>
       </c>
@@ -2825,16 +2830,16 @@
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="9">
+      <c r="A5" s="3">
         <v>104</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="6">
@@ -2846,7 +2851,7 @@
       <c r="G5" s="6">
         <v>0.8</v>
       </c>
-      <c r="H5" s="16"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="3" t="s">
         <v>19</v>
       </c>
@@ -2856,16 +2861,16 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="9">
+      <c r="A6" s="3">
         <v>105</v>
       </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="6">
@@ -2877,7 +2882,7 @@
       <c r="G6" s="6">
         <v>0.6</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="15"/>
       <c r="I6" s="3" t="s">
         <v>22</v>
       </c>
@@ -2887,16 +2892,16 @@
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="9">
+      <c r="A7" s="3">
         <v>106</v>
       </c>
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="6">
         <v>0.4</v>
       </c>
@@ -2906,7 +2911,7 @@
       <c r="G7" s="6">
         <v>0.6</v>
       </c>
-      <c r="H7" s="16"/>
+      <c r="H7" s="15"/>
       <c r="I7" s="3" t="s">
         <v>24</v>
       </c>
@@ -2916,16 +2921,16 @@
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="9">
+      <c r="A8" s="3">
         <v>107</v>
       </c>
-      <c r="B8" s="9">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="6">
@@ -2937,7 +2942,7 @@
       <c r="G8" s="6">
         <v>0.45</v>
       </c>
-      <c r="H8" s="16"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="3" t="s">
         <v>27</v>
       </c>
@@ -2947,16 +2952,16 @@
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="9">
+      <c r="A9" s="3">
         <v>108</v>
       </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="6">
         <v>0.6</v>
       </c>
@@ -2966,7 +2971,7 @@
       <c r="G9" s="6">
         <v>0.6</v>
       </c>
-      <c r="H9" s="16"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="3" t="s">
         <v>29</v>
       </c>
@@ -2976,16 +2981,16 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="9">
+      <c r="A10" s="3">
         <v>109</v>
       </c>
-      <c r="B10" s="9">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="6">
@@ -2997,8 +3002,8 @@
       <c r="G10" s="6">
         <v>0.6</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="9" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J10" s="3"/>
@@ -3007,16 +3012,16 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="9">
+      <c r="A11" s="3">
         <v>110</v>
       </c>
-      <c r="B11" s="9">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="6">
         <v>0.8</v>
       </c>
@@ -3026,7 +3031,7 @@
       <c r="G11" s="6">
         <v>0.8</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="3" t="s">
         <v>34</v>
       </c>
@@ -3036,16 +3041,16 @@
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="9">
+      <c r="A12" s="3">
         <v>112</v>
       </c>
-      <c r="B12" s="9">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="6">
@@ -3057,7 +3062,7 @@
       <c r="G12" s="6">
         <v>0.6</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="3" t="s">
         <v>37</v>
       </c>
@@ -3067,16 +3072,16 @@
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="9">
-        <v>113</v>
-      </c>
-      <c r="B13" s="9">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="9"/>
       <c r="E13" s="6">
         <v>0.4</v>
       </c>
@@ -3086,9 +3091,9 @@
       <c r="G13" s="6">
         <v>0.8</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -3096,17 +3101,17 @@
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="9">
+      <c r="A14" s="3">
         <v>114</v>
       </c>
-      <c r="B14" s="9">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>41</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="E14" s="6">
         <v>0.5</v>
@@ -3117,7 +3122,7 @@
       <c r="G14" s="6">
         <v>0.6</v>
       </c>
-      <c r="H14" s="16"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -3125,16 +3130,16 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="9">
+      <c r="A15" s="3">
         <v>115</v>
       </c>
-      <c r="B15" s="9">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="10"/>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="9"/>
       <c r="E15" s="6">
         <v>0.4</v>
       </c>
@@ -3144,9 +3149,9 @@
       <c r="G15" s="6">
         <v>0.6</v>
       </c>
-      <c r="H15" s="16"/>
+      <c r="H15" s="15"/>
       <c r="I15" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -3154,17 +3159,17 @@
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="9">
+      <c r="A16" s="3">
         <v>116</v>
       </c>
-      <c r="B16" s="9">
-        <v>1</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>45</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="E16" s="6">
         <v>0.4</v>
@@ -3175,9 +3180,9 @@
       <c r="G16" s="6">
         <v>0.6</v>
       </c>
-      <c r="H16" s="16"/>
+      <c r="H16" s="15"/>
       <c r="I16" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -3185,17 +3190,17 @@
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="9">
+      <c r="A17" s="3">
         <v>117</v>
       </c>
-      <c r="B17" s="9">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="E17" s="6">
         <v>0.3</v>
@@ -3206,9 +3211,9 @@
       <c r="G17" s="6">
         <v>0.6</v>
       </c>
-      <c r="H17" s="16"/>
+      <c r="H17" s="15"/>
       <c r="I17" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -3216,16 +3221,16 @@
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="9">
-        <v>119</v>
-      </c>
-      <c r="B18" s="9">
-        <v>1</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="10"/>
+      <c r="A18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="9"/>
       <c r="E18" s="6">
         <v>0.6</v>
       </c>
@@ -3235,9 +3240,9 @@
       <c r="G18" s="6">
         <v>0.8</v>
       </c>
-      <c r="H18" s="16"/>
+      <c r="H18" s="15"/>
       <c r="I18" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -3245,32 +3250,32 @@
       <c r="M18" s="3"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:13">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="9">
+      <c r="A20" s="3">
         <v>201</v>
       </c>
-      <c r="B20" s="9">
-        <v>1</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>53</v>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="E20" s="6">
         <v>0.6</v>
@@ -3281,9 +3286,9 @@
       <c r="G20" s="6">
         <v>0.8</v>
       </c>
-      <c r="H20" s="16"/>
+      <c r="H20" s="15"/>
       <c r="I20" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -3291,16 +3296,16 @@
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="9">
+      <c r="A21" s="3">
         <v>202</v>
       </c>
-      <c r="B21" s="9">
-        <v>1</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="10"/>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="9"/>
       <c r="E21" s="6">
         <v>0.6</v>
       </c>
@@ -3310,9 +3315,9 @@
       <c r="G21" s="6">
         <v>0.7</v>
       </c>
-      <c r="H21" s="16"/>
+      <c r="H21" s="15"/>
       <c r="I21" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -3320,17 +3325,17 @@
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="9">
+      <c r="A22" s="3">
         <v>203</v>
       </c>
-      <c r="B22" s="9">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>58</v>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="E22" s="6">
         <v>0.8</v>
@@ -3341,9 +3346,9 @@
       <c r="G22" s="6">
         <v>0.8</v>
       </c>
-      <c r="H22" s="16"/>
+      <c r="H22" s="15"/>
       <c r="I22" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -3351,17 +3356,17 @@
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="9">
+      <c r="A23" s="3">
         <v>204</v>
       </c>
-      <c r="B23" s="9">
-        <v>1</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>61</v>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="E23" s="6">
         <v>0.8</v>
@@ -3372,9 +3377,9 @@
       <c r="G23" s="6">
         <v>0.8</v>
       </c>
-      <c r="H23" s="16"/>
+      <c r="H23" s="15"/>
       <c r="I23" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -3382,17 +3387,17 @@
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="9">
+      <c r="A24" s="3">
         <v>209</v>
       </c>
-      <c r="B24" s="9">
-        <v>1</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>64</v>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="E24" s="6">
         <v>0.6</v>
@@ -3400,10 +3405,9 @@
       <c r="F24" s="6">
         <v>1</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="16"/>
+      <c r="H24" s="15"/>
       <c r="I24" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -3411,17 +3415,17 @@
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="9">
+      <c r="A25" s="3">
         <v>207</v>
       </c>
-      <c r="B25" s="9">
-        <v>1</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>67</v>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="E25" s="6">
         <v>0.4</v>
@@ -3432,9 +3436,9 @@
       <c r="G25" s="6">
         <v>0.6</v>
       </c>
-      <c r="H25" s="16"/>
+      <c r="H25" s="15"/>
       <c r="I25" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -3442,16 +3446,16 @@
       <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="9">
+      <c r="A26" s="3">
         <v>208</v>
       </c>
-      <c r="B26" s="9">
-        <v>1</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="10"/>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="9"/>
       <c r="E26" s="6">
         <v>0.4</v>
       </c>
@@ -3461,9 +3465,9 @@
       <c r="G26" s="6">
         <v>0.6</v>
       </c>
-      <c r="H26" s="16"/>
+      <c r="H26" s="15"/>
       <c r="I26" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -3471,17 +3475,17 @@
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="9">
+      <c r="A27" s="3">
         <v>209</v>
       </c>
-      <c r="B27" s="9">
-        <v>1</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>72</v>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="E27" s="6">
         <v>0.6</v>
@@ -3492,9 +3496,9 @@
       <c r="G27" s="6">
         <v>0.95</v>
       </c>
-      <c r="H27" s="16"/>
+      <c r="H27" s="15"/>
       <c r="I27" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -3502,17 +3506,17 @@
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="9">
+      <c r="A28" s="3">
         <v>210</v>
       </c>
-      <c r="B28" s="9">
-        <v>1</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>75</v>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="E28" s="6">
         <v>0.8</v>
@@ -3523,9 +3527,9 @@
       <c r="G28" s="6">
         <v>0.9</v>
       </c>
-      <c r="H28" s="16"/>
+      <c r="H28" s="15"/>
       <c r="I28" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -3533,17 +3537,17 @@
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="9">
+      <c r="A29" s="3">
         <v>211</v>
       </c>
-      <c r="B29" s="9">
-        <v>1</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>78</v>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="E29" s="6">
         <v>0.6</v>
@@ -3554,9 +3558,9 @@
       <c r="G29" s="6">
         <v>0.6</v>
       </c>
-      <c r="H29" s="16"/>
+      <c r="H29" s="15"/>
       <c r="I29" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -3564,17 +3568,17 @@
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="9">
+      <c r="A30" s="3">
         <v>212</v>
       </c>
-      <c r="B30" s="9">
-        <v>1</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>81</v>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="E30" s="6">
         <v>0.7</v>
@@ -3585,9 +3589,9 @@
       <c r="G30" s="6">
         <v>0.8</v>
       </c>
-      <c r="H30" s="16"/>
+      <c r="H30" s="15"/>
       <c r="I30" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -3595,17 +3599,17 @@
       <c r="M30" s="3"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="9">
+      <c r="A31" s="3">
         <v>213</v>
       </c>
-      <c r="B31" s="9">
-        <v>1</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>84</v>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="E31" s="6">
         <v>0.4</v>
@@ -3616,38 +3620,37 @@
       <c r="G31" s="6">
         <v>0.6</v>
       </c>
-      <c r="H31" s="16"/>
+      <c r="H31" s="15"/>
       <c r="I31" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="9">
+      <c r="A32" s="3">
         <v>214</v>
       </c>
-      <c r="B32" s="9">
-        <v>1</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>88</v>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6">
         <v>0.8</v>
       </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="16"/>
+      <c r="H32" s="15"/>
       <c r="I32" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -3655,24 +3658,23 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="9">
+      <c r="A33" s="3">
         <v>215</v>
       </c>
-      <c r="B33" s="9">
-        <v>1</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>91</v>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="16"/>
+      <c r="H33" s="15"/>
       <c r="I33" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -3680,17 +3682,17 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="9">
+      <c r="A34" s="3">
         <v>216</v>
       </c>
-      <c r="B34" s="9">
-        <v>1</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>94</v>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="E34" s="6">
         <v>0.6</v>
@@ -3699,9 +3701,9 @@
       <c r="G34" s="6">
         <v>0.8</v>
       </c>
-      <c r="H34" s="16"/>
+      <c r="H34" s="15"/>
       <c r="I34" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -3709,17 +3711,17 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="9">
+      <c r="A35" s="3">
         <v>217</v>
       </c>
-      <c r="B35" s="9">
-        <v>1</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>96</v>
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="E35" s="6">
         <v>0.6</v>
@@ -3728,9 +3730,9 @@
       <c r="G35" s="6">
         <v>0.8</v>
       </c>
-      <c r="H35" s="16"/>
+      <c r="H35" s="15"/>
       <c r="I35" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -3738,17 +3740,17 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="9">
+      <c r="A36" s="3">
         <v>218</v>
       </c>
-      <c r="B36" s="9">
-        <v>1</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>97</v>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="E36" s="6">
         <v>0.6</v>
@@ -3757,9 +3759,9 @@
       <c r="G36" s="6">
         <v>0.8</v>
       </c>
-      <c r="H36" s="16"/>
+      <c r="H36" s="15"/>
       <c r="I36" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -3767,17 +3769,17 @@
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="9">
+      <c r="A37" s="3">
         <v>219</v>
       </c>
-      <c r="B37" s="9">
-        <v>1</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>98</v>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="E37" s="6">
         <v>0.6</v>
@@ -3786,9 +3788,9 @@
       <c r="G37" s="6">
         <v>0.8</v>
       </c>
-      <c r="H37" s="16"/>
+      <c r="H37" s="15"/>
       <c r="I37" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -3796,17 +3798,17 @@
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="9">
+      <c r="A38" s="3">
         <v>220</v>
       </c>
-      <c r="B38" s="9">
-        <v>1</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>99</v>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="E38" s="6">
         <v>0.6</v>
@@ -3815,9 +3817,9 @@
       <c r="G38" s="6">
         <v>0.8</v>
       </c>
-      <c r="H38" s="16"/>
+      <c r="H38" s="15"/>
       <c r="I38" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -3825,17 +3827,17 @@
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="9">
+      <c r="A39" s="3">
         <v>221</v>
       </c>
-      <c r="B39" s="9">
-        <v>1</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>101</v>
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="E39" s="6">
         <v>0.6</v>
@@ -3846,9 +3848,9 @@
       <c r="G39" s="6">
         <v>0.8</v>
       </c>
-      <c r="H39" s="16"/>
+      <c r="H39" s="15"/>
       <c r="I39" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -3856,26 +3858,25 @@
       <c r="M39" s="3"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="9">
+      <c r="A40" s="3">
         <v>222</v>
       </c>
-      <c r="B40" s="9">
-        <v>1</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>104</v>
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6">
         <v>0.8</v>
       </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="16"/>
+      <c r="H40" s="15"/>
       <c r="I40" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -3883,41 +3884,40 @@
       <c r="M40" s="3"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:13">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11">
-        <v>1</v>
-      </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10">
+        <v>1</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="9">
+      <c r="A42" s="3">
         <v>301</v>
       </c>
-      <c r="B42" s="9">
-        <v>1</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>107</v>
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="16"/>
+      <c r="H42" s="15"/>
       <c r="I42" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -3925,26 +3925,25 @@
       <c r="M42" s="3"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="9">
+      <c r="A43" s="3">
         <v>302</v>
       </c>
-      <c r="B43" s="9">
-        <v>1</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>110</v>
+      <c r="B43" s="3">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="E43" s="6">
         <v>0.6</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="16"/>
+      <c r="H43" s="15"/>
       <c r="I43" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -3952,17 +3951,17 @@
       <c r="M43" s="3"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="9">
+      <c r="A44" s="3">
         <v>303</v>
       </c>
-      <c r="B44" s="9">
-        <v>1</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>113</v>
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E44" s="6">
         <v>0.6</v>
@@ -3970,10 +3969,9 @@
       <c r="F44" s="6">
         <v>0.8</v>
       </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="16"/>
+      <c r="H44" s="15"/>
       <c r="I44" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -3981,26 +3979,25 @@
       <c r="M44" s="3"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="9">
+      <c r="A45" s="3">
         <v>304</v>
       </c>
-      <c r="B45" s="9">
-        <v>1</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>116</v>
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="E45" s="6">
         <v>0.6</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="16"/>
+      <c r="H45" s="15"/>
       <c r="I45" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -4008,17 +4005,17 @@
       <c r="M45" s="3"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="9">
+      <c r="A46" s="3">
         <v>305</v>
       </c>
-      <c r="B46" s="9">
-        <v>1</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>119</v>
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="E46" s="6">
         <v>0.4</v>
@@ -4029,9 +4026,9 @@
       <c r="G46" s="6">
         <v>0.6</v>
       </c>
-      <c r="H46" s="16"/>
+      <c r="H46" s="15"/>
       <c r="I46" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -4039,17 +4036,17 @@
       <c r="M46" s="3"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="9">
+      <c r="A47" s="3">
         <v>306</v>
       </c>
-      <c r="B47" s="9">
-        <v>1</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>122</v>
+      <c r="B47" s="3">
+        <v>1</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="E47" s="6">
         <v>0.7</v>
@@ -4057,10 +4054,9 @@
       <c r="F47" s="6">
         <v>0.8</v>
       </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="16"/>
+      <c r="H47" s="15"/>
       <c r="I47" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -4068,17 +4064,17 @@
       <c r="M47" s="3"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="9">
+      <c r="A48" s="3">
         <v>307</v>
       </c>
-      <c r="B48" s="9">
-        <v>1</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>125</v>
+      <c r="B48" s="3">
+        <v>1</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="E48" s="6">
         <v>0.4</v>
@@ -4086,10 +4082,9 @@
       <c r="F48" s="6">
         <v>0.65</v>
       </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="16"/>
+      <c r="H48" s="15"/>
       <c r="I48" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -4097,26 +4092,25 @@
       <c r="M48" s="3"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="9">
+      <c r="A49" s="3">
         <v>308</v>
       </c>
-      <c r="B49" s="9">
-        <v>1</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>128</v>
+      <c r="B49" s="3">
+        <v>1</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E49" s="6">
         <v>0.7</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="16"/>
+      <c r="H49" s="15"/>
       <c r="I49" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -4124,17 +4118,17 @@
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="9">
+      <c r="A50" s="3">
         <v>309</v>
       </c>
-      <c r="B50" s="9">
-        <v>1</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>131</v>
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="E50" s="6">
         <v>0.6</v>
@@ -4142,10 +4136,9 @@
       <c r="F50" s="6">
         <v>0.8</v>
       </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="16"/>
+      <c r="H50" s="15"/>
       <c r="I50" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -4153,17 +4146,17 @@
       <c r="M50" s="3"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="9">
+      <c r="A51" s="3">
         <v>310</v>
       </c>
-      <c r="B51" s="9">
-        <v>1</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>134</v>
+      <c r="B51" s="3">
+        <v>1</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="E51" s="6">
         <v>0.6</v>
@@ -4171,10 +4164,9 @@
       <c r="F51" s="6">
         <v>0.8</v>
       </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="16"/>
+      <c r="H51" s="15"/>
       <c r="I51" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
@@ -4182,24 +4174,23 @@
       <c r="M51" s="3"/>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="9">
+      <c r="A52" s="3">
         <v>311</v>
       </c>
-      <c r="B52" s="9">
-        <v>1</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>137</v>
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="16"/>
+      <c r="H52" s="15"/>
       <c r="I52" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -4207,17 +4198,17 @@
       <c r="M52" s="3"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="9">
+      <c r="A53" s="3">
         <v>312</v>
       </c>
-      <c r="B53" s="9">
-        <v>1</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>140</v>
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="E53" s="6">
         <v>0.6</v>
@@ -4225,10 +4216,9 @@
       <c r="F53" s="6">
         <v>0.75</v>
       </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="16"/>
+      <c r="H53" s="15"/>
       <c r="I53" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
@@ -4236,26 +4226,25 @@
       <c r="M53" s="3"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="9">
+      <c r="A54" s="3">
         <v>313</v>
       </c>
-      <c r="B54" s="9">
-        <v>1</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>143</v>
+      <c r="B54" s="3">
+        <v>1</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="E54" s="6">
         <v>0.8</v>
       </c>
       <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="16"/>
+      <c r="H54" s="15"/>
       <c r="I54" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -4263,17 +4252,17 @@
       <c r="M54" s="3"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="9">
+      <c r="A55" s="3">
         <v>314</v>
       </c>
-      <c r="B55" s="9">
-        <v>1</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>146</v>
+      <c r="B55" s="3">
+        <v>1</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="E55" s="6">
         <v>0.35</v>
@@ -4281,10 +4270,9 @@
       <c r="F55" s="6">
         <v>0.6</v>
       </c>
-      <c r="G55" s="6"/>
-      <c r="H55" s="16"/>
+      <c r="H55" s="15"/>
       <c r="I55" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -4295,23 +4283,22 @@
       <c r="A56" s="3">
         <v>315</v>
       </c>
-      <c r="B56" s="9">
-        <v>1</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>148</v>
+      <c r="B56" s="3">
+        <v>1</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="E56" s="6">
         <v>0.6</v>
       </c>
       <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="16"/>
+      <c r="H56" s="15"/>
       <c r="I56" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -4319,61 +4306,61 @@
       <c r="M56" s="3"/>
     </row>
     <row r="57" s="2" customFormat="1" spans="1:13">
-      <c r="A57" s="9">
+      <c r="A57" s="3">
         <v>316</v>
       </c>
-      <c r="B57" s="13">
-        <v>1</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="F57" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="G57" s="19"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="21"/>
+      <c r="B57" s="12">
+        <v>1</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" s="13"/>
+      <c r="E57" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="F57" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="G57" s="18"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:13">
-      <c r="A58" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
+      <c r="A58" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="9">
+      <c r="A59" s="3">
         <v>3001</v>
       </c>
-      <c r="B59" s="9">
-        <v>1</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>154</v>
+      <c r="B59" s="3">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="E59" s="6">
         <v>0.4</v>
@@ -4381,10 +4368,9 @@
       <c r="F59" s="6">
         <v>0.8</v>
       </c>
-      <c r="G59" s="6"/>
-      <c r="H59" s="16"/>
+      <c r="H59" s="15"/>
       <c r="I59" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -4392,17 +4378,17 @@
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="9">
+      <c r="A60" s="3">
         <v>3002</v>
       </c>
-      <c r="B60" s="9">
-        <v>1</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>157</v>
+      <c r="B60" s="3">
+        <v>1</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="E60" s="6">
         <v>0.4</v>
@@ -4410,10 +4396,9 @@
       <c r="F60" s="6">
         <v>0.6</v>
       </c>
-      <c r="G60" s="6"/>
-      <c r="H60" s="16"/>
+      <c r="H60" s="15"/>
       <c r="I60" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
@@ -4421,17 +4406,17 @@
       <c r="M60" s="3"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="9">
+      <c r="A61" s="3">
         <v>3003</v>
       </c>
-      <c r="B61" s="9">
-        <v>1</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>160</v>
+      <c r="B61" s="3">
+        <v>1</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="E61" s="6">
         <v>0.6</v>
@@ -4439,10 +4424,9 @@
       <c r="F61" s="6">
         <v>0.8</v>
       </c>
-      <c r="G61" s="6"/>
-      <c r="H61" s="16"/>
+      <c r="H61" s="15"/>
       <c r="I61" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
@@ -4450,26 +4434,25 @@
       <c r="M61" s="3"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="9">
+      <c r="A62" s="3">
         <v>3004</v>
       </c>
-      <c r="B62" s="9">
-        <v>1</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>163</v>
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E62" s="6">
         <v>0.7</v>
       </c>
       <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="16"/>
+      <c r="H62" s="15"/>
       <c r="I62" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
@@ -4477,26 +4460,25 @@
       <c r="M62" s="3"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="9">
+      <c r="A63" s="3">
         <v>3005</v>
       </c>
-      <c r="B63" s="9">
-        <v>1</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>166</v>
+      <c r="B63" s="3">
+        <v>1</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="E63" s="6">
         <v>0.8</v>
       </c>
       <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="16"/>
+      <c r="H63" s="15"/>
       <c r="I63" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -4504,26 +4486,25 @@
       <c r="M63" s="3"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="9">
+      <c r="A64" s="3">
         <v>3006</v>
       </c>
-      <c r="B64" s="9">
-        <v>1</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>169</v>
+      <c r="B64" s="3">
+        <v>1</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="E64" s="6">
         <v>0.6</v>
       </c>
       <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="16"/>
+      <c r="H64" s="15"/>
       <c r="I64" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
@@ -4531,17 +4512,17 @@
       <c r="M64" s="3"/>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="9">
+      <c r="A65" s="3">
         <v>3007</v>
       </c>
-      <c r="B65" s="9">
-        <v>1</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>172</v>
+      <c r="B65" s="3">
+        <v>1</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="E65" s="6">
         <v>0.6</v>
@@ -4549,10 +4530,9 @@
       <c r="F65" s="6">
         <v>0.75</v>
       </c>
-      <c r="G65" s="6"/>
-      <c r="H65" s="16"/>
+      <c r="H65" s="15"/>
       <c r="I65" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
@@ -4560,26 +4540,25 @@
       <c r="M65" s="3"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="9">
+      <c r="A66" s="3">
         <v>3008</v>
       </c>
-      <c r="B66" s="9">
-        <v>1</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>175</v>
+      <c r="B66" s="3">
+        <v>1</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="E66" s="6">
         <v>0.8</v>
       </c>
       <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="16"/>
+      <c r="H66" s="15"/>
       <c r="I66" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
@@ -4587,26 +4566,25 @@
       <c r="M66" s="3"/>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="9">
+      <c r="A67" s="3">
         <v>3009</v>
       </c>
-      <c r="B67" s="9">
-        <v>1</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>154</v>
+      <c r="B67" s="3">
+        <v>1</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="E67" s="6">
         <v>0.6</v>
       </c>
       <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="16"/>
+      <c r="H67" s="15"/>
       <c r="I67" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
@@ -4614,29 +4592,27 @@
       <c r="M67" s="3"/>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:13">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="20"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="20"/>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="10"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+    </row>
+    <row r="69" spans="2:13">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="9"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="16"/>
+      <c r="H69" s="15"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
@@ -4644,17 +4620,17 @@
       <c r="M69" s="3"/>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="9">
+      <c r="A70" s="3">
         <v>3101</v>
       </c>
-      <c r="B70" s="9">
-        <v>1</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>180</v>
+      <c r="B70" s="3">
+        <v>1</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="E70" s="6">
         <v>0.6</v>
@@ -4662,10 +4638,9 @@
       <c r="F70" s="6">
         <v>0.8</v>
       </c>
-      <c r="G70" s="6"/>
-      <c r="H70" s="16"/>
+      <c r="H70" s="15"/>
       <c r="I70" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
@@ -4673,17 +4648,17 @@
       <c r="M70" s="3"/>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="9">
+      <c r="A71" s="3">
         <v>3102</v>
       </c>
-      <c r="B71" s="9">
-        <v>1</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>183</v>
+      <c r="B71" s="3">
+        <v>1</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="E71" s="6">
         <v>0.6</v>
@@ -4691,10 +4666,9 @@
       <c r="F71" s="6">
         <v>0.8</v>
       </c>
-      <c r="G71" s="6"/>
-      <c r="H71" s="16"/>
+      <c r="H71" s="15"/>
       <c r="I71" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
@@ -4702,24 +4676,23 @@
       <c r="M71" s="3"/>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="9">
+      <c r="A72" s="3">
         <v>3103</v>
       </c>
-      <c r="B72" s="9">
-        <v>1</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D72" s="10"/>
+      <c r="B72" s="3">
+        <v>1</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D72" s="9"/>
       <c r="E72" s="6">
         <v>0.6</v>
       </c>
       <c r="F72" s="6">
         <v>0.8</v>
       </c>
-      <c r="G72" s="6"/>
-      <c r="H72" s="16"/>
+      <c r="H72" s="15"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
@@ -4727,26 +4700,25 @@
       <c r="M72" s="3"/>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="9">
+      <c r="A73" s="3">
         <v>3104</v>
       </c>
-      <c r="B73" s="9">
-        <v>1</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D73" s="10"/>
+      <c r="B73" s="3">
+        <v>1</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D73" s="9"/>
       <c r="E73" s="6">
         <v>0.6</v>
       </c>
       <c r="F73" s="6">
         <v>0.8</v>
       </c>
-      <c r="G73" s="6"/>
-      <c r="H73" s="16"/>
+      <c r="H73" s="15"/>
       <c r="I73" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
@@ -4754,34 +4726,34 @@
       <c r="M73" s="3"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="1:13">
-      <c r="A74" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="20"/>
-      <c r="M74" s="20"/>
+      <c r="A74" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="9">
+      <c r="A75" s="3">
         <v>3201</v>
       </c>
-      <c r="B75" s="9">
-        <v>1</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>190</v>
+      <c r="B75" s="3">
+        <v>1</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="E75" s="6">
         <v>0.6</v>
@@ -4789,10 +4761,9 @@
       <c r="F75" s="6">
         <v>0.85</v>
       </c>
-      <c r="G75" s="6"/>
-      <c r="H75" s="16"/>
+      <c r="H75" s="15"/>
       <c r="I75" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
@@ -4800,17 +4771,17 @@
       <c r="M75" s="3"/>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="9">
+      <c r="A76" s="3">
         <v>3202</v>
       </c>
-      <c r="B76" s="9">
-        <v>1</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>193</v>
+      <c r="B76" s="3">
+        <v>1</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="E76" s="6">
         <v>0.3</v>
@@ -4818,10 +4789,9 @@
       <c r="F76" s="6">
         <v>0.7</v>
       </c>
-      <c r="G76" s="6"/>
-      <c r="H76" s="16"/>
+      <c r="H76" s="15"/>
       <c r="I76" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
@@ -4829,17 +4799,17 @@
       <c r="M76" s="3"/>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="9">
+      <c r="A77" s="3">
         <v>3203</v>
       </c>
-      <c r="B77" s="9">
-        <v>1</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>196</v>
+      <c r="B77" s="3">
+        <v>1</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="E77" s="6">
         <v>0.4</v>
@@ -4847,10 +4817,9 @@
       <c r="F77" s="6">
         <v>0.7</v>
       </c>
-      <c r="G77" s="6"/>
-      <c r="H77" s="16"/>
+      <c r="H77" s="15"/>
       <c r="I77" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -4858,17 +4827,17 @@
       <c r="M77" s="3"/>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="9">
+      <c r="A78" s="3">
         <v>3204</v>
       </c>
-      <c r="B78" s="9">
-        <v>1</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>199</v>
+      <c r="B78" s="3">
+        <v>1</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="E78" s="6">
         <v>0.4</v>
@@ -4876,10 +4845,9 @@
       <c r="F78" s="6">
         <v>0.9</v>
       </c>
-      <c r="G78" s="6"/>
-      <c r="H78" s="16"/>
+      <c r="H78" s="15"/>
       <c r="I78" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
@@ -4887,17 +4855,17 @@
       <c r="M78" s="3"/>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="9">
+      <c r="A79" s="3">
         <v>3205</v>
       </c>
-      <c r="B79" s="9">
-        <v>1</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>202</v>
+      <c r="B79" s="3">
+        <v>1</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>204</v>
       </c>
       <c r="E79" s="6">
         <v>0.7</v>
@@ -4905,10 +4873,9 @@
       <c r="F79" s="6">
         <v>0.9</v>
       </c>
-      <c r="G79" s="6"/>
-      <c r="H79" s="16"/>
+      <c r="H79" s="15"/>
       <c r="I79" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
@@ -4916,17 +4883,17 @@
       <c r="M79" s="3"/>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="9">
+      <c r="A80" s="3">
         <v>3206</v>
       </c>
-      <c r="B80" s="9">
-        <v>1</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>205</v>
+      <c r="B80" s="3">
+        <v>1</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>207</v>
       </c>
       <c r="E80" s="6">
         <v>0.6</v>
@@ -4934,10 +4901,9 @@
       <c r="F80" s="6">
         <v>0.85</v>
       </c>
-      <c r="G80" s="6"/>
-      <c r="H80" s="16"/>
+      <c r="H80" s="15"/>
       <c r="I80" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
@@ -4945,34 +4911,34 @@
       <c r="M80" s="3"/>
     </row>
     <row r="81" s="1" customFormat="1" spans="1:13">
-      <c r="A81" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="20"/>
-      <c r="L81" s="20"/>
-      <c r="M81" s="20"/>
+      <c r="A81" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="9">
+      <c r="A82" s="3">
         <v>3301</v>
       </c>
-      <c r="B82" s="9">
-        <v>1</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>209</v>
+      <c r="B82" s="3">
+        <v>1</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="E82" s="6">
         <v>0.4</v>
@@ -4980,8 +4946,7 @@
       <c r="F82" s="6">
         <v>0.65</v>
       </c>
-      <c r="G82" s="6"/>
-      <c r="H82" s="16"/>
+      <c r="H82" s="15"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
@@ -4989,26 +4954,25 @@
       <c r="M82" s="3"/>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="9">
+      <c r="A83" s="3">
         <v>3302</v>
       </c>
-      <c r="B83" s="9">
-        <v>1</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>211</v>
+      <c r="B83" s="3">
+        <v>1</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="E83" s="6">
         <v>0.8</v>
       </c>
       <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="16"/>
+      <c r="H83" s="15"/>
       <c r="I83" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
@@ -5016,17 +4980,17 @@
       <c r="M83" s="3"/>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="9">
+      <c r="A84" s="3">
         <v>3303</v>
       </c>
-      <c r="B84" s="9">
-        <v>1</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>214</v>
+      <c r="B84" s="3">
+        <v>1</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="E84" s="6">
         <v>0.6</v>
@@ -5034,10 +4998,9 @@
       <c r="F84" s="6">
         <v>0.8</v>
       </c>
-      <c r="G84" s="6"/>
-      <c r="H84" s="16"/>
+      <c r="H84" s="15"/>
       <c r="I84" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -5045,17 +5008,17 @@
       <c r="M84" s="3"/>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="9">
+      <c r="A85" s="3">
         <v>3304</v>
       </c>
-      <c r="B85" s="9">
-        <v>1</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>217</v>
+      <c r="B85" s="3">
+        <v>1</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>219</v>
       </c>
       <c r="E85" s="6">
         <v>0.6</v>
@@ -5063,10 +5026,9 @@
       <c r="F85" s="6">
         <v>0.8</v>
       </c>
-      <c r="G85" s="6"/>
-      <c r="H85" s="16"/>
+      <c r="H85" s="15"/>
       <c r="I85" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
@@ -5074,17 +5036,17 @@
       <c r="M85" s="3"/>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="9">
+      <c r="A86" s="3">
         <v>3305</v>
       </c>
-      <c r="B86" s="9">
-        <v>1</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>220</v>
+      <c r="B86" s="3">
+        <v>1</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="E86" s="6">
         <v>0.6</v>
@@ -5092,10 +5054,9 @@
       <c r="F86" s="6">
         <v>0.8</v>
       </c>
-      <c r="G86" s="6"/>
-      <c r="H86" s="16"/>
+      <c r="H86" s="15"/>
       <c r="I86" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
@@ -5103,17 +5064,17 @@
       <c r="M86" s="3"/>
     </row>
     <row r="87" spans="1:13">
-      <c r="A87" s="9">
+      <c r="A87" s="3">
         <v>3306</v>
       </c>
-      <c r="B87" s="9">
-        <v>1</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>223</v>
+      <c r="B87" s="3">
+        <v>1</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="E87" s="6">
         <v>0.6</v>
@@ -5121,10 +5082,9 @@
       <c r="F87" s="6">
         <v>0.8</v>
       </c>
-      <c r="G87" s="6"/>
-      <c r="H87" s="16"/>
+      <c r="H87" s="15"/>
       <c r="I87" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
@@ -5132,17 +5092,17 @@
       <c r="M87" s="3"/>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="9">
+      <c r="A88" s="3">
         <v>3307</v>
       </c>
-      <c r="B88" s="9">
-        <v>1</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>226</v>
+      <c r="B88" s="3">
+        <v>1</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="E88" s="6">
         <v>0.7</v>
@@ -5150,10 +5110,9 @@
       <c r="F88" s="6">
         <v>0.9</v>
       </c>
-      <c r="G88" s="6"/>
-      <c r="H88" s="16"/>
+      <c r="H88" s="15"/>
       <c r="I88" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
@@ -5161,34 +5120,34 @@
       <c r="M88" s="3"/>
     </row>
     <row r="89" s="1" customFormat="1" spans="1:13">
-      <c r="A89" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="20"/>
-      <c r="J89" s="20"/>
-      <c r="K89" s="20"/>
-      <c r="L89" s="20"/>
-      <c r="M89" s="20"/>
+      <c r="A89" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="9">
+      <c r="A90" s="3">
         <v>3401</v>
       </c>
-      <c r="B90" s="9">
-        <v>1</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>230</v>
+      <c r="B90" s="3">
+        <v>1</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>232</v>
       </c>
       <c r="E90" s="6">
         <v>0.4</v>
@@ -5196,8 +5155,7 @@
       <c r="F90" s="6">
         <v>0.7</v>
       </c>
-      <c r="G90" s="6"/>
-      <c r="H90" s="16"/>
+      <c r="H90" s="15"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
@@ -5205,17 +5163,17 @@
       <c r="M90" s="3"/>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="9">
+      <c r="A91" s="3">
         <v>3402</v>
       </c>
-      <c r="B91" s="9">
-        <v>1</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>232</v>
+      <c r="B91" s="3">
+        <v>1</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>234</v>
       </c>
       <c r="E91" s="6">
         <v>0.4</v>
@@ -5223,8 +5181,7 @@
       <c r="F91" s="6">
         <v>0.7</v>
       </c>
-      <c r="G91" s="6"/>
-      <c r="H91" s="16"/>
+      <c r="H91" s="15"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
@@ -5232,17 +5189,17 @@
       <c r="M91" s="3"/>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="9">
+      <c r="A92" s="3">
         <v>3403</v>
       </c>
-      <c r="B92" s="9">
-        <v>1</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>234</v>
+      <c r="B92" s="3">
+        <v>1</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>236</v>
       </c>
       <c r="E92" s="6">
         <v>0.4</v>
@@ -5250,8 +5207,7 @@
       <c r="F92" s="6">
         <v>0.7</v>
       </c>
-      <c r="G92" s="6"/>
-      <c r="H92" s="16"/>
+      <c r="H92" s="15"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
@@ -5259,17 +5215,17 @@
       <c r="M92" s="3"/>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93" s="9">
+      <c r="A93" s="3">
         <v>3404</v>
       </c>
-      <c r="B93" s="9">
-        <v>1</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>236</v>
+      <c r="B93" s="3">
+        <v>1</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="E93" s="6">
         <v>0.4</v>
@@ -5277,8 +5233,7 @@
       <c r="F93" s="6">
         <v>0.7</v>
       </c>
-      <c r="G93" s="6"/>
-      <c r="H93" s="16"/>
+      <c r="H93" s="15"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
@@ -5286,17 +5241,17 @@
       <c r="M93" s="3"/>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="9">
+      <c r="A94" s="3">
         <v>3405</v>
       </c>
-      <c r="B94" s="9">
-        <v>1</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>238</v>
+      <c r="B94" s="3">
+        <v>1</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="E94" s="6">
         <v>0.4</v>
@@ -5304,8 +5259,7 @@
       <c r="F94" s="6">
         <v>0.7</v>
       </c>
-      <c r="G94" s="6"/>
-      <c r="H94" s="16"/>
+      <c r="H94" s="15"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
@@ -5313,17 +5267,17 @@
       <c r="M94" s="3"/>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="9">
+      <c r="A95" s="3">
         <v>3406</v>
       </c>
-      <c r="B95" s="9">
-        <v>1</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>240</v>
+      <c r="B95" s="3">
+        <v>1</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>242</v>
       </c>
       <c r="E95" s="6">
         <v>0.4</v>
@@ -5331,8 +5285,7 @@
       <c r="F95" s="6">
         <v>0.7</v>
       </c>
-      <c r="G95" s="6"/>
-      <c r="H95" s="16"/>
+      <c r="H95" s="15"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
@@ -5340,43 +5293,42 @@
       <c r="M95" s="3"/>
     </row>
     <row r="96" s="1" customFormat="1" spans="1:13">
-      <c r="A96" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="18"/>
-      <c r="I96" s="20"/>
-      <c r="J96" s="20"/>
-      <c r="K96" s="20"/>
-      <c r="L96" s="20"/>
-      <c r="M96" s="20"/>
+      <c r="A96" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
     </row>
     <row r="97" spans="1:13">
-      <c r="A97" s="9">
+      <c r="A97" s="3">
         <v>3501</v>
       </c>
-      <c r="B97" s="9">
-        <v>1</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>243</v>
+      <c r="B97" s="3">
+        <v>1</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>245</v>
       </c>
       <c r="E97" s="6">
         <v>0.5</v>
       </c>
       <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="16"/>
+      <c r="H97" s="15"/>
       <c r="I97" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
@@ -5384,17 +5336,17 @@
       <c r="M97" s="3"/>
     </row>
     <row r="98" spans="1:13">
-      <c r="A98" s="9">
+      <c r="A98" s="3">
         <v>3502</v>
       </c>
-      <c r="B98" s="9">
-        <v>1</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>246</v>
+      <c r="B98" s="3">
+        <v>1</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>248</v>
       </c>
       <c r="E98" s="6">
         <v>0.6</v>
@@ -5402,10 +5354,9 @@
       <c r="F98" s="6">
         <v>0.8</v>
       </c>
-      <c r="G98" s="6"/>
-      <c r="H98" s="16"/>
+      <c r="H98" s="15"/>
       <c r="I98" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
@@ -5413,26 +5364,25 @@
       <c r="M98" s="3"/>
     </row>
     <row r="99" spans="1:13">
-      <c r="A99" s="9">
+      <c r="A99" s="3">
         <v>3503</v>
       </c>
-      <c r="B99" s="9">
-        <v>1</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>249</v>
+      <c r="B99" s="3">
+        <v>1</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>251</v>
       </c>
       <c r="E99" s="6">
         <v>0.6</v>
       </c>
       <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="16"/>
+      <c r="H99" s="15"/>
       <c r="I99" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
@@ -5440,41 +5390,38 @@
       <c r="M99" s="3"/>
     </row>
     <row r="100" spans="1:13">
-      <c r="A100" s="9">
+      <c r="A100" s="3">
         <v>3504</v>
       </c>
-      <c r="B100" s="9">
-        <v>1</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="D100" s="10" t="s">
-        <v>252</v>
+      <c r="B100" s="3">
+        <v>1</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>254</v>
       </c>
       <c r="E100" s="6">
         <v>0.6</v>
       </c>
       <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="16"/>
+      <c r="H100" s="15"/>
       <c r="I100" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
     </row>
-    <row r="101" spans="1:13">
-      <c r="A101" s="9"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="10"/>
+    <row r="101" spans="2:13">
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="9"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="16"/>
+      <c r="H101" s="15"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
@@ -5482,34 +5429,34 @@
       <c r="M101" s="3"/>
     </row>
     <row r="102" s="1" customFormat="1" spans="1:13">
-      <c r="A102" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="18"/>
-      <c r="I102" s="20"/>
-      <c r="J102" s="20"/>
-      <c r="K102" s="20"/>
-      <c r="L102" s="20"/>
-      <c r="M102" s="20"/>
+      <c r="A102" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="9">
+      <c r="A103" s="3">
         <v>401</v>
       </c>
-      <c r="B103" s="9">
-        <v>1</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>256</v>
+      <c r="B103" s="3">
+        <v>1</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>258</v>
       </c>
       <c r="E103" s="6">
         <v>0.4</v>
@@ -5517,10 +5464,9 @@
       <c r="F103" s="6">
         <v>0.7</v>
       </c>
-      <c r="G103" s="6"/>
-      <c r="H103" s="16"/>
+      <c r="H103" s="15"/>
       <c r="I103" s="3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
@@ -5528,17 +5474,17 @@
       <c r="M103" s="3"/>
     </row>
     <row r="104" spans="1:13">
-      <c r="A104" s="9">
+      <c r="A104" s="3">
         <v>402</v>
       </c>
-      <c r="B104" s="9">
-        <v>1</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>259</v>
+      <c r="B104" s="3">
+        <v>1</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>261</v>
       </c>
       <c r="E104" s="6">
         <v>0.5</v>
@@ -5546,10 +5492,9 @@
       <c r="F104" s="6">
         <v>0.65</v>
       </c>
-      <c r="G104" s="6"/>
-      <c r="H104" s="16"/>
+      <c r="H104" s="15"/>
       <c r="I104" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
@@ -5557,26 +5502,25 @@
       <c r="M104" s="3"/>
     </row>
     <row r="105" spans="1:13">
-      <c r="A105" s="9">
+      <c r="A105" s="3">
         <v>403</v>
       </c>
-      <c r="B105" s="9">
-        <v>1</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>262</v>
+      <c r="B105" s="3">
+        <v>1</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>264</v>
       </c>
       <c r="E105" s="6">
         <v>0.8</v>
       </c>
       <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="16"/>
+      <c r="H105" s="15"/>
       <c r="I105" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
@@ -5584,26 +5528,25 @@
       <c r="M105" s="3"/>
     </row>
     <row r="106" spans="1:13">
-      <c r="A106" s="9">
+      <c r="A106" s="3">
         <v>404</v>
       </c>
-      <c r="B106" s="9">
-        <v>1</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="D106" s="10"/>
+      <c r="B106" s="3">
+        <v>1</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D106" s="9"/>
       <c r="E106" s="6">
         <v>0.7</v>
       </c>
       <c r="F106" s="6">
         <v>0.8</v>
       </c>
-      <c r="G106" s="6"/>
-      <c r="H106" s="16"/>
+      <c r="H106" s="15"/>
       <c r="I106" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
@@ -5611,26 +5554,25 @@
       <c r="M106" s="3"/>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="9">
+      <c r="A107" s="3">
         <v>405</v>
       </c>
-      <c r="B107" s="9">
-        <v>1</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>267</v>
+      <c r="B107" s="3">
+        <v>1</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="E107" s="6">
         <v>0.8</v>
       </c>
       <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="16"/>
+      <c r="H107" s="15"/>
       <c r="I107" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
@@ -5638,26 +5580,25 @@
       <c r="M107" s="3"/>
     </row>
     <row r="108" spans="1:13">
-      <c r="A108" s="9">
+      <c r="A108" s="3">
         <v>406</v>
       </c>
-      <c r="B108" s="9">
-        <v>1</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>269</v>
+      <c r="B108" s="3">
+        <v>1</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>271</v>
       </c>
       <c r="E108" s="6">
         <v>0.6</v>
       </c>
       <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="16"/>
+      <c r="H108" s="15"/>
       <c r="I108" s="3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
@@ -5665,17 +5606,17 @@
       <c r="M108" s="3"/>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="9">
+      <c r="A109" s="3">
         <v>407</v>
       </c>
-      <c r="B109" s="9">
-        <v>1</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="D109" s="10" t="s">
-        <v>272</v>
+      <c r="B109" s="3">
+        <v>1</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>274</v>
       </c>
       <c r="E109" s="6">
         <v>0.5</v>
@@ -5683,10 +5624,9 @@
       <c r="F109" s="6">
         <v>0.8</v>
       </c>
-      <c r="G109" s="6"/>
-      <c r="H109" s="16"/>
+      <c r="H109" s="15"/>
       <c r="I109" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
@@ -5694,24 +5634,23 @@
       <c r="M109" s="3"/>
     </row>
     <row r="110" spans="1:13">
-      <c r="A110" s="9">
+      <c r="A110" s="3">
         <v>408</v>
       </c>
-      <c r="B110" s="9">
-        <v>1</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>275</v>
+      <c r="B110" s="3">
+        <v>1</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>277</v>
       </c>
       <c r="E110" s="6">
         <v>0.8</v>
       </c>
       <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="16"/>
+      <c r="H110" s="15"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
@@ -5719,17 +5658,17 @@
       <c r="M110" s="3"/>
     </row>
     <row r="111" spans="1:13">
-      <c r="A111" s="9">
+      <c r="A111" s="3">
         <v>409</v>
       </c>
-      <c r="B111" s="9">
-        <v>1</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>277</v>
+      <c r="B111" s="3">
+        <v>1</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>279</v>
       </c>
       <c r="E111" s="6">
         <v>0.4</v>
@@ -5737,10 +5676,9 @@
       <c r="F111" s="6">
         <v>0.6</v>
       </c>
-      <c r="G111" s="6"/>
-      <c r="H111" s="16"/>
+      <c r="H111" s="15"/>
       <c r="I111" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
@@ -5748,26 +5686,25 @@
       <c r="M111" s="3"/>
     </row>
     <row r="112" spans="1:13">
-      <c r="A112" s="9">
+      <c r="A112" s="3">
         <v>410</v>
       </c>
-      <c r="B112" s="9">
-        <v>1</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>280</v>
+      <c r="B112" s="3">
+        <v>1</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>282</v>
       </c>
       <c r="E112" s="6">
         <v>0.6</v>
       </c>
       <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="16"/>
+      <c r="H112" s="15"/>
       <c r="I112" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
@@ -5775,26 +5712,25 @@
       <c r="M112" s="3"/>
     </row>
     <row r="113" spans="1:13">
-      <c r="A113" s="9">
+      <c r="A113" s="3">
         <v>411</v>
       </c>
-      <c r="B113" s="9">
-        <v>1</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>283</v>
+      <c r="B113" s="3">
+        <v>1</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>285</v>
       </c>
       <c r="E113" s="6">
         <v>0.6</v>
       </c>
       <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="16"/>
+      <c r="H113" s="15"/>
       <c r="I113" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
@@ -5802,26 +5738,25 @@
       <c r="M113" s="3"/>
     </row>
     <row r="114" spans="1:13">
-      <c r="A114" s="9">
+      <c r="A114" s="3">
         <v>412</v>
       </c>
-      <c r="B114" s="9">
-        <v>1</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="D114" s="10" t="s">
-        <v>286</v>
+      <c r="B114" s="3">
+        <v>1</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>288</v>
       </c>
       <c r="E114" s="6">
         <v>0.7</v>
       </c>
       <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="16"/>
+      <c r="H114" s="15"/>
       <c r="I114" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
@@ -5829,17 +5764,17 @@
       <c r="M114" s="3"/>
     </row>
     <row r="115" spans="1:13">
-      <c r="A115" s="9">
+      <c r="A115" s="3">
         <v>413</v>
       </c>
-      <c r="B115" s="9">
-        <v>1</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>289</v>
+      <c r="B115" s="3">
+        <v>1</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>291</v>
       </c>
       <c r="E115" s="6">
         <v>0.4</v>
@@ -5847,10 +5782,9 @@
       <c r="F115" s="6">
         <v>0.8</v>
       </c>
-      <c r="G115" s="6"/>
-      <c r="H115" s="16"/>
+      <c r="H115" s="15"/>
       <c r="I115" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
@@ -5858,41 +5792,38 @@
       <c r="M115" s="3"/>
     </row>
     <row r="116" spans="1:13">
-      <c r="A116" s="9">
+      <c r="A116" s="3">
         <v>414</v>
       </c>
-      <c r="B116" s="9">
-        <v>1</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>292</v>
+      <c r="B116" s="3">
+        <v>1</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>294</v>
       </c>
       <c r="E116" s="6">
         <v>0.8</v>
       </c>
       <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="16"/>
+      <c r="H116" s="15"/>
       <c r="I116" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
     </row>
-    <row r="117" spans="1:13">
-      <c r="A117" s="9"/>
-      <c r="B117" s="9"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="10"/>
+    <row r="117" spans="2:13">
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="9"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="16"/>
+      <c r="H117" s="15"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
@@ -5900,34 +5831,34 @@
       <c r="M117" s="3"/>
     </row>
     <row r="118" s="1" customFormat="1" spans="1:13">
-      <c r="A118" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="17"/>
-      <c r="G118" s="17"/>
-      <c r="H118" s="18"/>
-      <c r="I118" s="20"/>
-      <c r="J118" s="20"/>
-      <c r="K118" s="20"/>
-      <c r="L118" s="20"/>
-      <c r="M118" s="20"/>
+      <c r="A118" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="16"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="10"/>
+      <c r="K118" s="10"/>
+      <c r="L118" s="10"/>
+      <c r="M118" s="10"/>
     </row>
     <row r="119" spans="1:13">
-      <c r="A119" s="9">
+      <c r="A119" s="3">
         <v>501</v>
       </c>
-      <c r="B119" s="9">
-        <v>1</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>296</v>
+      <c r="B119" s="3">
+        <v>1</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>298</v>
       </c>
       <c r="E119" s="6">
         <v>0.4</v>
@@ -5935,10 +5866,9 @@
       <c r="F119" s="6">
         <v>0.6</v>
       </c>
-      <c r="G119" s="6"/>
-      <c r="H119" s="16"/>
+      <c r="H119" s="15"/>
       <c r="I119" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
@@ -5946,17 +5876,17 @@
       <c r="M119" s="3"/>
     </row>
     <row r="120" spans="1:13">
-      <c r="A120" s="9">
+      <c r="A120" s="3">
         <v>502</v>
       </c>
-      <c r="B120" s="9">
-        <v>1</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>299</v>
+      <c r="B120" s="3">
+        <v>1</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>301</v>
       </c>
       <c r="E120" s="6">
         <v>0.4</v>
@@ -5964,8 +5894,7 @@
       <c r="F120" s="6">
         <v>0.7</v>
       </c>
-      <c r="G120" s="6"/>
-      <c r="H120" s="16"/>
+      <c r="H120" s="15"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
@@ -5973,26 +5902,25 @@
       <c r="M120" s="3"/>
     </row>
     <row r="121" spans="1:13">
-      <c r="A121" s="9">
+      <c r="A121" s="3">
         <v>503</v>
       </c>
-      <c r="B121" s="9">
-        <v>1</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>301</v>
+      <c r="B121" s="3">
+        <v>1</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>303</v>
       </c>
       <c r="E121" s="6">
         <v>0.8</v>
       </c>
       <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="16"/>
+      <c r="H121" s="15"/>
       <c r="I121" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
@@ -6000,28 +5928,27 @@
       <c r="M121" s="3"/>
     </row>
     <row r="122" spans="1:13">
-      <c r="A122" s="9">
-        <v>504</v>
-      </c>
-      <c r="B122" s="9">
+      <c r="A122" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B122" s="3">
         <v>1</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D122" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="E122" s="23">
+        <v>306</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="E122" s="6">
         <v>0.5</v>
       </c>
-      <c r="F122" s="23">
+      <c r="F122" s="6">
         <v>0.75</v>
       </c>
-      <c r="G122" s="6"/>
-      <c r="H122" s="16"/>
+      <c r="H122" s="15"/>
       <c r="I122" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
@@ -6029,28 +5956,27 @@
       <c r="M122" s="3"/>
     </row>
     <row r="123" spans="1:13">
-      <c r="A123" s="9">
-        <v>505</v>
-      </c>
-      <c r="B123" s="9">
+      <c r="A123" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B123" s="3">
         <v>1</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D123" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="E123" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F123" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="G123" s="6"/>
-      <c r="H123" s="16"/>
+        <v>310</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E123" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F123" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H123" s="15"/>
       <c r="I123" s="3" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
@@ -6058,28 +5984,27 @@
       <c r="M123" s="3"/>
     </row>
     <row r="124" spans="1:13">
-      <c r="A124" s="9">
+      <c r="A124" s="3">
         <v>506</v>
       </c>
-      <c r="B124" s="9">
+      <c r="B124" s="3">
         <v>1</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D124" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="E124" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F124" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="G124" s="6"/>
-      <c r="H124" s="16"/>
+        <v>313</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E124" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F124" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H124" s="15"/>
       <c r="I124" s="3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
@@ -6087,28 +6012,27 @@
       <c r="M124" s="3"/>
     </row>
     <row r="125" spans="1:13">
-      <c r="A125" s="9">
+      <c r="A125" s="3">
         <v>507</v>
       </c>
-      <c r="B125" s="9">
+      <c r="B125" s="3">
         <v>1</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D125" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="E125" s="23">
+        <v>316</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E125" s="6">
         <v>0.7</v>
       </c>
-      <c r="F125" s="23">
+      <c r="F125" s="6">
         <v>0.85</v>
       </c>
-      <c r="G125" s="6"/>
-      <c r="H125" s="16"/>
+      <c r="H125" s="15"/>
       <c r="I125" s="3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
@@ -6116,26 +6040,25 @@
       <c r="M125" s="3"/>
     </row>
     <row r="126" spans="1:13">
-      <c r="A126" s="9">
+      <c r="A126" s="3">
         <v>508</v>
       </c>
-      <c r="B126" s="9">
+      <c r="B126" s="3">
         <v>1</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D126" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="E126" s="23">
+        <v>319</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="E126" s="6">
         <v>0.9</v>
       </c>
-      <c r="F126" s="23"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="16"/>
+      <c r="F126" s="6"/>
+      <c r="H126" s="15"/>
       <c r="I126" s="3" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
@@ -6143,26 +6066,25 @@
       <c r="M126" s="3"/>
     </row>
     <row r="127" spans="1:13">
-      <c r="A127" s="9">
+      <c r="A127" s="3">
         <v>509</v>
       </c>
-      <c r="B127" s="9">
+      <c r="B127" s="3">
         <v>1</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="D127" s="22" t="s">
-        <v>319</v>
-      </c>
-      <c r="E127" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F127" s="23">
-        <v>1</v>
-      </c>
-      <c r="G127" s="6"/>
-      <c r="H127" s="16"/>
+        <v>322</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="E127" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F127" s="6">
+        <v>1</v>
+      </c>
+      <c r="H127" s="15"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
@@ -6170,26 +6092,25 @@
       <c r="M127" s="3"/>
     </row>
     <row r="128" spans="1:13">
-      <c r="A128" s="9">
+      <c r="A128" s="3">
         <v>510</v>
       </c>
-      <c r="B128" s="9">
+      <c r="B128" s="3">
         <v>1</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D128" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="E128" s="23">
+        <v>324</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="E128" s="6">
         <v>0.7</v>
       </c>
-      <c r="F128" s="23"/>
-      <c r="G128" s="6"/>
-      <c r="H128" s="16"/>
+      <c r="F128" s="6"/>
+      <c r="H128" s="15"/>
       <c r="I128" s="3" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
@@ -6197,26 +6118,25 @@
       <c r="M128" s="3"/>
     </row>
     <row r="129" spans="1:13">
-      <c r="A129" s="9">
+      <c r="A129" s="3">
         <v>511</v>
       </c>
-      <c r="B129" s="9">
+      <c r="B129" s="3">
         <v>1</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D129" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="E129" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F129" s="23"/>
-      <c r="G129" s="6"/>
-      <c r="H129" s="16"/>
+        <v>327</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E129" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F129" s="6"/>
+      <c r="H129" s="15"/>
       <c r="I129" s="3" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
@@ -6224,26 +6144,25 @@
       <c r="M129" s="3"/>
     </row>
     <row r="130" spans="1:13">
-      <c r="A130" s="9">
+      <c r="A130" s="3">
         <v>512</v>
       </c>
-      <c r="B130" s="9">
+      <c r="B130" s="3">
         <v>1</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D130" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="E130" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F130" s="23"/>
-      <c r="G130" s="6"/>
-      <c r="H130" s="16"/>
+        <v>330</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E130" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F130" s="6"/>
+      <c r="H130" s="15"/>
       <c r="I130" s="3" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
@@ -6251,26 +6170,25 @@
       <c r="M130" s="3"/>
     </row>
     <row r="131" spans="1:13">
-      <c r="A131" s="9">
-        <v>513</v>
-      </c>
-      <c r="B131" s="9">
+      <c r="A131" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B131" s="3">
         <v>1</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D131" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="E131" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F131" s="23"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="16"/>
+        <v>334</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E131" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F131" s="6"/>
+      <c r="H131" s="15"/>
       <c r="I131" s="3" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
@@ -6278,24 +6196,23 @@
       <c r="M131" s="3"/>
     </row>
     <row r="132" spans="1:13">
-      <c r="A132" s="9">
+      <c r="A132" s="3">
         <v>514</v>
       </c>
-      <c r="B132" s="9">
+      <c r="B132" s="3">
         <v>1</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D132" s="22"/>
-      <c r="E132" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F132" s="23"/>
-      <c r="G132" s="6"/>
-      <c r="H132" s="16"/>
+        <v>337</v>
+      </c>
+      <c r="D132" s="9"/>
+      <c r="E132" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F132" s="6"/>
+      <c r="H132" s="15"/>
       <c r="I132" s="3" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
@@ -6303,26 +6220,25 @@
       <c r="M132" s="3"/>
     </row>
     <row r="133" spans="1:13">
-      <c r="A133" s="9">
+      <c r="A133" s="3">
         <v>515</v>
       </c>
-      <c r="B133" s="9">
+      <c r="B133" s="3">
         <v>1</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D133" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="E133" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F133" s="23"/>
-      <c r="G133" s="6"/>
-      <c r="H133" s="16"/>
+        <v>339</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="E133" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F133" s="6"/>
+      <c r="H133" s="15"/>
       <c r="I133" s="3" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
@@ -6330,26 +6246,25 @@
       <c r="M133" s="3"/>
     </row>
     <row r="134" spans="1:13">
-      <c r="A134" s="9">
-        <v>516</v>
-      </c>
-      <c r="B134" s="9">
+      <c r="A134" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B134" s="3">
         <v>1</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D134" s="22"/>
-      <c r="E134" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F134" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="G134" s="6"/>
-      <c r="H134" s="16"/>
+        <v>343</v>
+      </c>
+      <c r="D134" s="9"/>
+      <c r="E134" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F134" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H134" s="15"/>
       <c r="I134" s="3" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
@@ -6357,28 +6272,27 @@
       <c r="M134" s="3"/>
     </row>
     <row r="135" spans="1:13">
-      <c r="A135" s="9">
+      <c r="A135" s="3">
         <v>517</v>
       </c>
-      <c r="B135" s="9">
+      <c r="B135" s="3">
         <v>1</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D135" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="E135" s="23">
+        <v>345</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="E135" s="6">
         <v>0.4</v>
       </c>
-      <c r="F135" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="G135" s="6"/>
-      <c r="H135" s="16"/>
+      <c r="F135" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H135" s="15"/>
       <c r="I135" s="3" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
@@ -6386,26 +6300,25 @@
       <c r="M135" s="3"/>
     </row>
     <row r="136" spans="1:13">
-      <c r="A136" s="9">
+      <c r="A136" s="3">
         <v>518</v>
       </c>
-      <c r="B136" s="9">
+      <c r="B136" s="3">
         <v>1</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D136" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="E136" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F136" s="23"/>
-      <c r="G136" s="6"/>
-      <c r="H136" s="16"/>
+        <v>348</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="E136" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F136" s="6"/>
+      <c r="H136" s="15"/>
       <c r="I136" s="3" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
@@ -6413,15 +6326,14 @@
       <c r="M136" s="3"/>
     </row>
     <row r="137" spans="2:13">
-      <c r="B137" s="9">
+      <c r="B137" s="3">
         <v>1</v>
       </c>
       <c r="C137" s="3"/>
-      <c r="D137" s="22"/>
-      <c r="E137" s="23"/>
-      <c r="F137" s="23"/>
-      <c r="G137" s="6"/>
-      <c r="H137" s="16"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="H137" s="15"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
@@ -6429,21 +6341,21 @@
       <c r="M137" s="3"/>
     </row>
     <row r="138" s="1" customFormat="1" spans="1:13">
-      <c r="A138" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="B138" s="20"/>
-      <c r="C138" s="20"/>
-      <c r="D138" s="24"/>
-      <c r="E138" s="25"/>
-      <c r="F138" s="25"/>
-      <c r="G138" s="17"/>
-      <c r="H138" s="18"/>
-      <c r="I138" s="20"/>
-      <c r="J138" s="20"/>
-      <c r="K138" s="20"/>
-      <c r="L138" s="20"/>
-      <c r="M138" s="20"/>
+      <c r="A138" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B138" s="10"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="16"/>
+      <c r="H138" s="17"/>
+      <c r="I138" s="10"/>
+      <c r="J138" s="10"/>
+      <c r="K138" s="10"/>
+      <c r="L138" s="10"/>
+      <c r="M138" s="10"/>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="3">
@@ -6453,19 +6365,18 @@
         <v>1</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D139" s="22"/>
-      <c r="E139" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F139" s="23">
+        <v>352</v>
+      </c>
+      <c r="D139" s="9"/>
+      <c r="E139" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F139" s="6">
         <v>0.7</v>
       </c>
-      <c r="G139" s="6"/>
-      <c r="H139" s="16"/>
+      <c r="H139" s="15"/>
       <c r="I139" s="3" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
@@ -6480,21 +6391,20 @@
         <v>1</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="D140" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="E140" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F140" s="23">
+        <v>354</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="E140" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F140" s="6">
         <v>0.85</v>
       </c>
-      <c r="G140" s="6"/>
-      <c r="H140" s="16"/>
+      <c r="H140" s="15"/>
       <c r="I140" s="3" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
@@ -6509,21 +6419,20 @@
         <v>1</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D141" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="E141" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F141" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="G141" s="6"/>
-      <c r="H141" s="16"/>
+        <v>357</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="E141" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F141" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H141" s="15"/>
       <c r="I141" s="3" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
@@ -6538,19 +6447,18 @@
         <v>1</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D142" s="22" t="s">
-        <v>355</v>
-      </c>
-      <c r="E142" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F142" s="23"/>
-      <c r="G142" s="6"/>
-      <c r="H142" s="16"/>
+        <v>360</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E142" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F142" s="6"/>
+      <c r="H142" s="15"/>
       <c r="I142" s="3" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
@@ -6565,21 +6473,20 @@
         <v>1</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D143" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="E143" s="23">
+        <v>363</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="E143" s="6">
         <v>0.4</v>
       </c>
-      <c r="F143" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="G143" s="6"/>
-      <c r="H143" s="16"/>
+      <c r="F143" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H143" s="15"/>
       <c r="I143" s="3" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
@@ -6594,21 +6501,20 @@
         <v>1</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="D144" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="E144" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F144" s="23">
+        <v>366</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E144" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F144" s="6">
         <v>0.9</v>
       </c>
-      <c r="G144" s="6"/>
-      <c r="H144" s="16"/>
+      <c r="H144" s="15"/>
       <c r="I144" s="3" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
@@ -6618,11 +6524,10 @@
     <row r="145" spans="2:13">
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
-      <c r="D145" s="22"/>
-      <c r="E145" s="23"/>
-      <c r="F145" s="23"/>
-      <c r="G145" s="6"/>
-      <c r="H145" s="16"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="H145" s="15"/>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
@@ -6630,21 +6535,21 @@
       <c r="M145" s="3"/>
     </row>
     <row r="146" s="1" customFormat="1" spans="1:13">
-      <c r="A146" s="20" t="s">
-        <v>363</v>
-      </c>
-      <c r="B146" s="20"/>
-      <c r="C146" s="20"/>
-      <c r="D146" s="24"/>
-      <c r="E146" s="25"/>
-      <c r="F146" s="25"/>
-      <c r="G146" s="17"/>
-      <c r="H146" s="18"/>
-      <c r="I146" s="20"/>
-      <c r="J146" s="20"/>
-      <c r="K146" s="20"/>
-      <c r="L146" s="20"/>
-      <c r="M146" s="20"/>
+      <c r="A146" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B146" s="10"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="16"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="16"/>
+      <c r="H146" s="17"/>
+      <c r="I146" s="10"/>
+      <c r="J146" s="10"/>
+      <c r="K146" s="10"/>
+      <c r="L146" s="10"/>
+      <c r="M146" s="10"/>
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="3">
@@ -6654,21 +6559,20 @@
         <v>1</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D147" s="22" t="s">
-        <v>365</v>
-      </c>
-      <c r="E147" s="23">
+        <v>370</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="E147" s="6">
         <v>0.5</v>
       </c>
-      <c r="F147" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="G147" s="6"/>
-      <c r="H147" s="16"/>
+      <c r="F147" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H147" s="15"/>
       <c r="I147" s="3" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
@@ -6683,19 +6587,18 @@
         <v>1</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D148" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="E148" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F148" s="23"/>
-      <c r="G148" s="6"/>
-      <c r="H148" s="16"/>
+        <v>373</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="E148" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F148" s="6"/>
+      <c r="H148" s="15"/>
       <c r="I148" s="3" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
@@ -6705,11 +6608,10 @@
     <row r="149" spans="2:13">
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
-      <c r="D149" s="22"/>
-      <c r="E149" s="23"/>
-      <c r="F149" s="23"/>
-      <c r="G149" s="6"/>
-      <c r="H149" s="16"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="H149" s="15"/>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
@@ -6717,21 +6619,21 @@
       <c r="M149" s="3"/>
     </row>
     <row r="150" s="1" customFormat="1" spans="1:13">
-      <c r="A150" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="B150" s="20"/>
-      <c r="C150" s="20"/>
-      <c r="D150" s="24"/>
-      <c r="E150" s="25"/>
-      <c r="F150" s="25"/>
-      <c r="G150" s="17"/>
-      <c r="H150" s="18"/>
-      <c r="I150" s="20"/>
-      <c r="J150" s="20"/>
-      <c r="K150" s="20"/>
-      <c r="L150" s="20"/>
-      <c r="M150" s="20"/>
+      <c r="A150" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="16"/>
+      <c r="F150" s="16"/>
+      <c r="G150" s="16"/>
+      <c r="H150" s="17"/>
+      <c r="I150" s="10"/>
+      <c r="J150" s="10"/>
+      <c r="K150" s="10"/>
+      <c r="L150" s="10"/>
+      <c r="M150" s="10"/>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="3">
@@ -6741,19 +6643,18 @@
         <v>1</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="D151" s="22"/>
-      <c r="E151" s="23">
+        <v>377</v>
+      </c>
+      <c r="D151" s="9"/>
+      <c r="E151" s="6">
         <v>0.4</v>
       </c>
-      <c r="F151" s="23">
+      <c r="F151" s="6">
         <v>2</v>
       </c>
-      <c r="G151" s="6"/>
-      <c r="H151" s="16"/>
+      <c r="H151" s="15"/>
       <c r="I151" s="3" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
@@ -6768,19 +6669,18 @@
         <v>1</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="D152" s="22"/>
-      <c r="E152" s="23">
+        <v>379</v>
+      </c>
+      <c r="D152" s="9"/>
+      <c r="E152" s="6">
         <v>0.4</v>
       </c>
-      <c r="F152" s="23">
-        <v>1</v>
-      </c>
-      <c r="G152" s="6"/>
-      <c r="H152" s="16"/>
+      <c r="F152" s="6">
+        <v>1</v>
+      </c>
+      <c r="H152" s="15"/>
       <c r="I152" s="3" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
@@ -6795,19 +6695,18 @@
         <v>1</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="D153" s="22" t="s">
-        <v>376</v>
-      </c>
-      <c r="E153" s="23">
+        <v>381</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="E153" s="6">
         <v>0.4</v>
       </c>
-      <c r="F153" s="23"/>
-      <c r="G153" s="6"/>
-      <c r="H153" s="16"/>
+      <c r="F153" s="6"/>
+      <c r="H153" s="15"/>
       <c r="I153" s="3" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
@@ -6822,17 +6721,16 @@
         <v>1</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="D154" s="22"/>
-      <c r="E154" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F154" s="23"/>
-      <c r="G154" s="6"/>
-      <c r="H154" s="16"/>
+        <v>384</v>
+      </c>
+      <c r="D154" s="9"/>
+      <c r="E154" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F154" s="6"/>
+      <c r="H154" s="15"/>
       <c r="I154" s="3" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
@@ -6847,19 +6745,18 @@
         <v>1</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D155" s="22"/>
-      <c r="E155" s="23">
+        <v>386</v>
+      </c>
+      <c r="D155" s="9"/>
+      <c r="E155" s="6">
         <v>0.1</v>
       </c>
-      <c r="F155" s="23">
+      <c r="F155" s="6">
         <v>2</v>
       </c>
-      <c r="G155" s="6"/>
-      <c r="H155" s="16"/>
+      <c r="H155" s="15"/>
       <c r="I155" s="3" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
@@ -6869,11 +6766,10 @@
     <row r="156" spans="2:13">
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
-      <c r="D156" s="22"/>
-      <c r="E156" s="23"/>
-      <c r="F156" s="23"/>
-      <c r="G156" s="6"/>
-      <c r="H156" s="16"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6"/>
+      <c r="H156" s="15"/>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
@@ -6881,21 +6777,21 @@
       <c r="M156" s="3"/>
     </row>
     <row r="157" s="1" customFormat="1" spans="1:13">
-      <c r="A157" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="B157" s="20"/>
-      <c r="C157" s="20"/>
-      <c r="D157" s="24"/>
-      <c r="E157" s="25"/>
-      <c r="F157" s="25"/>
-      <c r="G157" s="17"/>
-      <c r="H157" s="18"/>
-      <c r="I157" s="20"/>
-      <c r="J157" s="20"/>
-      <c r="K157" s="20"/>
-      <c r="L157" s="20"/>
-      <c r="M157" s="20"/>
+      <c r="A157" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B157" s="10"/>
+      <c r="C157" s="10"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="16"/>
+      <c r="F157" s="16"/>
+      <c r="G157" s="16"/>
+      <c r="H157" s="17"/>
+      <c r="I157" s="10"/>
+      <c r="J157" s="10"/>
+      <c r="K157" s="10"/>
+      <c r="L157" s="10"/>
+      <c r="M157" s="10"/>
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="3">
@@ -6905,17 +6801,16 @@
         <v>1</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D158" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="E158" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F158" s="23"/>
-      <c r="G158" s="6"/>
-      <c r="H158" s="16"/>
+        <v>389</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="E158" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F158" s="6"/>
+      <c r="H158" s="15"/>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
@@ -6930,23 +6825,22 @@
         <v>1</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="D159" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="E159" s="23">
+        <v>391</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="E159" s="6">
         <v>0.7</v>
       </c>
-      <c r="F159" s="23">
+      <c r="F159" s="6">
         <v>0.85</v>
       </c>
-      <c r="G159" s="6"/>
-      <c r="H159" s="16">
+      <c r="H159" s="15">
         <v>1</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
@@ -6961,19 +6855,18 @@
         <v>1</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="D160" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="E160" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F160" s="23"/>
-      <c r="G160" s="6"/>
-      <c r="H160" s="16"/>
+        <v>394</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="E160" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F160" s="6"/>
+      <c r="H160" s="15"/>
       <c r="I160" s="3" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
@@ -6988,21 +6881,20 @@
         <v>1</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="D161" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="E161" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F161" s="23"/>
-      <c r="G161" s="6"/>
-      <c r="H161" s="16">
+        <v>397</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E161" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F161" s="6"/>
+      <c r="H161" s="15">
         <v>1</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
@@ -7017,19 +6909,18 @@
         <v>1</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="D162" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="E162" s="23">
+        <v>400</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E162" s="6">
         <v>0.4</v>
       </c>
-      <c r="F162" s="23">
+      <c r="F162" s="6">
         <v>0.7</v>
       </c>
-      <c r="G162" s="6"/>
-      <c r="H162" s="16"/>
+      <c r="H162" s="15"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
@@ -7044,19 +6935,18 @@
         <v>1</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D163" s="22" t="s">
-        <v>397</v>
-      </c>
-      <c r="E163" s="23">
+        <v>402</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="E163" s="6">
         <v>0.4</v>
       </c>
-      <c r="F163" s="23">
+      <c r="F163" s="6">
         <v>0.7</v>
       </c>
-      <c r="G163" s="6"/>
-      <c r="H163" s="16"/>
+      <c r="H163" s="15"/>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
@@ -7071,19 +6961,18 @@
         <v>1</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="D164" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="E164" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F164" s="23">
-        <v>1</v>
-      </c>
-      <c r="G164" s="6"/>
-      <c r="H164" s="16">
+        <v>404</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E164" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F164" s="6">
+        <v>1</v>
+      </c>
+      <c r="H164" s="15">
         <v>1</v>
       </c>
       <c r="I164" s="3"/>
@@ -7100,19 +6989,18 @@
         <v>1</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="D165" s="22" t="s">
-        <v>401</v>
-      </c>
-      <c r="E165" s="23">
+        <v>406</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="E165" s="6">
         <v>0.5</v>
       </c>
-      <c r="F165" s="23">
+      <c r="F165" s="6">
         <v>0.7</v>
       </c>
-      <c r="G165" s="6"/>
-      <c r="H165" s="16"/>
+      <c r="H165" s="15"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
@@ -7127,19 +7015,18 @@
         <v>1</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D166" s="22" t="s">
-        <v>403</v>
-      </c>
-      <c r="E166" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F166" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="G166" s="6"/>
-      <c r="H166" s="16"/>
+        <v>408</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="E166" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F166" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H166" s="15"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
@@ -7154,19 +7041,18 @@
         <v>1</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="D167" s="22" t="s">
-        <v>405</v>
-      </c>
-      <c r="E167" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F167" s="23"/>
-      <c r="G167" s="6"/>
-      <c r="H167" s="16"/>
+        <v>410</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="E167" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F167" s="6"/>
+      <c r="H167" s="15"/>
       <c r="I167" s="3" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
@@ -7181,17 +7067,16 @@
         <v>1</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="D168" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="E168" s="23">
+        <v>413</v>
+      </c>
+      <c r="D168" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="E168" s="6">
         <v>0.9</v>
       </c>
-      <c r="F168" s="23"/>
-      <c r="G168" s="6"/>
-      <c r="H168" s="16"/>
+      <c r="F168" s="6"/>
+      <c r="H168" s="15"/>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
@@ -7206,21 +7091,20 @@
         <v>1</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="D169" s="22" t="s">
-        <v>410</v>
-      </c>
-      <c r="E169" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F169" s="23"/>
-      <c r="G169" s="6"/>
-      <c r="H169" s="16">
+        <v>415</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="E169" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F169" s="6"/>
+      <c r="H169" s="15">
         <v>1</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
@@ -7235,17 +7119,16 @@
         <v>1</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="D170" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="E170" s="23">
+        <v>418</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="E170" s="6">
         <v>0.5</v>
       </c>
-      <c r="F170" s="23"/>
-      <c r="G170" s="6"/>
-      <c r="H170" s="16"/>
+      <c r="F170" s="6"/>
+      <c r="H170" s="15"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
@@ -7260,17 +7143,16 @@
         <v>1</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="D171" s="22" t="s">
-        <v>415</v>
-      </c>
-      <c r="E171" s="23">
+        <v>420</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="E171" s="6">
         <v>0.5</v>
       </c>
-      <c r="F171" s="23"/>
-      <c r="G171" s="6"/>
-      <c r="H171" s="16"/>
+      <c r="F171" s="6"/>
+      <c r="H171" s="15"/>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
@@ -7285,17 +7167,16 @@
         <v>1</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="D172" s="22" t="s">
-        <v>417</v>
-      </c>
-      <c r="E172" s="23">
+        <v>422</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="E172" s="6">
         <v>0.9</v>
       </c>
-      <c r="F172" s="23"/>
-      <c r="G172" s="6"/>
-      <c r="H172" s="16">
+      <c r="F172" s="6"/>
+      <c r="H172" s="15">
         <v>1</v>
       </c>
       <c r="I172" s="3"/>
@@ -7312,19 +7193,18 @@
         <v>1</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="D173" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="E173" s="23">
+        <v>424</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="E173" s="6">
         <v>0.9</v>
       </c>
-      <c r="F173" s="23"/>
-      <c r="G173" s="6"/>
-      <c r="H173" s="16"/>
+      <c r="F173" s="6"/>
+      <c r="H173" s="15"/>
       <c r="I173" s="3" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
@@ -7339,19 +7219,18 @@
         <v>1</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="D174" s="22" t="s">
-        <v>422</v>
-      </c>
-      <c r="E174" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F174" s="23"/>
-      <c r="G174" s="6"/>
-      <c r="H174" s="16"/>
+        <v>427</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="E174" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F174" s="6"/>
+      <c r="H174" s="15"/>
       <c r="I174" s="3" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
@@ -7366,19 +7245,18 @@
         <v>1</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="D175" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="E175" s="23">
+        <v>430</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="E175" s="6">
         <v>0.9</v>
       </c>
-      <c r="F175" s="23"/>
-      <c r="G175" s="6"/>
-      <c r="H175" s="16"/>
+      <c r="F175" s="6"/>
+      <c r="H175" s="15"/>
       <c r="I175" s="3" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
@@ -7393,21 +7271,20 @@
         <v>1</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D176" s="22" t="s">
-        <v>428</v>
-      </c>
-      <c r="E176" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F176" s="23">
+        <v>433</v>
+      </c>
+      <c r="D176" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="E176" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F176" s="6">
         <v>0.9</v>
       </c>
-      <c r="G176" s="6"/>
-      <c r="H176" s="16"/>
+      <c r="H176" s="15"/>
       <c r="I176" s="3" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
@@ -7422,21 +7299,20 @@
         <v>1</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="D177" s="22" t="s">
-        <v>431</v>
-      </c>
-      <c r="E177" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F177" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="G177" s="6"/>
-      <c r="H177" s="16"/>
+        <v>436</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E177" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F177" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H177" s="15"/>
       <c r="I177" s="3" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
@@ -7451,21 +7327,20 @@
         <v>1</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="D178" s="22" t="s">
-        <v>434</v>
-      </c>
-      <c r="E178" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F178" s="23"/>
-      <c r="G178" s="6"/>
-      <c r="H178" s="16">
+        <v>439</v>
+      </c>
+      <c r="D178" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="E178" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F178" s="6"/>
+      <c r="H178" s="15">
         <v>1</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
@@ -7480,21 +7355,20 @@
         <v>1</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="D179" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="E179" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F179" s="23">
+        <v>442</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="E179" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F179" s="6">
         <v>0.9</v>
       </c>
-      <c r="G179" s="6"/>
-      <c r="H179" s="16"/>
+      <c r="H179" s="15"/>
       <c r="I179" s="3" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
@@ -7509,19 +7383,18 @@
         <v>1</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="D180" s="22" t="s">
-        <v>439</v>
-      </c>
-      <c r="E180" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F180" s="23">
+        <v>442</v>
+      </c>
+      <c r="D180" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="E180" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F180" s="6">
         <v>0.9</v>
       </c>
-      <c r="G180" s="6"/>
-      <c r="H180" s="16"/>
+      <c r="H180" s="15"/>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
@@ -7536,21 +7409,20 @@
         <v>1</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="D181" s="22" t="s">
-        <v>441</v>
-      </c>
-      <c r="E181" s="23">
+        <v>446</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="E181" s="6">
         <v>0.4</v>
       </c>
-      <c r="F181" s="23">
+      <c r="F181" s="6">
         <v>0.9</v>
       </c>
-      <c r="G181" s="6"/>
-      <c r="H181" s="16"/>
+      <c r="H181" s="15"/>
       <c r="I181" s="3" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
@@ -7565,19 +7437,18 @@
         <v>1</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="D182" s="22" t="s">
-        <v>443</v>
-      </c>
-      <c r="E182" s="23">
+        <v>446</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="E182" s="6">
         <v>0.4</v>
       </c>
-      <c r="F182" s="23">
+      <c r="F182" s="6">
         <v>0.9</v>
       </c>
-      <c r="G182" s="6"/>
-      <c r="H182" s="16"/>
+      <c r="H182" s="15"/>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
@@ -7592,19 +7463,18 @@
         <v>1</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D183" s="22" t="s">
-        <v>445</v>
-      </c>
-      <c r="E183" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F183" s="23"/>
-      <c r="G183" s="6"/>
-      <c r="H183" s="16"/>
+        <v>450</v>
+      </c>
+      <c r="D183" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="E183" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F183" s="6"/>
+      <c r="H183" s="15"/>
       <c r="I183" s="3" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
@@ -7619,19 +7489,18 @@
         <v>1</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="D184" s="22" t="s">
-        <v>448</v>
-      </c>
-      <c r="E184" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F184" s="23"/>
-      <c r="G184" s="6"/>
-      <c r="H184" s="16"/>
+        <v>453</v>
+      </c>
+      <c r="D184" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="E184" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F184" s="6"/>
+      <c r="H184" s="15"/>
       <c r="I184" s="3" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
@@ -7646,19 +7515,18 @@
         <v>1</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D185" s="22" t="s">
-        <v>451</v>
-      </c>
-      <c r="E185" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F185" s="23"/>
-      <c r="G185" s="6"/>
-      <c r="H185" s="16"/>
+        <v>456</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="E185" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F185" s="6"/>
+      <c r="H185" s="15"/>
       <c r="I185" s="3" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="J185" s="3"/>
       <c r="K185" s="3"/>
@@ -7673,21 +7541,20 @@
         <v>1</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="D186" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="E186" s="23">
+        <v>459</v>
+      </c>
+      <c r="D186" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="E186" s="6">
         <v>0.9</v>
       </c>
-      <c r="F186" s="23"/>
-      <c r="G186" s="6"/>
-      <c r="H186" s="16">
+      <c r="F186" s="6"/>
+      <c r="H186" s="15">
         <v>1</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="J186" s="3"/>
       <c r="K186" s="3"/>
@@ -7702,19 +7569,18 @@
         <v>1</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="D187" s="22" t="s">
-        <v>457</v>
-      </c>
-      <c r="E187" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F187" s="23"/>
-      <c r="G187" s="6"/>
-      <c r="H187" s="16"/>
+        <v>462</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="E187" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F187" s="6"/>
+      <c r="H187" s="15"/>
       <c r="I187" s="3" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
@@ -7729,17 +7595,16 @@
         <v>1</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="D188" s="22" t="s">
-        <v>460</v>
-      </c>
-      <c r="E188" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F188" s="23"/>
-      <c r="G188" s="6"/>
-      <c r="H188" s="16"/>
+        <v>465</v>
+      </c>
+      <c r="D188" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="E188" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F188" s="6"/>
+      <c r="H188" s="15"/>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
@@ -7754,19 +7619,18 @@
         <v>1</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="D189" s="22" t="s">
-        <v>462</v>
-      </c>
-      <c r="E189" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F189" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="G189" s="6"/>
-      <c r="H189" s="16"/>
+        <v>467</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="E189" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F189" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H189" s="15"/>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
@@ -7781,17 +7645,16 @@
         <v>1</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="D190" s="22" t="s">
-        <v>464</v>
-      </c>
-      <c r="E190" s="23">
+        <v>469</v>
+      </c>
+      <c r="D190" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="E190" s="6">
         <v>0.7</v>
       </c>
-      <c r="F190" s="23"/>
-      <c r="G190" s="6"/>
-      <c r="H190" s="16"/>
+      <c r="F190" s="6"/>
+      <c r="H190" s="15"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
       <c r="K190" s="3"/>
@@ -7806,17 +7669,16 @@
         <v>1</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="D191" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="E191" s="23"/>
-      <c r="F191" s="23"/>
-      <c r="G191" s="6"/>
-      <c r="H191" s="16"/>
+        <v>471</v>
+      </c>
+      <c r="D191" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6"/>
+      <c r="H191" s="15"/>
       <c r="I191" s="3" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
@@ -7831,19 +7693,18 @@
         <v>1</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="D192" s="22" t="s">
-        <v>469</v>
-      </c>
-      <c r="E192" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F192" s="23"/>
-      <c r="G192" s="6"/>
-      <c r="H192" s="16"/>
+        <v>474</v>
+      </c>
+      <c r="D192" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="E192" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F192" s="6"/>
+      <c r="H192" s="15"/>
       <c r="I192" s="3" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
@@ -7853,11 +7714,10 @@
     <row r="193" spans="2:13">
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
-      <c r="D193" s="22"/>
-      <c r="E193" s="23"/>
-      <c r="F193" s="23"/>
-      <c r="G193" s="6"/>
-      <c r="H193" s="16"/>
+      <c r="D193" s="9"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+      <c r="H193" s="15"/>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
@@ -7865,21 +7725,21 @@
       <c r="M193" s="3"/>
     </row>
     <row r="194" s="1" customFormat="1" spans="1:13">
-      <c r="A194" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="B194" s="20"/>
-      <c r="C194" s="20"/>
-      <c r="D194" s="24"/>
-      <c r="E194" s="25"/>
-      <c r="F194" s="25"/>
-      <c r="G194" s="17"/>
-      <c r="H194" s="18"/>
-      <c r="I194" s="20"/>
-      <c r="J194" s="20"/>
-      <c r="K194" s="20"/>
-      <c r="L194" s="20"/>
-      <c r="M194" s="20"/>
+      <c r="A194" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B194" s="10"/>
+      <c r="C194" s="10"/>
+      <c r="D194" s="11"/>
+      <c r="E194" s="16"/>
+      <c r="F194" s="16"/>
+      <c r="G194" s="16"/>
+      <c r="H194" s="17"/>
+      <c r="I194" s="10"/>
+      <c r="J194" s="10"/>
+      <c r="K194" s="10"/>
+      <c r="L194" s="10"/>
+      <c r="M194" s="10"/>
     </row>
     <row r="195" spans="1:13">
       <c r="A195" s="3">
@@ -7889,17 +7749,16 @@
         <v>2</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="D195" s="22" t="s">
-        <v>473</v>
-      </c>
-      <c r="E195" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F195" s="23"/>
-      <c r="G195" s="6"/>
-      <c r="H195" s="16"/>
+        <v>478</v>
+      </c>
+      <c r="D195" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="E195" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F195" s="6"/>
+      <c r="H195" s="15"/>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
@@ -7914,17 +7773,16 @@
         <v>2</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="D196" s="22" t="s">
-        <v>475</v>
-      </c>
-      <c r="E196" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F196" s="23"/>
-      <c r="G196" s="6"/>
-      <c r="H196" s="16"/>
+        <v>480</v>
+      </c>
+      <c r="D196" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="E196" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F196" s="6"/>
+      <c r="H196" s="15"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
@@ -7939,17 +7797,16 @@
         <v>2</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="D197" s="22" t="s">
-        <v>477</v>
-      </c>
-      <c r="E197" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F197" s="23"/>
-      <c r="G197" s="6"/>
-      <c r="H197" s="16"/>
+        <v>482</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="E197" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F197" s="6"/>
+      <c r="H197" s="15"/>
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
       <c r="K197" s="3"/>
@@ -7964,17 +7821,16 @@
         <v>2</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="D198" s="22" t="s">
-        <v>479</v>
-      </c>
-      <c r="E198" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F198" s="23"/>
-      <c r="G198" s="6"/>
-      <c r="H198" s="16"/>
+        <v>484</v>
+      </c>
+      <c r="D198" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="E198" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F198" s="6"/>
+      <c r="H198" s="15"/>
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
@@ -7989,17 +7845,16 @@
         <v>2</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="D199" s="22" t="s">
-        <v>481</v>
-      </c>
-      <c r="E199" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F199" s="23"/>
-      <c r="G199" s="6"/>
-      <c r="H199" s="16"/>
+        <v>486</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="E199" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F199" s="6"/>
+      <c r="H199" s="15"/>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
       <c r="K199" s="3"/>
@@ -8014,17 +7869,16 @@
         <v>2</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="D200" s="22" t="s">
-        <v>483</v>
-      </c>
-      <c r="E200" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F200" s="23"/>
-      <c r="G200" s="6"/>
-      <c r="H200" s="16"/>
+        <v>488</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="E200" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F200" s="6"/>
+      <c r="H200" s="15"/>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
       <c r="K200" s="3"/>
@@ -8039,19 +7893,18 @@
         <v>2</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="D201" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="E201" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F201" s="23">
+        <v>490</v>
+      </c>
+      <c r="D201" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="E201" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F201" s="6">
         <v>0.75</v>
       </c>
-      <c r="G201" s="6"/>
-      <c r="H201" s="16"/>
+      <c r="H201" s="15"/>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
       <c r="K201" s="3"/>
@@ -8066,19 +7919,18 @@
         <v>2</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="D202" s="22" t="s">
-        <v>487</v>
-      </c>
-      <c r="E202" s="23">
+        <v>492</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="E202" s="6">
         <v>0.46</v>
       </c>
-      <c r="F202" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="G202" s="6"/>
-      <c r="H202" s="16"/>
+      <c r="F202" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="H202" s="15"/>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
       <c r="K202" s="3"/>
@@ -8093,17 +7945,16 @@
         <v>2</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="D203" s="22" t="s">
-        <v>489</v>
-      </c>
-      <c r="E203" s="23">
+        <v>494</v>
+      </c>
+      <c r="D203" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="E203" s="6">
         <v>0.85</v>
       </c>
-      <c r="F203" s="23"/>
-      <c r="G203" s="6"/>
-      <c r="H203" s="16"/>
+      <c r="F203" s="6"/>
+      <c r="H203" s="15"/>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
@@ -8118,17 +7969,16 @@
         <v>2</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="D204" s="22" t="s">
-        <v>491</v>
-      </c>
-      <c r="E204" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F204" s="23"/>
-      <c r="G204" s="6"/>
-      <c r="H204" s="16"/>
+        <v>496</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="E204" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F204" s="6"/>
+      <c r="H204" s="15"/>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
@@ -8143,21 +7993,20 @@
         <v>2</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="D205" s="22" t="s">
-        <v>493</v>
-      </c>
-      <c r="E205" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F205" s="23">
+        <v>498</v>
+      </c>
+      <c r="D205" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="E205" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F205" s="6">
         <v>0.9</v>
       </c>
-      <c r="G205" s="6"/>
-      <c r="H205" s="16"/>
+      <c r="H205" s="15"/>
       <c r="I205" s="3" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
@@ -8172,19 +8021,18 @@
         <v>2</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="D206" s="22" t="s">
-        <v>495</v>
-      </c>
-      <c r="E206" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F206" s="23">
+        <v>498</v>
+      </c>
+      <c r="D206" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="E206" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F206" s="6">
         <v>0.9</v>
       </c>
-      <c r="G206" s="6"/>
-      <c r="H206" s="16"/>
+      <c r="H206" s="15"/>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
       <c r="K206" s="3"/>
@@ -8199,19 +8047,18 @@
         <v>2</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="D207" s="22" t="s">
-        <v>496</v>
-      </c>
-      <c r="E207" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F207" s="23">
+        <v>498</v>
+      </c>
+      <c r="D207" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="E207" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F207" s="6">
         <v>0.9</v>
       </c>
-      <c r="G207" s="6"/>
-      <c r="H207" s="16"/>
+      <c r="H207" s="15"/>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
       <c r="K207" s="3"/>
@@ -8221,11 +8068,10 @@
     <row r="208" spans="2:13">
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
-      <c r="D208" s="22"/>
-      <c r="E208" s="23"/>
-      <c r="F208" s="23"/>
-      <c r="G208" s="6"/>
-      <c r="H208" s="16"/>
+      <c r="D208" s="9"/>
+      <c r="E208" s="6"/>
+      <c r="F208" s="6"/>
+      <c r="H208" s="15"/>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
@@ -8233,21 +8079,21 @@
       <c r="M208" s="3"/>
     </row>
     <row r="209" s="1" customFormat="1" spans="1:13">
-      <c r="A209" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="B209" s="20"/>
-      <c r="C209" s="20"/>
-      <c r="D209" s="24"/>
-      <c r="E209" s="25"/>
-      <c r="F209" s="25"/>
-      <c r="G209" s="17"/>
-      <c r="H209" s="18"/>
-      <c r="I209" s="20"/>
-      <c r="J209" s="20"/>
-      <c r="K209" s="20"/>
-      <c r="L209" s="20"/>
-      <c r="M209" s="20"/>
+      <c r="A209" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B209" s="10"/>
+      <c r="C209" s="10"/>
+      <c r="D209" s="11"/>
+      <c r="E209" s="16"/>
+      <c r="F209" s="16"/>
+      <c r="G209" s="16"/>
+      <c r="H209" s="17"/>
+      <c r="I209" s="10"/>
+      <c r="J209" s="10"/>
+      <c r="K209" s="10"/>
+      <c r="L209" s="10"/>
+      <c r="M209" s="10"/>
     </row>
     <row r="210" spans="1:13">
       <c r="A210" s="3">
@@ -8257,19 +8103,18 @@
         <v>2</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="D210" s="22" t="s">
-        <v>498</v>
-      </c>
-      <c r="E210" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F210" s="23"/>
-      <c r="G210" s="6"/>
-      <c r="H210" s="16"/>
+        <v>503</v>
+      </c>
+      <c r="D210" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="E210" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F210" s="6"/>
+      <c r="H210" s="15"/>
       <c r="I210" s="3" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="J210" s="3"/>
       <c r="K210" s="3"/>
@@ -8277,28 +8122,27 @@
       <c r="M210" s="3"/>
     </row>
     <row r="211" spans="1:13">
-      <c r="A211" s="3">
-        <v>202</v>
+      <c r="A211" s="3" t="s">
+        <v>506</v>
       </c>
       <c r="B211" s="3">
         <v>2</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="D211" s="22" t="s">
-        <v>501</v>
-      </c>
-      <c r="E211" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F211" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="G211" s="6"/>
-      <c r="H211" s="16"/>
+        <v>507</v>
+      </c>
+      <c r="D211" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="E211" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F211" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H211" s="15"/>
       <c r="I211" s="3" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="J211" s="3"/>
       <c r="K211" s="3"/>
@@ -8306,26 +8150,25 @@
       <c r="M211" s="3"/>
     </row>
     <row r="212" spans="1:13">
-      <c r="A212" s="3">
-        <v>203</v>
+      <c r="A212" s="3" t="s">
+        <v>510</v>
       </c>
       <c r="B212" s="3">
         <v>2</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="D212" s="22" t="s">
-        <v>503</v>
-      </c>
-      <c r="E212" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F212" s="23"/>
-      <c r="G212" s="6"/>
-      <c r="H212" s="16"/>
+        <v>511</v>
+      </c>
+      <c r="D212" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="E212" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F212" s="6"/>
+      <c r="H212" s="15"/>
       <c r="I212" s="3" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="J212" s="3"/>
       <c r="K212" s="3"/>
@@ -8333,21 +8176,21 @@
       <c r="M212" s="3"/>
     </row>
     <row r="213" s="1" customFormat="1" spans="1:13">
-      <c r="A213" s="20" t="s">
-        <v>505</v>
-      </c>
-      <c r="B213" s="20"/>
-      <c r="C213" s="20"/>
-      <c r="D213" s="24"/>
-      <c r="E213" s="25"/>
-      <c r="F213" s="25"/>
-      <c r="G213" s="17"/>
-      <c r="H213" s="18"/>
-      <c r="I213" s="20"/>
-      <c r="J213" s="20"/>
-      <c r="K213" s="20"/>
-      <c r="L213" s="20"/>
-      <c r="M213" s="20"/>
+      <c r="A213" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="B213" s="10"/>
+      <c r="C213" s="10"/>
+      <c r="D213" s="11"/>
+      <c r="E213" s="16"/>
+      <c r="F213" s="16"/>
+      <c r="G213" s="16"/>
+      <c r="H213" s="17"/>
+      <c r="I213" s="10"/>
+      <c r="J213" s="10"/>
+      <c r="K213" s="10"/>
+      <c r="L213" s="10"/>
+      <c r="M213" s="10"/>
     </row>
     <row r="214" spans="1:13">
       <c r="A214" s="3">
@@ -8357,19 +8200,18 @@
         <v>2</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="D214" s="22" t="s">
-        <v>507</v>
-      </c>
-      <c r="E214" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F214" s="23"/>
-      <c r="G214" s="6"/>
-      <c r="H214" s="16"/>
+        <v>514</v>
+      </c>
+      <c r="D214" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="E214" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F214" s="6"/>
+      <c r="H214" s="15"/>
       <c r="I214" s="3" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="J214" s="3"/>
       <c r="K214" s="3"/>
@@ -8384,22 +8226,21 @@
         <v>2</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="D215" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="E215" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F215" s="23"/>
-      <c r="G215" s="6"/>
-      <c r="H215" s="16"/>
+        <v>517</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="E215" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F215" s="6"/>
+      <c r="H215" s="15"/>
       <c r="I215" s="3" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="K215" s="3"/>
       <c r="L215" s="3"/>
@@ -8413,45 +8254,44 @@
         <v>2</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="D216" s="22" t="s">
-        <v>514</v>
-      </c>
-      <c r="E216" s="23">
+        <v>521</v>
+      </c>
+      <c r="D216" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="E216" s="6">
         <v>0.5</v>
       </c>
-      <c r="F216" s="23">
+      <c r="F216" s="6">
         <v>0.7</v>
       </c>
-      <c r="G216" s="6"/>
-      <c r="H216" s="16"/>
+      <c r="H216" s="15"/>
       <c r="I216" s="3" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="K216" s="3"/>
       <c r="L216" s="3"/>
       <c r="M216" s="3"/>
     </row>
     <row r="217" s="1" customFormat="1" spans="1:13">
-      <c r="A217" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="B217" s="20"/>
-      <c r="C217" s="20"/>
-      <c r="D217" s="24"/>
-      <c r="E217" s="25"/>
-      <c r="F217" s="25"/>
-      <c r="G217" s="17"/>
-      <c r="H217" s="18"/>
-      <c r="I217" s="20"/>
-      <c r="J217" s="20"/>
-      <c r="K217" s="20"/>
-      <c r="L217" s="20"/>
-      <c r="M217" s="20"/>
+      <c r="A217" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B217" s="10"/>
+      <c r="C217" s="10"/>
+      <c r="D217" s="11"/>
+      <c r="E217" s="16"/>
+      <c r="F217" s="16"/>
+      <c r="G217" s="16"/>
+      <c r="H217" s="17"/>
+      <c r="I217" s="10"/>
+      <c r="J217" s="10"/>
+      <c r="K217" s="10"/>
+      <c r="L217" s="10"/>
+      <c r="M217" s="10"/>
     </row>
     <row r="218" spans="1:13">
       <c r="A218" s="3">
@@ -8461,19 +8301,18 @@
         <v>2</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="D218" s="22" t="s">
-        <v>518</v>
-      </c>
-      <c r="E218" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F218" s="23"/>
-      <c r="G218" s="6"/>
-      <c r="H218" s="16"/>
+        <v>525</v>
+      </c>
+      <c r="D218" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="E218" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F218" s="6"/>
+      <c r="H218" s="15"/>
       <c r="I218" s="3" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="J218" s="3"/>
       <c r="K218" s="3"/>
@@ -8488,17 +8327,16 @@
         <v>2</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="D219" s="22"/>
-      <c r="E219" s="23">
+        <v>528</v>
+      </c>
+      <c r="D219" s="9"/>
+      <c r="E219" s="6">
         <v>0.4</v>
       </c>
-      <c r="F219" s="23"/>
-      <c r="G219" s="6"/>
-      <c r="H219" s="16"/>
+      <c r="F219" s="6"/>
+      <c r="H219" s="15"/>
       <c r="I219" s="3" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="J219" s="3"/>
       <c r="K219" s="3"/>
@@ -8506,21 +8344,21 @@
       <c r="M219" s="3"/>
     </row>
     <row r="220" s="1" customFormat="1" spans="1:13">
-      <c r="A220" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="B220" s="20"/>
-      <c r="C220" s="20"/>
-      <c r="D220" s="24"/>
-      <c r="E220" s="25"/>
-      <c r="F220" s="25"/>
-      <c r="G220" s="17"/>
-      <c r="H220" s="18"/>
-      <c r="I220" s="20"/>
-      <c r="J220" s="20"/>
-      <c r="K220" s="20"/>
-      <c r="L220" s="20"/>
-      <c r="M220" s="20"/>
+      <c r="A220" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="B220" s="10"/>
+      <c r="C220" s="10"/>
+      <c r="D220" s="11"/>
+      <c r="E220" s="16"/>
+      <c r="F220" s="16"/>
+      <c r="G220" s="16"/>
+      <c r="H220" s="17"/>
+      <c r="I220" s="10"/>
+      <c r="J220" s="10"/>
+      <c r="K220" s="10"/>
+      <c r="L220" s="10"/>
+      <c r="M220" s="10"/>
     </row>
     <row r="221" spans="1:13">
       <c r="A221" s="3">
@@ -8530,21 +8368,20 @@
         <v>2</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="D221" s="22" t="s">
-        <v>524</v>
-      </c>
-      <c r="E221" s="23">
+        <v>531</v>
+      </c>
+      <c r="D221" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="E221" s="6">
         <v>0.4</v>
       </c>
-      <c r="F221" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="G221" s="6"/>
-      <c r="H221" s="16"/>
+      <c r="F221" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H221" s="15"/>
       <c r="I221" s="3" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="J221" s="3"/>
       <c r="K221" s="3"/>
@@ -8559,21 +8396,20 @@
         <v>2</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="D222" s="22" t="s">
-        <v>527</v>
-      </c>
-      <c r="E222" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F222" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="G222" s="6"/>
-      <c r="H222" s="16"/>
+        <v>534</v>
+      </c>
+      <c r="D222" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="E222" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F222" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H222" s="15"/>
       <c r="I222" s="3" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
@@ -8588,19 +8424,18 @@
         <v>2</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="D223" s="22" t="s">
-        <v>530</v>
-      </c>
-      <c r="E223" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F223" s="23"/>
-      <c r="G223" s="6"/>
-      <c r="H223" s="16"/>
+        <v>537</v>
+      </c>
+      <c r="D223" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="E223" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F223" s="6"/>
+      <c r="H223" s="15"/>
       <c r="I223" s="3" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="J223" s="3"/>
       <c r="K223" s="3"/>
@@ -8615,21 +8450,20 @@
         <v>2</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="D224" s="22" t="s">
-        <v>533</v>
-      </c>
-      <c r="E224" s="23">
+        <v>540</v>
+      </c>
+      <c r="D224" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="E224" s="6">
         <v>0.4</v>
       </c>
-      <c r="F224" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="G224" s="6"/>
-      <c r="H224" s="16"/>
+      <c r="F224" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H224" s="15"/>
       <c r="I224" s="3" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="J224" s="3"/>
       <c r="K224" s="3"/>
@@ -8644,11 +8478,10 @@
         <v>2</v>
       </c>
       <c r="C225" s="3"/>
-      <c r="D225" s="22"/>
-      <c r="E225" s="23"/>
-      <c r="F225" s="23"/>
-      <c r="G225" s="6"/>
-      <c r="H225" s="16"/>
+      <c r="D225" s="9"/>
+      <c r="E225" s="6"/>
+      <c r="F225" s="6"/>
+      <c r="H225" s="15"/>
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
       <c r="K225" s="3"/>
@@ -8656,21 +8489,21 @@
       <c r="M225" s="3"/>
     </row>
     <row r="226" s="1" customFormat="1" spans="1:13">
-      <c r="A226" s="20" t="s">
-        <v>535</v>
-      </c>
-      <c r="B226" s="20"/>
-      <c r="C226" s="20"/>
-      <c r="D226" s="24"/>
-      <c r="E226" s="25"/>
-      <c r="F226" s="25"/>
-      <c r="G226" s="17"/>
-      <c r="H226" s="18"/>
-      <c r="I226" s="20"/>
-      <c r="J226" s="20"/>
-      <c r="K226" s="20"/>
-      <c r="L226" s="20"/>
-      <c r="M226" s="20"/>
+      <c r="A226" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="B226" s="10"/>
+      <c r="C226" s="10"/>
+      <c r="D226" s="11"/>
+      <c r="E226" s="16"/>
+      <c r="F226" s="16"/>
+      <c r="G226" s="16"/>
+      <c r="H226" s="17"/>
+      <c r="I226" s="10"/>
+      <c r="J226" s="10"/>
+      <c r="K226" s="10"/>
+      <c r="L226" s="10"/>
+      <c r="M226" s="10"/>
     </row>
     <row r="227" spans="1:13">
       <c r="A227" s="3">
@@ -8680,21 +8513,20 @@
         <v>2</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="D227" s="22" t="s">
-        <v>537</v>
-      </c>
-      <c r="E227" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F227" s="23">
+        <v>544</v>
+      </c>
+      <c r="D227" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="E227" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F227" s="6">
         <v>0.9</v>
       </c>
-      <c r="G227" s="6"/>
-      <c r="H227" s="16"/>
+      <c r="H227" s="15"/>
       <c r="I227" s="3" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="J227" s="3"/>
       <c r="K227" s="3"/>
@@ -8704,11 +8536,10 @@
     <row r="228" spans="2:13">
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
-      <c r="D228" s="22"/>
-      <c r="E228" s="23"/>
-      <c r="F228" s="23"/>
-      <c r="G228" s="6"/>
-      <c r="H228" s="16"/>
+      <c r="D228" s="9"/>
+      <c r="E228" s="6"/>
+      <c r="F228" s="6"/>
+      <c r="H228" s="15"/>
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
@@ -8716,21 +8547,21 @@
       <c r="M228" s="3"/>
     </row>
     <row r="229" s="1" customFormat="1" spans="1:13">
-      <c r="A229" s="20" t="s">
-        <v>539</v>
-      </c>
-      <c r="B229" s="20"/>
-      <c r="C229" s="20"/>
-      <c r="D229" s="24"/>
-      <c r="E229" s="25"/>
-      <c r="F229" s="25"/>
-      <c r="G229" s="17"/>
-      <c r="H229" s="18"/>
-      <c r="I229" s="20"/>
-      <c r="J229" s="20"/>
-      <c r="K229" s="20"/>
-      <c r="L229" s="20"/>
-      <c r="M229" s="20"/>
+      <c r="A229" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="B229" s="10"/>
+      <c r="C229" s="10"/>
+      <c r="D229" s="11"/>
+      <c r="E229" s="16"/>
+      <c r="F229" s="16"/>
+      <c r="G229" s="16"/>
+      <c r="H229" s="17"/>
+      <c r="I229" s="10"/>
+      <c r="J229" s="10"/>
+      <c r="K229" s="10"/>
+      <c r="L229" s="10"/>
+      <c r="M229" s="10"/>
     </row>
     <row r="230" spans="1:13">
       <c r="A230" s="3">
@@ -8740,17 +8571,16 @@
         <v>3</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="D230" s="22"/>
-      <c r="E230" s="23">
+        <v>548</v>
+      </c>
+      <c r="D230" s="9"/>
+      <c r="E230" s="6">
         <v>0.3</v>
       </c>
-      <c r="F230" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="G230" s="6"/>
-      <c r="H230" s="16"/>
+      <c r="F230" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H230" s="15"/>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
@@ -8765,13 +8595,12 @@
         <v>3</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="D231" s="22"/>
-      <c r="E231" s="23"/>
-      <c r="F231" s="23"/>
-      <c r="G231" s="6"/>
-      <c r="H231" s="16"/>
+        <v>549</v>
+      </c>
+      <c r="D231" s="9"/>
+      <c r="E231" s="6"/>
+      <c r="F231" s="6"/>
+      <c r="H231" s="15"/>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
       <c r="K231" s="3"/>
@@ -8786,19 +8615,18 @@
         <v>3</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="D232" s="22" t="s">
-        <v>543</v>
-      </c>
-      <c r="E232" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F232" s="23">
+        <v>550</v>
+      </c>
+      <c r="D232" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E232" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F232" s="6">
         <v>1.3</v>
       </c>
-      <c r="G232" s="6"/>
-      <c r="H232" s="16"/>
+      <c r="H232" s="15"/>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
       <c r="K232" s="3"/>
@@ -8813,13 +8641,12 @@
         <v>3</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="D233" s="22"/>
-      <c r="E233" s="23"/>
-      <c r="F233" s="23"/>
-      <c r="G233" s="6"/>
-      <c r="H233" s="16"/>
+        <v>552</v>
+      </c>
+      <c r="D233" s="9"/>
+      <c r="E233" s="6"/>
+      <c r="F233" s="6"/>
+      <c r="H233" s="15"/>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
       <c r="K233" s="3"/>
@@ -8834,13 +8661,12 @@
         <v>3</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="D234" s="22"/>
-      <c r="E234" s="23"/>
-      <c r="F234" s="23"/>
-      <c r="G234" s="6"/>
-      <c r="H234" s="16"/>
+        <v>553</v>
+      </c>
+      <c r="D234" s="9"/>
+      <c r="E234" s="6"/>
+      <c r="F234" s="6"/>
+      <c r="H234" s="15"/>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
       <c r="K234" s="3"/>
@@ -8855,13 +8681,12 @@
         <v>3</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="D235" s="22"/>
-      <c r="E235" s="23"/>
-      <c r="F235" s="23"/>
-      <c r="G235" s="6"/>
-      <c r="H235" s="16"/>
+        <v>554</v>
+      </c>
+      <c r="D235" s="9"/>
+      <c r="E235" s="6"/>
+      <c r="F235" s="6"/>
+      <c r="H235" s="15"/>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
       <c r="K235" s="3"/>
@@ -8876,13 +8701,12 @@
         <v>3</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="D236" s="22"/>
-      <c r="E236" s="23"/>
-      <c r="F236" s="23"/>
-      <c r="G236" s="6"/>
-      <c r="H236" s="16"/>
+        <v>555</v>
+      </c>
+      <c r="D236" s="9"/>
+      <c r="E236" s="6"/>
+      <c r="F236" s="6"/>
+      <c r="H236" s="15"/>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
       <c r="K236" s="3"/>
@@ -8892,11 +8716,10 @@
     <row r="237" spans="2:13">
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
-      <c r="D237" s="22"/>
-      <c r="E237" s="23"/>
-      <c r="F237" s="23"/>
-      <c r="G237" s="6"/>
-      <c r="H237" s="16"/>
+      <c r="D237" s="9"/>
+      <c r="E237" s="6"/>
+      <c r="F237" s="6"/>
+      <c r="H237" s="15"/>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
       <c r="K237" s="3"/>

--- a/dist/modelsConfig.xlsx
+++ b/dist/modelsConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="574">
   <si>
     <t>序号，lora唯一标识码，同类型不可重复</t>
   </si>
@@ -178,6 +178,9 @@
     <t>MengX girl_Mix 118533@137910</t>
   </si>
   <si>
+    <t>st</t>
+  </si>
+  <si>
     <t>st louis epoch5</t>
   </si>
   <si>
@@ -202,6 +205,9 @@
     <t>★★★★ 少女前线_闪电</t>
   </si>
   <si>
+    <t>ali</t>
+  </si>
+  <si>
     <t>girl_ali</t>
   </si>
   <si>
@@ -463,6 +469,9 @@
     <t>2girls, apron,naked apron,heart print,ass,</t>
   </si>
   <si>
+    <t>yellowdress</t>
+  </si>
+  <si>
     <t>coatdress</t>
   </si>
   <si>
@@ -481,6 +490,9 @@
     <t>leg wear</t>
   </si>
   <si>
+    <t>siwa_rou</t>
+  </si>
+  <si>
     <t>Nude_pantyhose</t>
   </si>
   <si>
@@ -508,6 +520,9 @@
     <t>★★★ 全身丝袜</t>
   </si>
   <si>
+    <t>siwa_torn</t>
+  </si>
+  <si>
     <t>torn_pantyhose</t>
   </si>
   <si>
@@ -517,6 +532,9 @@
     <t>★★★★ 被撕裂的连裤袜【破损黑丝】torn-pantyhose</t>
   </si>
   <si>
+    <t>xuegao</t>
+  </si>
+  <si>
     <t>white_legwear_2d</t>
   </si>
   <si>
@@ -535,6 +553,9 @@
     <t>GIRL 水润少女 Oil pantyhose</t>
   </si>
   <si>
+    <t>siwa_ass</t>
+  </si>
+  <si>
     <t>PANTYHOSE_3d_secret</t>
   </si>
   <si>
@@ -544,6 +565,9 @@
     <t>★★★★★ 赞</t>
   </si>
   <si>
+    <t>xuegao2</t>
+  </si>
+  <si>
     <t>CrystalfruitV2-000012</t>
   </si>
   <si>
@@ -553,6 +577,9 @@
     <t>★★★ Crystalfruit ——WHITE AND BLACK STOCKING</t>
   </si>
   <si>
+    <t>siwa_oil</t>
+  </si>
+  <si>
     <t>REALOilpantyhose</t>
   </si>
   <si>
@@ -598,6 +625,9 @@
     <t>粉色护士制服 3d</t>
   </si>
   <si>
+    <t>ol</t>
+  </si>
+  <si>
     <t>Sexy_Office_Lady</t>
   </si>
   <si>
@@ -607,6 +637,9 @@
     <t>Sexy Office Lady，有黑丝</t>
   </si>
   <si>
+    <t>nurse1</t>
+  </si>
+  <si>
     <t>nurse_v11</t>
   </si>
   <si>
@@ -616,6 +649,9 @@
     <t>★★★★ nurse_uniform</t>
   </si>
   <si>
+    <t>nurse2</t>
+  </si>
+  <si>
     <t>upskirt_nurse</t>
   </si>
   <si>
@@ -661,6 +697,9 @@
     <t>★★★ 敞开性感的</t>
   </si>
   <si>
+    <t>dudou</t>
+  </si>
+  <si>
     <t>DuDou</t>
   </si>
   <si>
@@ -670,6 +709,9 @@
     <t>肚兜</t>
   </si>
   <si>
+    <t>dundudou</t>
+  </si>
+  <si>
     <t>Dunhuang_apsaras_dudou</t>
   </si>
   <si>
@@ -733,6 +775,9 @@
     <t>(wearing flounce_dress:1.3),</t>
   </si>
   <si>
+    <t>legdress</t>
+  </si>
+  <si>
     <t>leg_split_dress</t>
   </si>
   <si>
@@ -955,6 +1000,9 @@
     <t>★★★★ 冰雪天使 82294@96576</t>
   </si>
   <si>
+    <t>chinesestyle</t>
+  </si>
+  <si>
     <t>Chinese_style</t>
   </si>
   <si>
@@ -1591,6 +1639,9 @@
     <t>https://civitai.com/models/80314/change-a-character-hypnotized-harem-your-waifu-has-been-forced-to-join-a-harem</t>
   </si>
   <si>
+    <t>sinsya</t>
+  </si>
+  <si>
     <t>Sinsya_Concept</t>
   </si>
   <si>
@@ -1598,6 +1649,9 @@
   </si>
   <si>
     <t>辰砂，中国古代风格</t>
+  </si>
+  <si>
+    <t>bg_hal</t>
   </si>
   <si>
     <t>Background halation</t>
@@ -1689,12 +1743,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1705,8 +1759,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1719,24 +1804,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1750,9 +1820,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1760,15 +1829,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1784,35 +1874,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1825,31 +1902,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1870,55 +1924,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1942,6 +1948,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1954,7 +1978,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1966,13 +2062,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1984,73 +2104,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2068,7 +2128,25 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2088,15 +2166,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2107,30 +2176,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2161,6 +2206,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2169,121 +2229,121 @@
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2292,26 +2352,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2327,19 +2387,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2354,19 +2417,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2691,9 +2757,9 @@
   <dimension ref="A1:M237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C201" sqref="C201"/>
+      <selection pane="bottomLeft" activeCell="A125" sqref="$A125:$XFD125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2730,7 +2796,7 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -2762,7 +2828,7 @@
       <c r="G2" s="6">
         <v>0.6</v>
       </c>
-      <c r="H2" s="15"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
@@ -2791,7 +2857,7 @@
       <c r="G3" s="6">
         <v>0.65</v>
       </c>
-      <c r="H3" s="15"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="3" t="s">
         <v>14</v>
       </c>
@@ -2820,7 +2886,7 @@
       <c r="G4" s="6">
         <v>0.8</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="3" t="s">
         <v>16</v>
       </c>
@@ -2851,7 +2917,7 @@
       <c r="G5" s="6">
         <v>0.8</v>
       </c>
-      <c r="H5" s="15"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="3" t="s">
         <v>19</v>
       </c>
@@ -2882,7 +2948,7 @@
       <c r="G6" s="6">
         <v>0.6</v>
       </c>
-      <c r="H6" s="15"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="3" t="s">
         <v>22</v>
       </c>
@@ -2911,7 +2977,7 @@
       <c r="G7" s="6">
         <v>0.6</v>
       </c>
-      <c r="H7" s="15"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="3" t="s">
         <v>24</v>
       </c>
@@ -2942,7 +3008,7 @@
       <c r="G8" s="6">
         <v>0.45</v>
       </c>
-      <c r="H8" s="15"/>
+      <c r="H8" s="17"/>
       <c r="I8" s="3" t="s">
         <v>27</v>
       </c>
@@ -2971,7 +3037,7 @@
       <c r="G9" s="6">
         <v>0.6</v>
       </c>
-      <c r="H9" s="15"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="3" t="s">
         <v>29</v>
       </c>
@@ -3002,7 +3068,7 @@
       <c r="G10" s="6">
         <v>0.6</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="H10" s="17"/>
       <c r="I10" s="3" t="s">
         <v>32</v>
       </c>
@@ -3031,7 +3097,7 @@
       <c r="G11" s="6">
         <v>0.8</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="3" t="s">
         <v>34</v>
       </c>
@@ -3062,7 +3128,7 @@
       <c r="G12" s="6">
         <v>0.6</v>
       </c>
-      <c r="H12" s="15"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="3" t="s">
         <v>37</v>
       </c>
@@ -3072,7 +3138,7 @@
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="3">
@@ -3091,7 +3157,7 @@
       <c r="G13" s="6">
         <v>0.8</v>
       </c>
-      <c r="H13" s="15"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="3" t="s">
         <v>40</v>
       </c>
@@ -3122,7 +3188,7 @@
       <c r="G14" s="6">
         <v>0.6</v>
       </c>
-      <c r="H14" s="15"/>
+      <c r="H14" s="17"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -3149,7 +3215,7 @@
       <c r="G15" s="6">
         <v>0.6</v>
       </c>
-      <c r="H15" s="15"/>
+      <c r="H15" s="17"/>
       <c r="I15" s="3" t="s">
         <v>44</v>
       </c>
@@ -3180,7 +3246,7 @@
       <c r="G16" s="6">
         <v>0.6</v>
       </c>
-      <c r="H16" s="15"/>
+      <c r="H16" s="17"/>
       <c r="I16" s="3" t="s">
         <v>47</v>
       </c>
@@ -3211,7 +3277,7 @@
       <c r="G17" s="6">
         <v>0.6</v>
       </c>
-      <c r="H17" s="15"/>
+      <c r="H17" s="17"/>
       <c r="I17" s="3" t="s">
         <v>50</v>
       </c>
@@ -3221,7 +3287,7 @@
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="3">
@@ -3240,7 +3306,7 @@
       <c r="G18" s="6">
         <v>0.8</v>
       </c>
-      <c r="H18" s="15"/>
+      <c r="H18" s="17"/>
       <c r="I18" s="3" t="s">
         <v>53</v>
       </c>
@@ -3250,32 +3316,32 @@
       <c r="M18" s="3"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:13">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="3">
-        <v>201</v>
+      <c r="A20" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E20" s="6">
         <v>0.6</v>
@@ -3286,9 +3352,9 @@
       <c r="G20" s="6">
         <v>0.8</v>
       </c>
-      <c r="H20" s="15"/>
+      <c r="H20" s="17"/>
       <c r="I20" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -3303,7 +3369,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="6">
@@ -3315,9 +3381,9 @@
       <c r="G21" s="6">
         <v>0.7</v>
       </c>
-      <c r="H21" s="15"/>
+      <c r="H21" s="17"/>
       <c r="I21" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -3332,10 +3398,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E22" s="6">
         <v>0.8</v>
@@ -3346,9 +3412,9 @@
       <c r="G22" s="6">
         <v>0.8</v>
       </c>
-      <c r="H22" s="15"/>
+      <c r="H22" s="17"/>
       <c r="I22" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -3356,17 +3422,17 @@
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="3">
-        <v>204</v>
+      <c r="A23" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E23" s="6">
         <v>0.8</v>
@@ -3377,9 +3443,9 @@
       <c r="G23" s="6">
         <v>0.8</v>
       </c>
-      <c r="H23" s="15"/>
+      <c r="H23" s="17"/>
       <c r="I23" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -3394,10 +3460,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E24" s="6">
         <v>0.6</v>
@@ -3405,9 +3471,9 @@
       <c r="F24" s="6">
         <v>1</v>
       </c>
-      <c r="H24" s="15"/>
+      <c r="H24" s="17"/>
       <c r="I24" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -3422,10 +3488,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E25" s="6">
         <v>0.4</v>
@@ -3436,9 +3502,9 @@
       <c r="G25" s="6">
         <v>0.6</v>
       </c>
-      <c r="H25" s="15"/>
+      <c r="H25" s="17"/>
       <c r="I25" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -3453,7 +3519,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="6">
@@ -3465,9 +3531,9 @@
       <c r="G26" s="6">
         <v>0.6</v>
       </c>
-      <c r="H26" s="15"/>
+      <c r="H26" s="17"/>
       <c r="I26" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -3482,10 +3548,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E27" s="6">
         <v>0.6</v>
@@ -3496,9 +3562,9 @@
       <c r="G27" s="6">
         <v>0.95</v>
       </c>
-      <c r="H27" s="15"/>
+      <c r="H27" s="17"/>
       <c r="I27" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -3513,10 +3579,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E28" s="6">
         <v>0.8</v>
@@ -3527,9 +3593,9 @@
       <c r="G28" s="6">
         <v>0.9</v>
       </c>
-      <c r="H28" s="15"/>
+      <c r="H28" s="17"/>
       <c r="I28" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -3544,10 +3610,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E29" s="6">
         <v>0.6</v>
@@ -3558,9 +3624,9 @@
       <c r="G29" s="6">
         <v>0.6</v>
       </c>
-      <c r="H29" s="15"/>
+      <c r="H29" s="17"/>
       <c r="I29" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -3575,10 +3641,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E30" s="6">
         <v>0.7</v>
@@ -3589,9 +3655,9 @@
       <c r="G30" s="6">
         <v>0.8</v>
       </c>
-      <c r="H30" s="15"/>
+      <c r="H30" s="17"/>
       <c r="I30" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -3606,10 +3672,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E31" s="6">
         <v>0.4</v>
@@ -3620,12 +3686,12 @@
       <c r="G31" s="6">
         <v>0.6</v>
       </c>
-      <c r="H31" s="15"/>
+      <c r="H31" s="17"/>
       <c r="I31" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -3639,18 +3705,18 @@
         <v>1</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6">
         <v>0.8</v>
       </c>
-      <c r="H32" s="15"/>
+      <c r="H32" s="17"/>
       <c r="I32" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -3665,16 +3731,16 @@
         <v>1</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
-      <c r="H33" s="15"/>
+      <c r="H33" s="17"/>
       <c r="I33" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -3689,10 +3755,10 @@
         <v>1</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E34" s="6">
         <v>0.6</v>
@@ -3701,9 +3767,9 @@
       <c r="G34" s="6">
         <v>0.8</v>
       </c>
-      <c r="H34" s="15"/>
+      <c r="H34" s="17"/>
       <c r="I34" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -3718,10 +3784,10 @@
         <v>1</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E35" s="6">
         <v>0.6</v>
@@ -3730,9 +3796,9 @@
       <c r="G35" s="6">
         <v>0.8</v>
       </c>
-      <c r="H35" s="15"/>
+      <c r="H35" s="17"/>
       <c r="I35" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -3747,10 +3813,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E36" s="6">
         <v>0.6</v>
@@ -3759,9 +3825,9 @@
       <c r="G36" s="6">
         <v>0.8</v>
       </c>
-      <c r="H36" s="15"/>
+      <c r="H36" s="17"/>
       <c r="I36" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -3776,10 +3842,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E37" s="6">
         <v>0.6</v>
@@ -3788,9 +3854,9 @@
       <c r="G37" s="6">
         <v>0.8</v>
       </c>
-      <c r="H37" s="15"/>
+      <c r="H37" s="17"/>
       <c r="I37" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -3805,10 +3871,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E38" s="6">
         <v>0.6</v>
@@ -3817,9 +3883,9 @@
       <c r="G38" s="6">
         <v>0.8</v>
       </c>
-      <c r="H38" s="15"/>
+      <c r="H38" s="17"/>
       <c r="I38" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -3834,10 +3900,10 @@
         <v>1</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E39" s="6">
         <v>0.6</v>
@@ -3848,9 +3914,9 @@
       <c r="G39" s="6">
         <v>0.8</v>
       </c>
-      <c r="H39" s="15"/>
+      <c r="H39" s="17"/>
       <c r="I39" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -3865,18 +3931,18 @@
         <v>1</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6">
         <v>0.8</v>
       </c>
-      <c r="H40" s="15"/>
+      <c r="H40" s="17"/>
       <c r="I40" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -3884,21 +3950,21 @@
       <c r="M40" s="3"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:13">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10">
-        <v>1</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11">
+        <v>1</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="3">
@@ -3908,16 +3974,16 @@
         <v>1</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
-      <c r="H42" s="15"/>
+      <c r="H42" s="17"/>
       <c r="I42" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -3932,18 +3998,18 @@
         <v>1</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E43" s="6">
         <v>0.6</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="H43" s="15"/>
+      <c r="H43" s="17"/>
       <c r="I43" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -3958,10 +4024,10 @@
         <v>1</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E44" s="6">
         <v>0.6</v>
@@ -3969,9 +4035,9 @@
       <c r="F44" s="6">
         <v>0.8</v>
       </c>
-      <c r="H44" s="15"/>
+      <c r="H44" s="17"/>
       <c r="I44" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -3986,18 +4052,18 @@
         <v>1</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E45" s="6">
         <v>0.6</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="H45" s="15"/>
+      <c r="H45" s="17"/>
       <c r="I45" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -4012,10 +4078,10 @@
         <v>1</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E46" s="6">
         <v>0.4</v>
@@ -4026,9 +4092,9 @@
       <c r="G46" s="6">
         <v>0.6</v>
       </c>
-      <c r="H46" s="15"/>
+      <c r="H46" s="17"/>
       <c r="I46" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -4043,10 +4109,10 @@
         <v>1</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E47" s="6">
         <v>0.7</v>
@@ -4054,9 +4120,9 @@
       <c r="F47" s="6">
         <v>0.8</v>
       </c>
-      <c r="H47" s="15"/>
+      <c r="H47" s="17"/>
       <c r="I47" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -4071,10 +4137,10 @@
         <v>1</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E48" s="6">
         <v>0.4</v>
@@ -4082,9 +4148,9 @@
       <c r="F48" s="6">
         <v>0.65</v>
       </c>
-      <c r="H48" s="15"/>
+      <c r="H48" s="17"/>
       <c r="I48" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -4099,18 +4165,18 @@
         <v>1</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E49" s="6">
         <v>0.7</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="H49" s="15"/>
+      <c r="H49" s="17"/>
       <c r="I49" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -4125,10 +4191,10 @@
         <v>1</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E50" s="6">
         <v>0.6</v>
@@ -4136,9 +4202,9 @@
       <c r="F50" s="6">
         <v>0.8</v>
       </c>
-      <c r="H50" s="15"/>
+      <c r="H50" s="17"/>
       <c r="I50" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -4153,10 +4219,10 @@
         <v>1</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E51" s="6">
         <v>0.6</v>
@@ -4164,9 +4230,9 @@
       <c r="F51" s="6">
         <v>0.8</v>
       </c>
-      <c r="H51" s="15"/>
+      <c r="H51" s="17"/>
       <c r="I51" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
@@ -4181,16 +4247,16 @@
         <v>1</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
-      <c r="H52" s="15"/>
+      <c r="H52" s="17"/>
       <c r="I52" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -4205,10 +4271,10 @@
         <v>1</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E53" s="6">
         <v>0.6</v>
@@ -4216,9 +4282,9 @@
       <c r="F53" s="6">
         <v>0.75</v>
       </c>
-      <c r="H53" s="15"/>
+      <c r="H53" s="17"/>
       <c r="I53" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
@@ -4233,18 +4299,18 @@
         <v>1</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E54" s="6">
         <v>0.8</v>
       </c>
       <c r="F54" s="6"/>
-      <c r="H54" s="15"/>
+      <c r="H54" s="17"/>
       <c r="I54" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -4259,10 +4325,10 @@
         <v>1</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E55" s="6">
         <v>0.35</v>
@@ -4270,9 +4336,9 @@
       <c r="F55" s="6">
         <v>0.6</v>
       </c>
-      <c r="H55" s="15"/>
+      <c r="H55" s="17"/>
       <c r="I55" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -4280,25 +4346,25 @@
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="3">
-        <v>315</v>
+      <c r="A56" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="B56" s="3">
         <v>1</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E56" s="6">
         <v>0.6</v>
       </c>
       <c r="F56" s="6"/>
-      <c r="H56" s="15"/>
+      <c r="H56" s="17"/>
       <c r="I56" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -4309,58 +4375,58 @@
       <c r="A57" s="3">
         <v>316</v>
       </c>
-      <c r="B57" s="12">
-        <v>1</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="18">
-        <v>0.8</v>
-      </c>
-      <c r="F57" s="18">
-        <v>0.8</v>
-      </c>
-      <c r="G57" s="18"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
+      <c r="B57" s="13">
+        <v>1</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" s="14"/>
+      <c r="E57" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="F57" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="G57" s="20"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:13">
-      <c r="A58" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
+      <c r="A58" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="3">
-        <v>3001</v>
+      <c r="A59" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="B59" s="3">
         <v>1</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E59" s="6">
         <v>0.4</v>
@@ -4368,9 +4434,9 @@
       <c r="F59" s="6">
         <v>0.8</v>
       </c>
-      <c r="H59" s="15"/>
+      <c r="H59" s="17"/>
       <c r="I59" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -4385,10 +4451,10 @@
         <v>1</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E60" s="6">
         <v>0.4</v>
@@ -4396,9 +4462,9 @@
       <c r="F60" s="6">
         <v>0.6</v>
       </c>
-      <c r="H60" s="15"/>
+      <c r="H60" s="17"/>
       <c r="I60" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
@@ -4413,10 +4479,10 @@
         <v>1</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E61" s="6">
         <v>0.6</v>
@@ -4424,9 +4490,9 @@
       <c r="F61" s="6">
         <v>0.8</v>
       </c>
-      <c r="H61" s="15"/>
+      <c r="H61" s="17"/>
       <c r="I61" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
@@ -4434,25 +4500,25 @@
       <c r="M61" s="3"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="3">
-        <v>3004</v>
+      <c r="A62" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="B62" s="3">
         <v>1</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E62" s="6">
         <v>0.7</v>
       </c>
       <c r="F62" s="6"/>
-      <c r="H62" s="15"/>
+      <c r="H62" s="17"/>
       <c r="I62" s="3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
@@ -4460,25 +4526,25 @@
       <c r="M62" s="3"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="3">
-        <v>3005</v>
+      <c r="A63" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="B63" s="3">
         <v>1</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E63" s="6">
         <v>0.8</v>
       </c>
       <c r="F63" s="6"/>
-      <c r="H63" s="15"/>
+      <c r="H63" s="17"/>
       <c r="I63" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -4486,25 +4552,25 @@
       <c r="M63" s="3"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="3">
+      <c r="A64" s="15">
         <v>3006</v>
       </c>
       <c r="B64" s="3">
         <v>1</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E64" s="6">
         <v>0.6</v>
       </c>
       <c r="F64" s="6"/>
-      <c r="H64" s="15"/>
+      <c r="H64" s="17"/>
       <c r="I64" s="3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
@@ -4512,17 +4578,17 @@
       <c r="M64" s="3"/>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="3">
-        <v>3007</v>
+      <c r="A65" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="B65" s="3">
         <v>1</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E65" s="6">
         <v>0.6</v>
@@ -4530,9 +4596,9 @@
       <c r="F65" s="6">
         <v>0.75</v>
       </c>
-      <c r="H65" s="15"/>
+      <c r="H65" s="17"/>
       <c r="I65" s="3" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
@@ -4540,25 +4606,25 @@
       <c r="M65" s="3"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="3">
-        <v>3008</v>
+      <c r="A66" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="B66" s="3">
         <v>1</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E66" s="6">
         <v>0.8</v>
       </c>
       <c r="F66" s="6"/>
-      <c r="H66" s="15"/>
+      <c r="H66" s="17"/>
       <c r="I66" s="3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
@@ -4566,25 +4632,25 @@
       <c r="M66" s="3"/>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="3">
-        <v>3009</v>
+      <c r="A67" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="B67" s="3">
         <v>1</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E67" s="6">
         <v>0.6</v>
       </c>
       <c r="F67" s="6"/>
-      <c r="H67" s="15"/>
+      <c r="H67" s="17"/>
       <c r="I67" s="3" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
@@ -4592,19 +4658,19 @@
       <c r="M67" s="3"/>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:13">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
     </row>
     <row r="69" spans="2:13">
       <c r="B69" s="3"/>
@@ -4612,7 +4678,7 @@
       <c r="D69" s="9"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="H69" s="15"/>
+      <c r="H69" s="17"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
@@ -4627,10 +4693,10 @@
         <v>1</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E70" s="6">
         <v>0.6</v>
@@ -4638,9 +4704,9 @@
       <c r="F70" s="6">
         <v>0.8</v>
       </c>
-      <c r="H70" s="15"/>
+      <c r="H70" s="17"/>
       <c r="I70" s="3" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
@@ -4655,10 +4721,10 @@
         <v>1</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E71" s="6">
         <v>0.6</v>
@@ -4666,9 +4732,9 @@
       <c r="F71" s="6">
         <v>0.8</v>
       </c>
-      <c r="H71" s="15"/>
+      <c r="H71" s="17"/>
       <c r="I71" s="3" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
@@ -4683,7 +4749,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="6">
@@ -4692,7 +4758,7 @@
       <c r="F72" s="6">
         <v>0.8</v>
       </c>
-      <c r="H72" s="15"/>
+      <c r="H72" s="17"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
@@ -4707,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="6">
@@ -4716,9 +4782,9 @@
       <c r="F73" s="6">
         <v>0.8</v>
       </c>
-      <c r="H73" s="15"/>
+      <c r="H73" s="17"/>
       <c r="I73" s="3" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
@@ -4726,21 +4792,21 @@
       <c r="M73" s="3"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="1:13">
-      <c r="A74" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
+      <c r="A74" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="3">
@@ -4750,10 +4816,10 @@
         <v>1</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="E75" s="6">
         <v>0.6</v>
@@ -4761,9 +4827,9 @@
       <c r="F75" s="6">
         <v>0.85</v>
       </c>
-      <c r="H75" s="15"/>
+      <c r="H75" s="17"/>
       <c r="I75" s="3" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
@@ -4771,17 +4837,17 @@
       <c r="M75" s="3"/>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="3">
-        <v>3202</v>
+      <c r="A76" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="B76" s="3">
         <v>1</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E76" s="6">
         <v>0.3</v>
@@ -4789,9 +4855,9 @@
       <c r="F76" s="6">
         <v>0.7</v>
       </c>
-      <c r="H76" s="15"/>
+      <c r="H76" s="17"/>
       <c r="I76" s="3" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
@@ -4799,17 +4865,17 @@
       <c r="M76" s="3"/>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="3">
-        <v>3203</v>
+      <c r="A77" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="B77" s="3">
         <v>1</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E77" s="6">
         <v>0.4</v>
@@ -4817,9 +4883,9 @@
       <c r="F77" s="6">
         <v>0.7</v>
       </c>
-      <c r="H77" s="15"/>
+      <c r="H77" s="17"/>
       <c r="I77" s="3" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -4827,17 +4893,17 @@
       <c r="M77" s="3"/>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="3">
-        <v>3204</v>
+      <c r="A78" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="B78" s="3">
         <v>1</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E78" s="6">
         <v>0.4</v>
@@ -4845,9 +4911,9 @@
       <c r="F78" s="6">
         <v>0.9</v>
       </c>
-      <c r="H78" s="15"/>
+      <c r="H78" s="17"/>
       <c r="I78" s="3" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
@@ -4862,10 +4928,10 @@
         <v>1</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="E79" s="6">
         <v>0.7</v>
@@ -4873,9 +4939,9 @@
       <c r="F79" s="6">
         <v>0.9</v>
       </c>
-      <c r="H79" s="15"/>
+      <c r="H79" s="17"/>
       <c r="I79" s="3" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
@@ -4890,10 +4956,10 @@
         <v>1</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="E80" s="6">
         <v>0.6</v>
@@ -4901,9 +4967,9 @@
       <c r="F80" s="6">
         <v>0.85</v>
       </c>
-      <c r="H80" s="15"/>
+      <c r="H80" s="17"/>
       <c r="I80" s="3" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
@@ -4911,21 +4977,21 @@
       <c r="M80" s="3"/>
     </row>
     <row r="81" s="1" customFormat="1" spans="1:13">
-      <c r="A81" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
-      <c r="L81" s="10"/>
-      <c r="M81" s="10"/>
+      <c r="A81" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="3">
@@ -4935,10 +5001,10 @@
         <v>1</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="E82" s="6">
         <v>0.4</v>
@@ -4946,7 +5012,7 @@
       <c r="F82" s="6">
         <v>0.65</v>
       </c>
-      <c r="H82" s="15"/>
+      <c r="H82" s="17"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
@@ -4961,18 +5027,18 @@
         <v>1</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E83" s="6">
         <v>0.8</v>
       </c>
       <c r="F83" s="6"/>
-      <c r="H83" s="15"/>
+      <c r="H83" s="17"/>
       <c r="I83" s="3" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
@@ -4980,17 +5046,17 @@
       <c r="M83" s="3"/>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="3">
-        <v>3303</v>
+      <c r="A84" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="B84" s="3">
         <v>1</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="E84" s="6">
         <v>0.6</v>
@@ -4998,9 +5064,9 @@
       <c r="F84" s="6">
         <v>0.8</v>
       </c>
-      <c r="H84" s="15"/>
+      <c r="H84" s="17"/>
       <c r="I84" s="3" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -5008,17 +5074,17 @@
       <c r="M84" s="3"/>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="3">
-        <v>3304</v>
+      <c r="A85" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="B85" s="3">
         <v>1</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="E85" s="6">
         <v>0.6</v>
@@ -5026,9 +5092,9 @@
       <c r="F85" s="6">
         <v>0.8</v>
       </c>
-      <c r="H85" s="15"/>
+      <c r="H85" s="17"/>
       <c r="I85" s="3" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
@@ -5043,10 +5109,10 @@
         <v>1</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="E86" s="6">
         <v>0.6</v>
@@ -5054,9 +5120,9 @@
       <c r="F86" s="6">
         <v>0.8</v>
       </c>
-      <c r="H86" s="15"/>
+      <c r="H86" s="17"/>
       <c r="I86" s="3" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
@@ -5071,10 +5137,10 @@
         <v>1</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="E87" s="6">
         <v>0.6</v>
@@ -5082,9 +5148,9 @@
       <c r="F87" s="6">
         <v>0.8</v>
       </c>
-      <c r="H87" s="15"/>
+      <c r="H87" s="17"/>
       <c r="I87" s="3" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
@@ -5099,10 +5165,10 @@
         <v>1</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="E88" s="6">
         <v>0.7</v>
@@ -5110,9 +5176,9 @@
       <c r="F88" s="6">
         <v>0.9</v>
       </c>
-      <c r="H88" s="15"/>
+      <c r="H88" s="17"/>
       <c r="I88" s="3" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
@@ -5120,21 +5186,21 @@
       <c r="M88" s="3"/>
     </row>
     <row r="89" s="1" customFormat="1" spans="1:13">
-      <c r="A89" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="10"/>
-      <c r="M89" s="10"/>
+      <c r="A89" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="3">
@@ -5144,10 +5210,10 @@
         <v>1</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="E90" s="6">
         <v>0.4</v>
@@ -5155,7 +5221,7 @@
       <c r="F90" s="6">
         <v>0.7</v>
       </c>
-      <c r="H90" s="15"/>
+      <c r="H90" s="17"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
@@ -5170,10 +5236,10 @@
         <v>1</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="E91" s="6">
         <v>0.4</v>
@@ -5181,7 +5247,7 @@
       <c r="F91" s="6">
         <v>0.7</v>
       </c>
-      <c r="H91" s="15"/>
+      <c r="H91" s="17"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
@@ -5196,10 +5262,10 @@
         <v>1</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="E92" s="6">
         <v>0.4</v>
@@ -5207,7 +5273,7 @@
       <c r="F92" s="6">
         <v>0.7</v>
       </c>
-      <c r="H92" s="15"/>
+      <c r="H92" s="17"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
@@ -5222,10 +5288,10 @@
         <v>1</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="E93" s="6">
         <v>0.4</v>
@@ -5233,7 +5299,7 @@
       <c r="F93" s="6">
         <v>0.7</v>
       </c>
-      <c r="H93" s="15"/>
+      <c r="H93" s="17"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
@@ -5241,17 +5307,17 @@
       <c r="M93" s="3"/>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="3">
-        <v>3405</v>
+      <c r="A94" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="B94" s="3">
         <v>1</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="E94" s="6">
         <v>0.4</v>
@@ -5259,7 +5325,7 @@
       <c r="F94" s="6">
         <v>0.7</v>
       </c>
-      <c r="H94" s="15"/>
+      <c r="H94" s="17"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
@@ -5274,10 +5340,10 @@
         <v>1</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="E95" s="6">
         <v>0.4</v>
@@ -5285,7 +5351,7 @@
       <c r="F95" s="6">
         <v>0.7</v>
       </c>
-      <c r="H95" s="15"/>
+      <c r="H95" s="17"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
@@ -5293,21 +5359,21 @@
       <c r="M95" s="3"/>
     </row>
     <row r="96" s="1" customFormat="1" spans="1:13">
-      <c r="A96" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="10"/>
-      <c r="K96" s="10"/>
-      <c r="L96" s="10"/>
-      <c r="M96" s="10"/>
+      <c r="A96" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="3">
@@ -5317,18 +5383,18 @@
         <v>1</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="E97" s="6">
         <v>0.5</v>
       </c>
       <c r="F97" s="6"/>
-      <c r="H97" s="15"/>
+      <c r="H97" s="17"/>
       <c r="I97" s="3" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
@@ -5343,10 +5409,10 @@
         <v>1</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E98" s="6">
         <v>0.6</v>
@@ -5354,9 +5420,9 @@
       <c r="F98" s="6">
         <v>0.8</v>
       </c>
-      <c r="H98" s="15"/>
+      <c r="H98" s="17"/>
       <c r="I98" s="3" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
@@ -5371,18 +5437,18 @@
         <v>1</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="E99" s="6">
         <v>0.6</v>
       </c>
       <c r="F99" s="6"/>
-      <c r="H99" s="15"/>
+      <c r="H99" s="17"/>
       <c r="I99" s="3" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
@@ -5397,18 +5463,18 @@
         <v>1</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="E100" s="6">
         <v>0.6</v>
       </c>
       <c r="F100" s="6"/>
-      <c r="H100" s="15"/>
+      <c r="H100" s="17"/>
       <c r="I100" s="3" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
@@ -5421,7 +5487,7 @@
       <c r="D101" s="9"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
-      <c r="H101" s="15"/>
+      <c r="H101" s="17"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
@@ -5429,21 +5495,21 @@
       <c r="M101" s="3"/>
     </row>
     <row r="102" s="1" customFormat="1" spans="1:13">
-      <c r="A102" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="B102" s="10"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="10"/>
-      <c r="K102" s="10"/>
-      <c r="L102" s="10"/>
-      <c r="M102" s="10"/>
+      <c r="A102" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="19"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="3">
@@ -5453,10 +5519,10 @@
         <v>1</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="E103" s="6">
         <v>0.4</v>
@@ -5464,9 +5530,9 @@
       <c r="F103" s="6">
         <v>0.7</v>
       </c>
-      <c r="H103" s="15"/>
+      <c r="H103" s="17"/>
       <c r="I103" s="3" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
@@ -5481,10 +5547,10 @@
         <v>1</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="E104" s="6">
         <v>0.5</v>
@@ -5492,9 +5558,9 @@
       <c r="F104" s="6">
         <v>0.65</v>
       </c>
-      <c r="H104" s="15"/>
+      <c r="H104" s="17"/>
       <c r="I104" s="3" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
@@ -5509,18 +5575,18 @@
         <v>1</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="E105" s="6">
         <v>0.8</v>
       </c>
       <c r="F105" s="6"/>
-      <c r="H105" s="15"/>
+      <c r="H105" s="17"/>
       <c r="I105" s="3" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
@@ -5535,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="6">
@@ -5544,9 +5610,9 @@
       <c r="F106" s="6">
         <v>0.8</v>
       </c>
-      <c r="H106" s="15"/>
+      <c r="H106" s="17"/>
       <c r="I106" s="3" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
@@ -5561,18 +5627,18 @@
         <v>1</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="E107" s="6">
         <v>0.8</v>
       </c>
       <c r="F107" s="6"/>
-      <c r="H107" s="15"/>
+      <c r="H107" s="17"/>
       <c r="I107" s="3" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
@@ -5587,18 +5653,18 @@
         <v>1</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="E108" s="6">
         <v>0.6</v>
       </c>
       <c r="F108" s="6"/>
-      <c r="H108" s="15"/>
+      <c r="H108" s="17"/>
       <c r="I108" s="3" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
@@ -5613,10 +5679,10 @@
         <v>1</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="E109" s="6">
         <v>0.5</v>
@@ -5624,9 +5690,9 @@
       <c r="F109" s="6">
         <v>0.8</v>
       </c>
-      <c r="H109" s="15"/>
+      <c r="H109" s="17"/>
       <c r="I109" s="3" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
@@ -5641,16 +5707,16 @@
         <v>1</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="E110" s="6">
         <v>0.8</v>
       </c>
       <c r="F110" s="6"/>
-      <c r="H110" s="15"/>
+      <c r="H110" s="17"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
@@ -5665,10 +5731,10 @@
         <v>1</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="E111" s="6">
         <v>0.4</v>
@@ -5676,9 +5742,9 @@
       <c r="F111" s="6">
         <v>0.6</v>
       </c>
-      <c r="H111" s="15"/>
+      <c r="H111" s="17"/>
       <c r="I111" s="3" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
@@ -5693,18 +5759,18 @@
         <v>1</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="E112" s="6">
         <v>0.6</v>
       </c>
       <c r="F112" s="6"/>
-      <c r="H112" s="15"/>
+      <c r="H112" s="17"/>
       <c r="I112" s="3" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
@@ -5719,18 +5785,18 @@
         <v>1</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="E113" s="6">
         <v>0.6</v>
       </c>
       <c r="F113" s="6"/>
-      <c r="H113" s="15"/>
+      <c r="H113" s="17"/>
       <c r="I113" s="3" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
@@ -5745,18 +5811,18 @@
         <v>1</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="E114" s="6">
         <v>0.7</v>
       </c>
       <c r="F114" s="6"/>
-      <c r="H114" s="15"/>
+      <c r="H114" s="17"/>
       <c r="I114" s="3" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
@@ -5771,10 +5837,10 @@
         <v>1</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="E115" s="6">
         <v>0.4</v>
@@ -5782,9 +5848,9 @@
       <c r="F115" s="6">
         <v>0.8</v>
       </c>
-      <c r="H115" s="15"/>
+      <c r="H115" s="17"/>
       <c r="I115" s="3" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
@@ -5799,18 +5865,18 @@
         <v>1</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="E116" s="6">
         <v>0.8</v>
       </c>
       <c r="F116" s="6"/>
-      <c r="H116" s="15"/>
+      <c r="H116" s="17"/>
       <c r="I116" s="3" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
@@ -5823,7 +5889,7 @@
       <c r="D117" s="9"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
-      <c r="H117" s="15"/>
+      <c r="H117" s="17"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
@@ -5831,21 +5897,21 @@
       <c r="M117" s="3"/>
     </row>
     <row r="118" s="1" customFormat="1" spans="1:13">
-      <c r="A118" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="B118" s="10"/>
-      <c r="C118" s="10"/>
-      <c r="D118" s="11"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="17"/>
-      <c r="I118" s="10"/>
-      <c r="J118" s="10"/>
-      <c r="K118" s="10"/>
-      <c r="L118" s="10"/>
-      <c r="M118" s="10"/>
+      <c r="A118" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="18"/>
+      <c r="H118" s="19"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="11"/>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="3">
@@ -5855,10 +5921,10 @@
         <v>1</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="E119" s="6">
         <v>0.4</v>
@@ -5866,9 +5932,9 @@
       <c r="F119" s="6">
         <v>0.6</v>
       </c>
-      <c r="H119" s="15"/>
+      <c r="H119" s="17"/>
       <c r="I119" s="3" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
@@ -5883,10 +5949,10 @@
         <v>1</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="E120" s="6">
         <v>0.4</v>
@@ -5894,7 +5960,7 @@
       <c r="F120" s="6">
         <v>0.7</v>
       </c>
-      <c r="H120" s="15"/>
+      <c r="H120" s="17"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
@@ -5909,18 +5975,18 @@
         <v>1</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="E121" s="6">
         <v>0.8</v>
       </c>
       <c r="F121" s="6"/>
-      <c r="H121" s="15"/>
+      <c r="H121" s="17"/>
       <c r="I121" s="3" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
@@ -5929,16 +5995,16 @@
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="3" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="B122" s="3">
         <v>1</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="E122" s="6">
         <v>0.5</v>
@@ -5946,9 +6012,9 @@
       <c r="F122" s="6">
         <v>0.75</v>
       </c>
-      <c r="H122" s="15"/>
+      <c r="H122" s="17"/>
       <c r="I122" s="3" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
@@ -5957,16 +6023,16 @@
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="3" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="B123" s="3">
         <v>1</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="E123" s="6">
         <v>0.6</v>
@@ -5974,9 +6040,9 @@
       <c r="F123" s="6">
         <v>0.8</v>
       </c>
-      <c r="H123" s="15"/>
+      <c r="H123" s="17"/>
       <c r="I123" s="3" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
@@ -5984,17 +6050,17 @@
       <c r="M123" s="3"/>
     </row>
     <row r="124" spans="1:13">
-      <c r="A124" s="3">
-        <v>506</v>
+      <c r="A124" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="B124" s="3">
         <v>1</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="E124" s="6">
         <v>0.6</v>
@@ -6002,9 +6068,9 @@
       <c r="F124" s="6">
         <v>0.8</v>
       </c>
-      <c r="H124" s="15"/>
+      <c r="H124" s="17"/>
       <c r="I124" s="3" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
@@ -6019,10 +6085,10 @@
         <v>1</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="E125" s="6">
         <v>0.7</v>
@@ -6030,9 +6096,9 @@
       <c r="F125" s="6">
         <v>0.85</v>
       </c>
-      <c r="H125" s="15"/>
+      <c r="H125" s="17"/>
       <c r="I125" s="3" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
@@ -6047,18 +6113,18 @@
         <v>1</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="E126" s="6">
         <v>0.9</v>
       </c>
       <c r="F126" s="6"/>
-      <c r="H126" s="15"/>
+      <c r="H126" s="17"/>
       <c r="I126" s="3" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
@@ -6073,10 +6139,10 @@
         <v>1</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="E127" s="6">
         <v>0.6</v>
@@ -6084,7 +6150,7 @@
       <c r="F127" s="6">
         <v>1</v>
       </c>
-      <c r="H127" s="15"/>
+      <c r="H127" s="17"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
@@ -6099,18 +6165,18 @@
         <v>1</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="E128" s="6">
         <v>0.7</v>
       </c>
       <c r="F128" s="6"/>
-      <c r="H128" s="15"/>
+      <c r="H128" s="17"/>
       <c r="I128" s="3" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
@@ -6125,18 +6191,18 @@
         <v>1</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="E129" s="6">
         <v>0.6</v>
       </c>
       <c r="F129" s="6"/>
-      <c r="H129" s="15"/>
+      <c r="H129" s="17"/>
       <c r="I129" s="3" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
@@ -6151,18 +6217,18 @@
         <v>1</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="E130" s="6">
         <v>0.6</v>
       </c>
       <c r="F130" s="6"/>
-      <c r="H130" s="15"/>
+      <c r="H130" s="17"/>
       <c r="I130" s="3" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
@@ -6170,25 +6236,25 @@
       <c r="M130" s="3"/>
     </row>
     <row r="131" spans="1:13">
-      <c r="A131" s="3" t="s">
-        <v>333</v>
+      <c r="A131" s="10" t="s">
+        <v>349</v>
       </c>
       <c r="B131" s="3">
         <v>1</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="E131" s="6">
         <v>0.8</v>
       </c>
       <c r="F131" s="6"/>
-      <c r="H131" s="15"/>
+      <c r="H131" s="17"/>
       <c r="I131" s="3" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
@@ -6203,16 +6269,16 @@
         <v>1</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="D132" s="9"/>
       <c r="E132" s="6">
         <v>0.8</v>
       </c>
       <c r="F132" s="6"/>
-      <c r="H132" s="15"/>
+      <c r="H132" s="17"/>
       <c r="I132" s="3" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
@@ -6227,18 +6293,18 @@
         <v>1</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="E133" s="6">
         <v>0.8</v>
       </c>
       <c r="F133" s="6"/>
-      <c r="H133" s="15"/>
+      <c r="H133" s="17"/>
       <c r="I133" s="3" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
@@ -6247,13 +6313,13 @@
     </row>
     <row r="134" spans="1:13">
       <c r="A134" s="3" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="B134" s="3">
         <v>1</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="D134" s="9"/>
       <c r="E134" s="6">
@@ -6262,9 +6328,9 @@
       <c r="F134" s="6">
         <v>0.8</v>
       </c>
-      <c r="H134" s="15"/>
+      <c r="H134" s="17"/>
       <c r="I134" s="3" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
@@ -6279,10 +6345,10 @@
         <v>1</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="E135" s="6">
         <v>0.4</v>
@@ -6290,9 +6356,9 @@
       <c r="F135" s="6">
         <v>0.8</v>
       </c>
-      <c r="H135" s="15"/>
+      <c r="H135" s="17"/>
       <c r="I135" s="3" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
@@ -6307,18 +6373,18 @@
         <v>1</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="E136" s="6">
         <v>0.6</v>
       </c>
       <c r="F136" s="6"/>
-      <c r="H136" s="15"/>
+      <c r="H136" s="17"/>
       <c r="I136" s="3" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
@@ -6333,7 +6399,7 @@
       <c r="D137" s="9"/>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
-      <c r="H137" s="15"/>
+      <c r="H137" s="17"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
@@ -6341,21 +6407,21 @@
       <c r="M137" s="3"/>
     </row>
     <row r="138" s="1" customFormat="1" spans="1:13">
-      <c r="A138" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="B138" s="10"/>
-      <c r="C138" s="10"/>
-      <c r="D138" s="11"/>
-      <c r="E138" s="16"/>
-      <c r="F138" s="16"/>
-      <c r="G138" s="16"/>
-      <c r="H138" s="17"/>
-      <c r="I138" s="10"/>
-      <c r="J138" s="10"/>
-      <c r="K138" s="10"/>
-      <c r="L138" s="10"/>
-      <c r="M138" s="10"/>
+      <c r="A138" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="18"/>
+      <c r="F138" s="18"/>
+      <c r="G138" s="18"/>
+      <c r="H138" s="19"/>
+      <c r="I138" s="11"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="11"/>
+      <c r="L138" s="11"/>
+      <c r="M138" s="11"/>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="3">
@@ -6365,7 +6431,7 @@
         <v>1</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="6">
@@ -6374,9 +6440,9 @@
       <c r="F139" s="6">
         <v>0.7</v>
       </c>
-      <c r="H139" s="15"/>
+      <c r="H139" s="17"/>
       <c r="I139" s="3" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
@@ -6391,10 +6457,10 @@
         <v>1</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="E140" s="6">
         <v>0.6</v>
@@ -6402,9 +6468,9 @@
       <c r="F140" s="6">
         <v>0.85</v>
       </c>
-      <c r="H140" s="15"/>
+      <c r="H140" s="17"/>
       <c r="I140" s="3" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
@@ -6419,10 +6485,10 @@
         <v>1</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="E141" s="6">
         <v>0.6</v>
@@ -6430,9 +6496,9 @@
       <c r="F141" s="6">
         <v>0.8</v>
       </c>
-      <c r="H141" s="15"/>
+      <c r="H141" s="17"/>
       <c r="I141" s="3" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
@@ -6447,18 +6513,18 @@
         <v>1</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="E142" s="6">
         <v>0.8</v>
       </c>
       <c r="F142" s="6"/>
-      <c r="H142" s="15"/>
+      <c r="H142" s="17"/>
       <c r="I142" s="3" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
@@ -6473,10 +6539,10 @@
         <v>1</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="E143" s="6">
         <v>0.4</v>
@@ -6484,9 +6550,9 @@
       <c r="F143" s="6">
         <v>0.8</v>
       </c>
-      <c r="H143" s="15"/>
+      <c r="H143" s="17"/>
       <c r="I143" s="3" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
@@ -6501,10 +6567,10 @@
         <v>1</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="E144" s="6">
         <v>0.6</v>
@@ -6512,9 +6578,9 @@
       <c r="F144" s="6">
         <v>0.9</v>
       </c>
-      <c r="H144" s="15"/>
+      <c r="H144" s="17"/>
       <c r="I144" s="3" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
@@ -6527,7 +6593,7 @@
       <c r="D145" s="9"/>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
-      <c r="H145" s="15"/>
+      <c r="H145" s="17"/>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
@@ -6535,21 +6601,21 @@
       <c r="M145" s="3"/>
     </row>
     <row r="146" s="1" customFormat="1" spans="1:13">
-      <c r="A146" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="B146" s="10"/>
-      <c r="C146" s="10"/>
-      <c r="D146" s="11"/>
-      <c r="E146" s="16"/>
-      <c r="F146" s="16"/>
-      <c r="G146" s="16"/>
-      <c r="H146" s="17"/>
-      <c r="I146" s="10"/>
-      <c r="J146" s="10"/>
-      <c r="K146" s="10"/>
-      <c r="L146" s="10"/>
-      <c r="M146" s="10"/>
+      <c r="A146" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="B146" s="11"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="18"/>
+      <c r="F146" s="18"/>
+      <c r="G146" s="18"/>
+      <c r="H146" s="19"/>
+      <c r="I146" s="11"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="11"/>
+      <c r="L146" s="11"/>
+      <c r="M146" s="11"/>
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="3">
@@ -6559,10 +6625,10 @@
         <v>1</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="E147" s="6">
         <v>0.5</v>
@@ -6570,9 +6636,9 @@
       <c r="F147" s="6">
         <v>0.8</v>
       </c>
-      <c r="H147" s="15"/>
+      <c r="H147" s="17"/>
       <c r="I147" s="3" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
@@ -6587,18 +6653,18 @@
         <v>1</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="E148" s="6">
         <v>0.8</v>
       </c>
       <c r="F148" s="6"/>
-      <c r="H148" s="15"/>
+      <c r="H148" s="17"/>
       <c r="I148" s="3" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
@@ -6611,7 +6677,7 @@
       <c r="D149" s="9"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
-      <c r="H149" s="15"/>
+      <c r="H149" s="17"/>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
@@ -6619,21 +6685,21 @@
       <c r="M149" s="3"/>
     </row>
     <row r="150" s="1" customFormat="1" spans="1:13">
-      <c r="A150" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="B150" s="10"/>
-      <c r="C150" s="10"/>
-      <c r="D150" s="11"/>
-      <c r="E150" s="16"/>
-      <c r="F150" s="16"/>
-      <c r="G150" s="16"/>
-      <c r="H150" s="17"/>
-      <c r="I150" s="10"/>
-      <c r="J150" s="10"/>
-      <c r="K150" s="10"/>
-      <c r="L150" s="10"/>
-      <c r="M150" s="10"/>
+      <c r="A150" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="18"/>
+      <c r="F150" s="18"/>
+      <c r="G150" s="18"/>
+      <c r="H150" s="19"/>
+      <c r="I150" s="11"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="11"/>
+      <c r="L150" s="11"/>
+      <c r="M150" s="11"/>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="3">
@@ -6643,7 +6709,7 @@
         <v>1</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="6">
@@ -6652,9 +6718,9 @@
       <c r="F151" s="6">
         <v>2</v>
       </c>
-      <c r="H151" s="15"/>
+      <c r="H151" s="17"/>
       <c r="I151" s="3" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
@@ -6669,7 +6735,7 @@
         <v>1</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="6">
@@ -6678,9 +6744,9 @@
       <c r="F152" s="6">
         <v>1</v>
       </c>
-      <c r="H152" s="15"/>
+      <c r="H152" s="17"/>
       <c r="I152" s="3" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
@@ -6695,18 +6761,18 @@
         <v>1</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="E153" s="6">
         <v>0.4</v>
       </c>
       <c r="F153" s="6"/>
-      <c r="H153" s="15"/>
+      <c r="H153" s="17"/>
       <c r="I153" s="3" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
@@ -6721,16 +6787,16 @@
         <v>1</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="6">
         <v>0.6</v>
       </c>
       <c r="F154" s="6"/>
-      <c r="H154" s="15"/>
+      <c r="H154" s="17"/>
       <c r="I154" s="3" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
@@ -6745,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="6">
@@ -6754,9 +6820,9 @@
       <c r="F155" s="6">
         <v>2</v>
       </c>
-      <c r="H155" s="15"/>
+      <c r="H155" s="17"/>
       <c r="I155" s="3" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
@@ -6769,7 +6835,7 @@
       <c r="D156" s="9"/>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
-      <c r="H156" s="15"/>
+      <c r="H156" s="17"/>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
@@ -6777,21 +6843,21 @@
       <c r="M156" s="3"/>
     </row>
     <row r="157" s="1" customFormat="1" spans="1:13">
-      <c r="A157" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="B157" s="10"/>
-      <c r="C157" s="10"/>
-      <c r="D157" s="11"/>
-      <c r="E157" s="16"/>
-      <c r="F157" s="16"/>
-      <c r="G157" s="16"/>
-      <c r="H157" s="17"/>
-      <c r="I157" s="10"/>
-      <c r="J157" s="10"/>
-      <c r="K157" s="10"/>
-      <c r="L157" s="10"/>
-      <c r="M157" s="10"/>
+      <c r="A157" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="B157" s="11"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="18"/>
+      <c r="F157" s="18"/>
+      <c r="G157" s="18"/>
+      <c r="H157" s="19"/>
+      <c r="I157" s="11"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="11"/>
+      <c r="L157" s="11"/>
+      <c r="M157" s="11"/>
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="3">
@@ -6801,16 +6867,16 @@
         <v>1</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="E158" s="6">
         <v>0.6</v>
       </c>
       <c r="F158" s="6"/>
-      <c r="H158" s="15"/>
+      <c r="H158" s="17"/>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
@@ -6825,10 +6891,10 @@
         <v>1</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="E159" s="6">
         <v>0.7</v>
@@ -6836,11 +6902,11 @@
       <c r="F159" s="6">
         <v>0.85</v>
       </c>
-      <c r="H159" s="15">
+      <c r="H159" s="17">
         <v>1</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
@@ -6855,18 +6921,18 @@
         <v>1</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="E160" s="6">
         <v>0.8</v>
       </c>
       <c r="F160" s="6"/>
-      <c r="H160" s="15"/>
+      <c r="H160" s="17"/>
       <c r="I160" s="3" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
@@ -6881,20 +6947,20 @@
         <v>1</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="E161" s="6">
         <v>0.6</v>
       </c>
       <c r="F161" s="6"/>
-      <c r="H161" s="15">
+      <c r="H161" s="17">
         <v>1</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
@@ -6909,10 +6975,10 @@
         <v>1</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="E162" s="6">
         <v>0.4</v>
@@ -6920,7 +6986,7 @@
       <c r="F162" s="6">
         <v>0.7</v>
       </c>
-      <c r="H162" s="15"/>
+      <c r="H162" s="17"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
@@ -6935,10 +7001,10 @@
         <v>1</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="E163" s="6">
         <v>0.4</v>
@@ -6946,7 +7012,7 @@
       <c r="F163" s="6">
         <v>0.7</v>
       </c>
-      <c r="H163" s="15"/>
+      <c r="H163" s="17"/>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
@@ -6961,10 +7027,10 @@
         <v>1</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="E164" s="6">
         <v>0.8</v>
@@ -6972,7 +7038,7 @@
       <c r="F164" s="6">
         <v>1</v>
       </c>
-      <c r="H164" s="15">
+      <c r="H164" s="17">
         <v>1</v>
       </c>
       <c r="I164" s="3"/>
@@ -6989,10 +7055,10 @@
         <v>1</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="E165" s="6">
         <v>0.5</v>
@@ -7000,7 +7066,7 @@
       <c r="F165" s="6">
         <v>0.7</v>
       </c>
-      <c r="H165" s="15"/>
+      <c r="H165" s="17"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
@@ -7015,10 +7081,10 @@
         <v>1</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="E166" s="6">
         <v>0.6</v>
@@ -7026,7 +7092,7 @@
       <c r="F166" s="6">
         <v>0.8</v>
       </c>
-      <c r="H166" s="15"/>
+      <c r="H166" s="17"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
@@ -7041,18 +7107,18 @@
         <v>1</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="E167" s="6">
         <v>0.8</v>
       </c>
       <c r="F167" s="6"/>
-      <c r="H167" s="15"/>
+      <c r="H167" s="17"/>
       <c r="I167" s="3" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
@@ -7067,16 +7133,16 @@
         <v>1</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="E168" s="6">
         <v>0.9</v>
       </c>
       <c r="F168" s="6"/>
-      <c r="H168" s="15"/>
+      <c r="H168" s="17"/>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
@@ -7091,20 +7157,20 @@
         <v>1</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="E169" s="6">
         <v>0.6</v>
       </c>
       <c r="F169" s="6"/>
-      <c r="H169" s="15">
+      <c r="H169" s="17">
         <v>1</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
@@ -7119,16 +7185,16 @@
         <v>1</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="E170" s="6">
         <v>0.5</v>
       </c>
       <c r="F170" s="6"/>
-      <c r="H170" s="15"/>
+      <c r="H170" s="17"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
@@ -7143,16 +7209,16 @@
         <v>1</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="E171" s="6">
         <v>0.5</v>
       </c>
       <c r="F171" s="6"/>
-      <c r="H171" s="15"/>
+      <c r="H171" s="17"/>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
@@ -7167,16 +7233,16 @@
         <v>1</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="E172" s="6">
         <v>0.9</v>
       </c>
       <c r="F172" s="6"/>
-      <c r="H172" s="15">
+      <c r="H172" s="17">
         <v>1</v>
       </c>
       <c r="I172" s="3"/>
@@ -7193,18 +7259,18 @@
         <v>1</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="E173" s="6">
         <v>0.9</v>
       </c>
       <c r="F173" s="6"/>
-      <c r="H173" s="15"/>
+      <c r="H173" s="17"/>
       <c r="I173" s="3" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
@@ -7219,18 +7285,18 @@
         <v>1</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="E174" s="6">
         <v>0.8</v>
       </c>
       <c r="F174" s="6"/>
-      <c r="H174" s="15"/>
+      <c r="H174" s="17"/>
       <c r="I174" s="3" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
@@ -7245,18 +7311,18 @@
         <v>1</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="E175" s="6">
         <v>0.9</v>
       </c>
       <c r="F175" s="6"/>
-      <c r="H175" s="15"/>
+      <c r="H175" s="17"/>
       <c r="I175" s="3" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
@@ -7271,10 +7337,10 @@
         <v>1</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="E176" s="6">
         <v>0.6</v>
@@ -7282,9 +7348,9 @@
       <c r="F176" s="6">
         <v>0.9</v>
       </c>
-      <c r="H176" s="15"/>
+      <c r="H176" s="17"/>
       <c r="I176" s="3" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
@@ -7299,10 +7365,10 @@
         <v>1</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="E177" s="6">
         <v>0.6</v>
@@ -7310,9 +7376,9 @@
       <c r="F177" s="6">
         <v>0.8</v>
       </c>
-      <c r="H177" s="15"/>
+      <c r="H177" s="17"/>
       <c r="I177" s="3" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
@@ -7327,20 +7393,20 @@
         <v>1</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="E178" s="6">
         <v>0.8</v>
       </c>
       <c r="F178" s="6"/>
-      <c r="H178" s="15">
+      <c r="H178" s="17">
         <v>1</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
@@ -7355,10 +7421,10 @@
         <v>1</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="E179" s="6">
         <v>0.6</v>
@@ -7366,9 +7432,9 @@
       <c r="F179" s="6">
         <v>0.9</v>
       </c>
-      <c r="H179" s="15"/>
+      <c r="H179" s="17"/>
       <c r="I179" s="3" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
@@ -7383,10 +7449,10 @@
         <v>1</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="E180" s="6">
         <v>0.6</v>
@@ -7394,7 +7460,7 @@
       <c r="F180" s="6">
         <v>0.9</v>
       </c>
-      <c r="H180" s="15"/>
+      <c r="H180" s="17"/>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
@@ -7409,10 +7475,10 @@
         <v>1</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="E181" s="6">
         <v>0.4</v>
@@ -7420,9 +7486,9 @@
       <c r="F181" s="6">
         <v>0.9</v>
       </c>
-      <c r="H181" s="15"/>
+      <c r="H181" s="17"/>
       <c r="I181" s="3" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
@@ -7437,10 +7503,10 @@
         <v>1</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="E182" s="6">
         <v>0.4</v>
@@ -7448,7 +7514,7 @@
       <c r="F182" s="6">
         <v>0.9</v>
       </c>
-      <c r="H182" s="15"/>
+      <c r="H182" s="17"/>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
@@ -7463,18 +7529,18 @@
         <v>1</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="E183" s="6">
         <v>0.8</v>
       </c>
       <c r="F183" s="6"/>
-      <c r="H183" s="15"/>
+      <c r="H183" s="17"/>
       <c r="I183" s="3" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
@@ -7489,18 +7555,18 @@
         <v>1</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="E184" s="6">
         <v>0.8</v>
       </c>
       <c r="F184" s="6"/>
-      <c r="H184" s="15"/>
+      <c r="H184" s="17"/>
       <c r="I184" s="3" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
@@ -7515,18 +7581,18 @@
         <v>1</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="E185" s="6">
         <v>0.8</v>
       </c>
       <c r="F185" s="6"/>
-      <c r="H185" s="15"/>
+      <c r="H185" s="17"/>
       <c r="I185" s="3" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="J185" s="3"/>
       <c r="K185" s="3"/>
@@ -7541,20 +7607,20 @@
         <v>1</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E186" s="6">
         <v>0.9</v>
       </c>
       <c r="F186" s="6"/>
-      <c r="H186" s="15">
+      <c r="H186" s="17">
         <v>1</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="J186" s="3"/>
       <c r="K186" s="3"/>
@@ -7569,18 +7635,18 @@
         <v>1</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="E187" s="6">
         <v>0.6</v>
       </c>
       <c r="F187" s="6"/>
-      <c r="H187" s="15"/>
+      <c r="H187" s="17"/>
       <c r="I187" s="3" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
@@ -7595,16 +7661,16 @@
         <v>1</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="E188" s="6">
         <v>0.8</v>
       </c>
       <c r="F188" s="6"/>
-      <c r="H188" s="15"/>
+      <c r="H188" s="17"/>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
@@ -7619,10 +7685,10 @@
         <v>1</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="E189" s="6">
         <v>0.6</v>
@@ -7630,7 +7696,7 @@
       <c r="F189" s="6">
         <v>0.8</v>
       </c>
-      <c r="H189" s="15"/>
+      <c r="H189" s="17"/>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
@@ -7645,16 +7711,16 @@
         <v>1</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="E190" s="6">
         <v>0.7</v>
       </c>
       <c r="F190" s="6"/>
-      <c r="H190" s="15"/>
+      <c r="H190" s="17"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
       <c r="K190" s="3"/>
@@ -7669,16 +7735,16 @@
         <v>1</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
-      <c r="H191" s="15"/>
+      <c r="H191" s="17"/>
       <c r="I191" s="3" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
@@ -7693,18 +7759,18 @@
         <v>1</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="E192" s="6">
         <v>0.6</v>
       </c>
       <c r="F192" s="6"/>
-      <c r="H192" s="15"/>
+      <c r="H192" s="17"/>
       <c r="I192" s="3" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
@@ -7717,7 +7783,7 @@
       <c r="D193" s="9"/>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
-      <c r="H193" s="15"/>
+      <c r="H193" s="17"/>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
@@ -7725,21 +7791,21 @@
       <c r="M193" s="3"/>
     </row>
     <row r="194" s="1" customFormat="1" spans="1:13">
-      <c r="A194" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="B194" s="10"/>
-      <c r="C194" s="10"/>
-      <c r="D194" s="11"/>
-      <c r="E194" s="16"/>
-      <c r="F194" s="16"/>
-      <c r="G194" s="16"/>
-      <c r="H194" s="17"/>
-      <c r="I194" s="10"/>
-      <c r="J194" s="10"/>
-      <c r="K194" s="10"/>
-      <c r="L194" s="10"/>
-      <c r="M194" s="10"/>
+      <c r="A194" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="B194" s="11"/>
+      <c r="C194" s="11"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="18"/>
+      <c r="F194" s="18"/>
+      <c r="G194" s="18"/>
+      <c r="H194" s="19"/>
+      <c r="I194" s="11"/>
+      <c r="J194" s="11"/>
+      <c r="K194" s="11"/>
+      <c r="L194" s="11"/>
+      <c r="M194" s="11"/>
     </row>
     <row r="195" spans="1:13">
       <c r="A195" s="3">
@@ -7749,16 +7815,16 @@
         <v>2</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="E195" s="6">
         <v>0.8</v>
       </c>
       <c r="F195" s="6"/>
-      <c r="H195" s="15"/>
+      <c r="H195" s="17"/>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
@@ -7773,16 +7839,16 @@
         <v>2</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="E196" s="6">
         <v>0.8</v>
       </c>
       <c r="F196" s="6"/>
-      <c r="H196" s="15"/>
+      <c r="H196" s="17"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
@@ -7797,16 +7863,16 @@
         <v>2</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="E197" s="6">
         <v>0.8</v>
       </c>
       <c r="F197" s="6"/>
-      <c r="H197" s="15"/>
+      <c r="H197" s="17"/>
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
       <c r="K197" s="3"/>
@@ -7821,16 +7887,16 @@
         <v>2</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="E198" s="6">
         <v>0.8</v>
       </c>
       <c r="F198" s="6"/>
-      <c r="H198" s="15"/>
+      <c r="H198" s="17"/>
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
@@ -7845,16 +7911,16 @@
         <v>2</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="E199" s="6">
         <v>0.8</v>
       </c>
       <c r="F199" s="6"/>
-      <c r="H199" s="15"/>
+      <c r="H199" s="17"/>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
       <c r="K199" s="3"/>
@@ -7869,16 +7935,16 @@
         <v>2</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="E200" s="6">
         <v>0.8</v>
       </c>
       <c r="F200" s="6"/>
-      <c r="H200" s="15"/>
+      <c r="H200" s="17"/>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
       <c r="K200" s="3"/>
@@ -7893,10 +7959,10 @@
         <v>2</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="E201" s="6">
         <v>0.6</v>
@@ -7904,7 +7970,7 @@
       <c r="F201" s="6">
         <v>0.75</v>
       </c>
-      <c r="H201" s="15"/>
+      <c r="H201" s="17"/>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
       <c r="K201" s="3"/>
@@ -7919,10 +7985,10 @@
         <v>2</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="E202" s="6">
         <v>0.46</v>
@@ -7930,7 +7996,7 @@
       <c r="F202" s="6">
         <v>0.6</v>
       </c>
-      <c r="H202" s="15"/>
+      <c r="H202" s="17"/>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
       <c r="K202" s="3"/>
@@ -7945,16 +8011,16 @@
         <v>2</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="E203" s="6">
         <v>0.85</v>
       </c>
       <c r="F203" s="6"/>
-      <c r="H203" s="15"/>
+      <c r="H203" s="17"/>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
@@ -7969,16 +8035,16 @@
         <v>2</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="E204" s="6">
         <v>0.6</v>
       </c>
       <c r="F204" s="6"/>
-      <c r="H204" s="15"/>
+      <c r="H204" s="17"/>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
@@ -7993,10 +8059,10 @@
         <v>2</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="E205" s="6">
         <v>0.8</v>
@@ -8004,9 +8070,9 @@
       <c r="F205" s="6">
         <v>0.9</v>
       </c>
-      <c r="H205" s="15"/>
+      <c r="H205" s="17"/>
       <c r="I205" s="3" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
@@ -8021,10 +8087,10 @@
         <v>2</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="E206" s="6">
         <v>0.8</v>
@@ -8032,7 +8098,7 @@
       <c r="F206" s="6">
         <v>0.9</v>
       </c>
-      <c r="H206" s="15"/>
+      <c r="H206" s="17"/>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
       <c r="K206" s="3"/>
@@ -8047,10 +8113,10 @@
         <v>2</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="E207" s="6">
         <v>0.8</v>
@@ -8058,7 +8124,7 @@
       <c r="F207" s="6">
         <v>0.9</v>
       </c>
-      <c r="H207" s="15"/>
+      <c r="H207" s="17"/>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
       <c r="K207" s="3"/>
@@ -8071,7 +8137,7 @@
       <c r="D208" s="9"/>
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
-      <c r="H208" s="15"/>
+      <c r="H208" s="17"/>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
@@ -8079,21 +8145,21 @@
       <c r="M208" s="3"/>
     </row>
     <row r="209" s="1" customFormat="1" spans="1:13">
-      <c r="A209" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="B209" s="10"/>
-      <c r="C209" s="10"/>
-      <c r="D209" s="11"/>
-      <c r="E209" s="16"/>
-      <c r="F209" s="16"/>
-      <c r="G209" s="16"/>
-      <c r="H209" s="17"/>
-      <c r="I209" s="10"/>
-      <c r="J209" s="10"/>
-      <c r="K209" s="10"/>
-      <c r="L209" s="10"/>
-      <c r="M209" s="10"/>
+      <c r="A209" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B209" s="11"/>
+      <c r="C209" s="11"/>
+      <c r="D209" s="12"/>
+      <c r="E209" s="18"/>
+      <c r="F209" s="18"/>
+      <c r="G209" s="18"/>
+      <c r="H209" s="19"/>
+      <c r="I209" s="11"/>
+      <c r="J209" s="11"/>
+      <c r="K209" s="11"/>
+      <c r="L209" s="11"/>
+      <c r="M209" s="11"/>
     </row>
     <row r="210" spans="1:13">
       <c r="A210" s="3">
@@ -8103,18 +8169,18 @@
         <v>2</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="E210" s="6">
         <v>0.8</v>
       </c>
       <c r="F210" s="6"/>
-      <c r="H210" s="15"/>
+      <c r="H210" s="17"/>
       <c r="I210" s="3" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="J210" s="3"/>
       <c r="K210" s="3"/>
@@ -8123,16 +8189,16 @@
     </row>
     <row r="211" spans="1:13">
       <c r="A211" s="3" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="B211" s="3">
         <v>2</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="E211" s="6">
         <v>0.6</v>
@@ -8140,9 +8206,9 @@
       <c r="F211" s="6">
         <v>0.8</v>
       </c>
-      <c r="H211" s="15"/>
+      <c r="H211" s="17"/>
       <c r="I211" s="3" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="J211" s="3"/>
       <c r="K211" s="3"/>
@@ -8151,24 +8217,24 @@
     </row>
     <row r="212" spans="1:13">
       <c r="A212" s="3" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="B212" s="3">
         <v>2</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="E212" s="6">
         <v>0.8</v>
       </c>
       <c r="F212" s="6"/>
-      <c r="H212" s="15"/>
+      <c r="H212" s="17"/>
       <c r="I212" s="3" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="J212" s="3"/>
       <c r="K212" s="3"/>
@@ -8176,21 +8242,21 @@
       <c r="M212" s="3"/>
     </row>
     <row r="213" s="1" customFormat="1" spans="1:13">
-      <c r="A213" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="B213" s="10"/>
-      <c r="C213" s="10"/>
-      <c r="D213" s="11"/>
-      <c r="E213" s="16"/>
-      <c r="F213" s="16"/>
-      <c r="G213" s="16"/>
-      <c r="H213" s="17"/>
-      <c r="I213" s="10"/>
-      <c r="J213" s="10"/>
-      <c r="K213" s="10"/>
-      <c r="L213" s="10"/>
-      <c r="M213" s="10"/>
+      <c r="A213" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="B213" s="11"/>
+      <c r="C213" s="11"/>
+      <c r="D213" s="12"/>
+      <c r="E213" s="18"/>
+      <c r="F213" s="18"/>
+      <c r="G213" s="18"/>
+      <c r="H213" s="19"/>
+      <c r="I213" s="11"/>
+      <c r="J213" s="11"/>
+      <c r="K213" s="11"/>
+      <c r="L213" s="11"/>
+      <c r="M213" s="11"/>
     </row>
     <row r="214" spans="1:13">
       <c r="A214" s="3">
@@ -8200,18 +8266,18 @@
         <v>2</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="E214" s="6">
         <v>0.6</v>
       </c>
       <c r="F214" s="6"/>
-      <c r="H214" s="15"/>
+      <c r="H214" s="17"/>
       <c r="I214" s="3" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="J214" s="3"/>
       <c r="K214" s="3"/>
@@ -8226,21 +8292,21 @@
         <v>2</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="E215" s="6">
         <v>0.6</v>
       </c>
       <c r="F215" s="6"/>
-      <c r="H215" s="15"/>
+      <c r="H215" s="17"/>
       <c r="I215" s="3" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="K215" s="3"/>
       <c r="L215" s="3"/>
@@ -8254,10 +8320,10 @@
         <v>2</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="E216" s="6">
         <v>0.5</v>
@@ -8265,54 +8331,54 @@
       <c r="F216" s="6">
         <v>0.7</v>
       </c>
-      <c r="H216" s="15"/>
+      <c r="H216" s="17"/>
       <c r="I216" s="3" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="K216" s="3"/>
       <c r="L216" s="3"/>
       <c r="M216" s="3"/>
     </row>
     <row r="217" s="1" customFormat="1" spans="1:13">
-      <c r="A217" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="B217" s="10"/>
-      <c r="C217" s="10"/>
-      <c r="D217" s="11"/>
-      <c r="E217" s="16"/>
-      <c r="F217" s="16"/>
-      <c r="G217" s="16"/>
-      <c r="H217" s="17"/>
-      <c r="I217" s="10"/>
-      <c r="J217" s="10"/>
-      <c r="K217" s="10"/>
-      <c r="L217" s="10"/>
-      <c r="M217" s="10"/>
+      <c r="A217" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="B217" s="11"/>
+      <c r="C217" s="11"/>
+      <c r="D217" s="12"/>
+      <c r="E217" s="18"/>
+      <c r="F217" s="18"/>
+      <c r="G217" s="18"/>
+      <c r="H217" s="19"/>
+      <c r="I217" s="11"/>
+      <c r="J217" s="11"/>
+      <c r="K217" s="11"/>
+      <c r="L217" s="11"/>
+      <c r="M217" s="11"/>
     </row>
     <row r="218" spans="1:13">
-      <c r="A218" s="3">
-        <v>401</v>
+      <c r="A218" s="3" t="s">
+        <v>541</v>
       </c>
       <c r="B218" s="3">
         <v>2</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
       <c r="E218" s="6">
         <v>0.8</v>
       </c>
       <c r="F218" s="6"/>
-      <c r="H218" s="15"/>
+      <c r="H218" s="17"/>
       <c r="I218" s="3" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="J218" s="3"/>
       <c r="K218" s="3"/>
@@ -8320,23 +8386,23 @@
       <c r="M218" s="3"/>
     </row>
     <row r="219" spans="1:13">
-      <c r="A219" s="3">
-        <v>402</v>
+      <c r="A219" s="3" t="s">
+        <v>545</v>
       </c>
       <c r="B219" s="3">
         <v>2</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="D219" s="9"/>
       <c r="E219" s="6">
         <v>0.4</v>
       </c>
       <c r="F219" s="6"/>
-      <c r="H219" s="15"/>
+      <c r="H219" s="17"/>
       <c r="I219" s="3" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="J219" s="3"/>
       <c r="K219" s="3"/>
@@ -8344,21 +8410,21 @@
       <c r="M219" s="3"/>
     </row>
     <row r="220" s="1" customFormat="1" spans="1:13">
-      <c r="A220" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="B220" s="10"/>
-      <c r="C220" s="10"/>
-      <c r="D220" s="11"/>
-      <c r="E220" s="16"/>
-      <c r="F220" s="16"/>
-      <c r="G220" s="16"/>
-      <c r="H220" s="17"/>
-      <c r="I220" s="10"/>
-      <c r="J220" s="10"/>
-      <c r="K220" s="10"/>
-      <c r="L220" s="10"/>
-      <c r="M220" s="10"/>
+      <c r="A220" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="B220" s="11"/>
+      <c r="C220" s="11"/>
+      <c r="D220" s="12"/>
+      <c r="E220" s="18"/>
+      <c r="F220" s="18"/>
+      <c r="G220" s="18"/>
+      <c r="H220" s="19"/>
+      <c r="I220" s="11"/>
+      <c r="J220" s="11"/>
+      <c r="K220" s="11"/>
+      <c r="L220" s="11"/>
+      <c r="M220" s="11"/>
     </row>
     <row r="221" spans="1:13">
       <c r="A221" s="3">
@@ -8368,10 +8434,10 @@
         <v>2</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="E221" s="6">
         <v>0.4</v>
@@ -8379,9 +8445,9 @@
       <c r="F221" s="6">
         <v>0.8</v>
       </c>
-      <c r="H221" s="15"/>
+      <c r="H221" s="17"/>
       <c r="I221" s="3" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="J221" s="3"/>
       <c r="K221" s="3"/>
@@ -8396,10 +8462,10 @@
         <v>2</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="E222" s="6">
         <v>0.6</v>
@@ -8407,9 +8473,9 @@
       <c r="F222" s="6">
         <v>0.8</v>
       </c>
-      <c r="H222" s="15"/>
+      <c r="H222" s="17"/>
       <c r="I222" s="3" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
@@ -8424,18 +8490,18 @@
         <v>2</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="E223" s="6">
         <v>0.8</v>
       </c>
       <c r="F223" s="6"/>
-      <c r="H223" s="15"/>
+      <c r="H223" s="17"/>
       <c r="I223" s="3" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="J223" s="3"/>
       <c r="K223" s="3"/>
@@ -8443,17 +8509,17 @@
       <c r="M223" s="3"/>
     </row>
     <row r="224" spans="1:13">
-      <c r="A224" s="3">
-        <v>504</v>
+      <c r="A224" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="B224" s="3">
         <v>2</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="E224" s="6">
         <v>0.4</v>
@@ -8461,9 +8527,9 @@
       <c r="F224" s="6">
         <v>0.8</v>
       </c>
-      <c r="H224" s="15"/>
+      <c r="H224" s="17"/>
       <c r="I224" s="3" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="J224" s="3"/>
       <c r="K224" s="3"/>
@@ -8481,7 +8547,7 @@
       <c r="D225" s="9"/>
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
-      <c r="H225" s="15"/>
+      <c r="H225" s="17"/>
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
       <c r="K225" s="3"/>
@@ -8489,21 +8555,21 @@
       <c r="M225" s="3"/>
     </row>
     <row r="226" s="1" customFormat="1" spans="1:13">
-      <c r="A226" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="B226" s="10"/>
-      <c r="C226" s="10"/>
-      <c r="D226" s="11"/>
-      <c r="E226" s="16"/>
-      <c r="F226" s="16"/>
-      <c r="G226" s="16"/>
-      <c r="H226" s="17"/>
-      <c r="I226" s="10"/>
-      <c r="J226" s="10"/>
-      <c r="K226" s="10"/>
-      <c r="L226" s="10"/>
-      <c r="M226" s="10"/>
+      <c r="A226" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="B226" s="11"/>
+      <c r="C226" s="11"/>
+      <c r="D226" s="12"/>
+      <c r="E226" s="18"/>
+      <c r="F226" s="18"/>
+      <c r="G226" s="18"/>
+      <c r="H226" s="19"/>
+      <c r="I226" s="11"/>
+      <c r="J226" s="11"/>
+      <c r="K226" s="11"/>
+      <c r="L226" s="11"/>
+      <c r="M226" s="11"/>
     </row>
     <row r="227" spans="1:13">
       <c r="A227" s="3">
@@ -8513,10 +8579,10 @@
         <v>2</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="E227" s="6">
         <v>0.8</v>
@@ -8524,9 +8590,9 @@
       <c r="F227" s="6">
         <v>0.9</v>
       </c>
-      <c r="H227" s="15"/>
+      <c r="H227" s="17"/>
       <c r="I227" s="3" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="J227" s="3"/>
       <c r="K227" s="3"/>
@@ -8539,7 +8605,7 @@
       <c r="D228" s="9"/>
       <c r="E228" s="6"/>
       <c r="F228" s="6"/>
-      <c r="H228" s="15"/>
+      <c r="H228" s="17"/>
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
@@ -8547,21 +8613,21 @@
       <c r="M228" s="3"/>
     </row>
     <row r="229" s="1" customFormat="1" spans="1:13">
-      <c r="A229" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="B229" s="10"/>
-      <c r="C229" s="10"/>
-      <c r="D229" s="11"/>
-      <c r="E229" s="16"/>
-      <c r="F229" s="16"/>
-      <c r="G229" s="16"/>
-      <c r="H229" s="17"/>
-      <c r="I229" s="10"/>
-      <c r="J229" s="10"/>
-      <c r="K229" s="10"/>
-      <c r="L229" s="10"/>
-      <c r="M229" s="10"/>
+      <c r="A229" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="B229" s="11"/>
+      <c r="C229" s="11"/>
+      <c r="D229" s="12"/>
+      <c r="E229" s="18"/>
+      <c r="F229" s="18"/>
+      <c r="G229" s="18"/>
+      <c r="H229" s="19"/>
+      <c r="I229" s="11"/>
+      <c r="J229" s="11"/>
+      <c r="K229" s="11"/>
+      <c r="L229" s="11"/>
+      <c r="M229" s="11"/>
     </row>
     <row r="230" spans="1:13">
       <c r="A230" s="3">
@@ -8571,7 +8637,7 @@
         <v>3</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="D230" s="9"/>
       <c r="E230" s="6">
@@ -8580,7 +8646,7 @@
       <c r="F230" s="6">
         <v>0.8</v>
       </c>
-      <c r="H230" s="15"/>
+      <c r="H230" s="17"/>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
@@ -8595,12 +8661,12 @@
         <v>3</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="D231" s="9"/>
       <c r="E231" s="6"/>
       <c r="F231" s="6"/>
-      <c r="H231" s="15"/>
+      <c r="H231" s="17"/>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
       <c r="K231" s="3"/>
@@ -8615,10 +8681,10 @@
         <v>3</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="E232" s="6">
         <v>0.8</v>
@@ -8626,7 +8692,7 @@
       <c r="F232" s="6">
         <v>1.3</v>
       </c>
-      <c r="H232" s="15"/>
+      <c r="H232" s="17"/>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
       <c r="K232" s="3"/>
@@ -8641,12 +8707,12 @@
         <v>3</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="D233" s="9"/>
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
-      <c r="H233" s="15"/>
+      <c r="H233" s="17"/>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
       <c r="K233" s="3"/>
@@ -8661,12 +8727,12 @@
         <v>3</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="D234" s="9"/>
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
-      <c r="H234" s="15"/>
+      <c r="H234" s="17"/>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
       <c r="K234" s="3"/>
@@ -8681,12 +8747,12 @@
         <v>3</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
       <c r="D235" s="9"/>
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
-      <c r="H235" s="15"/>
+      <c r="H235" s="17"/>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
       <c r="K235" s="3"/>
@@ -8701,12 +8767,12 @@
         <v>3</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="D236" s="9"/>
       <c r="E236" s="6"/>
       <c r="F236" s="6"/>
-      <c r="H236" s="15"/>
+      <c r="H236" s="17"/>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
       <c r="K236" s="3"/>
@@ -8719,7 +8785,7 @@
       <c r="D237" s="9"/>
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
-      <c r="H237" s="15"/>
+      <c r="H237" s="17"/>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
       <c r="K237" s="3"/>

--- a/dist/modelsConfig.xlsx
+++ b/dist/modelsConfig.xlsx
@@ -8,16 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="574">
-  <si>
-    <t>序号，lora唯一标识码，同类型不可重复</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="576">
   <si>
     <t>类型 1=lora 2=lyco 3=embedding</t>
   </si>
@@ -178,6 +176,9 @@
     <t>MengX girl_Mix 118533@137910</t>
   </si>
   <si>
+    <t>角色</t>
+  </si>
+  <si>
     <t>st</t>
   </si>
   <si>
@@ -346,6 +347,9 @@
     <t>【原神】八重神子 超逼真</t>
   </si>
   <si>
+    <t>衣服</t>
+  </si>
+  <si>
     <t>LiquidClothesV1fixed</t>
   </si>
   <si>
@@ -1099,6 +1103,9 @@
     <t>anxiang | 暗香 (fp16/lite)</t>
   </si>
   <si>
+    <t>bar</t>
+  </si>
+  <si>
     <t>bar1</t>
   </si>
   <si>
@@ -1117,6 +1124,12 @@
     <t>诱惑的肉体 ChihunHentai/fascinating body Lora #106586@114480</t>
   </si>
   <si>
+    <t>niji-style[niji]</t>
+  </si>
+  <si>
+    <t>niji 风格</t>
+  </si>
+  <si>
     <t>背景</t>
   </si>
   <si>
@@ -1603,9 +1616,6 @@
     <t>★★★★ 改变画风，很炸裂★★★★★ 62293@94944</t>
   </si>
   <si>
-    <t>角色</t>
-  </si>
-  <si>
     <t>SlimeC</t>
   </si>
   <si>
@@ -1658,9 +1668,6 @@
   </si>
   <si>
     <t>彩度優化器 Concept</t>
-  </si>
-  <si>
-    <t>衣服</t>
   </si>
   <si>
     <t>NakedTowel</t>
@@ -1744,18 +1751,83 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="#\ ?/?"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1768,37 +1840,53 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1813,52 +1901,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1875,29 +1919,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1930,7 +1951,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1942,13 +1963,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1960,37 +2011,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2002,43 +2035,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2056,7 +2059,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2068,31 +2095,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2105,12 +2132,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2128,25 +2149,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2166,6 +2169,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2176,6 +2188,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2206,144 +2242,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2352,26 +2373,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2405,6 +2426,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2415,9 +2439,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -2433,6 +2454,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2754,12 +2778,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M237"/>
+  <dimension ref="A1:M238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A125" sqref="$A125:$XFD125"/>
+      <selection pane="bottomLeft" activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2775,35 +2799,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2814,10 +2836,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="E2" s="6">
         <v>0.4</v>
@@ -2830,7 +2852,7 @@
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -2845,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="6">
@@ -2859,7 +2881,7 @@
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -2874,7 +2896,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="6">
@@ -2888,7 +2910,7 @@
       </c>
       <c r="H4" s="17"/>
       <c r="I4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -2903,10 +2925,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="E5" s="6">
         <v>0.6</v>
@@ -2919,7 +2941,7 @@
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -2934,10 +2956,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="E6" s="6">
         <v>0.6</v>
@@ -2950,7 +2972,7 @@
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -2965,7 +2987,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="6">
@@ -2979,7 +3001,7 @@
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -2994,10 +3016,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="E8" s="6">
         <v>0.4</v>
@@ -3010,7 +3032,7 @@
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -3025,7 +3047,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="6">
@@ -3039,7 +3061,7 @@
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -3054,10 +3076,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="E10" s="6">
         <v>0.4</v>
@@ -3070,7 +3092,7 @@
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -3085,7 +3107,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="6">
@@ -3099,7 +3121,7 @@
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -3114,10 +3136,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="E12" s="6">
         <v>0.6</v>
@@ -3130,7 +3152,7 @@
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -3139,13 +3161,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="6">
@@ -3159,7 +3181,7 @@
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -3174,10 +3196,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="E14" s="6">
         <v>0.5</v>
@@ -3203,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="6">
@@ -3217,7 +3239,7 @@
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -3232,10 +3254,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="E16" s="6">
         <v>0.4</v>
@@ -3248,7 +3270,7 @@
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -3263,10 +3285,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="E17" s="6">
         <v>0.3</v>
@@ -3279,7 +3301,7 @@
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -3288,13 +3310,13 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="6">
@@ -3308,27 +3330,29 @@
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:13">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
+    <row r="19" s="1" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A19" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="19"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="10" t="s">
@@ -3949,22 +3973,22 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" s="1" customFormat="1" spans="1:13">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11">
-        <v>1</v>
-      </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="12"/>
+    <row r="41" s="1" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A41" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="13"/>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
       <c r="H41" s="19"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="3">
@@ -3974,16 +3998,16 @@
         <v>1</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="H42" s="17"/>
       <c r="I42" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -3998,10 +4022,10 @@
         <v>1</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E43" s="6">
         <v>0.6</v>
@@ -4009,7 +4033,7 @@
       <c r="F43" s="6"/>
       <c r="H43" s="17"/>
       <c r="I43" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -4024,10 +4048,10 @@
         <v>1</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E44" s="6">
         <v>0.6</v>
@@ -4037,7 +4061,7 @@
       </c>
       <c r="H44" s="17"/>
       <c r="I44" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -4052,10 +4076,10 @@
         <v>1</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E45" s="6">
         <v>0.6</v>
@@ -4063,7 +4087,7 @@
       <c r="F45" s="6"/>
       <c r="H45" s="17"/>
       <c r="I45" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -4078,10 +4102,10 @@
         <v>1</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E46" s="6">
         <v>0.4</v>
@@ -4094,7 +4118,7 @@
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -4109,10 +4133,10 @@
         <v>1</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E47" s="6">
         <v>0.7</v>
@@ -4122,7 +4146,7 @@
       </c>
       <c r="H47" s="17"/>
       <c r="I47" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -4137,10 +4161,10 @@
         <v>1</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E48" s="6">
         <v>0.4</v>
@@ -4150,7 +4174,7 @@
       </c>
       <c r="H48" s="17"/>
       <c r="I48" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -4165,10 +4189,10 @@
         <v>1</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E49" s="6">
         <v>0.7</v>
@@ -4176,7 +4200,7 @@
       <c r="F49" s="6"/>
       <c r="H49" s="17"/>
       <c r="I49" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -4191,10 +4215,10 @@
         <v>1</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E50" s="6">
         <v>0.6</v>
@@ -4204,7 +4228,7 @@
       </c>
       <c r="H50" s="17"/>
       <c r="I50" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -4219,10 +4243,10 @@
         <v>1</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E51" s="6">
         <v>0.6</v>
@@ -4232,7 +4256,7 @@
       </c>
       <c r="H51" s="17"/>
       <c r="I51" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
@@ -4247,16 +4271,16 @@
         <v>1</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="H52" s="17"/>
       <c r="I52" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -4271,10 +4295,10 @@
         <v>1</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E53" s="6">
         <v>0.6</v>
@@ -4284,7 +4308,7 @@
       </c>
       <c r="H53" s="17"/>
       <c r="I53" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
@@ -4299,10 +4323,10 @@
         <v>1</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E54" s="6">
         <v>0.8</v>
@@ -4310,7 +4334,7 @@
       <c r="F54" s="6"/>
       <c r="H54" s="17"/>
       <c r="I54" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -4325,10 +4349,10 @@
         <v>1</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E55" s="6">
         <v>0.35</v>
@@ -4338,7 +4362,7 @@
       </c>
       <c r="H55" s="17"/>
       <c r="I55" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -4347,16 +4371,16 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B56" s="3">
         <v>1</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E56" s="6">
         <v>0.6</v>
@@ -4364,7 +4388,7 @@
       <c r="F56" s="6"/>
       <c r="H56" s="17"/>
       <c r="I56" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -4375,13 +4399,13 @@
       <c r="A57" s="3">
         <v>316</v>
       </c>
-      <c r="B57" s="13">
-        <v>1</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D57" s="14"/>
+      <c r="B57" s="14">
+        <v>1</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" s="15"/>
       <c r="E57" s="20">
         <v>0.8</v>
       </c>
@@ -4390,43 +4414,43 @@
       </c>
       <c r="G57" s="20"/>
       <c r="H57" s="17"/>
-      <c r="I57" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="1:13">
+      <c r="I57" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+    </row>
+    <row r="58" s="1" customFormat="1" ht="28.8" spans="1:13">
       <c r="A58" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="12"/>
+        <v>158</v>
+      </c>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="13"/>
       <c r="E58" s="18"/>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
       <c r="H58" s="19"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B59" s="3">
         <v>1</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E59" s="6">
         <v>0.4</v>
@@ -4436,7 +4460,7 @@
       </c>
       <c r="H59" s="17"/>
       <c r="I59" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -4451,10 +4475,10 @@
         <v>1</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E60" s="6">
         <v>0.4</v>
@@ -4464,7 +4488,7 @@
       </c>
       <c r="H60" s="17"/>
       <c r="I60" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
@@ -4479,10 +4503,10 @@
         <v>1</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E61" s="6">
         <v>0.6</v>
@@ -4492,7 +4516,7 @@
       </c>
       <c r="H61" s="17"/>
       <c r="I61" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
@@ -4501,16 +4525,16 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B62" s="3">
         <v>1</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E62" s="6">
         <v>0.7</v>
@@ -4518,7 +4542,7 @@
       <c r="F62" s="6"/>
       <c r="H62" s="17"/>
       <c r="I62" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
@@ -4527,16 +4551,16 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B63" s="3">
         <v>1</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E63" s="6">
         <v>0.8</v>
@@ -4544,7 +4568,7 @@
       <c r="F63" s="6"/>
       <c r="H63" s="17"/>
       <c r="I63" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -4552,17 +4576,17 @@
       <c r="M63" s="3"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="15">
+      <c r="A64" s="14">
         <v>3006</v>
       </c>
       <c r="B64" s="3">
         <v>1</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E64" s="6">
         <v>0.6</v>
@@ -4570,7 +4594,7 @@
       <c r="F64" s="6"/>
       <c r="H64" s="17"/>
       <c r="I64" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
@@ -4579,16 +4603,16 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B65" s="3">
         <v>1</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E65" s="6">
         <v>0.6</v>
@@ -4598,7 +4622,7 @@
       </c>
       <c r="H65" s="17"/>
       <c r="I65" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
@@ -4607,16 +4631,16 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B66" s="3">
         <v>1</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E66" s="6">
         <v>0.8</v>
@@ -4624,7 +4648,7 @@
       <c r="F66" s="6"/>
       <c r="H66" s="17"/>
       <c r="I66" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
@@ -4633,16 +4657,16 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B67" s="3">
         <v>1</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E67" s="6">
         <v>0.6</v>
@@ -4650,7 +4674,7 @@
       <c r="F67" s="6"/>
       <c r="H67" s="17"/>
       <c r="I67" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
@@ -4658,19 +4682,19 @@
       <c r="M67" s="3"/>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:13">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="12"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="13"/>
       <c r="E68" s="18"/>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
       <c r="H68" s="19"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="11"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
     </row>
     <row r="69" spans="2:13">
       <c r="B69" s="3"/>
@@ -4693,10 +4717,10 @@
         <v>1</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E70" s="6">
         <v>0.6</v>
@@ -4706,7 +4730,7 @@
       </c>
       <c r="H70" s="17"/>
       <c r="I70" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
@@ -4721,10 +4745,10 @@
         <v>1</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E71" s="6">
         <v>0.6</v>
@@ -4734,7 +4758,7 @@
       </c>
       <c r="H71" s="17"/>
       <c r="I71" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
@@ -4749,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="6">
@@ -4773,7 +4797,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="6">
@@ -4784,29 +4808,29 @@
       </c>
       <c r="H73" s="17"/>
       <c r="I73" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
     </row>
-    <row r="74" s="1" customFormat="1" spans="1:13">
-      <c r="A74" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="12"/>
+    <row r="74" s="1" customFormat="1" ht="23.2" spans="1:13">
+      <c r="A74" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="13"/>
       <c r="E74" s="18"/>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
       <c r="H74" s="19"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
-      <c r="L74" s="11"/>
-      <c r="M74" s="11"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="3">
@@ -4816,10 +4840,10 @@
         <v>1</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E75" s="6">
         <v>0.6</v>
@@ -4829,7 +4853,7 @@
       </c>
       <c r="H75" s="17"/>
       <c r="I75" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
@@ -4838,16 +4862,16 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B76" s="3">
         <v>1</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E76" s="6">
         <v>0.3</v>
@@ -4857,7 +4881,7 @@
       </c>
       <c r="H76" s="17"/>
       <c r="I76" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
@@ -4866,16 +4890,16 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B77" s="3">
         <v>1</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E77" s="6">
         <v>0.4</v>
@@ -4885,7 +4909,7 @@
       </c>
       <c r="H77" s="17"/>
       <c r="I77" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -4894,16 +4918,16 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B78" s="3">
         <v>1</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E78" s="6">
         <v>0.4</v>
@@ -4913,7 +4937,7 @@
       </c>
       <c r="H78" s="17"/>
       <c r="I78" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
@@ -4928,10 +4952,10 @@
         <v>1</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E79" s="6">
         <v>0.7</v>
@@ -4941,7 +4965,7 @@
       </c>
       <c r="H79" s="17"/>
       <c r="I79" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
@@ -4956,10 +4980,10 @@
         <v>1</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E80" s="6">
         <v>0.6</v>
@@ -4969,29 +4993,29 @@
       </c>
       <c r="H80" s="17"/>
       <c r="I80" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
     </row>
-    <row r="81" s="1" customFormat="1" spans="1:13">
+    <row r="81" s="1" customFormat="1" ht="28.8" spans="1:13">
       <c r="A81" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="12"/>
+        <v>222</v>
+      </c>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="13"/>
       <c r="E81" s="18"/>
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
       <c r="H81" s="19"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="11"/>
-      <c r="L81" s="11"/>
-      <c r="M81" s="11"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="3">
@@ -5001,10 +5025,10 @@
         <v>1</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E82" s="6">
         <v>0.4</v>
@@ -5027,10 +5051,10 @@
         <v>1</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E83" s="6">
         <v>0.8</v>
@@ -5038,7 +5062,7 @@
       <c r="F83" s="6"/>
       <c r="H83" s="17"/>
       <c r="I83" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
@@ -5047,16 +5071,16 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B84" s="3">
         <v>1</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E84" s="6">
         <v>0.6</v>
@@ -5066,7 +5090,7 @@
       </c>
       <c r="H84" s="17"/>
       <c r="I84" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -5075,16 +5099,16 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B85" s="3">
         <v>1</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E85" s="6">
         <v>0.6</v>
@@ -5094,7 +5118,7 @@
       </c>
       <c r="H85" s="17"/>
       <c r="I85" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
@@ -5109,10 +5133,10 @@
         <v>1</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E86" s="6">
         <v>0.6</v>
@@ -5122,7 +5146,7 @@
       </c>
       <c r="H86" s="17"/>
       <c r="I86" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
@@ -5137,10 +5161,10 @@
         <v>1</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E87" s="6">
         <v>0.6</v>
@@ -5150,7 +5174,7 @@
       </c>
       <c r="H87" s="17"/>
       <c r="I87" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
@@ -5165,10 +5189,10 @@
         <v>1</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E88" s="6">
         <v>0.7</v>
@@ -5178,29 +5202,29 @@
       </c>
       <c r="H88" s="17"/>
       <c r="I88" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
     </row>
-    <row r="89" s="1" customFormat="1" spans="1:13">
+    <row r="89" s="1" customFormat="1" ht="28.8" spans="1:13">
       <c r="A89" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="12"/>
+        <v>245</v>
+      </c>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="13"/>
       <c r="E89" s="18"/>
       <c r="F89" s="18"/>
       <c r="G89" s="18"/>
       <c r="H89" s="19"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="11"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="3">
@@ -5210,10 +5234,10 @@
         <v>1</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E90" s="6">
         <v>0.4</v>
@@ -5236,10 +5260,10 @@
         <v>1</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E91" s="6">
         <v>0.4</v>
@@ -5262,10 +5286,10 @@
         <v>1</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E92" s="6">
         <v>0.4</v>
@@ -5288,10 +5312,10 @@
         <v>1</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E93" s="6">
         <v>0.4</v>
@@ -5308,16 +5332,16 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B94" s="3">
         <v>1</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E94" s="6">
         <v>0.4</v>
@@ -5340,10 +5364,10 @@
         <v>1</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E95" s="6">
         <v>0.4</v>
@@ -5358,22 +5382,22 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
     </row>
-    <row r="96" s="1" customFormat="1" spans="1:13">
+    <row r="96" s="1" customFormat="1" ht="28.8" spans="1:13">
       <c r="A96" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="12"/>
+        <v>259</v>
+      </c>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="13"/>
       <c r="E96" s="18"/>
       <c r="F96" s="18"/>
       <c r="G96" s="18"/>
       <c r="H96" s="19"/>
-      <c r="I96" s="11"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="11"/>
-      <c r="L96" s="11"/>
-      <c r="M96" s="11"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="3">
@@ -5383,10 +5407,10 @@
         <v>1</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E97" s="6">
         <v>0.5</v>
@@ -5394,7 +5418,7 @@
       <c r="F97" s="6"/>
       <c r="H97" s="17"/>
       <c r="I97" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
@@ -5409,10 +5433,10 @@
         <v>1</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E98" s="6">
         <v>0.6</v>
@@ -5422,7 +5446,7 @@
       </c>
       <c r="H98" s="17"/>
       <c r="I98" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
@@ -5437,10 +5461,10 @@
         <v>1</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E99" s="6">
         <v>0.6</v>
@@ -5448,7 +5472,7 @@
       <c r="F99" s="6"/>
       <c r="H99" s="17"/>
       <c r="I99" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
@@ -5463,10 +5487,10 @@
         <v>1</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E100" s="6">
         <v>0.6</v>
@@ -5474,7 +5498,7 @@
       <c r="F100" s="6"/>
       <c r="H100" s="17"/>
       <c r="I100" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
@@ -5494,35 +5518,35 @@
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
     </row>
-    <row r="102" s="1" customFormat="1" spans="1:13">
+    <row r="102" s="1" customFormat="1" ht="28.8" spans="1:13">
       <c r="A102" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="12"/>
+        <v>272</v>
+      </c>
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="13"/>
       <c r="E102" s="18"/>
       <c r="F102" s="18"/>
       <c r="G102" s="18"/>
       <c r="H102" s="19"/>
-      <c r="I102" s="11"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="11"/>
-      <c r="L102" s="11"/>
-      <c r="M102" s="11"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="3">
-        <v>401</v>
+      <c r="A103" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="B103" s="3">
         <v>1</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E103" s="6">
         <v>0.4</v>
@@ -5532,7 +5556,7 @@
       </c>
       <c r="H103" s="17"/>
       <c r="I103" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
@@ -5547,10 +5571,10 @@
         <v>1</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E104" s="6">
         <v>0.5</v>
@@ -5560,7 +5584,7 @@
       </c>
       <c r="H104" s="17"/>
       <c r="I104" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
@@ -5575,10 +5599,10 @@
         <v>1</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E105" s="6">
         <v>0.8</v>
@@ -5586,7 +5610,7 @@
       <c r="F105" s="6"/>
       <c r="H105" s="17"/>
       <c r="I105" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
@@ -5601,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="6">
@@ -5612,7 +5636,7 @@
       </c>
       <c r="H106" s="17"/>
       <c r="I106" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
@@ -5627,10 +5651,10 @@
         <v>1</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E107" s="6">
         <v>0.8</v>
@@ -5638,7 +5662,7 @@
       <c r="F107" s="6"/>
       <c r="H107" s="17"/>
       <c r="I107" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
@@ -5653,10 +5677,10 @@
         <v>1</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E108" s="6">
         <v>0.6</v>
@@ -5664,7 +5688,7 @@
       <c r="F108" s="6"/>
       <c r="H108" s="17"/>
       <c r="I108" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
@@ -5679,10 +5703,10 @@
         <v>1</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E109" s="6">
         <v>0.5</v>
@@ -5692,7 +5716,7 @@
       </c>
       <c r="H109" s="17"/>
       <c r="I109" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
@@ -5707,10 +5731,10 @@
         <v>1</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E110" s="6">
         <v>0.8</v>
@@ -5731,10 +5755,10 @@
         <v>1</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E111" s="6">
         <v>0.4</v>
@@ -5744,7 +5768,7 @@
       </c>
       <c r="H111" s="17"/>
       <c r="I111" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
@@ -5759,10 +5783,10 @@
         <v>1</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E112" s="6">
         <v>0.6</v>
@@ -5770,7 +5794,7 @@
       <c r="F112" s="6"/>
       <c r="H112" s="17"/>
       <c r="I112" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
@@ -5785,10 +5809,10 @@
         <v>1</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E113" s="6">
         <v>0.6</v>
@@ -5796,7 +5820,7 @@
       <c r="F113" s="6"/>
       <c r="H113" s="17"/>
       <c r="I113" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
@@ -5811,10 +5835,10 @@
         <v>1</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E114" s="6">
         <v>0.7</v>
@@ -5822,7 +5846,7 @@
       <c r="F114" s="6"/>
       <c r="H114" s="17"/>
       <c r="I114" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
@@ -5837,10 +5861,10 @@
         <v>1</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E115" s="6">
         <v>0.4</v>
@@ -5850,7 +5874,7 @@
       </c>
       <c r="H115" s="17"/>
       <c r="I115" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
@@ -5865,10 +5889,10 @@
         <v>1</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E116" s="6">
         <v>0.8</v>
@@ -5876,7 +5900,7 @@
       <c r="F116" s="6"/>
       <c r="H116" s="17"/>
       <c r="I116" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
@@ -5896,22 +5920,22 @@
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
     </row>
-    <row r="118" s="1" customFormat="1" spans="1:13">
+    <row r="118" s="1" customFormat="1" ht="28.8" spans="1:13">
       <c r="A118" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="12"/>
+        <v>312</v>
+      </c>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="13"/>
       <c r="E118" s="18"/>
       <c r="F118" s="18"/>
       <c r="G118" s="18"/>
       <c r="H118" s="19"/>
-      <c r="I118" s="11"/>
-      <c r="J118" s="11"/>
-      <c r="K118" s="11"/>
-      <c r="L118" s="11"/>
-      <c r="M118" s="11"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="12"/>
+      <c r="M118" s="12"/>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="3">
@@ -5921,10 +5945,10 @@
         <v>1</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E119" s="6">
         <v>0.4</v>
@@ -5934,7 +5958,7 @@
       </c>
       <c r="H119" s="17"/>
       <c r="I119" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
@@ -5949,10 +5973,10 @@
         <v>1</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E120" s="6">
         <v>0.4</v>
@@ -5975,10 +5999,10 @@
         <v>1</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E121" s="6">
         <v>0.8</v>
@@ -5986,7 +6010,7 @@
       <c r="F121" s="6"/>
       <c r="H121" s="17"/>
       <c r="I121" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
@@ -5995,16 +6019,16 @@
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B122" s="3">
         <v>1</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E122" s="6">
         <v>0.5</v>
@@ -6014,7 +6038,7 @@
       </c>
       <c r="H122" s="17"/>
       <c r="I122" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
@@ -6023,16 +6047,16 @@
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B123" s="3">
         <v>1</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E123" s="6">
         <v>0.6</v>
@@ -6042,7 +6066,7 @@
       </c>
       <c r="H123" s="17"/>
       <c r="I123" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
@@ -6051,16 +6075,16 @@
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B124" s="3">
         <v>1</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E124" s="6">
         <v>0.6</v>
@@ -6070,7 +6094,7 @@
       </c>
       <c r="H124" s="17"/>
       <c r="I124" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
@@ -6085,10 +6109,10 @@
         <v>1</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E125" s="6">
         <v>0.7</v>
@@ -6098,7 +6122,7 @@
       </c>
       <c r="H125" s="17"/>
       <c r="I125" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
@@ -6113,10 +6137,10 @@
         <v>1</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E126" s="6">
         <v>0.9</v>
@@ -6124,7 +6148,7 @@
       <c r="F126" s="6"/>
       <c r="H126" s="17"/>
       <c r="I126" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
@@ -6139,10 +6163,10 @@
         <v>1</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E127" s="6">
         <v>0.6</v>
@@ -6165,10 +6189,10 @@
         <v>1</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E128" s="6">
         <v>0.7</v>
@@ -6176,7 +6200,7 @@
       <c r="F128" s="6"/>
       <c r="H128" s="17"/>
       <c r="I128" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
@@ -6191,10 +6215,10 @@
         <v>1</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E129" s="6">
         <v>0.6</v>
@@ -6202,7 +6226,7 @@
       <c r="F129" s="6"/>
       <c r="H129" s="17"/>
       <c r="I129" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
@@ -6217,10 +6241,10 @@
         <v>1</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E130" s="6">
         <v>0.6</v>
@@ -6228,7 +6252,7 @@
       <c r="F130" s="6"/>
       <c r="H130" s="17"/>
       <c r="I130" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
@@ -6237,16 +6261,16 @@
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B131" s="3">
         <v>1</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E131" s="6">
         <v>0.8</v>
@@ -6254,7 +6278,7 @@
       <c r="F131" s="6"/>
       <c r="H131" s="17"/>
       <c r="I131" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
@@ -6269,7 +6293,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D132" s="9"/>
       <c r="E132" s="6">
@@ -6278,7 +6302,7 @@
       <c r="F132" s="6"/>
       <c r="H132" s="17"/>
       <c r="I132" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
@@ -6293,10 +6317,10 @@
         <v>1</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E133" s="6">
         <v>0.8</v>
@@ -6304,7 +6328,7 @@
       <c r="F133" s="6"/>
       <c r="H133" s="17"/>
       <c r="I133" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
@@ -6313,13 +6337,13 @@
     </row>
     <row r="134" spans="1:13">
       <c r="A134" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B134" s="3">
         <v>1</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D134" s="9"/>
       <c r="E134" s="6">
@@ -6330,7 +6354,7 @@
       </c>
       <c r="H134" s="17"/>
       <c r="I134" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
@@ -6338,17 +6362,17 @@
       <c r="M134" s="3"/>
     </row>
     <row r="135" spans="1:13">
-      <c r="A135" s="3">
-        <v>517</v>
+      <c r="A135" s="3" t="s">
+        <v>362</v>
       </c>
       <c r="B135" s="3">
         <v>1</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E135" s="6">
         <v>0.4</v>
@@ -6358,7 +6382,7 @@
       </c>
       <c r="H135" s="17"/>
       <c r="I135" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
@@ -6373,10 +6397,10 @@
         <v>1</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E136" s="6">
         <v>0.6</v>
@@ -6384,93 +6408,91 @@
       <c r="F136" s="6"/>
       <c r="H136" s="17"/>
       <c r="I136" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
     </row>
-    <row r="137" spans="2:13">
+    <row r="137" spans="1:13">
+      <c r="A137" s="3">
+        <v>519</v>
+      </c>
       <c r="B137" s="3">
         <v>1</v>
       </c>
-      <c r="C137" s="3"/>
+      <c r="C137" s="3" t="s">
+        <v>369</v>
+      </c>
       <c r="D137" s="9"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
+      <c r="E137" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="F137" s="6">
+        <v>0.85</v>
+      </c>
       <c r="H137" s="17"/>
-      <c r="I137" s="3"/>
+      <c r="I137" s="3" t="s">
+        <v>370</v>
+      </c>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
     </row>
-    <row r="138" s="1" customFormat="1" spans="1:13">
-      <c r="A138" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="B138" s="11"/>
-      <c r="C138" s="11"/>
-      <c r="D138" s="12"/>
-      <c r="E138" s="18"/>
-      <c r="F138" s="18"/>
-      <c r="G138" s="18"/>
-      <c r="H138" s="19"/>
-      <c r="I138" s="11"/>
-      <c r="J138" s="11"/>
-      <c r="K138" s="11"/>
-      <c r="L138" s="11"/>
-      <c r="M138" s="11"/>
-    </row>
-    <row r="139" spans="1:13">
-      <c r="A139" s="3">
-        <v>601</v>
-      </c>
-      <c r="B139" s="3">
-        <v>1</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="D139" s="9"/>
-      <c r="E139" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="F139" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="H139" s="17"/>
-      <c r="I139" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="J139" s="3"/>
-      <c r="K139" s="3"/>
-      <c r="L139" s="3"/>
-      <c r="M139" s="3"/>
+    <row r="138" spans="2:13">
+      <c r="B138" s="3">
+        <v>1</v>
+      </c>
+      <c r="C138" s="3"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="H138" s="17"/>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
+      <c r="K138" s="3"/>
+      <c r="L138" s="3"/>
+      <c r="M138" s="3"/>
+    </row>
+    <row r="139" s="1" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A139" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="18"/>
+      <c r="H139" s="19"/>
+      <c r="I139" s="12"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="12"/>
+      <c r="L139" s="12"/>
+      <c r="M139" s="12"/>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="3">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B140" s="3">
         <v>1</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="D140" s="9" t="s">
-        <v>371</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="D140" s="9"/>
       <c r="E140" s="6">
         <v>0.6</v>
       </c>
       <c r="F140" s="6">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="H140" s="17"/>
       <c r="I140" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
@@ -6479,26 +6501,26 @@
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="3">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B141" s="3">
         <v>1</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E141" s="6">
         <v>0.6</v>
       </c>
       <c r="F141" s="6">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="H141" s="17"/>
       <c r="I141" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
@@ -6507,24 +6529,26 @@
     </row>
     <row r="142" spans="1:13">
       <c r="A142" s="3">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B142" s="3">
         <v>1</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E142" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="F142" s="6"/>
+        <v>0.6</v>
+      </c>
+      <c r="F142" s="6">
+        <v>0.8</v>
+      </c>
       <c r="H142" s="17"/>
       <c r="I142" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
@@ -6533,26 +6557,24 @@
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="3">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B143" s="3">
         <v>1</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E143" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="F143" s="6">
-        <v>0.8</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="F143" s="6"/>
       <c r="H143" s="17"/>
       <c r="I143" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
@@ -6561,192 +6583,194 @@
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="3">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B144" s="3">
         <v>1</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E144" s="6">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F144" s="6">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H144" s="17"/>
       <c r="I144" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
     </row>
-    <row r="145" spans="2:13">
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6"/>
+    <row r="145" spans="1:13">
+      <c r="A145" s="3">
+        <v>606</v>
+      </c>
+      <c r="B145" s="3">
+        <v>1</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="E145" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F145" s="6">
+        <v>0.9</v>
+      </c>
       <c r="H145" s="17"/>
-      <c r="I145" s="3"/>
+      <c r="I145" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
     </row>
-    <row r="146" s="1" customFormat="1" spans="1:13">
-      <c r="A146" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="B146" s="11"/>
-      <c r="C146" s="11"/>
-      <c r="D146" s="12"/>
-      <c r="E146" s="18"/>
-      <c r="F146" s="18"/>
-      <c r="G146" s="18"/>
-      <c r="H146" s="19"/>
-      <c r="I146" s="11"/>
-      <c r="J146" s="11"/>
-      <c r="K146" s="11"/>
-      <c r="L146" s="11"/>
-      <c r="M146" s="11"/>
-    </row>
-    <row r="147" spans="1:13">
-      <c r="A147" s="3">
-        <v>801</v>
-      </c>
-      <c r="B147" s="3">
-        <v>1</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="D147" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="E147" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="F147" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="H147" s="17"/>
-      <c r="I147" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="J147" s="3"/>
-      <c r="K147" s="3"/>
-      <c r="L147" s="3"/>
-      <c r="M147" s="3"/>
+    <row r="146" spans="2:13">
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
+      <c r="H146" s="17"/>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
+      <c r="K146" s="3"/>
+      <c r="L146" s="3"/>
+      <c r="M146" s="3"/>
+    </row>
+    <row r="147" s="1" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A147" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="B147" s="12"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="18"/>
+      <c r="F147" s="18"/>
+      <c r="G147" s="18"/>
+      <c r="H147" s="19"/>
+      <c r="I147" s="12"/>
+      <c r="J147" s="12"/>
+      <c r="K147" s="12"/>
+      <c r="L147" s="12"/>
+      <c r="M147" s="12"/>
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="3">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B148" s="3">
         <v>1</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E148" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="F148" s="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="F148" s="6">
+        <v>0.8</v>
+      </c>
       <c r="H148" s="17"/>
       <c r="I148" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
     </row>
-    <row r="149" spans="2:13">
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="6"/>
+    <row r="149" spans="1:13">
+      <c r="A149" s="3">
+        <v>802</v>
+      </c>
+      <c r="B149" s="3">
+        <v>1</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="E149" s="6">
+        <v>0.8</v>
+      </c>
       <c r="F149" s="6"/>
       <c r="H149" s="17"/>
-      <c r="I149" s="3"/>
+      <c r="I149" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
       <c r="M149" s="3"/>
     </row>
-    <row r="150" s="1" customFormat="1" spans="1:13">
-      <c r="A150" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="B150" s="11"/>
-      <c r="C150" s="11"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="18"/>
-      <c r="F150" s="18"/>
-      <c r="G150" s="18"/>
-      <c r="H150" s="19"/>
-      <c r="I150" s="11"/>
-      <c r="J150" s="11"/>
-      <c r="K150" s="11"/>
-      <c r="L150" s="11"/>
-      <c r="M150" s="11"/>
-    </row>
-    <row r="151" spans="1:13">
-      <c r="A151" s="3">
-        <v>901</v>
-      </c>
-      <c r="B151" s="3">
-        <v>1</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D151" s="9"/>
-      <c r="E151" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="F151" s="6">
-        <v>2</v>
-      </c>
-      <c r="H151" s="17"/>
-      <c r="I151" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="J151" s="3"/>
-      <c r="K151" s="3"/>
-      <c r="L151" s="3"/>
-      <c r="M151" s="3"/>
+    <row r="150" spans="2:13">
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+      <c r="H150" s="17"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="3"/>
+      <c r="K150" s="3"/>
+      <c r="L150" s="3"/>
+      <c r="M150" s="3"/>
+    </row>
+    <row r="151" s="1" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A151" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="B151" s="12"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="18"/>
+      <c r="H151" s="19"/>
+      <c r="I151" s="12"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="12"/>
+      <c r="L151" s="12"/>
+      <c r="M151" s="12"/>
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="3">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B152" s="3">
         <v>1</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="6">
         <v>0.4</v>
       </c>
       <c r="F152" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H152" s="17"/>
       <c r="I152" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
@@ -6755,24 +6779,24 @@
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="3">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B153" s="3">
         <v>1</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="D153" s="9" t="s">
-        <v>398</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="D153" s="9"/>
       <c r="E153" s="6">
         <v>0.4</v>
       </c>
-      <c r="F153" s="6"/>
+      <c r="F153" s="6">
+        <v>1</v>
+      </c>
       <c r="H153" s="17"/>
       <c r="I153" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
@@ -6781,22 +6805,24 @@
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="3">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B154" s="3">
         <v>1</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="D154" s="9"/>
+        <v>401</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>402</v>
+      </c>
       <c r="E154" s="6">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F154" s="6"/>
       <c r="H154" s="17"/>
       <c r="I154" s="3" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
@@ -6805,109 +6831,103 @@
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="3">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B155" s="3">
         <v>1</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="F155" s="6">
-        <v>2</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="F155" s="6"/>
       <c r="H155" s="17"/>
       <c r="I155" s="3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
       <c r="M155" s="3"/>
     </row>
-    <row r="156" spans="2:13">
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
+    <row r="156" spans="1:13">
+      <c r="A156" s="3">
+        <v>905</v>
+      </c>
+      <c r="B156" s="3">
+        <v>1</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>406</v>
+      </c>
       <c r="D156" s="9"/>
-      <c r="E156" s="6"/>
-      <c r="F156" s="6"/>
+      <c r="E156" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="F156" s="6">
+        <v>2</v>
+      </c>
       <c r="H156" s="17"/>
-      <c r="I156" s="3"/>
+      <c r="I156" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
       <c r="M156" s="3"/>
     </row>
-    <row r="157" s="1" customFormat="1" spans="1:13">
-      <c r="A157" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="B157" s="11"/>
-      <c r="C157" s="11"/>
-      <c r="D157" s="12"/>
-      <c r="E157" s="18"/>
-      <c r="F157" s="18"/>
-      <c r="G157" s="18"/>
-      <c r="H157" s="19"/>
-      <c r="I157" s="11"/>
-      <c r="J157" s="11"/>
-      <c r="K157" s="11"/>
-      <c r="L157" s="11"/>
-      <c r="M157" s="11"/>
-    </row>
-    <row r="158" spans="1:13">
-      <c r="A158" s="3">
-        <v>701</v>
-      </c>
-      <c r="B158" s="3">
-        <v>1</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="D158" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="E158" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="F158" s="6"/>
-      <c r="H158" s="17"/>
-      <c r="I158" s="3"/>
-      <c r="J158" s="3"/>
-      <c r="K158" s="3"/>
-      <c r="L158" s="3"/>
-      <c r="M158" s="3"/>
+    <row r="157" spans="2:13">
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="H157" s="17"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3"/>
+      <c r="K157" s="3"/>
+      <c r="L157" s="3"/>
+      <c r="M157" s="3"/>
+    </row>
+    <row r="158" s="1" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A158" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="B158" s="12"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="18"/>
+      <c r="F158" s="18"/>
+      <c r="G158" s="18"/>
+      <c r="H158" s="19"/>
+      <c r="I158" s="12"/>
+      <c r="J158" s="12"/>
+      <c r="K158" s="12"/>
+      <c r="L158" s="12"/>
+      <c r="M158" s="12"/>
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="3">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B159" s="3">
         <v>1</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E159" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="F159" s="6">
-        <v>0.85</v>
-      </c>
-      <c r="H159" s="17">
-        <v>1</v>
-      </c>
-      <c r="I159" s="3" t="s">
-        <v>409</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="F159" s="6"/>
+      <c r="H159" s="17"/>
+      <c r="I159" s="3"/>
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
@@ -6915,24 +6935,28 @@
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="3">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B160" s="3">
         <v>1</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E160" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="F160" s="6"/>
-      <c r="H160" s="17"/>
+        <v>0.7</v>
+      </c>
+      <c r="F160" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="H160" s="17">
+        <v>1</v>
+      </c>
       <c r="I160" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
@@ -6941,26 +6965,24 @@
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="3">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B161" s="3">
         <v>1</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E161" s="6">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F161" s="6"/>
-      <c r="H161" s="17">
-        <v>1</v>
-      </c>
+      <c r="H161" s="17"/>
       <c r="I161" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
@@ -6969,25 +6991,27 @@
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="3">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B162" s="3">
         <v>1</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E162" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="F162" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="H162" s="17"/>
-      <c r="I162" s="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="F162" s="6"/>
+      <c r="H162" s="17">
+        <v>1</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>419</v>
+      </c>
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
@@ -6995,16 +7019,16 @@
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="3">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B163" s="3">
         <v>1</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E163" s="6">
         <v>0.4</v>
@@ -7021,26 +7045,24 @@
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="3">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B164" s="3">
         <v>1</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E164" s="6">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F164" s="6">
-        <v>1</v>
-      </c>
-      <c r="H164" s="17">
-        <v>1</v>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="H164" s="17"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
@@ -7049,24 +7071,26 @@
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="3">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B165" s="3">
         <v>1</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E165" s="6">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F165" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="H165" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="H165" s="17">
+        <v>1</v>
+      </c>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
@@ -7075,22 +7099,22 @@
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="3">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B166" s="3">
         <v>1</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E166" s="6">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F166" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H166" s="17"/>
       <c r="I166" s="3"/>
@@ -7101,25 +7125,25 @@
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="3">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B167" s="3">
         <v>1</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E167" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="F167" s="6"/>
+        <v>0.6</v>
+      </c>
+      <c r="F167" s="6">
+        <v>0.8</v>
+      </c>
       <c r="H167" s="17"/>
-      <c r="I167" s="3" t="s">
-        <v>428</v>
-      </c>
+      <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
       <c r="L167" s="3"/>
@@ -7127,23 +7151,25 @@
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="3">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B168" s="3">
         <v>1</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E168" s="6">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F168" s="6"/>
       <c r="H168" s="17"/>
-      <c r="I168" s="3"/>
+      <c r="I168" s="3" t="s">
+        <v>432</v>
+      </c>
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
@@ -7151,27 +7177,23 @@
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="3">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B169" s="3">
         <v>1</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E169" s="6">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F169" s="6"/>
-      <c r="H169" s="17">
-        <v>1</v>
-      </c>
-      <c r="I169" s="3" t="s">
-        <v>433</v>
-      </c>
+      <c r="H169" s="17"/>
+      <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
@@ -7179,23 +7201,27 @@
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="3">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B170" s="3">
         <v>1</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E170" s="6">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F170" s="6"/>
-      <c r="H170" s="17"/>
-      <c r="I170" s="3"/>
+      <c r="H170" s="17">
+        <v>1</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>437</v>
+      </c>
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
       <c r="L170" s="3"/>
@@ -7203,16 +7229,16 @@
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="3">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B171" s="3">
         <v>1</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E171" s="6">
         <v>0.5</v>
@@ -7227,24 +7253,22 @@
     </row>
     <row r="172" spans="1:13">
       <c r="A172" s="3">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B172" s="3">
         <v>1</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E172" s="6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F172" s="6"/>
-      <c r="H172" s="17">
-        <v>1</v>
-      </c>
+      <c r="H172" s="17"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
@@ -7253,25 +7277,25 @@
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="3">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B173" s="3">
         <v>1</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E173" s="6">
         <v>0.9</v>
       </c>
       <c r="F173" s="6"/>
-      <c r="H173" s="17"/>
-      <c r="I173" s="3" t="s">
-        <v>442</v>
-      </c>
+      <c r="H173" s="17">
+        <v>1</v>
+      </c>
+      <c r="I173" s="3"/>
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
       <c r="L173" s="3"/>
@@ -7279,24 +7303,24 @@
     </row>
     <row r="174" spans="1:13">
       <c r="A174" s="3">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B174" s="3">
         <v>1</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E174" s="6">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F174" s="6"/>
       <c r="H174" s="17"/>
       <c r="I174" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
@@ -7305,24 +7329,24 @@
     </row>
     <row r="175" spans="1:13">
       <c r="A175" s="3">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B175" s="3">
         <v>1</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E175" s="6">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F175" s="6"/>
       <c r="H175" s="17"/>
       <c r="I175" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
@@ -7331,26 +7355,24 @@
     </row>
     <row r="176" spans="1:13">
       <c r="A176" s="3">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B176" s="3">
         <v>1</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E176" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="F176" s="6">
         <v>0.9</v>
       </c>
+      <c r="F176" s="6"/>
       <c r="H176" s="17"/>
       <c r="I176" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
@@ -7359,26 +7381,26 @@
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="3">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B177" s="3">
         <v>1</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E177" s="6">
         <v>0.6</v>
       </c>
       <c r="F177" s="6">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H177" s="17"/>
       <c r="I177" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
@@ -7387,26 +7409,26 @@
     </row>
     <row r="178" spans="1:13">
       <c r="A178" s="3">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B178" s="3">
         <v>1</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E178" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="F178" s="6"/>
-      <c r="H178" s="17">
-        <v>1</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="F178" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H178" s="17"/>
       <c r="I178" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
@@ -7415,26 +7437,26 @@
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="3">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B179" s="3">
         <v>1</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E179" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="F179" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="H179" s="17"/>
+        <v>0.8</v>
+      </c>
+      <c r="F179" s="6"/>
+      <c r="H179" s="17">
+        <v>1</v>
+      </c>
       <c r="I179" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
@@ -7443,16 +7465,16 @@
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="3">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B180" s="3">
         <v>1</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E180" s="6">
         <v>0.6</v>
@@ -7461,7 +7483,9 @@
         <v>0.9</v>
       </c>
       <c r="H180" s="17"/>
-      <c r="I180" s="3"/>
+      <c r="I180" s="3" t="s">
+        <v>464</v>
+      </c>
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
@@ -7469,7 +7493,7 @@
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="3">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B181" s="3">
         <v>1</v>
@@ -7478,18 +7502,16 @@
         <v>462</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E181" s="6">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F181" s="6">
         <v>0.9</v>
       </c>
       <c r="H181" s="17"/>
-      <c r="I181" s="3" t="s">
-        <v>464</v>
-      </c>
+      <c r="I181" s="3"/>
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
@@ -7497,16 +7519,16 @@
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="3">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B182" s="3">
         <v>1</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E182" s="6">
         <v>0.4</v>
@@ -7515,7 +7537,9 @@
         <v>0.9</v>
       </c>
       <c r="H182" s="17"/>
-      <c r="I182" s="3"/>
+      <c r="I182" s="3" t="s">
+        <v>468</v>
+      </c>
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
@@ -7523,7 +7547,7 @@
     </row>
     <row r="183" spans="1:13">
       <c r="A183" s="3">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B183" s="3">
         <v>1</v>
@@ -7532,16 +7556,16 @@
         <v>466</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E183" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="F183" s="6"/>
+        <v>0.4</v>
+      </c>
+      <c r="F183" s="6">
+        <v>0.9</v>
+      </c>
       <c r="H183" s="17"/>
-      <c r="I183" s="3" t="s">
-        <v>468</v>
-      </c>
+      <c r="I183" s="3"/>
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
@@ -7549,16 +7573,16 @@
     </row>
     <row r="184" spans="1:13">
       <c r="A184" s="3">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B184" s="3">
         <v>1</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E184" s="6">
         <v>0.8</v>
@@ -7566,7 +7590,7 @@
       <c r="F184" s="6"/>
       <c r="H184" s="17"/>
       <c r="I184" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
@@ -7575,16 +7599,16 @@
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="3">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B185" s="3">
         <v>1</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E185" s="6">
         <v>0.8</v>
@@ -7592,7 +7616,7 @@
       <c r="F185" s="6"/>
       <c r="H185" s="17"/>
       <c r="I185" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J185" s="3"/>
       <c r="K185" s="3"/>
@@ -7601,26 +7625,24 @@
     </row>
     <row r="186" spans="1:13">
       <c r="A186" s="3">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B186" s="3">
         <v>1</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E186" s="6">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F186" s="6"/>
-      <c r="H186" s="17">
-        <v>1</v>
-      </c>
+      <c r="H186" s="17"/>
       <c r="I186" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J186" s="3"/>
       <c r="K186" s="3"/>
@@ -7629,24 +7651,26 @@
     </row>
     <row r="187" spans="1:13">
       <c r="A187" s="3">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B187" s="3">
         <v>1</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E187" s="6">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F187" s="6"/>
-      <c r="H187" s="17"/>
+      <c r="H187" s="17">
+        <v>1</v>
+      </c>
       <c r="I187" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
@@ -7655,23 +7679,25 @@
     </row>
     <row r="188" spans="1:13">
       <c r="A188" s="3">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B188" s="3">
         <v>1</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E188" s="6">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F188" s="6"/>
       <c r="H188" s="17"/>
-      <c r="I188" s="3"/>
+      <c r="I188" s="3" t="s">
+        <v>484</v>
+      </c>
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
       <c r="L188" s="3"/>
@@ -7679,23 +7705,21 @@
     </row>
     <row r="189" spans="1:13">
       <c r="A189" s="3">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B189" s="3">
         <v>1</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E189" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="F189" s="6">
-        <v>0.8</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="F189" s="6"/>
       <c r="H189" s="17"/>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
@@ -7705,21 +7729,23 @@
     </row>
     <row r="190" spans="1:13">
       <c r="A190" s="3">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B190" s="3">
         <v>1</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E190" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="F190" s="6"/>
+        <v>0.6</v>
+      </c>
+      <c r="F190" s="6">
+        <v>0.8</v>
+      </c>
       <c r="H190" s="17"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
@@ -7729,23 +7755,23 @@
     </row>
     <row r="191" spans="1:13">
       <c r="A191" s="3">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B191" s="3">
         <v>1</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="E191" s="6"/>
+        <v>490</v>
+      </c>
+      <c r="E191" s="6">
+        <v>0.7</v>
+      </c>
       <c r="F191" s="6"/>
       <c r="H191" s="17"/>
-      <c r="I191" s="3" t="s">
-        <v>489</v>
-      </c>
+      <c r="I191" s="3"/>
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
       <c r="L191" s="3"/>
@@ -7753,96 +7779,96 @@
     </row>
     <row r="192" spans="1:13">
       <c r="A192" s="3">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B192" s="3">
         <v>1</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="E192" s="6">
-        <v>0.6</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="E192" s="6"/>
       <c r="F192" s="6"/>
       <c r="H192" s="17"/>
       <c r="I192" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
       <c r="L192" s="3"/>
       <c r="M192" s="3"/>
     </row>
-    <row r="193" spans="2:13">
-      <c r="B193" s="3"/>
-      <c r="C193" s="3"/>
-      <c r="D193" s="9"/>
-      <c r="E193" s="6"/>
+    <row r="193" spans="1:13">
+      <c r="A193" s="3">
+        <v>735</v>
+      </c>
+      <c r="B193" s="3">
+        <v>1</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="E193" s="6">
+        <v>0.6</v>
+      </c>
       <c r="F193" s="6"/>
       <c r="H193" s="17"/>
-      <c r="I193" s="3"/>
+      <c r="I193" s="3" t="s">
+        <v>496</v>
+      </c>
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
       <c r="L193" s="3"/>
       <c r="M193" s="3"/>
     </row>
-    <row r="194" s="1" customFormat="1" spans="1:13">
-      <c r="A194" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="B194" s="11"/>
-      <c r="C194" s="11"/>
-      <c r="D194" s="12"/>
-      <c r="E194" s="18"/>
-      <c r="F194" s="18"/>
-      <c r="G194" s="18"/>
-      <c r="H194" s="19"/>
-      <c r="I194" s="11"/>
-      <c r="J194" s="11"/>
-      <c r="K194" s="11"/>
-      <c r="L194" s="11"/>
-      <c r="M194" s="11"/>
-    </row>
-    <row r="195" spans="1:13">
-      <c r="A195" s="3">
-        <v>101</v>
-      </c>
-      <c r="B195" s="3">
-        <v>2</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="D195" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="E195" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="F195" s="6"/>
-      <c r="H195" s="17"/>
-      <c r="I195" s="3"/>
-      <c r="J195" s="3"/>
-      <c r="K195" s="3"/>
-      <c r="L195" s="3"/>
-      <c r="M195" s="3"/>
+    <row r="194" spans="2:13">
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="9"/>
+      <c r="E194" s="6"/>
+      <c r="F194" s="6"/>
+      <c r="H194" s="17"/>
+      <c r="I194" s="3"/>
+      <c r="J194" s="3"/>
+      <c r="K194" s="3"/>
+      <c r="L194" s="3"/>
+      <c r="M194" s="3"/>
+    </row>
+    <row r="195" s="1" customFormat="1" spans="1:13">
+      <c r="A195" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="B195" s="12"/>
+      <c r="C195" s="12"/>
+      <c r="D195" s="13"/>
+      <c r="E195" s="18"/>
+      <c r="F195" s="18"/>
+      <c r="G195" s="18"/>
+      <c r="H195" s="19"/>
+      <c r="I195" s="12"/>
+      <c r="J195" s="12"/>
+      <c r="K195" s="12"/>
+      <c r="L195" s="12"/>
+      <c r="M195" s="12"/>
     </row>
     <row r="196" spans="1:13">
       <c r="A196" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B196" s="3">
         <v>2</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E196" s="6">
         <v>0.8</v>
@@ -7857,16 +7883,16 @@
     </row>
     <row r="197" spans="1:13">
       <c r="A197" s="3">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B197" s="3">
         <v>2</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E197" s="6">
         <v>0.8</v>
@@ -7881,16 +7907,16 @@
     </row>
     <row r="198" spans="1:13">
       <c r="A198" s="3">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B198" s="3">
         <v>2</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E198" s="6">
         <v>0.8</v>
@@ -7905,16 +7931,16 @@
     </row>
     <row r="199" spans="1:13">
       <c r="A199" s="3">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B199" s="3">
         <v>2</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E199" s="6">
         <v>0.8</v>
@@ -7929,16 +7955,16 @@
     </row>
     <row r="200" spans="1:13">
       <c r="A200" s="3">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B200" s="3">
         <v>2</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E200" s="6">
         <v>0.8</v>
@@ -7953,23 +7979,21 @@
     </row>
     <row r="201" spans="1:13">
       <c r="A201" s="3">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B201" s="3">
         <v>2</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E201" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="F201" s="6">
-        <v>0.75</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="F201" s="6"/>
       <c r="H201" s="17"/>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
@@ -7979,22 +8003,22 @@
     </row>
     <row r="202" spans="1:13">
       <c r="A202" s="3">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B202" s="3">
         <v>2</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E202" s="6">
-        <v>0.46</v>
+        <v>0.6</v>
       </c>
       <c r="F202" s="6">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="H202" s="17"/>
       <c r="I202" s="3"/>
@@ -8005,21 +8029,23 @@
     </row>
     <row r="203" spans="1:13">
       <c r="A203" s="3">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B203" s="3">
         <v>2</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E203" s="6">
-        <v>0.85</v>
-      </c>
-      <c r="F203" s="6"/>
+        <v>0.46</v>
+      </c>
+      <c r="F203" s="6">
+        <v>0.6</v>
+      </c>
       <c r="H203" s="17"/>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
@@ -8029,19 +8055,19 @@
     </row>
     <row r="204" spans="1:13">
       <c r="A204" s="3">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B204" s="3">
         <v>2</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E204" s="6">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="F204" s="6"/>
       <c r="H204" s="17"/>
@@ -8053,27 +8079,23 @@
     </row>
     <row r="205" spans="1:13">
       <c r="A205" s="3">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B205" s="3">
         <v>2</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E205" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="F205" s="6">
-        <v>0.9</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="F205" s="6"/>
       <c r="H205" s="17"/>
-      <c r="I205" s="3" t="s">
-        <v>516</v>
-      </c>
+      <c r="I205" s="3"/>
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
       <c r="L205" s="3"/>
@@ -8081,16 +8103,16 @@
     </row>
     <row r="206" spans="1:13">
       <c r="A206" s="3">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B206" s="3">
         <v>2</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E206" s="6">
         <v>0.8</v>
@@ -8099,7 +8121,9 @@
         <v>0.9</v>
       </c>
       <c r="H206" s="17"/>
-      <c r="I206" s="3"/>
+      <c r="I206" s="3" t="s">
+        <v>520</v>
+      </c>
       <c r="J206" s="3"/>
       <c r="K206" s="3"/>
       <c r="L206" s="3"/>
@@ -8107,16 +8131,16 @@
     </row>
     <row r="207" spans="1:13">
       <c r="A207" s="3">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B207" s="3">
         <v>2</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="E207" s="6">
         <v>0.8</v>
@@ -8131,12 +8155,25 @@
       <c r="L207" s="3"/>
       <c r="M207" s="3"/>
     </row>
-    <row r="208" spans="2:13">
-      <c r="B208" s="3"/>
-      <c r="C208" s="3"/>
-      <c r="D208" s="9"/>
-      <c r="E208" s="6"/>
-      <c r="F208" s="6"/>
+    <row r="208" spans="1:13">
+      <c r="A208" s="3">
+        <v>113</v>
+      </c>
+      <c r="B208" s="3">
+        <v>2</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D208" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="E208" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F208" s="6">
+        <v>0.9</v>
+      </c>
       <c r="H208" s="17"/>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
@@ -8144,52 +8181,39 @@
       <c r="L208" s="3"/>
       <c r="M208" s="3"/>
     </row>
-    <row r="209" s="1" customFormat="1" spans="1:13">
-      <c r="A209" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="B209" s="11"/>
-      <c r="C209" s="11"/>
-      <c r="D209" s="12"/>
-      <c r="E209" s="18"/>
-      <c r="F209" s="18"/>
-      <c r="G209" s="18"/>
-      <c r="H209" s="19"/>
-      <c r="I209" s="11"/>
-      <c r="J209" s="11"/>
-      <c r="K209" s="11"/>
-      <c r="L209" s="11"/>
-      <c r="M209" s="11"/>
-    </row>
-    <row r="210" spans="1:13">
-      <c r="A210" s="3">
+    <row r="209" spans="2:13">
+      <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
+      <c r="D209" s="9"/>
+      <c r="E209" s="6"/>
+      <c r="F209" s="6"/>
+      <c r="H209" s="17"/>
+      <c r="I209" s="3"/>
+      <c r="J209" s="3"/>
+      <c r="K209" s="3"/>
+      <c r="L209" s="3"/>
+      <c r="M209" s="3"/>
+    </row>
+    <row r="210" s="1" customFormat="1" spans="1:13">
+      <c r="A210" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="B210" s="12"/>
+      <c r="C210" s="12"/>
+      <c r="D210" s="13"/>
+      <c r="E210" s="18"/>
+      <c r="F210" s="18"/>
+      <c r="G210" s="18"/>
+      <c r="H210" s="19"/>
+      <c r="I210" s="12"/>
+      <c r="J210" s="12"/>
+      <c r="K210" s="12"/>
+      <c r="L210" s="12"/>
+      <c r="M210" s="12"/>
+    </row>
+    <row r="211" spans="1:13">
+      <c r="A211" s="3">
         <v>201</v>
-      </c>
-      <c r="B210" s="3">
-        <v>2</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="D210" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="E210" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="F210" s="6"/>
-      <c r="H210" s="17"/>
-      <c r="I210" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="J210" s="3"/>
-      <c r="K210" s="3"/>
-      <c r="L210" s="3"/>
-      <c r="M210" s="3"/>
-    </row>
-    <row r="211" spans="1:13">
-      <c r="A211" s="3" t="s">
-        <v>522</v>
       </c>
       <c r="B211" s="3">
         <v>2</v>
@@ -8201,11 +8225,9 @@
         <v>524</v>
       </c>
       <c r="E211" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="F211" s="6">
-        <v>0.8</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="F211" s="6"/>
       <c r="H211" s="17"/>
       <c r="I211" s="3" t="s">
         <v>525</v>
@@ -8226,67 +8248,69 @@
         <v>527</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E212" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="F212" s="6"/>
+        <v>0.6</v>
+      </c>
+      <c r="F212" s="6">
+        <v>0.8</v>
+      </c>
       <c r="H212" s="17"/>
       <c r="I212" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J212" s="3"/>
       <c r="K212" s="3"/>
       <c r="L212" s="3"/>
       <c r="M212" s="3"/>
     </row>
-    <row r="213" s="1" customFormat="1" spans="1:13">
-      <c r="A213" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="B213" s="11"/>
-      <c r="C213" s="11"/>
-      <c r="D213" s="12"/>
-      <c r="E213" s="18"/>
-      <c r="F213" s="18"/>
-      <c r="G213" s="18"/>
-      <c r="H213" s="19"/>
-      <c r="I213" s="11"/>
-      <c r="J213" s="11"/>
-      <c r="K213" s="11"/>
-      <c r="L213" s="11"/>
-      <c r="M213" s="11"/>
-    </row>
-    <row r="214" spans="1:13">
-      <c r="A214" s="3">
-        <v>301</v>
-      </c>
-      <c r="B214" s="3">
+    <row r="213" spans="1:13">
+      <c r="A213" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B213" s="3">
         <v>2</v>
       </c>
-      <c r="C214" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="D214" s="9" t="s">
+      <c r="C213" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="E214" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="F214" s="6"/>
-      <c r="H214" s="17"/>
-      <c r="I214" s="3" t="s">
+      <c r="D213" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="E213" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F213" s="6"/>
+      <c r="H213" s="17"/>
+      <c r="I213" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="J214" s="3"/>
-      <c r="K214" s="3"/>
-      <c r="L214" s="3"/>
-      <c r="M214" s="3"/>
+      <c r="J213" s="3"/>
+      <c r="K213" s="3"/>
+      <c r="L213" s="3"/>
+      <c r="M213" s="3"/>
+    </row>
+    <row r="214" s="1" customFormat="1" spans="1:13">
+      <c r="A214" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B214" s="12"/>
+      <c r="C214" s="12"/>
+      <c r="D214" s="13"/>
+      <c r="E214" s="18"/>
+      <c r="F214" s="18"/>
+      <c r="G214" s="18"/>
+      <c r="H214" s="19"/>
+      <c r="I214" s="12"/>
+      <c r="J214" s="12"/>
+      <c r="K214" s="12"/>
+      <c r="L214" s="12"/>
+      <c r="M214" s="12"/>
     </row>
     <row r="215" spans="1:13">
       <c r="A215" s="3">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B215" s="3">
         <v>2</v>
@@ -8305,99 +8329,101 @@
       <c r="I215" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="J215" s="3" t="s">
-        <v>536</v>
-      </c>
+      <c r="J215" s="3"/>
       <c r="K215" s="3"/>
       <c r="L215" s="3"/>
       <c r="M215" s="3"/>
     </row>
     <row r="216" spans="1:13">
       <c r="A216" s="3">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B216" s="3">
         <v>2</v>
       </c>
       <c r="C216" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D216" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="D216" s="9" t="s">
-        <v>538</v>
-      </c>
       <c r="E216" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="F216" s="6">
-        <v>0.7</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="F216" s="6"/>
       <c r="H216" s="17"/>
       <c r="I216" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="J216" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="J216" s="3" t="s">
-        <v>540</v>
       </c>
       <c r="K216" s="3"/>
       <c r="L216" s="3"/>
       <c r="M216" s="3"/>
     </row>
-    <row r="217" s="1" customFormat="1" spans="1:13">
-      <c r="A217" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="B217" s="11"/>
-      <c r="C217" s="11"/>
-      <c r="D217" s="12"/>
-      <c r="E217" s="18"/>
-      <c r="F217" s="18"/>
-      <c r="G217" s="18"/>
-      <c r="H217" s="19"/>
-      <c r="I217" s="11"/>
-      <c r="J217" s="11"/>
-      <c r="K217" s="11"/>
-      <c r="L217" s="11"/>
-      <c r="M217" s="11"/>
-    </row>
-    <row r="218" spans="1:13">
-      <c r="A218" s="3" t="s">
+    <row r="217" spans="1:13">
+      <c r="A217" s="3">
+        <v>303</v>
+      </c>
+      <c r="B217" s="3">
+        <v>2</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D217" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="B218" s="3">
-        <v>2</v>
-      </c>
-      <c r="C218" s="3" t="s">
+      <c r="E217" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F217" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="H217" s="17"/>
+      <c r="I217" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="D218" s="9" t="s">
+      <c r="J217" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="E218" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="F218" s="6"/>
-      <c r="H218" s="17"/>
-      <c r="I218" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="J218" s="3"/>
-      <c r="K218" s="3"/>
-      <c r="L218" s="3"/>
-      <c r="M218" s="3"/>
+      <c r="K217" s="3"/>
+      <c r="L217" s="3"/>
+      <c r="M217" s="3"/>
+    </row>
+    <row r="218" s="1" customFormat="1" spans="1:13">
+      <c r="A218" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="B218" s="12"/>
+      <c r="C218" s="12"/>
+      <c r="D218" s="13"/>
+      <c r="E218" s="18"/>
+      <c r="F218" s="18"/>
+      <c r="G218" s="18"/>
+      <c r="H218" s="19"/>
+      <c r="I218" s="12"/>
+      <c r="J218" s="12"/>
+      <c r="K218" s="12"/>
+      <c r="L218" s="12"/>
+      <c r="M218" s="12"/>
     </row>
     <row r="219" spans="1:13">
       <c r="A219" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B219" s="3">
         <v>2</v>
       </c>
       <c r="C219" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D219" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="D219" s="9"/>
       <c r="E219" s="6">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F219" s="6"/>
       <c r="H219" s="17"/>
@@ -8409,73 +8435,69 @@
       <c r="L219" s="3"/>
       <c r="M219" s="3"/>
     </row>
-    <row r="220" s="1" customFormat="1" spans="1:13">
-      <c r="A220" s="11" t="s">
+    <row r="220" spans="1:13">
+      <c r="A220" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="B220" s="11"/>
-      <c r="C220" s="11"/>
-      <c r="D220" s="12"/>
-      <c r="E220" s="18"/>
-      <c r="F220" s="18"/>
-      <c r="G220" s="18"/>
-      <c r="H220" s="19"/>
-      <c r="I220" s="11"/>
-      <c r="J220" s="11"/>
-      <c r="K220" s="11"/>
-      <c r="L220" s="11"/>
-      <c r="M220" s="11"/>
-    </row>
-    <row r="221" spans="1:13">
-      <c r="A221" s="3">
-        <v>501</v>
-      </c>
-      <c r="B221" s="3">
+      <c r="B220" s="3">
         <v>2</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="C220" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="D221" s="9" t="s">
+      <c r="D220" s="9"/>
+      <c r="E220" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="F220" s="6"/>
+      <c r="H220" s="17"/>
+      <c r="I220" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="E221" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="F221" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="H221" s="17"/>
-      <c r="I221" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="J221" s="3"/>
-      <c r="K221" s="3"/>
-      <c r="L221" s="3"/>
-      <c r="M221" s="3"/>
+      <c r="J220" s="3"/>
+      <c r="K220" s="3"/>
+      <c r="L220" s="3"/>
+      <c r="M220" s="3"/>
+    </row>
+    <row r="221" s="1" customFormat="1" spans="1:13">
+      <c r="A221" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B221" s="12"/>
+      <c r="C221" s="12"/>
+      <c r="D221" s="13"/>
+      <c r="E221" s="18"/>
+      <c r="F221" s="18"/>
+      <c r="G221" s="18"/>
+      <c r="H221" s="19"/>
+      <c r="I221" s="12"/>
+      <c r="J221" s="12"/>
+      <c r="K221" s="12"/>
+      <c r="L221" s="12"/>
+      <c r="M221" s="12"/>
     </row>
     <row r="222" spans="1:13">
       <c r="A222" s="3">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B222" s="3">
         <v>2</v>
       </c>
       <c r="C222" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="D222" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="D222" s="9" t="s">
-        <v>553</v>
-      </c>
       <c r="E222" s="6">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F222" s="6">
         <v>0.8</v>
       </c>
       <c r="H222" s="17"/>
       <c r="I222" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
@@ -8484,24 +8506,26 @@
     </row>
     <row r="223" spans="1:13">
       <c r="A223" s="3">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B223" s="3">
         <v>2</v>
       </c>
       <c r="C223" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D223" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="D223" s="9" t="s">
-        <v>556</v>
-      </c>
       <c r="E223" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="F223" s="6"/>
+        <v>0.6</v>
+      </c>
+      <c r="F223" s="6">
+        <v>0.8</v>
+      </c>
       <c r="H223" s="17"/>
       <c r="I223" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J223" s="3"/>
       <c r="K223" s="3"/>
@@ -8509,27 +8533,25 @@
       <c r="M223" s="3"/>
     </row>
     <row r="224" spans="1:13">
-      <c r="A224" s="3" t="s">
-        <v>168</v>
+      <c r="A224" s="3">
+        <v>503</v>
       </c>
       <c r="B224" s="3">
         <v>2</v>
       </c>
       <c r="C224" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D224" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="D224" s="9" t="s">
-        <v>559</v>
-      </c>
       <c r="E224" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="F224" s="6">
-        <v>0.8</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="F224" s="6"/>
       <c r="H224" s="17"/>
       <c r="I224" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J224" s="3"/>
       <c r="K224" s="3"/>
@@ -8537,135 +8559,143 @@
       <c r="M224" s="3"/>
     </row>
     <row r="225" spans="1:13">
-      <c r="A225" s="3">
-        <v>505</v>
+      <c r="A225" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="B225" s="3">
         <v>2</v>
       </c>
-      <c r="C225" s="3"/>
-      <c r="D225" s="9"/>
-      <c r="E225" s="6"/>
-      <c r="F225" s="6"/>
+      <c r="C225" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="D225" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="E225" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="F225" s="6">
+        <v>0.8</v>
+      </c>
       <c r="H225" s="17"/>
-      <c r="I225" s="3"/>
+      <c r="I225" s="3" t="s">
+        <v>562</v>
+      </c>
       <c r="J225" s="3"/>
       <c r="K225" s="3"/>
       <c r="L225" s="3"/>
       <c r="M225" s="3"/>
     </row>
-    <row r="226" s="1" customFormat="1" spans="1:13">
-      <c r="A226" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="B226" s="11"/>
-      <c r="C226" s="11"/>
-      <c r="D226" s="12"/>
-      <c r="E226" s="18"/>
-      <c r="F226" s="18"/>
-      <c r="G226" s="18"/>
-      <c r="H226" s="19"/>
-      <c r="I226" s="11"/>
-      <c r="J226" s="11"/>
-      <c r="K226" s="11"/>
-      <c r="L226" s="11"/>
-      <c r="M226" s="11"/>
-    </row>
-    <row r="227" spans="1:13">
-      <c r="A227" s="3">
+    <row r="226" spans="1:13">
+      <c r="A226" s="3">
+        <v>505</v>
+      </c>
+      <c r="B226" s="3">
+        <v>2</v>
+      </c>
+      <c r="C226" s="3"/>
+      <c r="D226" s="9"/>
+      <c r="E226" s="6"/>
+      <c r="F226" s="6"/>
+      <c r="H226" s="17"/>
+      <c r="I226" s="3"/>
+      <c r="J226" s="3"/>
+      <c r="K226" s="3"/>
+      <c r="L226" s="3"/>
+      <c r="M226" s="3"/>
+    </row>
+    <row r="227" s="1" customFormat="1" spans="1:13">
+      <c r="A227" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="B227" s="12"/>
+      <c r="C227" s="12"/>
+      <c r="D227" s="13"/>
+      <c r="E227" s="18"/>
+      <c r="F227" s="18"/>
+      <c r="G227" s="18"/>
+      <c r="H227" s="19"/>
+      <c r="I227" s="12"/>
+      <c r="J227" s="12"/>
+      <c r="K227" s="12"/>
+      <c r="L227" s="12"/>
+      <c r="M227" s="12"/>
+    </row>
+    <row r="228" spans="1:13">
+      <c r="A228" s="3">
         <v>601</v>
       </c>
-      <c r="B227" s="3">
+      <c r="B228" s="3">
         <v>2</v>
       </c>
-      <c r="C227" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="D227" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="E227" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="F227" s="6">
+      <c r="C228" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D228" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="E228" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F228" s="6">
         <v>0.9</v>
       </c>
-      <c r="H227" s="17"/>
-      <c r="I227" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="J227" s="3"/>
-      <c r="K227" s="3"/>
-      <c r="L227" s="3"/>
-      <c r="M227" s="3"/>
-    </row>
-    <row r="228" spans="2:13">
-      <c r="B228" s="3"/>
-      <c r="C228" s="3"/>
-      <c r="D228" s="9"/>
-      <c r="E228" s="6"/>
-      <c r="F228" s="6"/>
       <c r="H228" s="17"/>
-      <c r="I228" s="3"/>
+      <c r="I228" s="3" t="s">
+        <v>566</v>
+      </c>
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
       <c r="L228" s="3"/>
       <c r="M228" s="3"/>
     </row>
-    <row r="229" s="1" customFormat="1" spans="1:13">
-      <c r="A229" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="B229" s="11"/>
-      <c r="C229" s="11"/>
-      <c r="D229" s="12"/>
-      <c r="E229" s="18"/>
-      <c r="F229" s="18"/>
-      <c r="G229" s="18"/>
-      <c r="H229" s="19"/>
-      <c r="I229" s="11"/>
-      <c r="J229" s="11"/>
-      <c r="K229" s="11"/>
-      <c r="L229" s="11"/>
-      <c r="M229" s="11"/>
-    </row>
-    <row r="230" spans="1:13">
-      <c r="A230" s="3">
-        <v>1</v>
-      </c>
-      <c r="B230" s="3">
-        <v>3</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="D230" s="9"/>
-      <c r="E230" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="F230" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="H230" s="17"/>
-      <c r="I230" s="3"/>
-      <c r="J230" s="3"/>
-      <c r="K230" s="3"/>
-      <c r="L230" s="3"/>
-      <c r="M230" s="3"/>
+    <row r="229" spans="2:13">
+      <c r="B229" s="3"/>
+      <c r="C229" s="3"/>
+      <c r="D229" s="9"/>
+      <c r="E229" s="6"/>
+      <c r="F229" s="6"/>
+      <c r="H229" s="17"/>
+      <c r="I229" s="3"/>
+      <c r="J229" s="3"/>
+      <c r="K229" s="3"/>
+      <c r="L229" s="3"/>
+      <c r="M229" s="3"/>
+    </row>
+    <row r="230" s="1" customFormat="1" spans="1:13">
+      <c r="A230" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="B230" s="12"/>
+      <c r="C230" s="12"/>
+      <c r="D230" s="13"/>
+      <c r="E230" s="18"/>
+      <c r="F230" s="18"/>
+      <c r="G230" s="18"/>
+      <c r="H230" s="19"/>
+      <c r="I230" s="12"/>
+      <c r="J230" s="12"/>
+      <c r="K230" s="12"/>
+      <c r="L230" s="12"/>
+      <c r="M230" s="12"/>
     </row>
     <row r="231" spans="1:13">
       <c r="A231" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B231" s="3">
         <v>3</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D231" s="9"/>
-      <c r="E231" s="6"/>
-      <c r="F231" s="6"/>
+      <c r="E231" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F231" s="6">
+        <v>0.8</v>
+      </c>
       <c r="H231" s="17"/>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
@@ -8675,23 +8705,17 @@
     </row>
     <row r="232" spans="1:13">
       <c r="A232" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B232" s="3">
         <v>3</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D232" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="E232" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="F232" s="6">
-        <v>1.3</v>
-      </c>
+      <c r="D232" s="9"/>
+      <c r="E232" s="6"/>
+      <c r="F232" s="6"/>
       <c r="H232" s="17"/>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
@@ -8701,7 +8725,7 @@
     </row>
     <row r="233" spans="1:13">
       <c r="A233" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B233" s="3">
         <v>3</v>
@@ -8709,9 +8733,15 @@
       <c r="C233" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="D233" s="9"/>
-      <c r="E233" s="6"/>
-      <c r="F233" s="6"/>
+      <c r="D233" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="E233" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F233" s="6">
+        <v>1.3</v>
+      </c>
       <c r="H233" s="17"/>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
@@ -8721,13 +8751,13 @@
     </row>
     <row r="234" spans="1:13">
       <c r="A234" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B234" s="3">
         <v>3</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D234" s="9"/>
       <c r="E234" s="6"/>
@@ -8741,13 +8771,13 @@
     </row>
     <row r="235" spans="1:13">
       <c r="A235" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B235" s="3">
         <v>3</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D235" s="9"/>
       <c r="E235" s="6"/>
@@ -8761,13 +8791,13 @@
     </row>
     <row r="236" spans="1:13">
       <c r="A236" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B236" s="3">
         <v>3</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D236" s="9"/>
       <c r="E236" s="6"/>
@@ -8779,9 +8809,16 @@
       <c r="L236" s="3"/>
       <c r="M236" s="3"/>
     </row>
-    <row r="237" spans="2:13">
-      <c r="B237" s="3"/>
-      <c r="C237" s="3"/>
+    <row r="237" spans="1:13">
+      <c r="A237" s="3">
+        <v>7</v>
+      </c>
+      <c r="B237" s="3">
+        <v>3</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>575</v>
+      </c>
       <c r="D237" s="9"/>
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
@@ -8792,6 +8829,122 @@
       <c r="L237" s="3"/>
       <c r="M237" s="3"/>
     </row>
+    <row r="238" spans="2:13">
+      <c r="B238" s="3"/>
+      <c r="C238" s="3"/>
+      <c r="D238" s="9"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="6"/>
+      <c r="H238" s="17"/>
+      <c r="I238" s="3"/>
+      <c r="J238" s="3"/>
+      <c r="K238" s="3"/>
+      <c r="L238" s="3"/>
+      <c r="M238" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AA1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
+        <v>14</v>
+      </c>
+      <c r="O1">
+        <v>15</v>
+      </c>
+      <c r="P1">
+        <v>16</v>
+      </c>
+      <c r="Q1">
+        <v>17</v>
+      </c>
+      <c r="R1">
+        <v>18</v>
+      </c>
+      <c r="S1">
+        <v>19</v>
+      </c>
+      <c r="T1">
+        <v>20</v>
+      </c>
+      <c r="U1">
+        <v>21</v>
+      </c>
+      <c r="V1">
+        <v>22</v>
+      </c>
+      <c r="W1">
+        <v>23</v>
+      </c>
+      <c r="X1">
+        <v>24</v>
+      </c>
+      <c r="Y1">
+        <v>25</v>
+      </c>
+      <c r="Z1">
+        <v>26</v>
+      </c>
+      <c r="AA1">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/dist/modelsConfig.xlsx
+++ b/dist/modelsConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="12340"/>
+    <workbookView windowWidth="25820" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="587">
   <si>
     <t>类型 1=lora 2=lyco 3=embedding</t>
   </si>
@@ -362,6 +362,18 @@
     <t>第一个细高跟lora</t>
   </si>
   <si>
+    <t>transgg</t>
+  </si>
+  <si>
+    <t>transparent_heels-000005</t>
+  </si>
+  <si>
+    <t>transparent heels</t>
+  </si>
+  <si>
+    <t>透明高跟凉鞋</t>
+  </si>
+  <si>
     <t>衣服</t>
   </si>
   <si>
@@ -831,6 +843,9 @@
   </si>
   <si>
     <t>★★★★ JK Micro Skirt</t>
+  </si>
+  <si>
+    <t>schooljk</t>
   </si>
   <si>
     <t>CatholicSchoolUniformDogu</t>
@@ -1768,12 +1783,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1807,31 +1822,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1845,8 +1857,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1862,43 +1875,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1914,14 +1891,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1935,8 +1912,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1969,7 +1984,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1981,7 +2002,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1993,91 +2098,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2095,31 +2122,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2131,25 +2146,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2160,6 +2175,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2174,6 +2207,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2210,30 +2267,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2242,175 +2275,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2420,7 +2435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2429,13 +2444,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2465,31 +2480,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFill="1" applyAlignment="1">
@@ -2815,14 +2836,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M240"/>
+  <dimension ref="A1:M241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2858,7 +2879,7 @@
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="21" t="s">
         <v>6</v>
       </c>
       <c r="I1" t="s">
@@ -2890,7 +2911,7 @@
       <c r="G2" s="7">
         <v>0.6</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
@@ -2919,7 +2940,7 @@
       <c r="G3" s="7">
         <v>0.65</v>
       </c>
-      <c r="H3" s="21"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
@@ -2948,7 +2969,7 @@
       <c r="G4" s="7">
         <v>0.8</v>
       </c>
-      <c r="H4" s="21"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="4" t="s">
         <v>15</v>
       </c>
@@ -2979,7 +3000,7 @@
       <c r="G5" s="7">
         <v>0.8</v>
       </c>
-      <c r="H5" s="21"/>
+      <c r="H5" s="22"/>
       <c r="I5" s="4" t="s">
         <v>18</v>
       </c>
@@ -3010,7 +3031,7 @@
       <c r="G6" s="7">
         <v>0.6</v>
       </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="4" t="s">
         <v>21</v>
       </c>
@@ -3039,7 +3060,7 @@
       <c r="G7" s="7">
         <v>0.6</v>
       </c>
-      <c r="H7" s="21"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="4" t="s">
         <v>23</v>
       </c>
@@ -3070,7 +3091,7 @@
       <c r="G8" s="7">
         <v>0.45</v>
       </c>
-      <c r="H8" s="21"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="4" t="s">
         <v>26</v>
       </c>
@@ -3099,7 +3120,7 @@
       <c r="G9" s="7">
         <v>0.6</v>
       </c>
-      <c r="H9" s="21"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="4" t="s">
         <v>28</v>
       </c>
@@ -3130,7 +3151,7 @@
       <c r="G10" s="7">
         <v>0.6</v>
       </c>
-      <c r="H10" s="21"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3159,7 +3180,7 @@
       <c r="G11" s="7">
         <v>0.8</v>
       </c>
-      <c r="H11" s="21"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="4" t="s">
         <v>33</v>
       </c>
@@ -3190,7 +3211,7 @@
       <c r="G12" s="7">
         <v>0.6</v>
       </c>
-      <c r="H12" s="21"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="4" t="s">
         <v>36</v>
       </c>
@@ -3219,7 +3240,7 @@
       <c r="G13" s="7">
         <v>0.8</v>
       </c>
-      <c r="H13" s="21"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="4" t="s">
         <v>39</v>
       </c>
@@ -3250,7 +3271,7 @@
       <c r="G14" s="7">
         <v>0.6</v>
       </c>
-      <c r="H14" s="21"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -3277,7 +3298,7 @@
       <c r="G15" s="7">
         <v>0.6</v>
       </c>
-      <c r="H15" s="21"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="4" t="s">
         <v>43</v>
       </c>
@@ -3308,7 +3329,7 @@
       <c r="G16" s="7">
         <v>0.6</v>
       </c>
-      <c r="H16" s="21"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="4" t="s">
         <v>46</v>
       </c>
@@ -3339,7 +3360,7 @@
       <c r="G17" s="7">
         <v>0.6</v>
       </c>
-      <c r="H17" s="21"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="4" t="s">
         <v>49</v>
       </c>
@@ -3368,7 +3389,7 @@
       <c r="G18" s="7">
         <v>0.8</v>
       </c>
-      <c r="H18" s="21"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="4" t="s">
         <v>52</v>
       </c>
@@ -3384,10 +3405,10 @@
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
@@ -3416,7 +3437,7 @@
       <c r="G20" s="7">
         <v>0.8</v>
       </c>
-      <c r="H20" s="21"/>
+      <c r="H20" s="22"/>
       <c r="I20" s="4" t="s">
         <v>57</v>
       </c>
@@ -3445,7 +3466,7 @@
       <c r="G21" s="7">
         <v>0.7</v>
       </c>
-      <c r="H21" s="21"/>
+      <c r="H21" s="22"/>
       <c r="I21" s="4" t="s">
         <v>59</v>
       </c>
@@ -3476,7 +3497,7 @@
       <c r="G22" s="7">
         <v>0.8</v>
       </c>
-      <c r="H22" s="21"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="4" t="s">
         <v>62</v>
       </c>
@@ -3507,7 +3528,7 @@
       <c r="G23" s="7">
         <v>0.8</v>
       </c>
-      <c r="H23" s="21"/>
+      <c r="H23" s="22"/>
       <c r="I23" s="4" t="s">
         <v>66</v>
       </c>
@@ -3535,7 +3556,7 @@
       <c r="F24" s="7">
         <v>1</v>
       </c>
-      <c r="H24" s="21"/>
+      <c r="H24" s="22"/>
       <c r="I24" s="4" t="s">
         <v>69</v>
       </c>
@@ -3566,7 +3587,7 @@
       <c r="G25" s="7">
         <v>0.6</v>
       </c>
-      <c r="H25" s="21"/>
+      <c r="H25" s="22"/>
       <c r="I25" s="4" t="s">
         <v>72</v>
       </c>
@@ -3595,7 +3616,7 @@
       <c r="G26" s="7">
         <v>0.6</v>
       </c>
-      <c r="H26" s="21"/>
+      <c r="H26" s="22"/>
       <c r="I26" s="4" t="s">
         <v>74</v>
       </c>
@@ -3626,7 +3647,7 @@
       <c r="G27" s="7">
         <v>0.95</v>
       </c>
-      <c r="H27" s="21"/>
+      <c r="H27" s="22"/>
       <c r="I27" s="4" t="s">
         <v>77</v>
       </c>
@@ -3657,7 +3678,7 @@
       <c r="G28" s="7">
         <v>0.9</v>
       </c>
-      <c r="H28" s="21"/>
+      <c r="H28" s="22"/>
       <c r="I28" s="4" t="s">
         <v>80</v>
       </c>
@@ -3688,7 +3709,7 @@
       <c r="G29" s="7">
         <v>0.6</v>
       </c>
-      <c r="H29" s="21"/>
+      <c r="H29" s="22"/>
       <c r="I29" s="4" t="s">
         <v>83</v>
       </c>
@@ -3719,7 +3740,7 @@
       <c r="G30" s="7">
         <v>0.8</v>
       </c>
-      <c r="H30" s="21"/>
+      <c r="H30" s="22"/>
       <c r="I30" s="4" t="s">
         <v>86</v>
       </c>
@@ -3750,7 +3771,7 @@
       <c r="G31" s="7">
         <v>0.6</v>
       </c>
-      <c r="H31" s="21"/>
+      <c r="H31" s="22"/>
       <c r="I31" s="4" t="s">
         <v>89</v>
       </c>
@@ -3778,7 +3799,7 @@
       <c r="F32" s="7">
         <v>0.8</v>
       </c>
-      <c r="H32" s="21"/>
+      <c r="H32" s="22"/>
       <c r="I32" s="4" t="s">
         <v>93</v>
       </c>
@@ -3802,7 +3823,7 @@
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="H33" s="21"/>
+      <c r="H33" s="22"/>
       <c r="I33" s="4" t="s">
         <v>96</v>
       </c>
@@ -3831,7 +3852,7 @@
       <c r="G34" s="7">
         <v>0.8</v>
       </c>
-      <c r="H34" s="21"/>
+      <c r="H34" s="22"/>
       <c r="I34" s="4" t="s">
         <v>99</v>
       </c>
@@ -3860,7 +3881,7 @@
       <c r="G35" s="7">
         <v>0.8</v>
       </c>
-      <c r="H35" s="21"/>
+      <c r="H35" s="22"/>
       <c r="I35" s="4" t="s">
         <v>99</v>
       </c>
@@ -3889,7 +3910,7 @@
       <c r="G36" s="7">
         <v>0.8</v>
       </c>
-      <c r="H36" s="21"/>
+      <c r="H36" s="22"/>
       <c r="I36" s="4" t="s">
         <v>99</v>
       </c>
@@ -3918,7 +3939,7 @@
       <c r="G37" s="7">
         <v>0.8</v>
       </c>
-      <c r="H37" s="21"/>
+      <c r="H37" s="22"/>
       <c r="I37" s="4" t="s">
         <v>99</v>
       </c>
@@ -3947,7 +3968,7 @@
       <c r="G38" s="7">
         <v>0.8</v>
       </c>
-      <c r="H38" s="21"/>
+      <c r="H38" s="22"/>
       <c r="I38" s="4" t="s">
         <v>99</v>
       </c>
@@ -3978,7 +3999,7 @@
       <c r="G39" s="7">
         <v>0.8</v>
       </c>
-      <c r="H39" s="21"/>
+      <c r="H39" s="22"/>
       <c r="I39" s="4" t="s">
         <v>106</v>
       </c>
@@ -4004,7 +4025,7 @@
       <c r="F40" s="7">
         <v>0.8</v>
       </c>
-      <c r="H40" s="21"/>
+      <c r="H40" s="22"/>
       <c r="I40" s="4" t="s">
         <v>109</v>
       </c>
@@ -4020,10 +4041,10 @@
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="24"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
@@ -4043,14 +4064,14 @@
       <c r="D42" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E42" s="25">
         <v>0.4</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F42" s="25">
         <v>0.7</v>
       </c>
-      <c r="G42" s="24"/>
-      <c r="H42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="26"/>
       <c r="I42" s="16" t="s">
         <v>114</v>
       </c>
@@ -4059,67 +4080,70 @@
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A43" s="12" t="s">
+    <row r="43" s="3" customFormat="1" spans="1:13">
+      <c r="A43" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="4">
-        <v>301</v>
-      </c>
-      <c r="B44" s="4">
-        <v>1</v>
-      </c>
-      <c r="C44" s="4" t="s">
+      <c r="B43" s="19">
+        <v>1</v>
+      </c>
+      <c r="C43" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D43" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="4" t="s">
+      <c r="E43" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="F43" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="G43" s="27"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A44" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="4">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B45" s="4">
         <v>1</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E45" s="7">
-        <v>0.6</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="H45" s="21"/>
+      <c r="H45" s="22"/>
       <c r="I45" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -4128,26 +4152,24 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="4">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B46" s="4">
         <v>1</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E46" s="7">
         <v>0.6</v>
       </c>
-      <c r="F46" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="H46" s="21"/>
+      <c r="F46" s="7"/>
+      <c r="H46" s="22"/>
       <c r="I46" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -4156,24 +4178,26 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="4">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B47" s="4">
         <v>1</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E47" s="7">
         <v>0.6</v>
       </c>
-      <c r="F47" s="7"/>
-      <c r="H47" s="21"/>
+      <c r="F47" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H47" s="22"/>
       <c r="I47" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -4182,29 +4206,24 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="4">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B48" s="4">
         <v>1</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E48" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="F48" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="G48" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H48" s="21"/>
+        <v>0.6</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="H48" s="22"/>
       <c r="I48" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -4213,26 +4232,29 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="4">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B49" s="4">
         <v>1</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E49" s="7">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="F49" s="7">
         <v>0.8</v>
       </c>
-      <c r="H49" s="21"/>
+      <c r="G49" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="H49" s="22"/>
       <c r="I49" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -4241,26 +4263,26 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="4">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B50" s="4">
         <v>1</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E50" s="7">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="F50" s="7">
-        <v>0.65</v>
-      </c>
-      <c r="H50" s="21"/>
+        <v>0.8</v>
+      </c>
+      <c r="H50" s="22"/>
       <c r="I50" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -4269,24 +4291,26 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="4">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B51" s="4">
         <v>1</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E51" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="F51" s="7"/>
-      <c r="H51" s="21"/>
+        <v>0.4</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="H51" s="22"/>
       <c r="I51" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -4295,26 +4319,24 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="4">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B52" s="4">
         <v>1</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E52" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F52" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="H52" s="21"/>
+        <v>0.7</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="H52" s="22"/>
       <c r="I52" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -4323,16 +4345,16 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="4">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B53" s="4">
         <v>1</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E53" s="7">
         <v>0.6</v>
@@ -4340,9 +4362,9 @@
       <c r="F53" s="7">
         <v>0.8</v>
       </c>
-      <c r="H53" s="21"/>
+      <c r="H53" s="22"/>
       <c r="I53" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -4351,22 +4373,26 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="4">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B54" s="4">
         <v>1</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="H54" s="21"/>
+        <v>148</v>
+      </c>
+      <c r="E54" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H54" s="22"/>
       <c r="I54" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
@@ -4375,26 +4401,22 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="4">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B55" s="4">
         <v>1</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E55" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F55" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="H55" s="21"/>
+        <v>151</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="H55" s="22"/>
       <c r="I55" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -4403,24 +4425,26 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="4">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B56" s="4">
         <v>1</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E56" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F56" s="7"/>
-      <c r="H56" s="21"/>
+        <v>0.6</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H56" s="22"/>
       <c r="I56" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -4429,26 +4453,24 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="4">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B57" s="4">
         <v>1</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E57" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="F57" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H57" s="21"/>
+        <v>0.8</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="H57" s="22"/>
       <c r="I57" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -4456,129 +4478,129 @@
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="11" t="s">
-        <v>157</v>
+      <c r="A58" s="4">
+        <v>314</v>
       </c>
       <c r="B58" s="4">
         <v>1</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D58" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E58" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="F58" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="H58" s="22"/>
+      <c r="I58" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="E58" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F58" s="7"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
     </row>
-    <row r="59" s="3" customFormat="1" spans="1:13">
-      <c r="A59" s="4">
+    <row r="59" spans="1:13">
+      <c r="A59" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B59" s="4">
+        <v>1</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E59" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+    </row>
+    <row r="60" s="2" customFormat="1" spans="1:13">
+      <c r="A60" s="4">
         <v>316</v>
       </c>
-      <c r="B59" s="18">
-        <v>1</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="E59" s="26">
+      <c r="B60" s="16">
+        <v>1</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E60" s="25">
         <v>0.7</v>
       </c>
-      <c r="F59" s="26">
-        <v>0.8</v>
-      </c>
-      <c r="G59" s="26"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="J59" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
-    </row>
-    <row r="60" s="1" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A60" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="4" t="s">
+      <c r="F60" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="G60" s="25"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="B61" s="4">
-        <v>1</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D61" s="10" t="s">
+      <c r="J60" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="E61" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="F61" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="H61" s="21"/>
-      <c r="I61" s="4" t="s">
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+    </row>
+    <row r="61" s="1" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A61" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="4">
-        <v>3002</v>
+      <c r="A62" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B62" s="4">
         <v>1</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E62" s="7">
         <v>0.4</v>
       </c>
       <c r="F62" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H62" s="21"/>
+        <v>0.8</v>
+      </c>
+      <c r="H62" s="22"/>
       <c r="I62" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -4587,26 +4609,26 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="4">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B63" s="4">
         <v>1</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E63" s="7">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F63" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="H63" s="21"/>
+        <v>0.6</v>
+      </c>
+      <c r="H63" s="22"/>
       <c r="I63" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -4614,8 +4636,8 @@
       <c r="M63" s="4"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="11" t="s">
-        <v>175</v>
+      <c r="A64" s="4">
+        <v>3003</v>
       </c>
       <c r="B64" s="4">
         <v>1</v>
@@ -4627,10 +4649,12 @@
         <v>177</v>
       </c>
       <c r="E64" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="F64" s="7"/>
-      <c r="H64" s="21"/>
+        <v>0.6</v>
+      </c>
+      <c r="F64" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H64" s="22"/>
       <c r="I64" s="4" t="s">
         <v>178</v>
       </c>
@@ -4653,10 +4677,10 @@
         <v>181</v>
       </c>
       <c r="E65" s="7">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F65" s="7"/>
-      <c r="H65" s="21"/>
+      <c r="H65" s="22"/>
       <c r="I65" s="4" t="s">
         <v>182</v>
       </c>
@@ -4666,25 +4690,25 @@
       <c r="M65" s="4"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="18">
-        <v>3006</v>
+      <c r="A66" s="11" t="s">
+        <v>183</v>
       </c>
       <c r="B66" s="4">
         <v>1</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E66" s="7">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F66" s="7"/>
-      <c r="H66" s="21"/>
+      <c r="H66" s="22"/>
       <c r="I66" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
@@ -4692,8 +4716,8 @@
       <c r="M66" s="4"/>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="11" t="s">
-        <v>186</v>
+      <c r="A67" s="16">
+        <v>3006</v>
       </c>
       <c r="B67" s="4">
         <v>1</v>
@@ -4707,10 +4731,8 @@
       <c r="E67" s="7">
         <v>0.6</v>
       </c>
-      <c r="F67" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="H67" s="21"/>
+      <c r="F67" s="7"/>
+      <c r="H67" s="22"/>
       <c r="I67" s="4" t="s">
         <v>189</v>
       </c>
@@ -4733,10 +4755,12 @@
         <v>192</v>
       </c>
       <c r="E68" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F68" s="7"/>
-      <c r="H68" s="21"/>
+        <v>0.6</v>
+      </c>
+      <c r="F68" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H68" s="22"/>
       <c r="I68" s="4" t="s">
         <v>193</v>
       </c>
@@ -4756,72 +4780,70 @@
         <v>195</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="E69" s="7">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F69" s="7"/>
-      <c r="H69" s="21"/>
+      <c r="H69" s="22"/>
       <c r="I69" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
     </row>
-    <row r="70" s="1" customFormat="1" spans="1:13">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="23"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
-    </row>
-    <row r="71" spans="2:13">
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="4">
-        <v>3101</v>
-      </c>
-      <c r="B72" s="4">
-        <v>1</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D72" s="10" t="s">
+    <row r="70" spans="1:13">
+      <c r="A70" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="E72" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F72" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="H72" s="21"/>
-      <c r="I72" s="4" t="s">
+      <c r="B70" s="4">
+        <v>1</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>199</v>
       </c>
+      <c r="D70" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E70" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F70" s="7"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="1:13">
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+    </row>
+    <row r="72" spans="2:13">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
@@ -4829,16 +4851,16 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="4">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="B73" s="4">
         <v>1</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E73" s="7">
         <v>0.6</v>
@@ -4846,9 +4868,9 @@
       <c r="F73" s="7">
         <v>0.8</v>
       </c>
-      <c r="H73" s="21"/>
+      <c r="H73" s="22"/>
       <c r="I73" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
@@ -4857,23 +4879,27 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="4">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="B74" s="4">
         <v>1</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D74" s="10"/>
+        <v>204</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>205</v>
+      </c>
       <c r="E74" s="7">
         <v>0.6</v>
       </c>
       <c r="F74" s="7">
         <v>0.8</v>
       </c>
-      <c r="H74" s="21"/>
-      <c r="I74" s="4"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
@@ -4881,13 +4907,13 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="4">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="B75" s="4">
         <v>1</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D75" s="10"/>
       <c r="E75" s="7">
@@ -4896,63 +4922,59 @@
       <c r="F75" s="7">
         <v>0.8</v>
       </c>
-      <c r="H75" s="21"/>
-      <c r="I75" s="4" t="s">
-        <v>205</v>
-      </c>
+      <c r="H75" s="22"/>
+      <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
     </row>
-    <row r="76" s="1" customFormat="1" ht="23.2" spans="1:13">
-      <c r="A76" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="4">
+    <row r="76" spans="1:13">
+      <c r="A76" s="4">
+        <v>3104</v>
+      </c>
+      <c r="B76" s="4">
+        <v>1</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D76" s="10"/>
+      <c r="E76" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F76" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H76" s="22"/>
+      <c r="I76" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+    </row>
+    <row r="77" s="1" customFormat="1" ht="23.2" spans="1:13">
+      <c r="A77" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="4">
         <v>3201</v>
-      </c>
-      <c r="B77" s="4">
-        <v>1</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="E77" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F77" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="H77" s="21"/>
-      <c r="I77" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="B78" s="4">
         <v>1</v>
@@ -4964,12 +4986,12 @@
         <v>212</v>
       </c>
       <c r="E78" s="7">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F78" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="H78" s="21"/>
+        <v>0.85</v>
+      </c>
+      <c r="H78" s="22"/>
       <c r="I78" s="4" t="s">
         <v>213</v>
       </c>
@@ -4992,12 +5014,12 @@
         <v>216</v>
       </c>
       <c r="E79" s="7">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F79" s="7">
         <v>0.7</v>
       </c>
-      <c r="H79" s="21"/>
+      <c r="H79" s="22"/>
       <c r="I79" s="4" t="s">
         <v>217</v>
       </c>
@@ -5023,9 +5045,9 @@
         <v>0.4</v>
       </c>
       <c r="F80" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="H80" s="21"/>
+        <v>0.7</v>
+      </c>
+      <c r="H80" s="22"/>
       <c r="I80" s="4" t="s">
         <v>221</v>
       </c>
@@ -5035,27 +5057,27 @@
       <c r="M80" s="4"/>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="4">
-        <v>3205</v>
+      <c r="A81" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="B81" s="4">
         <v>1</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E81" s="7">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="F81" s="7">
         <v>0.9</v>
       </c>
-      <c r="H81" s="21"/>
+      <c r="H81" s="22"/>
       <c r="I81" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
@@ -5064,104 +5086,106 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="4">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="B82" s="4">
         <v>1</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E82" s="7">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="F82" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="H82" s="21"/>
+        <v>0.9</v>
+      </c>
+      <c r="H82" s="22"/>
       <c r="I82" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
     </row>
-    <row r="83" s="1" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A83" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="23"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
-      <c r="K83" s="13"/>
-      <c r="L83" s="13"/>
-      <c r="M83" s="13"/>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="4">
-        <v>3301</v>
-      </c>
-      <c r="B84" s="4">
-        <v>1</v>
-      </c>
-      <c r="C84" s="4" t="s">
+    <row r="83" spans="1:13">
+      <c r="A83" s="4">
+        <v>3206</v>
+      </c>
+      <c r="B83" s="4">
+        <v>1</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D83" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="E84" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="F84" s="7">
-        <v>0.65</v>
-      </c>
-      <c r="H84" s="21"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
+      <c r="E83" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F83" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="H83" s="22"/>
+      <c r="I83" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+    </row>
+    <row r="84" s="1" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A84" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="13"/>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="4">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="B85" s="4">
         <v>1</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E85" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F85" s="7"/>
-      <c r="H85" s="21"/>
-      <c r="I85" s="4" t="s">
-        <v>233</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="F85" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="H85" s="22"/>
+      <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="4" t="s">
-        <v>234</v>
+      <c r="A86" s="4">
+        <v>3302</v>
       </c>
       <c r="B86" s="4">
         <v>1</v>
@@ -5173,12 +5197,10 @@
         <v>236</v>
       </c>
       <c r="E86" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F86" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="H86" s="21"/>
+        <v>0.8</v>
+      </c>
+      <c r="F86" s="7"/>
+      <c r="H86" s="22"/>
       <c r="I86" s="4" t="s">
         <v>237</v>
       </c>
@@ -5206,7 +5228,7 @@
       <c r="F87" s="7">
         <v>0.8</v>
       </c>
-      <c r="H87" s="21"/>
+      <c r="H87" s="22"/>
       <c r="I87" s="4" t="s">
         <v>241</v>
       </c>
@@ -5216,17 +5238,17 @@
       <c r="M87" s="4"/>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="4">
-        <v>3305</v>
+      <c r="A88" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="B88" s="4">
         <v>1</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E88" s="7">
         <v>0.6</v>
@@ -5234,9 +5256,9 @@
       <c r="F88" s="7">
         <v>0.8</v>
       </c>
-      <c r="H88" s="21"/>
+      <c r="H88" s="22"/>
       <c r="I88" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
@@ -5245,16 +5267,16 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="4">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="B89" s="4">
         <v>1</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E89" s="7">
         <v>0.6</v>
@@ -5262,9 +5284,9 @@
       <c r="F89" s="7">
         <v>0.8</v>
       </c>
-      <c r="H89" s="21"/>
+      <c r="H89" s="22"/>
       <c r="I89" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
@@ -5273,87 +5295,89 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="4">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="B90" s="4">
         <v>1</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E90" s="7">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F90" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="H90" s="21"/>
+        <v>0.8</v>
+      </c>
+      <c r="H90" s="22"/>
       <c r="I90" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
     </row>
-    <row r="91" s="1" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A91" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
-      <c r="K91" s="13"/>
-      <c r="L91" s="13"/>
-      <c r="M91" s="13"/>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="A92" s="4">
-        <v>3401</v>
-      </c>
-      <c r="B92" s="4">
-        <v>1</v>
-      </c>
-      <c r="C92" s="4" t="s">
+    <row r="91" spans="1:13">
+      <c r="A91" s="4">
+        <v>3307</v>
+      </c>
+      <c r="B91" s="4">
+        <v>1</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D91" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="E92" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="F92" s="7">
+      <c r="E91" s="7">
         <v>0.7</v>
       </c>
-      <c r="H92" s="21"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
+      <c r="F91" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H91" s="22"/>
+      <c r="I91" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+    </row>
+    <row r="92" s="1" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A92" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="13"/>
+      <c r="L92" s="13"/>
+      <c r="M92" s="13"/>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="4">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="B93" s="4">
         <v>1</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E93" s="7">
         <v>0.4</v>
@@ -5361,7 +5385,7 @@
       <c r="F93" s="7">
         <v>0.7</v>
       </c>
-      <c r="H93" s="21"/>
+      <c r="H93" s="22"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
@@ -5370,16 +5394,16 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="4">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="B94" s="4">
         <v>1</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E94" s="7">
         <v>0.4</v>
@@ -5387,7 +5411,7 @@
       <c r="F94" s="7">
         <v>0.7</v>
       </c>
-      <c r="H94" s="21"/>
+      <c r="H94" s="22"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
@@ -5396,16 +5420,16 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="4">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="B95" s="4">
         <v>1</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E95" s="7">
         <v>0.4</v>
@@ -5413,7 +5437,7 @@
       <c r="F95" s="7">
         <v>0.7</v>
       </c>
-      <c r="H95" s="21"/>
+      <c r="H95" s="22"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
@@ -5421,17 +5445,17 @@
       <c r="M95" s="4"/>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="4" t="s">
-        <v>260</v>
+      <c r="A96" s="4">
+        <v>3404</v>
       </c>
       <c r="B96" s="4">
         <v>1</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E96" s="7">
         <v>0.4</v>
@@ -5439,7 +5463,7 @@
       <c r="F96" s="7">
         <v>0.7</v>
       </c>
-      <c r="H96" s="21"/>
+      <c r="H96" s="22"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
@@ -5447,17 +5471,17 @@
       <c r="M96" s="4"/>
     </row>
     <row r="97" spans="1:13">
-      <c r="A97" s="4">
-        <v>3406</v>
+      <c r="A97" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="B97" s="4">
         <v>1</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E97" s="7">
         <v>0.4</v>
@@ -5465,78 +5489,76 @@
       <c r="F97" s="7">
         <v>0.7</v>
       </c>
-      <c r="H97" s="21"/>
+      <c r="H97" s="22"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
     </row>
-    <row r="98" s="1" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A98" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="23"/>
-      <c r="I98" s="13"/>
-      <c r="J98" s="13"/>
-      <c r="K98" s="13"/>
-      <c r="L98" s="13"/>
-      <c r="M98" s="13"/>
-    </row>
-    <row r="99" spans="1:13">
-      <c r="A99" s="4">
-        <v>3501</v>
-      </c>
-      <c r="B99" s="4">
-        <v>1</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D99" s="10" t="s">
+    <row r="98" spans="1:13">
+      <c r="A98" s="4">
+        <v>3406</v>
+      </c>
+      <c r="B98" s="4">
+        <v>1</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="E99" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F99" s="7"/>
-      <c r="H99" s="21"/>
-      <c r="I99" s="4" t="s">
+      <c r="D98" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
+      <c r="E98" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F98" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="H98" s="22"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+    </row>
+    <row r="99" s="1" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A99" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="13"/>
+      <c r="M99" s="13"/>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="4">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="B100" s="4">
         <v>1</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E100" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F100" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="H100" s="21"/>
+        <v>0.5</v>
+      </c>
+      <c r="F100" s="7"/>
+      <c r="H100" s="22"/>
       <c r="I100" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
@@ -5545,24 +5567,26 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="4">
-        <v>3503</v>
+        <v>3502</v>
       </c>
       <c r="B101" s="4">
         <v>1</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E101" s="7">
         <v>0.6</v>
       </c>
-      <c r="F101" s="7"/>
-      <c r="H101" s="21"/>
+      <c r="F101" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H101" s="22"/>
       <c r="I101" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
@@ -5570,111 +5594,109 @@
       <c r="M101" s="4"/>
     </row>
     <row r="102" spans="1:13">
-      <c r="A102" s="4">
-        <v>3504</v>
+      <c r="A102" s="4" t="s">
+        <v>276</v>
       </c>
       <c r="B102" s="4">
         <v>1</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E102" s="7">
         <v>0.6</v>
       </c>
       <c r="F102" s="7"/>
-      <c r="H102" s="21"/>
+      <c r="H102" s="22"/>
       <c r="I102" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
     </row>
-    <row r="103" spans="2:13">
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="7"/>
+    <row r="103" spans="1:13">
+      <c r="A103" s="4">
+        <v>3504</v>
+      </c>
+      <c r="B103" s="4">
+        <v>1</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E103" s="7">
+        <v>0.6</v>
+      </c>
       <c r="F103" s="7"/>
-      <c r="H103" s="21"/>
-      <c r="I103" s="4"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="4" t="s">
+        <v>282</v>
+      </c>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
     </row>
-    <row r="104" s="1" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A104" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="B104" s="13"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="22"/>
-      <c r="F104" s="22"/>
-      <c r="G104" s="22"/>
-      <c r="H104" s="23"/>
-      <c r="I104" s="13"/>
-      <c r="J104" s="13"/>
-      <c r="K104" s="13"/>
-      <c r="L104" s="13"/>
-      <c r="M104" s="13"/>
-    </row>
-    <row r="105" spans="1:13">
-      <c r="A105" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B105" s="4">
-        <v>1</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="E105" s="7">
+    <row r="104" spans="2:13">
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="H104" s="22"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+    </row>
+    <row r="105" s="1" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A105" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="23"/>
+      <c r="H105" s="24"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="13"/>
+      <c r="K105" s="13"/>
+      <c r="L105" s="13"/>
+      <c r="M105" s="13"/>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B106" s="4">
+        <v>1</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E106" s="7">
         <v>0.4</v>
       </c>
-      <c r="F105" s="7">
+      <c r="F106" s="7">
         <v>0.7</v>
       </c>
-      <c r="H105" s="21"/>
-      <c r="I105" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-      <c r="M105" s="4"/>
-    </row>
-    <row r="106" spans="1:13">
-      <c r="A106" s="4">
-        <v>402</v>
-      </c>
-      <c r="B106" s="4">
-        <v>1</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="E106" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F106" s="7">
-        <v>0.65</v>
-      </c>
-      <c r="H106" s="21"/>
+      <c r="H106" s="22"/>
       <c r="I106" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
@@ -5683,24 +5705,26 @@
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="4">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B107" s="4">
         <v>1</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E107" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F107" s="7"/>
-      <c r="H107" s="21"/>
+        <v>0.5</v>
+      </c>
+      <c r="F107" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="H107" s="22"/>
       <c r="I107" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
@@ -5709,24 +5733,24 @@
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="4">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B108" s="4">
         <v>1</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D108" s="10"/>
+        <v>290</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>291</v>
+      </c>
       <c r="E108" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="F108" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="H108" s="21"/>
+        <v>0.8</v>
+      </c>
+      <c r="F108" s="7"/>
+      <c r="H108" s="22"/>
       <c r="I108" s="4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
@@ -5735,24 +5759,24 @@
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="4">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B109" s="4">
         <v>1</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="D109" s="10" t="s">
-        <v>291</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="D109" s="10"/>
       <c r="E109" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F109" s="7"/>
-      <c r="H109" s="21"/>
+        <v>0.7</v>
+      </c>
+      <c r="F109" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H109" s="22"/>
       <c r="I109" s="4" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
@@ -5761,24 +5785,24 @@
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="4">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B110" s="4">
         <v>1</v>
       </c>
       <c r="C110" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="E110" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F110" s="7"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="E110" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F110" s="7"/>
-      <c r="H110" s="21"/>
-      <c r="I110" s="4" t="s">
-        <v>294</v>
       </c>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
@@ -5787,26 +5811,24 @@
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="4">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B111" s="4">
         <v>1</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E111" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F111" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="H111" s="21"/>
+        <v>0.6</v>
+      </c>
+      <c r="F111" s="7"/>
+      <c r="H111" s="22"/>
       <c r="I111" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
@@ -5815,23 +5837,27 @@
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="4">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B112" s="4">
         <v>1</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E112" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F112" s="7"/>
-      <c r="H112" s="21"/>
-      <c r="I112" s="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="F112" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H112" s="22"/>
+      <c r="I112" s="4" t="s">
+        <v>302</v>
+      </c>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
@@ -5839,27 +5865,23 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="4">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B113" s="4">
         <v>1</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E113" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="F113" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H113" s="21"/>
-      <c r="I113" s="4" t="s">
-        <v>302</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="F113" s="7"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="4"/>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
@@ -5867,24 +5889,26 @@
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="4">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B114" s="4">
         <v>1</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E114" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F114" s="7"/>
-      <c r="H114" s="21"/>
+        <v>0.4</v>
+      </c>
+      <c r="F114" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="H114" s="22"/>
       <c r="I114" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
@@ -5893,24 +5917,24 @@
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="4">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B115" s="4">
         <v>1</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E115" s="7">
         <v>0.6</v>
       </c>
       <c r="F115" s="7"/>
-      <c r="H115" s="21"/>
+      <c r="H115" s="22"/>
       <c r="I115" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
@@ -5919,24 +5943,24 @@
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="4">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B116" s="4">
         <v>1</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E116" s="7">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F116" s="7"/>
-      <c r="H116" s="21"/>
+      <c r="H116" s="22"/>
       <c r="I116" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
@@ -5945,26 +5969,24 @@
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="4">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B117" s="4">
         <v>1</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E117" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="F117" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="H117" s="21"/>
+        <v>0.7</v>
+      </c>
+      <c r="F117" s="7"/>
+      <c r="H117" s="22"/>
       <c r="I117" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
@@ -5973,109 +5995,111 @@
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="4">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B118" s="4">
         <v>1</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E118" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F118" s="7"/>
-      <c r="H118" s="21"/>
+        <v>0.4</v>
+      </c>
+      <c r="F118" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H118" s="22"/>
       <c r="I118" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
       <c r="M118" s="4"/>
     </row>
-    <row r="119" spans="2:13">
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="7"/>
+    <row r="119" spans="1:13">
+      <c r="A119" s="4">
+        <v>414</v>
+      </c>
+      <c r="B119" s="4">
+        <v>1</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="E119" s="7">
+        <v>0.8</v>
+      </c>
       <c r="F119" s="7"/>
-      <c r="H119" s="21"/>
-      <c r="I119" s="4"/>
+      <c r="H119" s="22"/>
+      <c r="I119" s="4" t="s">
+        <v>322</v>
+      </c>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
       <c r="M119" s="4"/>
     </row>
-    <row r="120" s="1" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A120" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="B120" s="13"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="22"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="22"/>
-      <c r="H120" s="23"/>
-      <c r="I120" s="13"/>
-      <c r="J120" s="13"/>
-      <c r="K120" s="13"/>
-      <c r="L120" s="13"/>
-      <c r="M120" s="13"/>
-    </row>
-    <row r="121" spans="1:13">
-      <c r="A121" s="4">
-        <v>501</v>
-      </c>
-      <c r="B121" s="4">
-        <v>1</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="E121" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="F121" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H121" s="21"/>
-      <c r="I121" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
-      <c r="M121" s="4"/>
+    <row r="120" spans="2:13">
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="H120" s="22"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+    </row>
+    <row r="121" s="1" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A121" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="B121" s="13"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="23"/>
+      <c r="G121" s="23"/>
+      <c r="H121" s="24"/>
+      <c r="I121" s="13"/>
+      <c r="J121" s="13"/>
+      <c r="K121" s="13"/>
+      <c r="L121" s="13"/>
+      <c r="M121" s="13"/>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="4">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B122" s="4">
         <v>1</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E122" s="7">
         <v>0.4</v>
       </c>
       <c r="F122" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="H122" s="21"/>
-      <c r="I122" s="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="H122" s="22"/>
+      <c r="I122" s="4" t="s">
+        <v>326</v>
+      </c>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
@@ -6083,52 +6107,50 @@
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="4">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B123" s="4">
         <v>1</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E123" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F123" s="7"/>
-      <c r="H123" s="21"/>
-      <c r="I123" s="4" t="s">
-        <v>326</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="F123" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="H123" s="22"/>
+      <c r="I123" s="4"/>
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
       <c r="M123" s="4"/>
     </row>
     <row r="124" spans="1:13">
-      <c r="A124" s="4" t="s">
-        <v>327</v>
+      <c r="A124" s="4">
+        <v>503</v>
       </c>
       <c r="B124" s="4">
         <v>1</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E124" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F124" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="H124" s="21"/>
+        <v>0.8</v>
+      </c>
+      <c r="F124" s="7"/>
+      <c r="H124" s="22"/>
       <c r="I124" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
@@ -6137,26 +6159,26 @@
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B125" s="4">
         <v>1</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E125" s="7">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F125" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="H125" s="21"/>
+        <v>0.75</v>
+      </c>
+      <c r="H125" s="22"/>
       <c r="I125" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
@@ -6165,16 +6187,16 @@
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B126" s="4">
         <v>1</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E126" s="7">
         <v>0.6</v>
@@ -6182,9 +6204,9 @@
       <c r="F126" s="7">
         <v>0.8</v>
       </c>
-      <c r="H126" s="21"/>
+      <c r="H126" s="22"/>
       <c r="I126" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
@@ -6192,27 +6214,27 @@
       <c r="M126" s="4"/>
     </row>
     <row r="127" spans="1:13">
-      <c r="A127" s="4">
-        <v>507</v>
+      <c r="A127" s="4" t="s">
+        <v>340</v>
       </c>
       <c r="B127" s="4">
         <v>1</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E127" s="7">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F127" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="H127" s="21"/>
+        <v>0.8</v>
+      </c>
+      <c r="H127" s="22"/>
       <c r="I127" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
@@ -6221,24 +6243,26 @@
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="4">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B128" s="4">
         <v>1</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E128" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="F128" s="7"/>
-      <c r="H128" s="21"/>
+        <v>0.7</v>
+      </c>
+      <c r="F128" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="H128" s="22"/>
       <c r="I128" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
@@ -6247,25 +6271,25 @@
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="4">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B129" s="4">
         <v>1</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E129" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F129" s="7">
-        <v>1</v>
-      </c>
-      <c r="H129" s="21"/>
-      <c r="I129" s="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="F129" s="7"/>
+      <c r="H129" s="22"/>
+      <c r="I129" s="4" t="s">
+        <v>349</v>
+      </c>
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
@@ -6273,25 +6297,25 @@
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="4">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B130" s="4">
         <v>1</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E130" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="F130" s="7"/>
-      <c r="H130" s="21"/>
-      <c r="I130" s="4" t="s">
-        <v>349</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="F130" s="7">
+        <v>1</v>
+      </c>
+      <c r="H130" s="22"/>
+      <c r="I130" s="4"/>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
@@ -6299,24 +6323,24 @@
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="4">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B131" s="4">
         <v>1</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E131" s="7">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="F131" s="7"/>
-      <c r="H131" s="21"/>
+      <c r="H131" s="22"/>
       <c r="I131" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
@@ -6325,24 +6349,24 @@
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="4">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B132" s="4">
         <v>1</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E132" s="7">
         <v>0.6</v>
       </c>
       <c r="F132" s="7"/>
-      <c r="H132" s="21"/>
+      <c r="H132" s="22"/>
       <c r="I132" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
@@ -6350,25 +6374,25 @@
       <c r="M132" s="4"/>
     </row>
     <row r="133" spans="1:13">
-      <c r="A133" s="11" t="s">
-        <v>356</v>
+      <c r="A133" s="4">
+        <v>512</v>
       </c>
       <c r="B133" s="4">
         <v>1</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E133" s="7">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F133" s="7"/>
-      <c r="H133" s="21"/>
+      <c r="H133" s="22"/>
       <c r="I133" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
@@ -6376,23 +6400,25 @@
       <c r="M133" s="4"/>
     </row>
     <row r="134" spans="1:13">
-      <c r="A134" s="4">
-        <v>514</v>
+      <c r="A134" s="11" t="s">
+        <v>361</v>
       </c>
       <c r="B134" s="4">
         <v>1</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="D134" s="10"/>
+        <v>362</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>363</v>
+      </c>
       <c r="E134" s="7">
         <v>0.8</v>
       </c>
       <c r="F134" s="7"/>
-      <c r="H134" s="21"/>
+      <c r="H134" s="22"/>
       <c r="I134" s="4" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
@@ -6401,24 +6427,22 @@
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="4">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B135" s="4">
         <v>1</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>363</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="D135" s="10"/>
       <c r="E135" s="7">
         <v>0.8</v>
       </c>
       <c r="F135" s="7"/>
-      <c r="H135" s="21"/>
+      <c r="H135" s="22"/>
       <c r="I135" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
@@ -6426,25 +6450,25 @@
       <c r="M135" s="4"/>
     </row>
     <row r="136" spans="1:13">
-      <c r="A136" s="4" t="s">
-        <v>365</v>
+      <c r="A136" s="4">
+        <v>515</v>
       </c>
       <c r="B136" s="4">
         <v>1</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="D136" s="10"/>
+        <v>367</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>368</v>
+      </c>
       <c r="E136" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F136" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="H136" s="21"/>
+        <v>0.8</v>
+      </c>
+      <c r="F136" s="7"/>
+      <c r="H136" s="22"/>
       <c r="I136" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
@@ -6453,26 +6477,24 @@
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B137" s="4">
         <v>1</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="D137" s="10" t="s">
-        <v>370</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="D137" s="10"/>
       <c r="E137" s="7">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F137" s="7">
         <v>0.8</v>
       </c>
-      <c r="H137" s="21"/>
+      <c r="H137" s="22"/>
       <c r="I137" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
@@ -6480,25 +6502,27 @@
       <c r="M137" s="4"/>
     </row>
     <row r="138" spans="1:13">
-      <c r="A138" s="4">
-        <v>518</v>
+      <c r="A138" s="4" t="s">
+        <v>373</v>
       </c>
       <c r="B138" s="4">
         <v>1</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E138" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F138" s="7"/>
-      <c r="H138" s="21"/>
+        <v>0.4</v>
+      </c>
+      <c r="F138" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H138" s="22"/>
       <c r="I138" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
@@ -6507,110 +6531,108 @@
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="4">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B139" s="4">
         <v>1</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="D139" s="10"/>
+        <v>377</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>378</v>
+      </c>
       <c r="E139" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="F139" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="H139" s="21"/>
+        <v>0.6</v>
+      </c>
+      <c r="F139" s="7"/>
+      <c r="H139" s="22"/>
       <c r="I139" s="4" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
       <c r="M139" s="4"/>
     </row>
-    <row r="140" spans="2:13">
+    <row r="140" spans="1:13">
+      <c r="A140" s="4">
+        <v>519</v>
+      </c>
       <c r="B140" s="4">
         <v>1</v>
       </c>
-      <c r="C140" s="4"/>
+      <c r="C140" s="4" t="s">
+        <v>380</v>
+      </c>
       <c r="D140" s="10"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="H140" s="21"/>
-      <c r="I140" s="4"/>
+      <c r="E140" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F140" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="H140" s="22"/>
+      <c r="I140" s="4" t="s">
+        <v>381</v>
+      </c>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
       <c r="M140" s="4"/>
     </row>
-    <row r="141" s="1" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A141" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="B141" s="13"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="22"/>
-      <c r="F141" s="22"/>
-      <c r="G141" s="22"/>
-      <c r="H141" s="23"/>
-      <c r="I141" s="13"/>
-      <c r="J141" s="13"/>
-      <c r="K141" s="13"/>
-      <c r="L141" s="13"/>
-      <c r="M141" s="13"/>
-    </row>
-    <row r="142" spans="1:13">
-      <c r="A142" s="4">
-        <v>601</v>
-      </c>
-      <c r="B142" s="4">
-        <v>1</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="D142" s="10"/>
-      <c r="E142" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F142" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="H142" s="21"/>
-      <c r="I142" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="J142" s="4"/>
-      <c r="K142" s="4"/>
-      <c r="L142" s="4"/>
-      <c r="M142" s="4"/>
+    <row r="141" spans="2:13">
+      <c r="B141" s="4">
+        <v>1</v>
+      </c>
+      <c r="C141" s="4"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="H141" s="22"/>
+      <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
+      <c r="K141" s="4"/>
+      <c r="L141" s="4"/>
+      <c r="M141" s="4"/>
+    </row>
+    <row r="142" s="1" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A142" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="B142" s="13"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="23"/>
+      <c r="F142" s="23"/>
+      <c r="G142" s="23"/>
+      <c r="H142" s="24"/>
+      <c r="I142" s="13"/>
+      <c r="J142" s="13"/>
+      <c r="K142" s="13"/>
+      <c r="L142" s="13"/>
+      <c r="M142" s="13"/>
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="4">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B143" s="4">
         <v>1</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="D143" s="10" t="s">
-        <v>381</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="D143" s="10"/>
       <c r="E143" s="7">
         <v>0.6</v>
       </c>
       <c r="F143" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="H143" s="21"/>
+        <v>0.7</v>
+      </c>
+      <c r="H143" s="22"/>
       <c r="I143" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
@@ -6619,26 +6641,26 @@
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="4">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B144" s="4">
         <v>1</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E144" s="7">
         <v>0.6</v>
       </c>
       <c r="F144" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="H144" s="21"/>
+        <v>0.85</v>
+      </c>
+      <c r="H144" s="22"/>
       <c r="I144" s="4" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
@@ -6647,24 +6669,26 @@
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="4">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B145" s="4">
         <v>1</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E145" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F145" s="7"/>
-      <c r="H145" s="21"/>
+        <v>0.6</v>
+      </c>
+      <c r="F145" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H145" s="22"/>
       <c r="I145" s="4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
@@ -6673,26 +6697,24 @@
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="4">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B146" s="4">
         <v>1</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E146" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="F146" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="H146" s="21"/>
+        <v>0.8</v>
+      </c>
+      <c r="F146" s="7"/>
+      <c r="H146" s="22"/>
       <c r="I146" s="4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
@@ -6701,192 +6723,194 @@
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="4">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B147" s="4">
         <v>1</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E147" s="7">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F147" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="H147" s="21"/>
+        <v>0.8</v>
+      </c>
+      <c r="H147" s="22"/>
       <c r="I147" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
       <c r="L147" s="4"/>
       <c r="M147" s="4"/>
     </row>
-    <row r="148" spans="2:13">
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="10"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
-      <c r="H148" s="21"/>
-      <c r="I148" s="4"/>
+    <row r="148" spans="1:13">
+      <c r="A148" s="4">
+        <v>606</v>
+      </c>
+      <c r="B148" s="4">
+        <v>1</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="E148" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F148" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H148" s="22"/>
+      <c r="I148" s="4" t="s">
+        <v>399</v>
+      </c>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
       <c r="L148" s="4"/>
       <c r="M148" s="4"/>
     </row>
-    <row r="149" s="1" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A149" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="B149" s="13"/>
-      <c r="C149" s="13"/>
-      <c r="D149" s="14"/>
-      <c r="E149" s="22"/>
-      <c r="F149" s="22"/>
-      <c r="G149" s="22"/>
-      <c r="H149" s="23"/>
-      <c r="I149" s="13"/>
-      <c r="J149" s="13"/>
-      <c r="K149" s="13"/>
-      <c r="L149" s="13"/>
-      <c r="M149" s="13"/>
-    </row>
-    <row r="150" spans="1:13">
-      <c r="A150" s="4">
-        <v>801</v>
-      </c>
-      <c r="B150" s="4">
-        <v>1</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D150" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="E150" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F150" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="H150" s="21"/>
-      <c r="I150" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="J150" s="4"/>
-      <c r="K150" s="4"/>
-      <c r="L150" s="4"/>
-      <c r="M150" s="4"/>
+    <row r="149" spans="2:13">
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="H149" s="22"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
+      <c r="K149" s="4"/>
+      <c r="L149" s="4"/>
+      <c r="M149" s="4"/>
+    </row>
+    <row r="150" s="1" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A150" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="B150" s="13"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="23"/>
+      <c r="F150" s="23"/>
+      <c r="G150" s="23"/>
+      <c r="H150" s="24"/>
+      <c r="I150" s="13"/>
+      <c r="J150" s="13"/>
+      <c r="K150" s="13"/>
+      <c r="L150" s="13"/>
+      <c r="M150" s="13"/>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="4">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B151" s="4">
         <v>1</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E151" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F151" s="7"/>
-      <c r="H151" s="21"/>
+        <v>0.5</v>
+      </c>
+      <c r="F151" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H151" s="22"/>
       <c r="I151" s="4" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
       <c r="L151" s="4"/>
       <c r="M151" s="4"/>
     </row>
-    <row r="152" spans="2:13">
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="10"/>
-      <c r="E152" s="7"/>
+    <row r="152" spans="1:13">
+      <c r="A152" s="4">
+        <v>802</v>
+      </c>
+      <c r="B152" s="4">
+        <v>1</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="E152" s="7">
+        <v>0.8</v>
+      </c>
       <c r="F152" s="7"/>
-      <c r="H152" s="21"/>
-      <c r="I152" s="4"/>
+      <c r="H152" s="22"/>
+      <c r="I152" s="4" t="s">
+        <v>406</v>
+      </c>
       <c r="J152" s="4"/>
       <c r="K152" s="4"/>
       <c r="L152" s="4"/>
       <c r="M152" s="4"/>
     </row>
-    <row r="153" s="1" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A153" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="B153" s="13"/>
-      <c r="C153" s="13"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="22"/>
-      <c r="F153" s="22"/>
-      <c r="G153" s="22"/>
-      <c r="H153" s="23"/>
-      <c r="I153" s="13"/>
-      <c r="J153" s="13"/>
-      <c r="K153" s="13"/>
-      <c r="L153" s="13"/>
-      <c r="M153" s="13"/>
-    </row>
-    <row r="154" spans="1:13">
-      <c r="A154" s="4">
-        <v>901</v>
-      </c>
-      <c r="B154" s="4">
-        <v>1</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="D154" s="10"/>
-      <c r="E154" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="F154" s="7">
-        <v>2</v>
-      </c>
-      <c r="H154" s="21"/>
-      <c r="I154" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="J154" s="4"/>
-      <c r="K154" s="4"/>
-      <c r="L154" s="4"/>
-      <c r="M154" s="4"/>
+    <row r="153" spans="2:13">
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
+      <c r="H153" s="22"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="4"/>
+      <c r="L153" s="4"/>
+      <c r="M153" s="4"/>
+    </row>
+    <row r="154" s="1" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A154" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="B154" s="13"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="23"/>
+      <c r="F154" s="23"/>
+      <c r="G154" s="23"/>
+      <c r="H154" s="24"/>
+      <c r="I154" s="13"/>
+      <c r="J154" s="13"/>
+      <c r="K154" s="13"/>
+      <c r="L154" s="13"/>
+      <c r="M154" s="13"/>
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="4">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B155" s="4">
         <v>1</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D155" s="10"/>
       <c r="E155" s="7">
         <v>0.4</v>
       </c>
       <c r="F155" s="7">
-        <v>1</v>
-      </c>
-      <c r="H155" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="H155" s="22"/>
       <c r="I155" s="4" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="J155" s="4"/>
       <c r="K155" s="4"/>
@@ -6895,24 +6919,24 @@
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="4">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B156" s="4">
         <v>1</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="D156" s="10" t="s">
-        <v>408</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="D156" s="10"/>
       <c r="E156" s="7">
         <v>0.4</v>
       </c>
-      <c r="F156" s="7"/>
-      <c r="H156" s="21"/>
+      <c r="F156" s="7">
+        <v>1</v>
+      </c>
+      <c r="H156" s="22"/>
       <c r="I156" s="4" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="J156" s="4"/>
       <c r="K156" s="4"/>
@@ -6921,22 +6945,24 @@
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="4">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B157" s="4">
         <v>1</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="D157" s="10"/>
+        <v>412</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>413</v>
+      </c>
       <c r="E157" s="7">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F157" s="7"/>
-      <c r="H157" s="21"/>
+      <c r="H157" s="22"/>
       <c r="I157" s="4" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
@@ -6945,109 +6971,103 @@
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="4">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B158" s="4">
         <v>1</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D158" s="10"/>
       <c r="E158" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="F158" s="7">
-        <v>2</v>
-      </c>
-      <c r="H158" s="21"/>
+        <v>0.6</v>
+      </c>
+      <c r="F158" s="7"/>
+      <c r="H158" s="22"/>
       <c r="I158" s="4" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
       <c r="L158" s="4"/>
       <c r="M158" s="4"/>
     </row>
-    <row r="159" spans="2:13">
-      <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
+    <row r="159" spans="1:13">
+      <c r="A159" s="4">
+        <v>905</v>
+      </c>
+      <c r="B159" s="4">
+        <v>1</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>417</v>
+      </c>
       <c r="D159" s="10"/>
-      <c r="E159" s="7"/>
-      <c r="F159" s="7"/>
-      <c r="H159" s="21"/>
-      <c r="I159" s="4"/>
+      <c r="E159" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F159" s="7">
+        <v>2</v>
+      </c>
+      <c r="H159" s="22"/>
+      <c r="I159" s="4" t="s">
+        <v>418</v>
+      </c>
       <c r="J159" s="4"/>
       <c r="K159" s="4"/>
       <c r="L159" s="4"/>
       <c r="M159" s="4"/>
     </row>
-    <row r="160" s="1" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A160" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="B160" s="13"/>
-      <c r="C160" s="13"/>
-      <c r="D160" s="14"/>
-      <c r="E160" s="22"/>
-      <c r="F160" s="22"/>
-      <c r="G160" s="22"/>
-      <c r="H160" s="23"/>
-      <c r="I160" s="13"/>
-      <c r="J160" s="13"/>
-      <c r="K160" s="13"/>
-      <c r="L160" s="13"/>
-      <c r="M160" s="13"/>
-    </row>
-    <row r="161" spans="1:13">
-      <c r="A161" s="4">
-        <v>701</v>
-      </c>
-      <c r="B161" s="4">
-        <v>1</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="D161" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="E161" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F161" s="7"/>
-      <c r="H161" s="21"/>
-      <c r="I161" s="4"/>
-      <c r="J161" s="4"/>
-      <c r="K161" s="4"/>
-      <c r="L161" s="4"/>
-      <c r="M161" s="4"/>
+    <row r="160" spans="2:13">
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="H160" s="22"/>
+      <c r="I160" s="4"/>
+      <c r="J160" s="4"/>
+      <c r="K160" s="4"/>
+      <c r="L160" s="4"/>
+      <c r="M160" s="4"/>
+    </row>
+    <row r="161" s="1" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A161" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B161" s="13"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="14"/>
+      <c r="E161" s="23"/>
+      <c r="F161" s="23"/>
+      <c r="G161" s="23"/>
+      <c r="H161" s="24"/>
+      <c r="I161" s="13"/>
+      <c r="J161" s="13"/>
+      <c r="K161" s="13"/>
+      <c r="L161" s="13"/>
+      <c r="M161" s="13"/>
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="4">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B162" s="4">
         <v>1</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E162" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="F162" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="H162" s="21">
-        <v>1</v>
-      </c>
-      <c r="I162" s="4" t="s">
-        <v>419</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="F162" s="7"/>
+      <c r="H162" s="22"/>
+      <c r="I162" s="4"/>
       <c r="J162" s="4"/>
       <c r="K162" s="4"/>
       <c r="L162" s="4"/>
@@ -7055,24 +7075,28 @@
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="4">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B163" s="4">
         <v>1</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E163" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F163" s="7"/>
-      <c r="H163" s="21"/>
+        <v>0.7</v>
+      </c>
+      <c r="F163" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="H163" s="22">
+        <v>1</v>
+      </c>
       <c r="I163" s="4" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="J163" s="4"/>
       <c r="K163" s="4"/>
@@ -7081,26 +7105,24 @@
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="4">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B164" s="4">
         <v>1</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E164" s="7">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F164" s="7"/>
-      <c r="H164" s="21">
-        <v>1</v>
-      </c>
+      <c r="H164" s="22"/>
       <c r="I164" s="4" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="J164" s="4"/>
       <c r="K164" s="4"/>
@@ -7109,25 +7131,27 @@
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="4">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B165" s="4">
         <v>1</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E165" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="F165" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="H165" s="21"/>
-      <c r="I165" s="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="F165" s="7"/>
+      <c r="H165" s="22">
+        <v>1</v>
+      </c>
+      <c r="I165" s="4" t="s">
+        <v>430</v>
+      </c>
       <c r="J165" s="4"/>
       <c r="K165" s="4"/>
       <c r="L165" s="4"/>
@@ -7135,16 +7159,16 @@
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="4">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B166" s="4">
         <v>1</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E166" s="7">
         <v>0.4</v>
@@ -7152,7 +7176,7 @@
       <c r="F166" s="7">
         <v>0.7</v>
       </c>
-      <c r="H166" s="21"/>
+      <c r="H166" s="22"/>
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
       <c r="K166" s="4"/>
@@ -7161,26 +7185,24 @@
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="4">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B167" s="4">
         <v>1</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E167" s="7">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F167" s="7">
-        <v>1</v>
-      </c>
-      <c r="H167" s="21">
-        <v>1</v>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="H167" s="22"/>
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
@@ -7189,24 +7211,26 @@
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="4">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B168" s="4">
         <v>1</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E168" s="7">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F168" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="H168" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="H168" s="22">
+        <v>1</v>
+      </c>
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
@@ -7215,24 +7239,24 @@
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="4">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B169" s="4">
         <v>1</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E169" s="7">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F169" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="H169" s="21"/>
+        <v>0.7</v>
+      </c>
+      <c r="H169" s="22"/>
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
@@ -7241,25 +7265,25 @@
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="4">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B170" s="4">
         <v>1</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E170" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F170" s="7"/>
-      <c r="H170" s="21"/>
-      <c r="I170" s="4" t="s">
-        <v>438</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="F170" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H170" s="22"/>
+      <c r="I170" s="4"/>
       <c r="J170" s="4"/>
       <c r="K170" s="4"/>
       <c r="L170" s="4"/>
@@ -7267,23 +7291,25 @@
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="4">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B171" s="4">
         <v>1</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E171" s="7">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F171" s="7"/>
-      <c r="H171" s="21"/>
-      <c r="I171" s="4"/>
+      <c r="H171" s="22"/>
+      <c r="I171" s="4" t="s">
+        <v>443</v>
+      </c>
       <c r="J171" s="4"/>
       <c r="K171" s="4"/>
       <c r="L171" s="4"/>
@@ -7291,27 +7317,23 @@
     </row>
     <row r="172" spans="1:13">
       <c r="A172" s="4">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B172" s="4">
         <v>1</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="E172" s="7">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F172" s="7"/>
-      <c r="H172" s="21">
-        <v>1</v>
-      </c>
-      <c r="I172" s="4" t="s">
-        <v>443</v>
-      </c>
+      <c r="H172" s="22"/>
+      <c r="I172" s="4"/>
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
       <c r="L172" s="4"/>
@@ -7319,23 +7341,27 @@
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="4">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B173" s="4">
         <v>1</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E173" s="7">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F173" s="7"/>
-      <c r="H173" s="21"/>
-      <c r="I173" s="4"/>
+      <c r="H173" s="22">
+        <v>1</v>
+      </c>
+      <c r="I173" s="4" t="s">
+        <v>448</v>
+      </c>
       <c r="J173" s="4"/>
       <c r="K173" s="4"/>
       <c r="L173" s="4"/>
@@ -7343,22 +7369,22 @@
     </row>
     <row r="174" spans="1:13">
       <c r="A174" s="4">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B174" s="4">
         <v>1</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E174" s="7">
         <v>0.5</v>
       </c>
       <c r="F174" s="7"/>
-      <c r="H174" s="21"/>
+      <c r="H174" s="22"/>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
       <c r="K174" s="4"/>
@@ -7367,24 +7393,22 @@
     </row>
     <row r="175" spans="1:13">
       <c r="A175" s="4">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B175" s="4">
         <v>1</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="E175" s="7">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F175" s="7"/>
-      <c r="H175" s="21">
-        <v>1</v>
-      </c>
+      <c r="H175" s="22"/>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
       <c r="K175" s="4"/>
@@ -7393,25 +7417,25 @@
     </row>
     <row r="176" spans="1:13">
       <c r="A176" s="4">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B176" s="4">
         <v>1</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E176" s="7">
         <v>0.9</v>
       </c>
       <c r="F176" s="7"/>
-      <c r="H176" s="21"/>
-      <c r="I176" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="H176" s="22">
+        <v>1</v>
+      </c>
+      <c r="I176" s="4"/>
       <c r="J176" s="4"/>
       <c r="K176" s="4"/>
       <c r="L176" s="4"/>
@@ -7419,24 +7443,24 @@
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="4">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B177" s="4">
         <v>1</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E177" s="7">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F177" s="7"/>
-      <c r="H177" s="21"/>
+      <c r="H177" s="22"/>
       <c r="I177" s="4" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="J177" s="4"/>
       <c r="K177" s="4"/>
@@ -7445,24 +7469,24 @@
     </row>
     <row r="178" spans="1:13">
       <c r="A178" s="4">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B178" s="4">
         <v>1</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E178" s="7">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F178" s="7"/>
-      <c r="H178" s="21"/>
+      <c r="H178" s="22"/>
       <c r="I178" s="4" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="J178" s="4"/>
       <c r="K178" s="4"/>
@@ -7471,26 +7495,24 @@
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="4">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B179" s="4">
         <v>1</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E179" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F179" s="7">
         <v>0.9</v>
       </c>
-      <c r="H179" s="21"/>
+      <c r="F179" s="7"/>
+      <c r="H179" s="22"/>
       <c r="I179" s="4" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="J179" s="4"/>
       <c r="K179" s="4"/>
@@ -7499,26 +7521,26 @@
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="4">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B180" s="4">
         <v>1</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E180" s="7">
         <v>0.6</v>
       </c>
       <c r="F180" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="H180" s="21"/>
+        <v>0.9</v>
+      </c>
+      <c r="H180" s="22"/>
       <c r="I180" s="4" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="J180" s="4"/>
       <c r="K180" s="4"/>
@@ -7527,26 +7549,26 @@
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="4">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B181" s="4">
         <v>1</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E181" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F181" s="7"/>
-      <c r="H181" s="21">
-        <v>1</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="F181" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H181" s="22"/>
       <c r="I181" s="4" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="J181" s="4"/>
       <c r="K181" s="4"/>
@@ -7555,26 +7577,26 @@
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="4">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B182" s="4">
         <v>1</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E182" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F182" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="H182" s="21"/>
+        <v>0.8</v>
+      </c>
+      <c r="F182" s="7"/>
+      <c r="H182" s="22">
+        <v>1</v>
+      </c>
       <c r="I182" s="4" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J182" s="4"/>
       <c r="K182" s="4"/>
@@ -7583,16 +7605,16 @@
     </row>
     <row r="183" spans="1:13">
       <c r="A183" s="4">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B183" s="4">
         <v>1</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="E183" s="7">
         <v>0.6</v>
@@ -7600,8 +7622,10 @@
       <c r="F183" s="7">
         <v>0.9</v>
       </c>
-      <c r="H183" s="21"/>
-      <c r="I183" s="4"/>
+      <c r="H183" s="22"/>
+      <c r="I183" s="4" t="s">
+        <v>475</v>
+      </c>
       <c r="J183" s="4"/>
       <c r="K183" s="4"/>
       <c r="L183" s="4"/>
@@ -7609,27 +7633,25 @@
     </row>
     <row r="184" spans="1:13">
       <c r="A184" s="4">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B184" s="4">
         <v>1</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E184" s="7">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F184" s="7">
         <v>0.9</v>
       </c>
-      <c r="H184" s="21"/>
-      <c r="I184" s="4" t="s">
-        <v>474</v>
-      </c>
+      <c r="H184" s="22"/>
+      <c r="I184" s="4"/>
       <c r="J184" s="4"/>
       <c r="K184" s="4"/>
       <c r="L184" s="4"/>
@@ -7637,16 +7659,16 @@
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="4">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B185" s="4">
         <v>1</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E185" s="7">
         <v>0.4</v>
@@ -7654,8 +7676,10 @@
       <c r="F185" s="7">
         <v>0.9</v>
       </c>
-      <c r="H185" s="21"/>
-      <c r="I185" s="4"/>
+      <c r="H185" s="22"/>
+      <c r="I185" s="4" t="s">
+        <v>479</v>
+      </c>
       <c r="J185" s="4"/>
       <c r="K185" s="4"/>
       <c r="L185" s="4"/>
@@ -7663,25 +7687,25 @@
     </row>
     <row r="186" spans="1:13">
       <c r="A186" s="4">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B186" s="4">
         <v>1</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E186" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F186" s="7"/>
-      <c r="H186" s="21"/>
-      <c r="I186" s="4" t="s">
-        <v>478</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="F186" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H186" s="22"/>
+      <c r="I186" s="4"/>
       <c r="J186" s="4"/>
       <c r="K186" s="4"/>
       <c r="L186" s="4"/>
@@ -7689,24 +7713,24 @@
     </row>
     <row r="187" spans="1:13">
       <c r="A187" s="4">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B187" s="4">
         <v>1</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E187" s="7">
         <v>0.8</v>
       </c>
       <c r="F187" s="7"/>
-      <c r="H187" s="21"/>
+      <c r="H187" s="22"/>
       <c r="I187" s="4" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J187" s="4"/>
       <c r="K187" s="4"/>
@@ -7715,24 +7739,24 @@
     </row>
     <row r="188" spans="1:13">
       <c r="A188" s="4">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B188" s="4">
         <v>1</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E188" s="7">
         <v>0.8</v>
       </c>
       <c r="F188" s="7"/>
-      <c r="H188" s="21"/>
+      <c r="H188" s="22"/>
       <c r="I188" s="4" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="J188" s="4"/>
       <c r="K188" s="4"/>
@@ -7741,26 +7765,24 @@
     </row>
     <row r="189" spans="1:13">
       <c r="A189" s="4">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B189" s="4">
         <v>1</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E189" s="7">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F189" s="7"/>
-      <c r="H189" s="21">
-        <v>1</v>
-      </c>
+      <c r="H189" s="22"/>
       <c r="I189" s="4" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="J189" s="4"/>
       <c r="K189" s="4"/>
@@ -7769,24 +7791,26 @@
     </row>
     <row r="190" spans="1:13">
       <c r="A190" s="4">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B190" s="4">
         <v>1</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E190" s="7">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F190" s="7"/>
-      <c r="H190" s="21"/>
+      <c r="H190" s="22">
+        <v>1</v>
+      </c>
       <c r="I190" s="4" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="J190" s="4"/>
       <c r="K190" s="4"/>
@@ -7795,23 +7819,25 @@
     </row>
     <row r="191" spans="1:13">
       <c r="A191" s="4">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B191" s="4">
         <v>1</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E191" s="7">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F191" s="7"/>
-      <c r="H191" s="21"/>
-      <c r="I191" s="4"/>
+      <c r="H191" s="22"/>
+      <c r="I191" s="4" t="s">
+        <v>495</v>
+      </c>
       <c r="J191" s="4"/>
       <c r="K191" s="4"/>
       <c r="L191" s="4"/>
@@ -7819,24 +7845,22 @@
     </row>
     <row r="192" spans="1:13">
       <c r="A192" s="4">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B192" s="4">
         <v>1</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E192" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F192" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="H192" s="21"/>
+        <v>0.8</v>
+      </c>
+      <c r="F192" s="7"/>
+      <c r="H192" s="22"/>
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
       <c r="K192" s="4"/>
@@ -7845,22 +7869,24 @@
     </row>
     <row r="193" spans="1:13">
       <c r="A193" s="4">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B193" s="4">
         <v>1</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E193" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="F193" s="7"/>
-      <c r="H193" s="21"/>
+        <v>0.6</v>
+      </c>
+      <c r="F193" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H193" s="22"/>
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
       <c r="K193" s="4"/>
@@ -7869,23 +7895,23 @@
     </row>
     <row r="194" spans="1:13">
       <c r="A194" s="4">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B194" s="4">
         <v>1</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="E194" s="7"/>
+        <v>501</v>
+      </c>
+      <c r="E194" s="7">
+        <v>0.7</v>
+      </c>
       <c r="F194" s="7"/>
-      <c r="H194" s="21"/>
-      <c r="I194" s="4" t="s">
-        <v>499</v>
-      </c>
+      <c r="H194" s="22"/>
+      <c r="I194" s="4"/>
       <c r="J194" s="4"/>
       <c r="K194" s="4"/>
       <c r="L194" s="4"/>
@@ -7893,102 +7919,102 @@
     </row>
     <row r="195" spans="1:13">
       <c r="A195" s="4">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B195" s="4">
         <v>1</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="E195" s="7">
-        <v>0.6</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="E195" s="7"/>
       <c r="F195" s="7"/>
-      <c r="H195" s="21"/>
+      <c r="H195" s="22"/>
       <c r="I195" s="4" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J195" s="4"/>
       <c r="K195" s="4"/>
       <c r="L195" s="4"/>
       <c r="M195" s="4"/>
     </row>
-    <row r="196" spans="2:13">
-      <c r="B196" s="4"/>
-      <c r="C196" s="4"/>
-      <c r="D196" s="10"/>
-      <c r="E196" s="7"/>
+    <row r="196" spans="1:13">
+      <c r="A196" s="4">
+        <v>735</v>
+      </c>
+      <c r="B196" s="4">
+        <v>1</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="D196" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="E196" s="7">
+        <v>0.6</v>
+      </c>
       <c r="F196" s="7"/>
-      <c r="H196" s="21"/>
-      <c r="I196" s="4"/>
+      <c r="H196" s="22"/>
+      <c r="I196" s="4" t="s">
+        <v>507</v>
+      </c>
       <c r="J196" s="4"/>
       <c r="K196" s="4"/>
       <c r="L196" s="4"/>
       <c r="M196" s="4"/>
     </row>
-    <row r="197" s="1" customFormat="1" spans="1:13">
-      <c r="A197" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="B197" s="13"/>
-      <c r="C197" s="13"/>
-      <c r="D197" s="14"/>
-      <c r="E197" s="22"/>
-      <c r="F197" s="22"/>
-      <c r="G197" s="22"/>
-      <c r="H197" s="23"/>
-      <c r="I197" s="13"/>
-      <c r="J197" s="13"/>
-      <c r="K197" s="13"/>
-      <c r="L197" s="13"/>
-      <c r="M197" s="13"/>
-    </row>
-    <row r="198" spans="1:13">
-      <c r="A198" s="4">
-        <v>101</v>
-      </c>
-      <c r="B198" s="4">
-        <v>2</v>
-      </c>
-      <c r="C198" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="D198" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="E198" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F198" s="7"/>
-      <c r="H198" s="21"/>
-      <c r="I198" s="4"/>
-      <c r="J198" s="4"/>
-      <c r="K198" s="4"/>
-      <c r="L198" s="4"/>
-      <c r="M198" s="4"/>
+    <row r="197" spans="2:13">
+      <c r="B197" s="4"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="10"/>
+      <c r="E197" s="7"/>
+      <c r="F197" s="7"/>
+      <c r="H197" s="22"/>
+      <c r="I197" s="4"/>
+      <c r="J197" s="4"/>
+      <c r="K197" s="4"/>
+      <c r="L197" s="4"/>
+      <c r="M197" s="4"/>
+    </row>
+    <row r="198" s="1" customFormat="1" spans="1:13">
+      <c r="A198" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="B198" s="13"/>
+      <c r="C198" s="13"/>
+      <c r="D198" s="14"/>
+      <c r="E198" s="23"/>
+      <c r="F198" s="23"/>
+      <c r="G198" s="23"/>
+      <c r="H198" s="24"/>
+      <c r="I198" s="13"/>
+      <c r="J198" s="13"/>
+      <c r="K198" s="13"/>
+      <c r="L198" s="13"/>
+      <c r="M198" s="13"/>
     </row>
     <row r="199" spans="1:13">
       <c r="A199" s="4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B199" s="4">
         <v>2</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E199" s="7">
         <v>0.8</v>
       </c>
       <c r="F199" s="7"/>
-      <c r="H199" s="21"/>
+      <c r="H199" s="22"/>
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
       <c r="K199" s="4"/>
@@ -7997,22 +8023,22 @@
     </row>
     <row r="200" spans="1:13">
       <c r="A200" s="4">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B200" s="4">
         <v>2</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E200" s="7">
         <v>0.8</v>
       </c>
       <c r="F200" s="7"/>
-      <c r="H200" s="21"/>
+      <c r="H200" s="22"/>
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
       <c r="K200" s="4"/>
@@ -8021,22 +8047,22 @@
     </row>
     <row r="201" spans="1:13">
       <c r="A201" s="4">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B201" s="4">
         <v>2</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E201" s="7">
         <v>0.8</v>
       </c>
       <c r="F201" s="7"/>
-      <c r="H201" s="21"/>
+      <c r="H201" s="22"/>
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
       <c r="K201" s="4"/>
@@ -8045,22 +8071,22 @@
     </row>
     <row r="202" spans="1:13">
       <c r="A202" s="4">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B202" s="4">
         <v>2</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="E202" s="7">
         <v>0.8</v>
       </c>
       <c r="F202" s="7"/>
-      <c r="H202" s="21"/>
+      <c r="H202" s="22"/>
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
       <c r="K202" s="4"/>
@@ -8069,22 +8095,22 @@
     </row>
     <row r="203" spans="1:13">
       <c r="A203" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B203" s="4">
         <v>2</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="E203" s="7">
         <v>0.8</v>
       </c>
       <c r="F203" s="7"/>
-      <c r="H203" s="21"/>
+      <c r="H203" s="22"/>
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
       <c r="K203" s="4"/>
@@ -8093,24 +8119,22 @@
     </row>
     <row r="204" spans="1:13">
       <c r="A204" s="4">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B204" s="4">
         <v>2</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E204" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F204" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="H204" s="21"/>
+        <v>0.8</v>
+      </c>
+      <c r="F204" s="7"/>
+      <c r="H204" s="22"/>
       <c r="I204" s="4"/>
       <c r="J204" s="4"/>
       <c r="K204" s="4"/>
@@ -8119,24 +8143,24 @@
     </row>
     <row r="205" spans="1:13">
       <c r="A205" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B205" s="4">
         <v>2</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="E205" s="7">
-        <v>0.46</v>
+        <v>0.6</v>
       </c>
       <c r="F205" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H205" s="21"/>
+        <v>0.75</v>
+      </c>
+      <c r="H205" s="22"/>
       <c r="I205" s="4"/>
       <c r="J205" s="4"/>
       <c r="K205" s="4"/>
@@ -8145,22 +8169,24 @@
     </row>
     <row r="206" spans="1:13">
       <c r="A206" s="4">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B206" s="4">
         <v>2</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="E206" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="F206" s="7"/>
-      <c r="H206" s="21"/>
+        <v>0.46</v>
+      </c>
+      <c r="F206" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="H206" s="22"/>
       <c r="I206" s="4"/>
       <c r="J206" s="4"/>
       <c r="K206" s="4"/>
@@ -8169,22 +8195,22 @@
     </row>
     <row r="207" spans="1:13">
       <c r="A207" s="4">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B207" s="4">
         <v>2</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="E207" s="7">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="F207" s="7"/>
-      <c r="H207" s="21"/>
+      <c r="H207" s="22"/>
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
       <c r="K207" s="4"/>
@@ -8193,27 +8219,23 @@
     </row>
     <row r="208" spans="1:13">
       <c r="A208" s="4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B208" s="4">
         <v>2</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E208" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F208" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="H208" s="21"/>
-      <c r="I208" s="4" t="s">
-        <v>526</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="F208" s="7"/>
+      <c r="H208" s="22"/>
+      <c r="I208" s="4"/>
       <c r="J208" s="4"/>
       <c r="K208" s="4"/>
       <c r="L208" s="4"/>
@@ -8221,16 +8243,16 @@
     </row>
     <row r="209" spans="1:13">
       <c r="A209" s="4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B209" s="4">
         <v>2</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="E209" s="7">
         <v>0.8</v>
@@ -8238,8 +8260,10 @@
       <c r="F209" s="7">
         <v>0.9</v>
       </c>
-      <c r="H209" s="21"/>
-      <c r="I209" s="4"/>
+      <c r="H209" s="22"/>
+      <c r="I209" s="4" t="s">
+        <v>531</v>
+      </c>
       <c r="J209" s="4"/>
       <c r="K209" s="4"/>
       <c r="L209" s="4"/>
@@ -8247,16 +8271,16 @@
     </row>
     <row r="210" spans="1:13">
       <c r="A210" s="4">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B210" s="4">
         <v>2</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="E210" s="7">
         <v>0.8</v>
@@ -8264,91 +8288,89 @@
       <c r="F210" s="7">
         <v>0.9</v>
       </c>
-      <c r="H210" s="21"/>
+      <c r="H210" s="22"/>
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
       <c r="K210" s="4"/>
       <c r="L210" s="4"/>
       <c r="M210" s="4"/>
     </row>
-    <row r="211" spans="2:13">
-      <c r="B211" s="4"/>
-      <c r="C211" s="4"/>
-      <c r="D211" s="10"/>
-      <c r="E211" s="7"/>
-      <c r="F211" s="7"/>
-      <c r="H211" s="21"/>
+    <row r="211" spans="1:13">
+      <c r="A211" s="4">
+        <v>113</v>
+      </c>
+      <c r="B211" s="4">
+        <v>2</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="D211" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="E211" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F211" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H211" s="22"/>
       <c r="I211" s="4"/>
       <c r="J211" s="4"/>
       <c r="K211" s="4"/>
       <c r="L211" s="4"/>
       <c r="M211" s="4"/>
     </row>
-    <row r="212" s="1" customFormat="1" spans="1:13">
-      <c r="A212" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="B212" s="13"/>
-      <c r="C212" s="13"/>
-      <c r="D212" s="14"/>
-      <c r="E212" s="22"/>
-      <c r="F212" s="22"/>
-      <c r="G212" s="22"/>
-      <c r="H212" s="23"/>
-      <c r="I212" s="13"/>
-      <c r="J212" s="13"/>
-      <c r="K212" s="13"/>
-      <c r="L212" s="13"/>
-      <c r="M212" s="13"/>
-    </row>
-    <row r="213" spans="1:13">
-      <c r="A213" s="4">
+    <row r="212" spans="2:13">
+      <c r="B212" s="4"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="10"/>
+      <c r="E212" s="7"/>
+      <c r="F212" s="7"/>
+      <c r="H212" s="22"/>
+      <c r="I212" s="4"/>
+      <c r="J212" s="4"/>
+      <c r="K212" s="4"/>
+      <c r="L212" s="4"/>
+      <c r="M212" s="4"/>
+    </row>
+    <row r="213" s="1" customFormat="1" spans="1:13">
+      <c r="A213" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="B213" s="13"/>
+      <c r="C213" s="13"/>
+      <c r="D213" s="14"/>
+      <c r="E213" s="23"/>
+      <c r="F213" s="23"/>
+      <c r="G213" s="23"/>
+      <c r="H213" s="24"/>
+      <c r="I213" s="13"/>
+      <c r="J213" s="13"/>
+      <c r="K213" s="13"/>
+      <c r="L213" s="13"/>
+      <c r="M213" s="13"/>
+    </row>
+    <row r="214" spans="1:13">
+      <c r="A214" s="4">
         <v>201</v>
-      </c>
-      <c r="B213" s="4">
-        <v>2</v>
-      </c>
-      <c r="C213" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="D213" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="E213" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F213" s="7"/>
-      <c r="H213" s="21"/>
-      <c r="I213" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="J213" s="4"/>
-      <c r="K213" s="4"/>
-      <c r="L213" s="4"/>
-      <c r="M213" s="4"/>
-    </row>
-    <row r="214" spans="1:13">
-      <c r="A214" s="4" t="s">
-        <v>532</v>
       </c>
       <c r="B214" s="4">
         <v>2</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E214" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F214" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="H214" s="21"/>
+        <v>0.8</v>
+      </c>
+      <c r="F214" s="7"/>
+      <c r="H214" s="22"/>
       <c r="I214" s="4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="J214" s="4"/>
       <c r="K214" s="4"/>
@@ -8357,265 +8379,265 @@
     </row>
     <row r="215" spans="1:13">
       <c r="A215" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B215" s="4">
         <v>2</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E215" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F215" s="7"/>
-      <c r="H215" s="21"/>
+        <v>0.6</v>
+      </c>
+      <c r="F215" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H215" s="22"/>
       <c r="I215" s="4" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="J215" s="4"/>
       <c r="K215" s="4"/>
       <c r="L215" s="4"/>
       <c r="M215" s="4"/>
     </row>
-    <row r="216" s="1" customFormat="1" spans="1:13">
-      <c r="A216" s="13" t="s">
+    <row r="216" spans="1:13">
+      <c r="A216" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="B216" s="4">
+        <v>2</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="D216" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="E216" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F216" s="7"/>
+      <c r="H216" s="22"/>
+      <c r="I216" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="J216" s="4"/>
+      <c r="K216" s="4"/>
+      <c r="L216" s="4"/>
+      <c r="M216" s="4"/>
+    </row>
+    <row r="217" s="1" customFormat="1" spans="1:13">
+      <c r="A217" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B216" s="13"/>
-      <c r="C216" s="13"/>
-      <c r="D216" s="14"/>
-      <c r="E216" s="22"/>
-      <c r="F216" s="22"/>
-      <c r="G216" s="22"/>
-      <c r="H216" s="23"/>
-      <c r="I216" s="13"/>
-      <c r="J216" s="13"/>
-      <c r="K216" s="13"/>
-      <c r="L216" s="13"/>
-      <c r="M216" s="13"/>
-    </row>
-    <row r="217" spans="1:13">
-      <c r="A217" s="4">
-        <v>301</v>
-      </c>
-      <c r="B217" s="4">
-        <v>2</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="D217" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="E217" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F217" s="7"/>
-      <c r="H217" s="21"/>
-      <c r="I217" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="J217" s="4"/>
-      <c r="K217" s="4"/>
-      <c r="L217" s="4"/>
-      <c r="M217" s="4"/>
+      <c r="B217" s="13"/>
+      <c r="C217" s="13"/>
+      <c r="D217" s="14"/>
+      <c r="E217" s="23"/>
+      <c r="F217" s="23"/>
+      <c r="G217" s="23"/>
+      <c r="H217" s="24"/>
+      <c r="I217" s="13"/>
+      <c r="J217" s="13"/>
+      <c r="K217" s="13"/>
+      <c r="L217" s="13"/>
+      <c r="M217" s="13"/>
     </row>
     <row r="218" spans="1:13">
       <c r="A218" s="4">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B218" s="4">
         <v>2</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E218" s="7">
         <v>0.6</v>
       </c>
       <c r="F218" s="7"/>
-      <c r="H218" s="21"/>
+      <c r="H218" s="22"/>
       <c r="I218" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="J218" s="4" t="s">
-        <v>545</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="J218" s="4"/>
       <c r="K218" s="4"/>
       <c r="L218" s="4"/>
       <c r="M218" s="4"/>
     </row>
     <row r="219" spans="1:13">
       <c r="A219" s="4">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B219" s="4">
         <v>2</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E219" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F219" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="H219" s="21"/>
+        <v>0.6</v>
+      </c>
+      <c r="F219" s="7"/>
+      <c r="H219" s="22"/>
       <c r="I219" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="J219" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K219" s="4"/>
       <c r="L219" s="4"/>
       <c r="M219" s="4"/>
     </row>
-    <row r="220" s="1" customFormat="1" spans="1:13">
-      <c r="A220" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="B220" s="13"/>
-      <c r="C220" s="13"/>
-      <c r="D220" s="14"/>
-      <c r="E220" s="22"/>
-      <c r="F220" s="22"/>
-      <c r="G220" s="22"/>
-      <c r="H220" s="23"/>
-      <c r="I220" s="13"/>
-      <c r="J220" s="13"/>
-      <c r="K220" s="13"/>
-      <c r="L220" s="13"/>
-      <c r="M220" s="13"/>
-    </row>
-    <row r="221" spans="1:13">
-      <c r="A221" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="B221" s="4">
+    <row r="220" spans="1:13">
+      <c r="A220" s="4">
+        <v>303</v>
+      </c>
+      <c r="B220" s="4">
         <v>2</v>
       </c>
-      <c r="C221" s="4" t="s">
+      <c r="C220" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="D221" s="10" t="s">
+      <c r="D220" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="E221" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F221" s="7"/>
-      <c r="H221" s="21"/>
-      <c r="I221" s="4" t="s">
+      <c r="E220" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F220" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="H220" s="22"/>
+      <c r="I220" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="J221" s="4"/>
-      <c r="K221" s="4"/>
-      <c r="L221" s="4"/>
-      <c r="M221" s="4"/>
+      <c r="J220" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="K220" s="4"/>
+      <c r="L220" s="4"/>
+      <c r="M220" s="4"/>
+    </row>
+    <row r="221" s="1" customFormat="1" spans="1:13">
+      <c r="A221" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="B221" s="13"/>
+      <c r="C221" s="13"/>
+      <c r="D221" s="14"/>
+      <c r="E221" s="23"/>
+      <c r="F221" s="23"/>
+      <c r="G221" s="23"/>
+      <c r="H221" s="24"/>
+      <c r="I221" s="13"/>
+      <c r="J221" s="13"/>
+      <c r="K221" s="13"/>
+      <c r="L221" s="13"/>
+      <c r="M221" s="13"/>
     </row>
     <row r="222" spans="1:13">
       <c r="A222" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B222" s="4">
         <v>2</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="D222" s="10"/>
+        <v>556</v>
+      </c>
+      <c r="D222" s="10" t="s">
+        <v>557</v>
+      </c>
       <c r="E222" s="7">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F222" s="7"/>
-      <c r="H222" s="21"/>
+      <c r="H222" s="22"/>
       <c r="I222" s="4" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J222" s="4"/>
       <c r="K222" s="4"/>
       <c r="L222" s="4"/>
       <c r="M222" s="4"/>
     </row>
-    <row r="223" s="1" customFormat="1" spans="1:13">
-      <c r="A223" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B223" s="13"/>
-      <c r="C223" s="13"/>
-      <c r="D223" s="14"/>
-      <c r="E223" s="22"/>
-      <c r="F223" s="22"/>
-      <c r="G223" s="22"/>
-      <c r="H223" s="23"/>
-      <c r="I223" s="13"/>
-      <c r="J223" s="13"/>
-      <c r="K223" s="13"/>
-      <c r="L223" s="13"/>
-      <c r="M223" s="13"/>
-    </row>
-    <row r="224" spans="1:13">
-      <c r="A224" s="4">
-        <v>501</v>
-      </c>
-      <c r="B224" s="4">
+    <row r="223" spans="1:13">
+      <c r="A223" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B223" s="4">
         <v>2</v>
       </c>
-      <c r="C224" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="D224" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="E224" s="7">
+      <c r="C223" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="D223" s="10"/>
+      <c r="E223" s="7">
         <v>0.4</v>
       </c>
-      <c r="F224" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="H224" s="21"/>
-      <c r="I224" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="J224" s="4"/>
-      <c r="K224" s="4"/>
-      <c r="L224" s="4"/>
-      <c r="M224" s="4"/>
+      <c r="F223" s="7"/>
+      <c r="H223" s="22"/>
+      <c r="I223" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="J223" s="4"/>
+      <c r="K223" s="4"/>
+      <c r="L223" s="4"/>
+      <c r="M223" s="4"/>
+    </row>
+    <row r="224" s="1" customFormat="1" spans="1:13">
+      <c r="A224" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B224" s="13"/>
+      <c r="C224" s="13"/>
+      <c r="D224" s="14"/>
+      <c r="E224" s="23"/>
+      <c r="F224" s="23"/>
+      <c r="G224" s="23"/>
+      <c r="H224" s="24"/>
+      <c r="I224" s="13"/>
+      <c r="J224" s="13"/>
+      <c r="K224" s="13"/>
+      <c r="L224" s="13"/>
+      <c r="M224" s="13"/>
     </row>
     <row r="225" spans="1:13">
       <c r="A225" s="4">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B225" s="4">
         <v>2</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D225" s="10" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E225" s="7">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F225" s="7">
         <v>0.8</v>
       </c>
-      <c r="H225" s="21"/>
+      <c r="H225" s="22"/>
       <c r="I225" s="4" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="J225" s="4"/>
       <c r="K225" s="4"/>
@@ -8624,24 +8646,26 @@
     </row>
     <row r="226" spans="1:13">
       <c r="A226" s="4">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B226" s="4">
         <v>2</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E226" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F226" s="7"/>
-      <c r="H226" s="21"/>
+        <v>0.6</v>
+      </c>
+      <c r="F226" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H226" s="22"/>
       <c r="I226" s="4" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="J226" s="4"/>
       <c r="K226" s="4"/>
@@ -8649,27 +8673,25 @@
       <c r="M226" s="4"/>
     </row>
     <row r="227" spans="1:13">
-      <c r="A227" s="4" t="s">
-        <v>175</v>
+      <c r="A227" s="4">
+        <v>503</v>
       </c>
       <c r="B227" s="4">
         <v>2</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E227" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="F227" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="H227" s="21"/>
+        <v>0.8</v>
+      </c>
+      <c r="F227" s="7"/>
+      <c r="H227" s="22"/>
       <c r="I227" s="4" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J227" s="4"/>
       <c r="K227" s="4"/>
@@ -8677,136 +8699,144 @@
       <c r="M227" s="4"/>
     </row>
     <row r="228" spans="1:13">
-      <c r="A228" s="4">
-        <v>505</v>
+      <c r="A228" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="B228" s="4">
         <v>2</v>
       </c>
-      <c r="C228" s="4"/>
-      <c r="D228" s="10"/>
-      <c r="E228" s="7"/>
-      <c r="F228" s="7"/>
-      <c r="H228" s="21"/>
-      <c r="I228" s="4"/>
+      <c r="C228" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="D228" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="E228" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F228" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H228" s="22"/>
+      <c r="I228" s="4" t="s">
+        <v>573</v>
+      </c>
       <c r="J228" s="4"/>
       <c r="K228" s="4"/>
       <c r="L228" s="4"/>
       <c r="M228" s="4"/>
     </row>
-    <row r="229" s="1" customFormat="1" spans="1:13">
-      <c r="A229" s="13" t="s">
-        <v>569</v>
-      </c>
-      <c r="B229" s="13"/>
-      <c r="C229" s="13"/>
-      <c r="D229" s="14"/>
-      <c r="E229" s="22"/>
-      <c r="F229" s="22"/>
-      <c r="G229" s="22"/>
-      <c r="H229" s="23"/>
-      <c r="I229" s="13"/>
-      <c r="J229" s="13"/>
-      <c r="K229" s="13"/>
-      <c r="L229" s="13"/>
-      <c r="M229" s="13"/>
-    </row>
-    <row r="230" spans="1:13">
-      <c r="A230" s="4">
+    <row r="229" spans="1:13">
+      <c r="A229" s="4">
+        <v>505</v>
+      </c>
+      <c r="B229" s="4">
+        <v>2</v>
+      </c>
+      <c r="C229" s="4"/>
+      <c r="D229" s="10"/>
+      <c r="E229" s="7"/>
+      <c r="F229" s="7"/>
+      <c r="H229" s="22"/>
+      <c r="I229" s="4"/>
+      <c r="J229" s="4"/>
+      <c r="K229" s="4"/>
+      <c r="L229" s="4"/>
+      <c r="M229" s="4"/>
+    </row>
+    <row r="230" s="1" customFormat="1" spans="1:13">
+      <c r="A230" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="B230" s="13"/>
+      <c r="C230" s="13"/>
+      <c r="D230" s="14"/>
+      <c r="E230" s="23"/>
+      <c r="F230" s="23"/>
+      <c r="G230" s="23"/>
+      <c r="H230" s="24"/>
+      <c r="I230" s="13"/>
+      <c r="J230" s="13"/>
+      <c r="K230" s="13"/>
+      <c r="L230" s="13"/>
+      <c r="M230" s="13"/>
+    </row>
+    <row r="231" spans="1:13">
+      <c r="A231" s="4">
         <v>601</v>
       </c>
-      <c r="B230" s="4">
+      <c r="B231" s="4">
         <v>2</v>
       </c>
-      <c r="C230" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="D230" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="E230" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F230" s="7">
+      <c r="C231" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="D231" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="E231" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F231" s="7">
         <v>0.9</v>
       </c>
-      <c r="H230" s="21"/>
-      <c r="I230" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="J230" s="4"/>
-      <c r="K230" s="4"/>
-      <c r="L230" s="4"/>
-      <c r="M230" s="4"/>
-    </row>
-    <row r="231" spans="2:13">
-      <c r="B231" s="4"/>
-      <c r="C231" s="4"/>
-      <c r="D231" s="10"/>
-      <c r="E231" s="7"/>
-      <c r="F231" s="7"/>
-      <c r="H231" s="21"/>
-      <c r="I231" s="4"/>
+      <c r="H231" s="22"/>
+      <c r="I231" s="4" t="s">
+        <v>577</v>
+      </c>
       <c r="J231" s="4"/>
       <c r="K231" s="4"/>
       <c r="L231" s="4"/>
       <c r="M231" s="4"/>
     </row>
-    <row r="232" s="1" customFormat="1" spans="1:13">
-      <c r="A232" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="B232" s="13"/>
-      <c r="C232" s="13"/>
-      <c r="D232" s="14"/>
-      <c r="E232" s="22"/>
-      <c r="F232" s="22"/>
-      <c r="G232" s="22"/>
-      <c r="H232" s="23"/>
-      <c r="I232" s="13"/>
-      <c r="J232" s="13"/>
-      <c r="K232" s="13"/>
-      <c r="L232" s="13"/>
-      <c r="M232" s="13"/>
-    </row>
-    <row r="233" spans="1:13">
-      <c r="A233" s="4">
-        <v>1</v>
-      </c>
-      <c r="B233" s="4">
-        <v>3</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="D233" s="10"/>
-      <c r="E233" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F233" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="H233" s="21"/>
-      <c r="I233" s="4"/>
-      <c r="J233" s="4"/>
-      <c r="K233" s="4"/>
-      <c r="L233" s="4"/>
-      <c r="M233" s="4"/>
+    <row r="232" spans="2:13">
+      <c r="B232" s="4"/>
+      <c r="C232" s="4"/>
+      <c r="D232" s="10"/>
+      <c r="E232" s="7"/>
+      <c r="F232" s="7"/>
+      <c r="H232" s="22"/>
+      <c r="I232" s="4"/>
+      <c r="J232" s="4"/>
+      <c r="K232" s="4"/>
+      <c r="L232" s="4"/>
+      <c r="M232" s="4"/>
+    </row>
+    <row r="233" s="1" customFormat="1" spans="1:13">
+      <c r="A233" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="B233" s="13"/>
+      <c r="C233" s="13"/>
+      <c r="D233" s="14"/>
+      <c r="E233" s="23"/>
+      <c r="F233" s="23"/>
+      <c r="G233" s="23"/>
+      <c r="H233" s="24"/>
+      <c r="I233" s="13"/>
+      <c r="J233" s="13"/>
+      <c r="K233" s="13"/>
+      <c r="L233" s="13"/>
+      <c r="M233" s="13"/>
     </row>
     <row r="234" spans="1:13">
       <c r="A234" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B234" s="4">
         <v>3</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="D234" s="10"/>
-      <c r="E234" s="7"/>
-      <c r="F234" s="7"/>
-      <c r="H234" s="21"/>
+      <c r="E234" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F234" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H234" s="22"/>
       <c r="I234" s="4"/>
       <c r="J234" s="4"/>
       <c r="K234" s="4"/>
@@ -8815,24 +8845,18 @@
     </row>
     <row r="235" spans="1:13">
       <c r="A235" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B235" s="4">
         <v>3</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="D235" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="E235" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F235" s="7">
-        <v>1.3</v>
-      </c>
-      <c r="H235" s="21"/>
+        <v>580</v>
+      </c>
+      <c r="D235" s="10"/>
+      <c r="E235" s="7"/>
+      <c r="F235" s="7"/>
+      <c r="H235" s="22"/>
       <c r="I235" s="4"/>
       <c r="J235" s="4"/>
       <c r="K235" s="4"/>
@@ -8841,18 +8865,24 @@
     </row>
     <row r="236" spans="1:13">
       <c r="A236" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B236" s="4">
         <v>3</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="D236" s="10"/>
-      <c r="E236" s="7"/>
-      <c r="F236" s="7"/>
-      <c r="H236" s="21"/>
+        <v>581</v>
+      </c>
+      <c r="D236" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="E236" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F236" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="H236" s="22"/>
       <c r="I236" s="4"/>
       <c r="J236" s="4"/>
       <c r="K236" s="4"/>
@@ -8861,18 +8891,18 @@
     </row>
     <row r="237" spans="1:13">
       <c r="A237" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B237" s="4">
         <v>3</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="D237" s="10"/>
       <c r="E237" s="7"/>
       <c r="F237" s="7"/>
-      <c r="H237" s="21"/>
+      <c r="H237" s="22"/>
       <c r="I237" s="4"/>
       <c r="J237" s="4"/>
       <c r="K237" s="4"/>
@@ -8881,18 +8911,18 @@
     </row>
     <row r="238" spans="1:13">
       <c r="A238" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B238" s="4">
         <v>3</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D238" s="10"/>
       <c r="E238" s="7"/>
       <c r="F238" s="7"/>
-      <c r="H238" s="21"/>
+      <c r="H238" s="22"/>
       <c r="I238" s="4"/>
       <c r="J238" s="4"/>
       <c r="K238" s="4"/>
@@ -8901,40 +8931,60 @@
     </row>
     <row r="239" spans="1:13">
       <c r="A239" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B239" s="4">
         <v>3</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="D239" s="10"/>
       <c r="E239" s="7"/>
       <c r="F239" s="7"/>
-      <c r="H239" s="21"/>
+      <c r="H239" s="22"/>
       <c r="I239" s="4"/>
       <c r="J239" s="4"/>
       <c r="K239" s="4"/>
       <c r="L239" s="4"/>
       <c r="M239" s="4"/>
     </row>
-    <row r="240" spans="2:13">
-      <c r="B240" s="4"/>
-      <c r="C240" s="4"/>
+    <row r="240" spans="1:13">
+      <c r="A240" s="4">
+        <v>7</v>
+      </c>
+      <c r="B240" s="4">
+        <v>3</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>586</v>
+      </c>
       <c r="D240" s="10"/>
       <c r="E240" s="7"/>
       <c r="F240" s="7"/>
-      <c r="H240" s="21"/>
+      <c r="H240" s="22"/>
       <c r="I240" s="4"/>
       <c r="J240" s="4"/>
       <c r="K240" s="4"/>
       <c r="L240" s="4"/>
       <c r="M240" s="4"/>
     </row>
+    <row r="241" spans="2:13">
+      <c r="B241" s="4"/>
+      <c r="C241" s="4"/>
+      <c r="D241" s="10"/>
+      <c r="E241" s="7"/>
+      <c r="F241" s="7"/>
+      <c r="H241" s="22"/>
+      <c r="I241" s="4"/>
+      <c r="J241" s="4"/>
+      <c r="K241" s="4"/>
+      <c r="L241" s="4"/>
+      <c r="M241" s="4"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J59" r:id="rId1" display="133226@146626"/>
+    <hyperlink ref="J60" r:id="rId1" display="133226@146626"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -8942,7 +8992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AA1"/>
   <sheetViews>

--- a/dist/modelsConfig.xlsx
+++ b/dist/modelsConfig.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="602">
   <si>
     <t>类型 1=lora 2=lyco 3=embedding</t>
   </si>
@@ -376,7 +376,7 @@
 high_heels, skirt, ass, sitting, legs up, lying</t>
   </si>
   <si>
-    <t>gxgg</t>
+    <t>gsgg</t>
   </si>
   <si>
     <t>liuding hh-000005</t>
@@ -385,7 +385,21 @@
     <t>hwLiudingHh</t>
   </si>
   <si>
-    <t>long_hair, underwear, thighhighs, panties, skirt, short</t>
+    <t>柳丁鞋
+long_hair, underwear, thighhighs, panties, skirt, short</t>
+  </si>
+  <si>
+    <t>goldgg</t>
+  </si>
+  <si>
+    <t>gold_liangxie-000005</t>
+  </si>
+  <si>
+    <t>hwGdLx</t>
+  </si>
+  <si>
+    <t>金色凉鞋
+long_hair, dress,sitting, standing, white_dress</t>
   </si>
   <si>
     <t>transgg</t>
@@ -1819,12 +1833,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="#\ ?/?"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1858,6 +1872,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1873,121 +1994,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2068,13 +2082,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2086,7 +2106,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2098,7 +2148,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2110,121 +2238,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2238,11 +2252,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2250,19 +2285,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2282,17 +2306,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2312,21 +2341,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2340,124 +2354,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2466,22 +2480,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2531,13 +2545,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2582,33 +2596,33 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2624,10 +2638,10 @@
     <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2949,12 +2963,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M243"/>
+  <dimension ref="A1:M244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="$A44:$XFD44"/>
+      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -4220,7 +4234,7 @@
       <c r="L43" s="27"/>
       <c r="M43" s="27"/>
     </row>
-    <row r="44" s="11" customFormat="1" ht="34" spans="1:13">
+    <row r="44" s="11" customFormat="1" ht="51" spans="1:13">
       <c r="A44" s="27" t="s">
         <v>119</v>
       </c>
@@ -4266,7 +4280,7 @@
         <v>0.3</v>
       </c>
       <c r="F45" s="39">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="G45" s="39"/>
       <c r="H45" s="40"/>
@@ -4278,67 +4292,70 @@
       <c r="L45" s="27"/>
       <c r="M45" s="27"/>
     </row>
-    <row r="46" s="8" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A46" s="21" t="s">
+    <row r="46" s="11" customFormat="1" ht="34" spans="1:13">
+      <c r="A46" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="13">
-        <v>301</v>
-      </c>
-      <c r="B47" s="13">
-        <v>1</v>
-      </c>
-      <c r="C47" s="13" t="s">
+      <c r="B46" s="27">
+        <v>1</v>
+      </c>
+      <c r="C46" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D46" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="13" t="s">
+      <c r="E46" s="39">
+        <v>0.3</v>
+      </c>
+      <c r="F46" s="39">
+        <v>0.7</v>
+      </c>
+      <c r="G46" s="39"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+    </row>
+    <row r="47" s="8" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A47" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="13">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B48" s="13">
         <v>1</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E48" s="16">
-        <v>0.6</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E48" s="16"/>
       <c r="F48" s="16"/>
       <c r="H48" s="32"/>
       <c r="I48" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
@@ -4347,26 +4364,24 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="13">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B49" s="13">
         <v>1</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E49" s="16">
         <v>0.6</v>
       </c>
-      <c r="F49" s="16">
-        <v>0.8</v>
-      </c>
+      <c r="F49" s="16"/>
       <c r="H49" s="32"/>
       <c r="I49" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
@@ -4375,24 +4390,26 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="13">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B50" s="13">
         <v>1</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E50" s="16">
         <v>0.6</v>
       </c>
-      <c r="F50" s="16"/>
+      <c r="F50" s="16">
+        <v>0.8</v>
+      </c>
       <c r="H50" s="32"/>
       <c r="I50" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
@@ -4401,29 +4418,24 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="13">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B51" s="13">
         <v>1</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E51" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="F51" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="G51" s="16">
-        <v>0.6</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="F51" s="16"/>
       <c r="H51" s="32"/>
       <c r="I51" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
@@ -4432,26 +4444,29 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="13">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B52" s="13">
         <v>1</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E52" s="16">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="F52" s="16">
         <v>0.8</v>
+      </c>
+      <c r="G52" s="16">
+        <v>0.6</v>
       </c>
       <c r="H52" s="32"/>
       <c r="I52" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
@@ -4460,26 +4475,26 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="13">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B53" s="13">
         <v>1</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E53" s="16">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="F53" s="16">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="H53" s="32"/>
       <c r="I53" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
@@ -4488,24 +4503,26 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="13">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B54" s="13">
         <v>1</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E54" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="F54" s="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="F54" s="16">
+        <v>0.65</v>
+      </c>
       <c r="H54" s="32"/>
       <c r="I54" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
@@ -4514,26 +4531,24 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="13">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B55" s="13">
         <v>1</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E55" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="F55" s="16">
-        <v>0.8</v>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="F55" s="16"/>
       <c r="H55" s="32"/>
       <c r="I55" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J55" s="13"/>
       <c r="K55" s="13"/>
@@ -4542,16 +4557,16 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="13">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B56" s="13">
         <v>1</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E56" s="16">
         <v>0.6</v>
@@ -4561,7 +4576,7 @@
       </c>
       <c r="H56" s="32"/>
       <c r="I56" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J56" s="13"/>
       <c r="K56" s="13"/>
@@ -4570,22 +4585,26 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="13">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B57" s="13">
         <v>1</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
+        <v>160</v>
+      </c>
+      <c r="E57" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="F57" s="16">
+        <v>0.8</v>
+      </c>
       <c r="H57" s="32"/>
       <c r="I57" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
@@ -4594,26 +4613,22 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="13">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B58" s="13">
         <v>1</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="E58" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="F58" s="16">
-        <v>0.75</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
       <c r="H58" s="32"/>
       <c r="I58" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
@@ -4622,24 +4637,26 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="13">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B59" s="13">
         <v>1</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E59" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="F59" s="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="F59" s="16">
+        <v>0.75</v>
+      </c>
       <c r="H59" s="32"/>
       <c r="I59" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
@@ -4648,26 +4665,24 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="13">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B60" s="13">
         <v>1</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E60" s="16">
-        <v>0.35</v>
-      </c>
-      <c r="F60" s="16">
-        <v>0.6</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="F60" s="16"/>
       <c r="H60" s="32"/>
       <c r="I60" s="13" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
@@ -4675,169 +4690,171 @@
       <c r="M60" s="13"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="20" t="s">
-        <v>169</v>
+      <c r="A61" s="13">
+        <v>314</v>
       </c>
       <c r="B61" s="13">
         <v>1</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E61" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="F61" s="16"/>
+        <v>0.35</v>
+      </c>
+      <c r="F61" s="16">
+        <v>0.6</v>
+      </c>
       <c r="H61" s="32"/>
       <c r="I61" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J61" s="13"/>
       <c r="K61" s="13"/>
       <c r="L61" s="13"/>
       <c r="M61" s="13"/>
     </row>
-    <row r="62" s="10" customFormat="1" spans="1:13">
-      <c r="A62" s="13">
+    <row r="62" spans="1:13">
+      <c r="A62" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="B62" s="13">
+        <v>1</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E62" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="F62" s="16"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+    </row>
+    <row r="63" s="10" customFormat="1" spans="1:13">
+      <c r="A63" s="13">
         <v>316</v>
       </c>
-      <c r="B62" s="28">
-        <v>1</v>
-      </c>
-      <c r="C62" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="D62" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="E62" s="37">
+      <c r="B63" s="28">
+        <v>1</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E63" s="37">
         <v>0.7</v>
       </c>
-      <c r="F62" s="37">
-        <v>0.8</v>
-      </c>
-      <c r="G62" s="37"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="J62" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="K62" s="28"/>
-      <c r="L62" s="28"/>
-      <c r="M62" s="28"/>
-    </row>
-    <row r="63" s="8" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A63" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="22"/>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="13" t="s">
+      <c r="F63" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="G63" s="37"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="B64" s="13">
-        <v>1</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="D64" s="19" t="s">
+      <c r="J63" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="E64" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="F64" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="H64" s="32"/>
-      <c r="I64" s="13" t="s">
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
+    </row>
+    <row r="64" s="8" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A64" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="13">
-        <v>3002</v>
+      <c r="A65" s="13" t="s">
+        <v>181</v>
       </c>
       <c r="B65" s="13">
         <v>1</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E65" s="16">
         <v>0.4</v>
       </c>
       <c r="F65" s="16">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H65" s="32"/>
       <c r="I65" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J65" s="13"/>
       <c r="K65" s="13"/>
       <c r="L65" s="13"/>
       <c r="M65" s="13"/>
     </row>
-    <row r="66" spans="2:13">
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
+    <row r="66" spans="1:13">
+      <c r="A66" s="13">
+        <v>3002</v>
+      </c>
+      <c r="B66" s="13">
+        <v>1</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="E66" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="F66" s="16">
+        <v>0.6</v>
+      </c>
       <c r="H66" s="32"/>
-      <c r="I66" s="13"/>
+      <c r="I66" s="13" t="s">
+        <v>187</v>
+      </c>
       <c r="J66" s="13"/>
       <c r="K66" s="13"/>
       <c r="L66" s="13"/>
       <c r="M66" s="13"/>
     </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="B67" s="13">
-        <v>1</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="E67" s="16">
-        <v>0.7</v>
-      </c>
+    <row r="67" spans="2:13">
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="16"/>
       <c r="F67" s="16"/>
       <c r="H67" s="32"/>
-      <c r="I67" s="13" t="s">
-        <v>187</v>
-      </c>
+      <c r="I67" s="13"/>
       <c r="J67" s="13"/>
       <c r="K67" s="13"/>
       <c r="L67" s="13"/>
@@ -4857,7 +4874,7 @@
         <v>190</v>
       </c>
       <c r="E68" s="16">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F68" s="16"/>
       <c r="H68" s="32"/>
@@ -4870,25 +4887,25 @@
       <c r="M68" s="13"/>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="28">
-        <v>3006</v>
+      <c r="A69" s="20" t="s">
+        <v>192</v>
       </c>
       <c r="B69" s="13">
         <v>1</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E69" s="16">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F69" s="16"/>
       <c r="H69" s="32"/>
       <c r="I69" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J69" s="13"/>
       <c r="K69" s="13"/>
@@ -4896,8 +4913,8 @@
       <c r="M69" s="13"/>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="20" t="s">
-        <v>195</v>
+      <c r="A70" s="28">
+        <v>3006</v>
       </c>
       <c r="B70" s="13">
         <v>1</v>
@@ -4911,9 +4928,7 @@
       <c r="E70" s="16">
         <v>0.6</v>
       </c>
-      <c r="F70" s="16">
-        <v>0.75</v>
-      </c>
+      <c r="F70" s="16"/>
       <c r="H70" s="32"/>
       <c r="I70" s="13" t="s">
         <v>198</v>
@@ -4937,9 +4952,11 @@
         <v>201</v>
       </c>
       <c r="E71" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="F71" s="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="F71" s="16">
+        <v>0.75</v>
+      </c>
       <c r="H71" s="32"/>
       <c r="I71" s="13" t="s">
         <v>202</v>
@@ -4960,72 +4977,70 @@
         <v>204</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="E72" s="16">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F72" s="16"/>
       <c r="H72" s="32"/>
       <c r="I72" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J72" s="13"/>
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
       <c r="M72" s="13"/>
     </row>
-    <row r="73" s="8" customFormat="1" spans="1:13">
-      <c r="A73" s="22"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="33"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="22"/>
-    </row>
-    <row r="74" spans="2:13">
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="13">
-        <v>3101</v>
-      </c>
-      <c r="B75" s="13">
-        <v>1</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D75" s="19" t="s">
+    <row r="73" spans="1:13">
+      <c r="A73" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="E75" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="F75" s="16">
-        <v>0.8</v>
-      </c>
+      <c r="B73" s="13">
+        <v>1</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E73" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="F73" s="16"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+    </row>
+    <row r="74" s="8" customFormat="1" spans="1:13">
+      <c r="A74" s="22"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="22"/>
+    </row>
+    <row r="75" spans="2:13">
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
       <c r="H75" s="32"/>
-      <c r="I75" s="13" t="s">
-        <v>208</v>
-      </c>
+      <c r="I75" s="13"/>
       <c r="J75" s="13"/>
       <c r="K75" s="13"/>
       <c r="L75" s="13"/>
@@ -5033,16 +5048,16 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="13">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="B76" s="13">
         <v>1</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E76" s="16">
         <v>0.6</v>
@@ -5052,7 +5067,7 @@
       </c>
       <c r="H76" s="32"/>
       <c r="I76" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J76" s="13"/>
       <c r="K76" s="13"/>
@@ -5061,15 +5076,17 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="13">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="B77" s="13">
         <v>1</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D77" s="19"/>
+        <v>213</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>214</v>
+      </c>
       <c r="E77" s="16">
         <v>0.6</v>
       </c>
@@ -5077,7 +5094,9 @@
         <v>0.8</v>
       </c>
       <c r="H77" s="32"/>
-      <c r="I77" s="13"/>
+      <c r="I77" s="13" t="s">
+        <v>215</v>
+      </c>
       <c r="J77" s="13"/>
       <c r="K77" s="13"/>
       <c r="L77" s="13"/>
@@ -5085,13 +5104,13 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="13">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="B78" s="13">
         <v>1</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D78" s="19"/>
       <c r="E78" s="16">
@@ -5101,62 +5120,58 @@
         <v>0.8</v>
       </c>
       <c r="H78" s="32"/>
-      <c r="I78" s="13" t="s">
-        <v>214</v>
-      </c>
+      <c r="I78" s="13"/>
       <c r="J78" s="13"/>
       <c r="K78" s="13"/>
       <c r="L78" s="13"/>
       <c r="M78" s="13"/>
     </row>
-    <row r="79" s="8" customFormat="1" ht="23.2" spans="1:13">
-      <c r="A79" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="22"/>
-      <c r="L79" s="22"/>
-      <c r="M79" s="22"/>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="13">
+    <row r="79" spans="1:13">
+      <c r="A79" s="13">
+        <v>3104</v>
+      </c>
+      <c r="B79" s="13">
+        <v>1</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D79" s="19"/>
+      <c r="E79" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="F79" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="H79" s="32"/>
+      <c r="I79" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+    </row>
+    <row r="80" s="8" customFormat="1" ht="23.2" spans="1:13">
+      <c r="A80" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="22"/>
+      <c r="M80" s="22"/>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="13">
         <v>3201</v>
-      </c>
-      <c r="B80" s="13">
-        <v>1</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="D80" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="E80" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="F80" s="16">
-        <v>0.85</v>
-      </c>
-      <c r="H80" s="32"/>
-      <c r="I80" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="J80" s="13"/>
-      <c r="K80" s="13"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="13"/>
-    </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="13" t="s">
-        <v>219</v>
       </c>
       <c r="B81" s="13">
         <v>1</v>
@@ -5168,10 +5183,10 @@
         <v>221</v>
       </c>
       <c r="E81" s="16">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F81" s="16">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="H81" s="32"/>
       <c r="I81" s="13" t="s">
@@ -5196,7 +5211,7 @@
         <v>225</v>
       </c>
       <c r="E82" s="16">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F82" s="16">
         <v>0.7</v>
@@ -5227,7 +5242,7 @@
         <v>0.4</v>
       </c>
       <c r="F83" s="16">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H83" s="32"/>
       <c r="I83" s="13" t="s">
@@ -5239,27 +5254,27 @@
       <c r="M83" s="13"/>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="13">
-        <v>3205</v>
+      <c r="A84" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="B84" s="13">
         <v>1</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E84" s="16">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="F84" s="16">
         <v>0.9</v>
       </c>
       <c r="H84" s="32"/>
       <c r="I84" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J84" s="13"/>
       <c r="K84" s="13"/>
@@ -5268,104 +5283,106 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="13">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="B85" s="13">
         <v>1</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E85" s="16">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="F85" s="16">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="H85" s="32"/>
       <c r="I85" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J85" s="13"/>
       <c r="K85" s="13"/>
       <c r="L85" s="13"/>
       <c r="M85" s="13"/>
     </row>
-    <row r="86" s="8" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A86" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="22"/>
-      <c r="J86" s="22"/>
-      <c r="K86" s="22"/>
-      <c r="L86" s="22"/>
-      <c r="M86" s="22"/>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="13">
-        <v>3301</v>
-      </c>
-      <c r="B87" s="13">
-        <v>1</v>
-      </c>
-      <c r="C87" s="13" t="s">
+    <row r="86" spans="1:13">
+      <c r="A86" s="13">
+        <v>3206</v>
+      </c>
+      <c r="B86" s="13">
+        <v>1</v>
+      </c>
+      <c r="C86" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="D87" s="19" t="s">
+      <c r="D86" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="E87" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="F87" s="16">
-        <v>0.65</v>
-      </c>
-      <c r="H87" s="32"/>
-      <c r="I87" s="13"/>
-      <c r="J87" s="13"/>
-      <c r="K87" s="13"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="13"/>
+      <c r="E86" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="F86" s="16">
+        <v>0.85</v>
+      </c>
+      <c r="H86" s="32"/>
+      <c r="I86" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+    </row>
+    <row r="87" s="8" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A87" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="34"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="22"/>
+      <c r="M87" s="22"/>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="13">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="B88" s="13">
         <v>1</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E88" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="F88" s="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="F88" s="16">
+        <v>0.65</v>
+      </c>
       <c r="H88" s="32"/>
-      <c r="I88" s="13" t="s">
-        <v>242</v>
-      </c>
+      <c r="I88" s="13"/>
       <c r="J88" s="13"/>
       <c r="K88" s="13"/>
       <c r="L88" s="13"/>
       <c r="M88" s="13"/>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="13" t="s">
-        <v>243</v>
+      <c r="A89" s="13">
+        <v>3302</v>
       </c>
       <c r="B89" s="13">
         <v>1</v>
@@ -5377,11 +5394,9 @@
         <v>245</v>
       </c>
       <c r="E89" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="F89" s="16">
-        <v>0.8</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="F89" s="16"/>
       <c r="H89" s="32"/>
       <c r="I89" s="13" t="s">
         <v>246</v>
@@ -5420,17 +5435,17 @@
       <c r="M90" s="13"/>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="13">
-        <v>3305</v>
+      <c r="A91" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="B91" s="13">
         <v>1</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E91" s="16">
         <v>0.6</v>
@@ -5440,7 +5455,7 @@
       </c>
       <c r="H91" s="32"/>
       <c r="I91" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J91" s="13"/>
       <c r="K91" s="13"/>
@@ -5449,16 +5464,16 @@
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="13">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="B92" s="13">
         <v>1</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E92" s="16">
         <v>0.6</v>
@@ -5468,7 +5483,7 @@
       </c>
       <c r="H92" s="32"/>
       <c r="I92" s="13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J92" s="13"/>
       <c r="K92" s="13"/>
@@ -5477,87 +5492,89 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="13">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="B93" s="13">
         <v>1</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E93" s="16">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F93" s="16">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H93" s="32"/>
       <c r="I93" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J93" s="13"/>
       <c r="K93" s="13"/>
       <c r="L93" s="13"/>
       <c r="M93" s="13"/>
     </row>
-    <row r="94" s="8" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A94" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="33"/>
-      <c r="G94" s="33"/>
-      <c r="H94" s="34"/>
-      <c r="I94" s="22"/>
-      <c r="J94" s="22"/>
-      <c r="K94" s="22"/>
-      <c r="L94" s="22"/>
-      <c r="M94" s="22"/>
-    </row>
-    <row r="95" spans="1:13">
-      <c r="A95" s="13">
-        <v>3401</v>
-      </c>
-      <c r="B95" s="13">
-        <v>1</v>
-      </c>
-      <c r="C95" s="13" t="s">
+    <row r="94" spans="1:13">
+      <c r="A94" s="13">
+        <v>3307</v>
+      </c>
+      <c r="B94" s="13">
+        <v>1</v>
+      </c>
+      <c r="C94" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="D95" s="19" t="s">
+      <c r="D94" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="E95" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="F95" s="16">
+      <c r="E94" s="16">
         <v>0.7</v>
       </c>
-      <c r="H95" s="32"/>
-      <c r="I95" s="13"/>
-      <c r="J95" s="13"/>
-      <c r="K95" s="13"/>
-      <c r="L95" s="13"/>
-      <c r="M95" s="13"/>
+      <c r="F94" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="H94" s="32"/>
+      <c r="I94" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+    </row>
+    <row r="95" s="8" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A95" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B95" s="22"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="22"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="22"/>
+      <c r="L95" s="22"/>
+      <c r="M95" s="22"/>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="13">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="B96" s="13">
         <v>1</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E96" s="16">
         <v>0.4</v>
@@ -5574,16 +5591,16 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="13">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="B97" s="13">
         <v>1</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E97" s="16">
         <v>0.4</v>
@@ -5600,16 +5617,16 @@
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="13">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="B98" s="13">
         <v>1</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E98" s="16">
         <v>0.4</v>
@@ -5625,17 +5642,17 @@
       <c r="M98" s="13"/>
     </row>
     <row r="99" spans="1:13">
-      <c r="A99" s="13" t="s">
-        <v>269</v>
+      <c r="A99" s="13">
+        <v>3404</v>
       </c>
       <c r="B99" s="13">
         <v>1</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E99" s="16">
         <v>0.4</v>
@@ -5651,17 +5668,17 @@
       <c r="M99" s="13"/>
     </row>
     <row r="100" spans="1:13">
-      <c r="A100" s="13">
-        <v>3406</v>
+      <c r="A100" s="13" t="s">
+        <v>273</v>
       </c>
       <c r="B100" s="13">
         <v>1</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E100" s="16">
         <v>0.4</v>
@@ -5676,71 +5693,69 @@
       <c r="L100" s="13"/>
       <c r="M100" s="13"/>
     </row>
-    <row r="101" s="8" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A101" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="33"/>
-      <c r="F101" s="33"/>
-      <c r="G101" s="33"/>
-      <c r="H101" s="34"/>
-      <c r="I101" s="22"/>
-      <c r="J101" s="22"/>
-      <c r="K101" s="22"/>
-      <c r="L101" s="22"/>
-      <c r="M101" s="22"/>
-    </row>
-    <row r="102" spans="1:13">
-      <c r="A102" s="13">
-        <v>3501</v>
-      </c>
-      <c r="B102" s="13">
-        <v>1</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="D102" s="19" t="s">
+    <row r="101" spans="1:13">
+      <c r="A101" s="13">
+        <v>3406</v>
+      </c>
+      <c r="B101" s="13">
+        <v>1</v>
+      </c>
+      <c r="C101" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="E102" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="F102" s="16"/>
-      <c r="H102" s="32"/>
-      <c r="I102" s="13" t="s">
+      <c r="D101" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="J102" s="13"/>
-      <c r="K102" s="13"/>
-      <c r="L102" s="13"/>
-      <c r="M102" s="13"/>
+      <c r="E101" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="F101" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="H101" s="32"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13"/>
+    </row>
+    <row r="102" s="8" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A102" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="B102" s="22"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="33"/>
+      <c r="G102" s="33"/>
+      <c r="H102" s="34"/>
+      <c r="I102" s="22"/>
+      <c r="J102" s="22"/>
+      <c r="K102" s="22"/>
+      <c r="L102" s="22"/>
+      <c r="M102" s="22"/>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="13">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="B103" s="13">
         <v>1</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E103" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="F103" s="16">
-        <v>0.8</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="F103" s="16"/>
       <c r="H103" s="32"/>
       <c r="I103" s="13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J103" s="13"/>
       <c r="K103" s="13"/>
@@ -5748,8 +5763,8 @@
       <c r="M103" s="13"/>
     </row>
     <row r="104" spans="1:13">
-      <c r="A104" s="13" t="s">
-        <v>281</v>
+      <c r="A104" s="13">
+        <v>3502</v>
       </c>
       <c r="B104" s="13">
         <v>1</v>
@@ -5763,7 +5778,9 @@
       <c r="E104" s="16">
         <v>0.6</v>
       </c>
-      <c r="F104" s="16"/>
+      <c r="F104" s="16">
+        <v>0.8</v>
+      </c>
       <c r="H104" s="32"/>
       <c r="I104" s="13" t="s">
         <v>284</v>
@@ -5774,17 +5791,17 @@
       <c r="M104" s="13"/>
     </row>
     <row r="105" spans="1:13">
-      <c r="A105" s="13">
-        <v>3504</v>
+      <c r="A105" s="13" t="s">
+        <v>285</v>
       </c>
       <c r="B105" s="13">
         <v>1</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E105" s="16">
         <v>0.6</v>
@@ -5792,105 +5809,105 @@
       <c r="F105" s="16"/>
       <c r="H105" s="32"/>
       <c r="I105" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J105" s="13"/>
       <c r="K105" s="13"/>
       <c r="L105" s="13"/>
       <c r="M105" s="13"/>
     </row>
-    <row r="106" spans="2:13">
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="16"/>
+    <row r="106" spans="1:13">
+      <c r="A106" s="13">
+        <v>3504</v>
+      </c>
+      <c r="B106" s="13">
+        <v>1</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D106" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E106" s="16">
+        <v>0.6</v>
+      </c>
       <c r="F106" s="16"/>
       <c r="H106" s="32"/>
-      <c r="I106" s="13"/>
+      <c r="I106" s="13" t="s">
+        <v>291</v>
+      </c>
       <c r="J106" s="13"/>
       <c r="K106" s="13"/>
       <c r="L106" s="13"/>
       <c r="M106" s="13"/>
     </row>
-    <row r="107" s="8" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A107" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="B107" s="22"/>
-      <c r="C107" s="22"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="33"/>
-      <c r="F107" s="33"/>
-      <c r="G107" s="33"/>
-      <c r="H107" s="34"/>
-      <c r="I107" s="22"/>
-      <c r="J107" s="22"/>
-      <c r="K107" s="22"/>
-      <c r="L107" s="22"/>
-      <c r="M107" s="22"/>
-    </row>
-    <row r="108" spans="1:13">
-      <c r="A108" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="B108" s="13">
-        <v>1</v>
-      </c>
-      <c r="C108" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="D108" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="E108" s="16">
+    <row r="107" spans="2:13">
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="H107" s="32"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="13"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="13"/>
+    </row>
+    <row r="108" s="8" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A108" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="B108" s="22"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="33"/>
+      <c r="F108" s="33"/>
+      <c r="G108" s="33"/>
+      <c r="H108" s="34"/>
+      <c r="I108" s="22"/>
+      <c r="J108" s="22"/>
+      <c r="K108" s="22"/>
+      <c r="L108" s="22"/>
+      <c r="M108" s="22"/>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B109" s="13">
+        <v>1</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="E109" s="16">
         <v>0.4</v>
       </c>
-      <c r="F108" s="16">
+      <c r="F109" s="16">
         <v>0.7</v>
       </c>
-      <c r="H108" s="32"/>
-      <c r="I108" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="J108" s="13"/>
-      <c r="K108" s="13"/>
-      <c r="L108" s="13"/>
-      <c r="M108" s="13"/>
-    </row>
-    <row r="109" spans="2:13">
-      <c r="B109" s="13"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16"/>
       <c r="H109" s="32"/>
-      <c r="I109" s="13"/>
+      <c r="I109" s="13" t="s">
+        <v>295</v>
+      </c>
       <c r="J109" s="13"/>
       <c r="K109" s="13"/>
       <c r="L109" s="13"/>
       <c r="M109" s="13"/>
     </row>
-    <row r="110" spans="1:13">
-      <c r="A110" s="13">
-        <v>403</v>
-      </c>
-      <c r="B110" s="13">
-        <v>1</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="D110" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="E110" s="16">
-        <v>0.8</v>
-      </c>
+    <row r="110" spans="2:13">
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="16"/>
       <c r="F110" s="16"/>
       <c r="H110" s="32"/>
-      <c r="I110" s="13" t="s">
-        <v>294</v>
-      </c>
+      <c r="I110" s="13"/>
       <c r="J110" s="13"/>
       <c r="K110" s="13"/>
       <c r="L110" s="13"/>
@@ -5898,24 +5915,24 @@
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="13">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B111" s="13">
         <v>1</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="D111" s="19"/>
+        <v>296</v>
+      </c>
+      <c r="D111" s="19" t="s">
+        <v>297</v>
+      </c>
       <c r="E111" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="F111" s="16">
-        <v>0.8</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="F111" s="16"/>
       <c r="H111" s="32"/>
       <c r="I111" s="13" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J111" s="13"/>
       <c r="K111" s="13"/>
@@ -5924,24 +5941,24 @@
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="13">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B112" s="13">
         <v>1</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="D112" s="19" t="s">
-        <v>298</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="D112" s="19"/>
       <c r="E112" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="F112" s="16"/>
+        <v>0.7</v>
+      </c>
+      <c r="F112" s="16">
+        <v>0.8</v>
+      </c>
       <c r="H112" s="32"/>
       <c r="I112" s="13" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="J112" s="13"/>
       <c r="K112" s="13"/>
@@ -5950,24 +5967,24 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="13">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B113" s="13">
         <v>1</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E113" s="16">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F113" s="16"/>
       <c r="H113" s="32"/>
       <c r="I113" s="13" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J113" s="13"/>
       <c r="K113" s="13"/>
@@ -5976,26 +5993,24 @@
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="13">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B114" s="13">
         <v>1</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E114" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="F114" s="16">
-        <v>0.8</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="F114" s="16"/>
       <c r="H114" s="32"/>
       <c r="I114" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J114" s="13"/>
       <c r="K114" s="13"/>
@@ -6004,23 +6019,27 @@
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="13">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B115" s="13">
         <v>1</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E115" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="F115" s="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="F115" s="16">
+        <v>0.8</v>
+      </c>
       <c r="H115" s="32"/>
-      <c r="I115" s="13"/>
+      <c r="I115" s="13" t="s">
+        <v>308</v>
+      </c>
       <c r="J115" s="13"/>
       <c r="K115" s="13"/>
       <c r="L115" s="13"/>
@@ -6028,27 +6047,23 @@
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="13">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B116" s="13">
         <v>1</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E116" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="F116" s="16">
-        <v>0.6</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="F116" s="16"/>
       <c r="H116" s="32"/>
-      <c r="I116" s="13" t="s">
-        <v>309</v>
-      </c>
+      <c r="I116" s="13"/>
       <c r="J116" s="13"/>
       <c r="K116" s="13"/>
       <c r="L116" s="13"/>
@@ -6056,24 +6071,26 @@
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="13">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B117" s="13">
         <v>1</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E117" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="F117" s="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="F117" s="16">
+        <v>0.6</v>
+      </c>
       <c r="H117" s="32"/>
       <c r="I117" s="13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J117" s="13"/>
       <c r="K117" s="13"/>
@@ -6082,16 +6099,16 @@
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="13">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B118" s="13">
         <v>1</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E118" s="16">
         <v>0.6</v>
@@ -6099,7 +6116,7 @@
       <c r="F118" s="16"/>
       <c r="H118" s="32"/>
       <c r="I118" s="13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J118" s="13"/>
       <c r="K118" s="13"/>
@@ -6108,24 +6125,24 @@
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="13">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B119" s="13">
         <v>1</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E119" s="16">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F119" s="16"/>
       <c r="H119" s="32"/>
       <c r="I119" s="13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J119" s="13"/>
       <c r="K119" s="13"/>
@@ -6134,26 +6151,24 @@
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="13">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B120" s="13">
         <v>1</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E120" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="F120" s="16">
-        <v>0.8</v>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="F120" s="16"/>
       <c r="H120" s="32"/>
       <c r="I120" s="13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J120" s="13"/>
       <c r="K120" s="13"/>
@@ -6162,109 +6177,111 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="13">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B121" s="13">
         <v>1</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E121" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="F121" s="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="F121" s="16">
+        <v>0.8</v>
+      </c>
       <c r="H121" s="32"/>
       <c r="I121" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J121" s="13"/>
       <c r="K121" s="13"/>
       <c r="L121" s="13"/>
       <c r="M121" s="13"/>
     </row>
-    <row r="122" spans="2:13">
-      <c r="B122" s="13"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="16"/>
+    <row r="122" spans="1:13">
+      <c r="A122" s="13">
+        <v>414</v>
+      </c>
+      <c r="B122" s="13">
+        <v>1</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D122" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="E122" s="16">
+        <v>0.8</v>
+      </c>
       <c r="F122" s="16"/>
       <c r="H122" s="32"/>
-      <c r="I122" s="13"/>
+      <c r="I122" s="13" t="s">
+        <v>328</v>
+      </c>
       <c r="J122" s="13"/>
       <c r="K122" s="13"/>
       <c r="L122" s="13"/>
       <c r="M122" s="13"/>
     </row>
-    <row r="123" s="8" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A123" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="B123" s="22"/>
-      <c r="C123" s="22"/>
-      <c r="D123" s="23"/>
-      <c r="E123" s="33"/>
-      <c r="F123" s="33"/>
-      <c r="G123" s="33"/>
-      <c r="H123" s="34"/>
-      <c r="I123" s="22"/>
-      <c r="J123" s="22"/>
-      <c r="K123" s="22"/>
-      <c r="L123" s="22"/>
-      <c r="M123" s="22"/>
-    </row>
-    <row r="124" spans="1:13">
-      <c r="A124" s="13">
-        <v>501</v>
-      </c>
-      <c r="B124" s="13">
-        <v>1</v>
-      </c>
-      <c r="C124" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="D124" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="E124" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="F124" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="H124" s="32"/>
-      <c r="I124" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="J124" s="13"/>
-      <c r="K124" s="13"/>
-      <c r="L124" s="13"/>
-      <c r="M124" s="13"/>
+    <row r="123" spans="2:13">
+      <c r="B123" s="13"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
+      <c r="H123" s="32"/>
+      <c r="I123" s="13"/>
+      <c r="J123" s="13"/>
+      <c r="K123" s="13"/>
+      <c r="L123" s="13"/>
+      <c r="M123" s="13"/>
+    </row>
+    <row r="124" s="8" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A124" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="B124" s="22"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="23"/>
+      <c r="E124" s="33"/>
+      <c r="F124" s="33"/>
+      <c r="G124" s="33"/>
+      <c r="H124" s="34"/>
+      <c r="I124" s="22"/>
+      <c r="J124" s="22"/>
+      <c r="K124" s="22"/>
+      <c r="L124" s="22"/>
+      <c r="M124" s="22"/>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="13">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B125" s="13">
         <v>1</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E125" s="16">
         <v>0.4</v>
       </c>
       <c r="F125" s="16">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H125" s="32"/>
-      <c r="I125" s="13"/>
+      <c r="I125" s="13" t="s">
+        <v>332</v>
+      </c>
       <c r="J125" s="13"/>
       <c r="K125" s="13"/>
       <c r="L125" s="13"/>
@@ -6272,33 +6289,33 @@
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="13">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B126" s="13">
         <v>1</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E126" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="F126" s="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="F126" s="16">
+        <v>0.7</v>
+      </c>
       <c r="H126" s="32"/>
-      <c r="I126" s="13" t="s">
-        <v>333</v>
-      </c>
+      <c r="I126" s="13"/>
       <c r="J126" s="13"/>
       <c r="K126" s="13"/>
       <c r="L126" s="13"/>
       <c r="M126" s="13"/>
     </row>
     <row r="127" spans="1:13">
-      <c r="A127" s="13" t="s">
-        <v>334</v>
+      <c r="A127" s="13">
+        <v>503</v>
       </c>
       <c r="B127" s="13">
         <v>1</v>
@@ -6310,11 +6327,9 @@
         <v>336</v>
       </c>
       <c r="E127" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="F127" s="16">
-        <v>0.75</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="F127" s="16"/>
       <c r="H127" s="32"/>
       <c r="I127" s="13" t="s">
         <v>337</v>
@@ -6338,10 +6353,10 @@
         <v>340</v>
       </c>
       <c r="E128" s="16">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F128" s="16">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="H128" s="32"/>
       <c r="I128" s="13" t="s">
@@ -6381,27 +6396,27 @@
       <c r="M129" s="13"/>
     </row>
     <row r="130" spans="1:13">
-      <c r="A130" s="13">
-        <v>507</v>
+      <c r="A130" s="13" t="s">
+        <v>346</v>
       </c>
       <c r="B130" s="13">
         <v>1</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D130" s="19" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E130" s="16">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F130" s="16">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="H130" s="32"/>
       <c r="I130" s="13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J130" s="13"/>
       <c r="K130" s="13"/>
@@ -6410,24 +6425,26 @@
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="13">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B131" s="13">
         <v>1</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E131" s="16">
-        <v>0.9</v>
-      </c>
-      <c r="F131" s="16"/>
+        <v>0.7</v>
+      </c>
+      <c r="F131" s="16">
+        <v>0.85</v>
+      </c>
       <c r="H131" s="32"/>
       <c r="I131" s="13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J131" s="13"/>
       <c r="K131" s="13"/>
@@ -6436,25 +6453,25 @@
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="13">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B132" s="13">
         <v>1</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E132" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="F132" s="16">
-        <v>1</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="F132" s="16"/>
       <c r="H132" s="32"/>
-      <c r="I132" s="13"/>
+      <c r="I132" s="13" t="s">
+        <v>355</v>
+      </c>
       <c r="J132" s="13"/>
       <c r="K132" s="13"/>
       <c r="L132" s="13"/>
@@ -6462,25 +6479,25 @@
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="13">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B133" s="13">
         <v>1</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E133" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="F133" s="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="F133" s="16">
+        <v>1</v>
+      </c>
       <c r="H133" s="32"/>
-      <c r="I133" s="13" t="s">
-        <v>356</v>
-      </c>
+      <c r="I133" s="13"/>
       <c r="J133" s="13"/>
       <c r="K133" s="13"/>
       <c r="L133" s="13"/>
@@ -6488,24 +6505,24 @@
     </row>
     <row r="134" spans="1:13">
       <c r="A134" s="13">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B134" s="13">
         <v>1</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D134" s="19" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E134" s="16">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="F134" s="16"/>
       <c r="H134" s="32"/>
       <c r="I134" s="13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J134" s="13"/>
       <c r="K134" s="13"/>
@@ -6514,16 +6531,16 @@
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="13">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B135" s="13">
         <v>1</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E135" s="16">
         <v>0.6</v>
@@ -6531,7 +6548,7 @@
       <c r="F135" s="16"/>
       <c r="H135" s="32"/>
       <c r="I135" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J135" s="13"/>
       <c r="K135" s="13"/>
@@ -6539,8 +6556,8 @@
       <c r="M135" s="13"/>
     </row>
     <row r="136" spans="1:13">
-      <c r="A136" s="20" t="s">
-        <v>363</v>
+      <c r="A136" s="13">
+        <v>512</v>
       </c>
       <c r="B136" s="13">
         <v>1</v>
@@ -6552,7 +6569,7 @@
         <v>365</v>
       </c>
       <c r="E136" s="16">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F136" s="16"/>
       <c r="H136" s="32"/>
@@ -6565,23 +6582,25 @@
       <c r="M136" s="13"/>
     </row>
     <row r="137" spans="1:13">
-      <c r="A137" s="13">
-        <v>514</v>
+      <c r="A137" s="20" t="s">
+        <v>367</v>
       </c>
       <c r="B137" s="13">
         <v>1</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="D137" s="19"/>
+        <v>368</v>
+      </c>
+      <c r="D137" s="19" t="s">
+        <v>369</v>
+      </c>
       <c r="E137" s="16">
         <v>0.8</v>
       </c>
       <c r="F137" s="16"/>
       <c r="H137" s="32"/>
       <c r="I137" s="13" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="J137" s="13"/>
       <c r="K137" s="13"/>
@@ -6590,24 +6609,22 @@
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="13">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B138" s="13">
         <v>1</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="D138" s="19" t="s">
-        <v>370</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="D138" s="19"/>
       <c r="E138" s="16">
         <v>0.8</v>
       </c>
       <c r="F138" s="16"/>
       <c r="H138" s="32"/>
       <c r="I138" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J138" s="13"/>
       <c r="K138" s="13"/>
@@ -6615,8 +6632,8 @@
       <c r="M138" s="13"/>
     </row>
     <row r="139" spans="1:13">
-      <c r="A139" s="13" t="s">
-        <v>372</v>
+      <c r="A139" s="13">
+        <v>515</v>
       </c>
       <c r="B139" s="13">
         <v>1</v>
@@ -6624,16 +6641,16 @@
       <c r="C139" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="D139" s="19"/>
+      <c r="D139" s="19" t="s">
+        <v>374</v>
+      </c>
       <c r="E139" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="F139" s="16">
-        <v>0.8</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="F139" s="16"/>
       <c r="H139" s="32"/>
       <c r="I139" s="13" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J139" s="13"/>
       <c r="K139" s="13"/>
@@ -6642,19 +6659,17 @@
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B140" s="13">
         <v>1</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="D140" s="19" t="s">
         <v>377</v>
       </c>
+      <c r="D140" s="19"/>
       <c r="E140" s="16">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F140" s="16">
         <v>0.8</v>
@@ -6669,25 +6684,27 @@
       <c r="M140" s="13"/>
     </row>
     <row r="141" spans="1:13">
-      <c r="A141" s="13">
-        <v>518</v>
+      <c r="A141" s="13" t="s">
+        <v>379</v>
       </c>
       <c r="B141" s="13">
         <v>1</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D141" s="19" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E141" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="F141" s="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="F141" s="16">
+        <v>0.8</v>
+      </c>
       <c r="H141" s="32"/>
       <c r="I141" s="13" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J141" s="13"/>
       <c r="K141" s="13"/>
@@ -6696,110 +6713,108 @@
     </row>
     <row r="142" spans="1:13">
       <c r="A142" s="13">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B142" s="13">
         <v>1</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="D142" s="19"/>
+        <v>383</v>
+      </c>
+      <c r="D142" s="19" t="s">
+        <v>384</v>
+      </c>
       <c r="E142" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="F142" s="16">
-        <v>0.85</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="F142" s="16"/>
       <c r="H142" s="32"/>
       <c r="I142" s="13" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="J142" s="13"/>
       <c r="K142" s="13"/>
       <c r="L142" s="13"/>
       <c r="M142" s="13"/>
     </row>
-    <row r="143" spans="2:13">
+    <row r="143" spans="1:13">
+      <c r="A143" s="13">
+        <v>519</v>
+      </c>
       <c r="B143" s="13">
         <v>1</v>
       </c>
-      <c r="C143" s="13"/>
+      <c r="C143" s="13" t="s">
+        <v>386</v>
+      </c>
       <c r="D143" s="19"/>
-      <c r="E143" s="16"/>
-      <c r="F143" s="16"/>
+      <c r="E143" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="F143" s="16">
+        <v>0.85</v>
+      </c>
       <c r="H143" s="32"/>
-      <c r="I143" s="13"/>
+      <c r="I143" s="13" t="s">
+        <v>387</v>
+      </c>
       <c r="J143" s="13"/>
       <c r="K143" s="13"/>
       <c r="L143" s="13"/>
       <c r="M143" s="13"/>
     </row>
-    <row r="144" s="8" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A144" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="B144" s="22"/>
-      <c r="C144" s="22"/>
-      <c r="D144" s="23"/>
-      <c r="E144" s="33"/>
-      <c r="F144" s="33"/>
-      <c r="G144" s="33"/>
-      <c r="H144" s="34"/>
-      <c r="I144" s="22"/>
-      <c r="J144" s="22"/>
-      <c r="K144" s="22"/>
-      <c r="L144" s="22"/>
-      <c r="M144" s="22"/>
-    </row>
-    <row r="145" spans="1:13">
-      <c r="A145" s="13">
-        <v>601</v>
-      </c>
-      <c r="B145" s="13">
-        <v>1</v>
-      </c>
-      <c r="C145" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="D145" s="19"/>
-      <c r="E145" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="F145" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="H145" s="32"/>
-      <c r="I145" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="J145" s="13"/>
-      <c r="K145" s="13"/>
-      <c r="L145" s="13"/>
-      <c r="M145" s="13"/>
+    <row r="144" spans="2:13">
+      <c r="B144" s="13">
+        <v>1</v>
+      </c>
+      <c r="C144" s="13"/>
+      <c r="D144" s="19"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="16"/>
+      <c r="H144" s="32"/>
+      <c r="I144" s="13"/>
+      <c r="J144" s="13"/>
+      <c r="K144" s="13"/>
+      <c r="L144" s="13"/>
+      <c r="M144" s="13"/>
+    </row>
+    <row r="145" s="8" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A145" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="B145" s="22"/>
+      <c r="C145" s="22"/>
+      <c r="D145" s="23"/>
+      <c r="E145" s="33"/>
+      <c r="F145" s="33"/>
+      <c r="G145" s="33"/>
+      <c r="H145" s="34"/>
+      <c r="I145" s="22"/>
+      <c r="J145" s="22"/>
+      <c r="K145" s="22"/>
+      <c r="L145" s="22"/>
+      <c r="M145" s="22"/>
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="13">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B146" s="13">
         <v>1</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="D146" s="19" t="s">
-        <v>388</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="D146" s="19"/>
       <c r="E146" s="16">
         <v>0.6</v>
       </c>
       <c r="F146" s="16">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="H146" s="32"/>
       <c r="I146" s="13" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J146" s="13"/>
       <c r="K146" s="13"/>
@@ -6808,26 +6823,26 @@
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="13">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B147" s="13">
         <v>1</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E147" s="16">
         <v>0.6</v>
       </c>
       <c r="F147" s="16">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="H147" s="32"/>
       <c r="I147" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="J147" s="13"/>
       <c r="K147" s="13"/>
@@ -6836,24 +6851,26 @@
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="13">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B148" s="13">
         <v>1</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E148" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="F148" s="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="F148" s="16">
+        <v>0.8</v>
+      </c>
       <c r="H148" s="32"/>
       <c r="I148" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J148" s="13"/>
       <c r="K148" s="13"/>
@@ -6862,26 +6879,24 @@
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="13">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B149" s="13">
         <v>1</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D149" s="19" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E149" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="F149" s="16">
-        <v>0.8</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="F149" s="16"/>
       <c r="H149" s="32"/>
       <c r="I149" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J149" s="13"/>
       <c r="K149" s="13"/>
@@ -6890,192 +6905,194 @@
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="13">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B150" s="13">
         <v>1</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D150" s="19" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E150" s="16">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F150" s="16">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H150" s="32"/>
       <c r="I150" s="13" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J150" s="13"/>
       <c r="K150" s="13"/>
       <c r="L150" s="13"/>
       <c r="M150" s="13"/>
     </row>
-    <row r="151" spans="2:13">
-      <c r="B151" s="13"/>
-      <c r="C151" s="13"/>
-      <c r="D151" s="19"/>
-      <c r="E151" s="16"/>
-      <c r="F151" s="16"/>
+    <row r="151" spans="1:13">
+      <c r="A151" s="13">
+        <v>606</v>
+      </c>
+      <c r="B151" s="13">
+        <v>1</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="D151" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="E151" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="F151" s="16">
+        <v>0.9</v>
+      </c>
       <c r="H151" s="32"/>
-      <c r="I151" s="13"/>
+      <c r="I151" s="13" t="s">
+        <v>405</v>
+      </c>
       <c r="J151" s="13"/>
       <c r="K151" s="13"/>
       <c r="L151" s="13"/>
       <c r="M151" s="13"/>
     </row>
-    <row r="152" s="8" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A152" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="B152" s="22"/>
-      <c r="C152" s="22"/>
-      <c r="D152" s="23"/>
-      <c r="E152" s="33"/>
-      <c r="F152" s="33"/>
-      <c r="G152" s="33"/>
-      <c r="H152" s="34"/>
-      <c r="I152" s="22"/>
-      <c r="J152" s="22"/>
-      <c r="K152" s="22"/>
-      <c r="L152" s="22"/>
-      <c r="M152" s="22"/>
-    </row>
-    <row r="153" spans="1:13">
-      <c r="A153" s="13">
-        <v>801</v>
-      </c>
-      <c r="B153" s="13">
-        <v>1</v>
-      </c>
-      <c r="C153" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="D153" s="19" t="s">
-        <v>404</v>
-      </c>
-      <c r="E153" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="F153" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="H153" s="32"/>
-      <c r="I153" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="J153" s="13"/>
-      <c r="K153" s="13"/>
-      <c r="L153" s="13"/>
-      <c r="M153" s="13"/>
+    <row r="152" spans="2:13">
+      <c r="B152" s="13"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="16"/>
+      <c r="F152" s="16"/>
+      <c r="H152" s="32"/>
+      <c r="I152" s="13"/>
+      <c r="J152" s="13"/>
+      <c r="K152" s="13"/>
+      <c r="L152" s="13"/>
+      <c r="M152" s="13"/>
+    </row>
+    <row r="153" s="8" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A153" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="B153" s="22"/>
+      <c r="C153" s="22"/>
+      <c r="D153" s="23"/>
+      <c r="E153" s="33"/>
+      <c r="F153" s="33"/>
+      <c r="G153" s="33"/>
+      <c r="H153" s="34"/>
+      <c r="I153" s="22"/>
+      <c r="J153" s="22"/>
+      <c r="K153" s="22"/>
+      <c r="L153" s="22"/>
+      <c r="M153" s="22"/>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="13">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B154" s="13">
         <v>1</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D154" s="19" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E154" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="F154" s="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="F154" s="16">
+        <v>0.8</v>
+      </c>
       <c r="H154" s="32"/>
       <c r="I154" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J154" s="13"/>
       <c r="K154" s="13"/>
       <c r="L154" s="13"/>
       <c r="M154" s="13"/>
     </row>
-    <row r="155" spans="2:13">
-      <c r="B155" s="13"/>
-      <c r="C155" s="13"/>
-      <c r="D155" s="19"/>
-      <c r="E155" s="16"/>
+    <row r="155" spans="1:13">
+      <c r="A155" s="13">
+        <v>802</v>
+      </c>
+      <c r="B155" s="13">
+        <v>1</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="D155" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="E155" s="16">
+        <v>0.8</v>
+      </c>
       <c r="F155" s="16"/>
       <c r="H155" s="32"/>
-      <c r="I155" s="13"/>
+      <c r="I155" s="13" t="s">
+        <v>412</v>
+      </c>
       <c r="J155" s="13"/>
       <c r="K155" s="13"/>
       <c r="L155" s="13"/>
       <c r="M155" s="13"/>
     </row>
-    <row r="156" s="8" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A156" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="B156" s="22"/>
-      <c r="C156" s="22"/>
-      <c r="D156" s="23"/>
-      <c r="E156" s="33"/>
-      <c r="F156" s="33"/>
-      <c r="G156" s="33"/>
-      <c r="H156" s="34"/>
-      <c r="I156" s="22"/>
-      <c r="J156" s="22"/>
-      <c r="K156" s="22"/>
-      <c r="L156" s="22"/>
-      <c r="M156" s="22"/>
-    </row>
-    <row r="157" spans="1:13">
-      <c r="A157" s="13">
-        <v>901</v>
-      </c>
-      <c r="B157" s="13">
-        <v>1</v>
-      </c>
-      <c r="C157" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="D157" s="19"/>
-      <c r="E157" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="F157" s="16">
-        <v>2</v>
-      </c>
-      <c r="H157" s="32"/>
-      <c r="I157" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="J157" s="13"/>
-      <c r="K157" s="13"/>
-      <c r="L157" s="13"/>
-      <c r="M157" s="13"/>
+    <row r="156" spans="2:13">
+      <c r="B156" s="13"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="19"/>
+      <c r="E156" s="16"/>
+      <c r="F156" s="16"/>
+      <c r="H156" s="32"/>
+      <c r="I156" s="13"/>
+      <c r="J156" s="13"/>
+      <c r="K156" s="13"/>
+      <c r="L156" s="13"/>
+      <c r="M156" s="13"/>
+    </row>
+    <row r="157" s="8" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A157" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="B157" s="22"/>
+      <c r="C157" s="22"/>
+      <c r="D157" s="23"/>
+      <c r="E157" s="33"/>
+      <c r="F157" s="33"/>
+      <c r="G157" s="33"/>
+      <c r="H157" s="34"/>
+      <c r="I157" s="22"/>
+      <c r="J157" s="22"/>
+      <c r="K157" s="22"/>
+      <c r="L157" s="22"/>
+      <c r="M157" s="22"/>
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="13">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B158" s="13">
         <v>1</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D158" s="19"/>
       <c r="E158" s="16">
         <v>0.4</v>
       </c>
       <c r="F158" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H158" s="32"/>
       <c r="I158" s="13" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J158" s="13"/>
       <c r="K158" s="13"/>
@@ -7084,24 +7101,24 @@
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="13">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B159" s="13">
         <v>1</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="D159" s="19" t="s">
-        <v>415</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="D159" s="19"/>
       <c r="E159" s="16">
         <v>0.4</v>
       </c>
-      <c r="F159" s="16"/>
+      <c r="F159" s="16">
+        <v>1</v>
+      </c>
       <c r="H159" s="32"/>
       <c r="I159" s="13" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="J159" s="13"/>
       <c r="K159" s="13"/>
@@ -7110,22 +7127,24 @@
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="13">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B160" s="13">
         <v>1</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="D160" s="19"/>
+        <v>418</v>
+      </c>
+      <c r="D160" s="19" t="s">
+        <v>419</v>
+      </c>
       <c r="E160" s="16">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F160" s="16"/>
       <c r="H160" s="32"/>
       <c r="I160" s="13" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J160" s="13"/>
       <c r="K160" s="13"/>
@@ -7134,109 +7153,103 @@
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="13">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B161" s="13">
         <v>1</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D161" s="19"/>
       <c r="E161" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="F161" s="16">
-        <v>2</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="F161" s="16"/>
       <c r="H161" s="32"/>
       <c r="I161" s="13" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J161" s="13"/>
       <c r="K161" s="13"/>
       <c r="L161" s="13"/>
       <c r="M161" s="13"/>
     </row>
-    <row r="162" spans="2:13">
-      <c r="B162" s="13"/>
-      <c r="C162" s="13"/>
+    <row r="162" spans="1:13">
+      <c r="A162" s="13">
+        <v>905</v>
+      </c>
+      <c r="B162" s="13">
+        <v>1</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>423</v>
+      </c>
       <c r="D162" s="19"/>
-      <c r="E162" s="16"/>
-      <c r="F162" s="16"/>
+      <c r="E162" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="F162" s="16">
+        <v>2</v>
+      </c>
       <c r="H162" s="32"/>
-      <c r="I162" s="13"/>
+      <c r="I162" s="13" t="s">
+        <v>424</v>
+      </c>
       <c r="J162" s="13"/>
       <c r="K162" s="13"/>
       <c r="L162" s="13"/>
       <c r="M162" s="13"/>
     </row>
-    <row r="163" s="8" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A163" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="B163" s="22"/>
-      <c r="C163" s="22"/>
-      <c r="D163" s="23"/>
-      <c r="E163" s="33"/>
-      <c r="F163" s="33"/>
-      <c r="G163" s="33"/>
-      <c r="H163" s="34"/>
-      <c r="I163" s="22"/>
-      <c r="J163" s="22"/>
-      <c r="K163" s="22"/>
-      <c r="L163" s="22"/>
-      <c r="M163" s="22"/>
-    </row>
-    <row r="164" spans="1:13">
-      <c r="A164" s="13">
-        <v>701</v>
-      </c>
-      <c r="B164" s="13">
-        <v>1</v>
-      </c>
-      <c r="C164" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="D164" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="E164" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="F164" s="16"/>
-      <c r="H164" s="32"/>
-      <c r="I164" s="13"/>
-      <c r="J164" s="13"/>
-      <c r="K164" s="13"/>
-      <c r="L164" s="13"/>
-      <c r="M164" s="13"/>
+    <row r="163" spans="2:13">
+      <c r="B163" s="13"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="19"/>
+      <c r="E163" s="16"/>
+      <c r="F163" s="16"/>
+      <c r="H163" s="32"/>
+      <c r="I163" s="13"/>
+      <c r="J163" s="13"/>
+      <c r="K163" s="13"/>
+      <c r="L163" s="13"/>
+      <c r="M163" s="13"/>
+    </row>
+    <row r="164" s="8" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A164" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="B164" s="22"/>
+      <c r="C164" s="22"/>
+      <c r="D164" s="23"/>
+      <c r="E164" s="33"/>
+      <c r="F164" s="33"/>
+      <c r="G164" s="33"/>
+      <c r="H164" s="34"/>
+      <c r="I164" s="22"/>
+      <c r="J164" s="22"/>
+      <c r="K164" s="22"/>
+      <c r="L164" s="22"/>
+      <c r="M164" s="22"/>
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="13">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B165" s="13">
         <v>1</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D165" s="19" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E165" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="F165" s="16">
-        <v>0.85</v>
-      </c>
-      <c r="H165" s="32">
-        <v>1</v>
-      </c>
-      <c r="I165" s="13" t="s">
-        <v>426</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="F165" s="16"/>
+      <c r="H165" s="32"/>
+      <c r="I165" s="13"/>
       <c r="J165" s="13"/>
       <c r="K165" s="13"/>
       <c r="L165" s="13"/>
@@ -7244,24 +7257,28 @@
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="13">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B166" s="13">
         <v>1</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D166" s="19" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E166" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="F166" s="16"/>
-      <c r="H166" s="32"/>
+        <v>0.7</v>
+      </c>
+      <c r="F166" s="16">
+        <v>0.85</v>
+      </c>
+      <c r="H166" s="32">
+        <v>1</v>
+      </c>
       <c r="I166" s="13" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="J166" s="13"/>
       <c r="K166" s="13"/>
@@ -7270,26 +7287,24 @@
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="13">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B167" s="13">
         <v>1</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D167" s="19" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E167" s="16">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F167" s="16"/>
-      <c r="H167" s="32">
-        <v>1</v>
-      </c>
+      <c r="H167" s="32"/>
       <c r="I167" s="13" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J167" s="13"/>
       <c r="K167" s="13"/>
@@ -7298,25 +7313,27 @@
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="13">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B168" s="13">
         <v>1</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D168" s="19" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E168" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="F168" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="H168" s="32"/>
-      <c r="I168" s="13"/>
+        <v>0.6</v>
+      </c>
+      <c r="F168" s="16"/>
+      <c r="H168" s="32">
+        <v>1</v>
+      </c>
+      <c r="I168" s="13" t="s">
+        <v>436</v>
+      </c>
       <c r="J168" s="13"/>
       <c r="K168" s="13"/>
       <c r="L168" s="13"/>
@@ -7324,16 +7341,16 @@
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="13">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B169" s="13">
         <v>1</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D169" s="19" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E169" s="16">
         <v>0.4</v>
@@ -7350,26 +7367,24 @@
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="13">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B170" s="13">
         <v>1</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D170" s="19" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E170" s="16">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F170" s="16">
-        <v>1</v>
-      </c>
-      <c r="H170" s="32">
-        <v>1</v>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="H170" s="32"/>
       <c r="I170" s="13"/>
       <c r="J170" s="13"/>
       <c r="K170" s="13"/>
@@ -7378,24 +7393,26 @@
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="13">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B171" s="13">
         <v>1</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E171" s="16">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F171" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="H171" s="32"/>
+        <v>1</v>
+      </c>
+      <c r="H171" s="32">
+        <v>1</v>
+      </c>
       <c r="I171" s="13"/>
       <c r="J171" s="13"/>
       <c r="K171" s="13"/>
@@ -7404,22 +7421,22 @@
     </row>
     <row r="172" spans="1:13">
       <c r="A172" s="13">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B172" s="13">
         <v>1</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D172" s="19" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E172" s="16">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F172" s="16">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H172" s="32"/>
       <c r="I172" s="13"/>
@@ -7430,25 +7447,25 @@
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="13">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B173" s="13">
         <v>1</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D173" s="19" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E173" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="F173" s="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="F173" s="16">
+        <v>0.8</v>
+      </c>
       <c r="H173" s="32"/>
-      <c r="I173" s="13" t="s">
-        <v>445</v>
-      </c>
+      <c r="I173" s="13"/>
       <c r="J173" s="13"/>
       <c r="K173" s="13"/>
       <c r="L173" s="13"/>
@@ -7456,23 +7473,25 @@
     </row>
     <row r="174" spans="1:13">
       <c r="A174" s="13">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B174" s="13">
         <v>1</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D174" s="19" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E174" s="16">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F174" s="16"/>
       <c r="H174" s="32"/>
-      <c r="I174" s="13"/>
+      <c r="I174" s="13" t="s">
+        <v>449</v>
+      </c>
       <c r="J174" s="13"/>
       <c r="K174" s="13"/>
       <c r="L174" s="13"/>
@@ -7480,27 +7499,23 @@
     </row>
     <row r="175" spans="1:13">
       <c r="A175" s="13">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B175" s="13">
         <v>1</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D175" s="19" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E175" s="16">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F175" s="16"/>
-      <c r="H175" s="32">
-        <v>1</v>
-      </c>
-      <c r="I175" s="13" t="s">
-        <v>450</v>
-      </c>
+      <c r="H175" s="32"/>
+      <c r="I175" s="13"/>
       <c r="J175" s="13"/>
       <c r="K175" s="13"/>
       <c r="L175" s="13"/>
@@ -7508,23 +7523,27 @@
     </row>
     <row r="176" spans="1:13">
       <c r="A176" s="13">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B176" s="13">
         <v>1</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D176" s="19" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E176" s="16">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F176" s="16"/>
-      <c r="H176" s="32"/>
-      <c r="I176" s="13"/>
+      <c r="H176" s="32">
+        <v>1</v>
+      </c>
+      <c r="I176" s="13" t="s">
+        <v>454</v>
+      </c>
       <c r="J176" s="13"/>
       <c r="K176" s="13"/>
       <c r="L176" s="13"/>
@@ -7532,16 +7551,16 @@
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="13">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B177" s="13">
         <v>1</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D177" s="19" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E177" s="16">
         <v>0.5</v>
@@ -7556,24 +7575,22 @@
     </row>
     <row r="178" spans="1:13">
       <c r="A178" s="13">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B178" s="13">
         <v>1</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D178" s="19" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E178" s="16">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F178" s="16"/>
-      <c r="H178" s="32">
-        <v>1</v>
-      </c>
+      <c r="H178" s="32"/>
       <c r="I178" s="13"/>
       <c r="J178" s="13"/>
       <c r="K178" s="13"/>
@@ -7582,25 +7599,25 @@
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="13">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B179" s="13">
         <v>1</v>
       </c>
       <c r="C179" s="13" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D179" s="19" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E179" s="16">
         <v>0.9</v>
       </c>
       <c r="F179" s="16"/>
-      <c r="H179" s="32"/>
-      <c r="I179" s="13" t="s">
-        <v>459</v>
-      </c>
+      <c r="H179" s="32">
+        <v>1</v>
+      </c>
+      <c r="I179" s="13"/>
       <c r="J179" s="13"/>
       <c r="K179" s="13"/>
       <c r="L179" s="13"/>
@@ -7608,24 +7625,24 @@
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="13">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B180" s="13">
         <v>1</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D180" s="19" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E180" s="16">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F180" s="16"/>
       <c r="H180" s="32"/>
       <c r="I180" s="13" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J180" s="13"/>
       <c r="K180" s="13"/>
@@ -7634,24 +7651,24 @@
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="13">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B181" s="13">
         <v>1</v>
       </c>
       <c r="C181" s="13" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D181" s="19" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E181" s="16">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F181" s="16"/>
       <c r="H181" s="32"/>
       <c r="I181" s="13" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="J181" s="13"/>
       <c r="K181" s="13"/>
@@ -7660,26 +7677,24 @@
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="13">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B182" s="13">
         <v>1</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D182" s="19" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E182" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="F182" s="16">
         <v>0.9</v>
       </c>
+      <c r="F182" s="16"/>
       <c r="H182" s="32"/>
       <c r="I182" s="13" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J182" s="13"/>
       <c r="K182" s="13"/>
@@ -7688,26 +7703,26 @@
     </row>
     <row r="183" spans="1:13">
       <c r="A183" s="13">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B183" s="13">
         <v>1</v>
       </c>
       <c r="C183" s="13" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D183" s="19" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E183" s="16">
         <v>0.6</v>
       </c>
       <c r="F183" s="16">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H183" s="32"/>
       <c r="I183" s="13" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J183" s="13"/>
       <c r="K183" s="13"/>
@@ -7716,26 +7731,26 @@
     </row>
     <row r="184" spans="1:13">
       <c r="A184" s="13">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B184" s="13">
         <v>1</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D184" s="19" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E184" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="F184" s="16"/>
-      <c r="H184" s="32">
-        <v>1</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="F184" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="H184" s="32"/>
       <c r="I184" s="13" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J184" s="13"/>
       <c r="K184" s="13"/>
@@ -7744,26 +7759,26 @@
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="13">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B185" s="13">
         <v>1</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D185" s="19" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E185" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="F185" s="16">
-        <v>0.9</v>
-      </c>
-      <c r="H185" s="32"/>
+        <v>0.8</v>
+      </c>
+      <c r="F185" s="16"/>
+      <c r="H185" s="32">
+        <v>1</v>
+      </c>
       <c r="I185" s="13" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J185" s="13"/>
       <c r="K185" s="13"/>
@@ -7772,16 +7787,16 @@
     </row>
     <row r="186" spans="1:13">
       <c r="A186" s="13">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B186" s="13">
         <v>1</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E186" s="16">
         <v>0.6</v>
@@ -7790,7 +7805,9 @@
         <v>0.9</v>
       </c>
       <c r="H186" s="32"/>
-      <c r="I186" s="13"/>
+      <c r="I186" s="13" t="s">
+        <v>481</v>
+      </c>
       <c r="J186" s="13"/>
       <c r="K186" s="13"/>
       <c r="L186" s="13"/>
@@ -7798,7 +7815,7 @@
     </row>
     <row r="187" spans="1:13">
       <c r="A187" s="13">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B187" s="13">
         <v>1</v>
@@ -7807,18 +7824,16 @@
         <v>479</v>
       </c>
       <c r="D187" s="19" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E187" s="16">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F187" s="16">
         <v>0.9</v>
       </c>
       <c r="H187" s="32"/>
-      <c r="I187" s="13" t="s">
-        <v>481</v>
-      </c>
+      <c r="I187" s="13"/>
       <c r="J187" s="13"/>
       <c r="K187" s="13"/>
       <c r="L187" s="13"/>
@@ -7826,16 +7841,16 @@
     </row>
     <row r="188" spans="1:13">
       <c r="A188" s="13">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B188" s="13">
         <v>1</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D188" s="19" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E188" s="16">
         <v>0.4</v>
@@ -7844,7 +7859,9 @@
         <v>0.9</v>
       </c>
       <c r="H188" s="32"/>
-      <c r="I188" s="13"/>
+      <c r="I188" s="13" t="s">
+        <v>485</v>
+      </c>
       <c r="J188" s="13"/>
       <c r="K188" s="13"/>
       <c r="L188" s="13"/>
@@ -7852,7 +7869,7 @@
     </row>
     <row r="189" spans="1:13">
       <c r="A189" s="13">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B189" s="13">
         <v>1</v>
@@ -7861,16 +7878,16 @@
         <v>483</v>
       </c>
       <c r="D189" s="19" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E189" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="F189" s="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="F189" s="16">
+        <v>0.9</v>
+      </c>
       <c r="H189" s="32"/>
-      <c r="I189" s="13" t="s">
-        <v>485</v>
-      </c>
+      <c r="I189" s="13"/>
       <c r="J189" s="13"/>
       <c r="K189" s="13"/>
       <c r="L189" s="13"/>
@@ -7878,16 +7895,16 @@
     </row>
     <row r="190" spans="1:13">
       <c r="A190" s="13">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B190" s="13">
         <v>1</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D190" s="19" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E190" s="16">
         <v>0.8</v>
@@ -7895,7 +7912,7 @@
       <c r="F190" s="16"/>
       <c r="H190" s="32"/>
       <c r="I190" s="13" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J190" s="13"/>
       <c r="K190" s="13"/>
@@ -7904,16 +7921,16 @@
     </row>
     <row r="191" spans="1:13">
       <c r="A191" s="13">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B191" s="13">
         <v>1</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D191" s="19" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E191" s="16">
         <v>0.8</v>
@@ -7921,7 +7938,7 @@
       <c r="F191" s="16"/>
       <c r="H191" s="32"/>
       <c r="I191" s="13" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="J191" s="13"/>
       <c r="K191" s="13"/>
@@ -7930,26 +7947,24 @@
     </row>
     <row r="192" spans="1:13">
       <c r="A192" s="13">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B192" s="13">
         <v>1</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D192" s="19" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E192" s="16">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F192" s="16"/>
-      <c r="H192" s="32">
-        <v>1</v>
-      </c>
+      <c r="H192" s="32"/>
       <c r="I192" s="13" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J192" s="13"/>
       <c r="K192" s="13"/>
@@ -7958,24 +7973,26 @@
     </row>
     <row r="193" spans="1:13">
       <c r="A193" s="13">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B193" s="13">
         <v>1</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D193" s="19" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E193" s="16">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F193" s="16"/>
-      <c r="H193" s="32"/>
+      <c r="H193" s="32">
+        <v>1</v>
+      </c>
       <c r="I193" s="13" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="J193" s="13"/>
       <c r="K193" s="13"/>
@@ -7984,23 +8001,25 @@
     </row>
     <row r="194" spans="1:13">
       <c r="A194" s="13">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B194" s="13">
         <v>1</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D194" s="19" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E194" s="16">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F194" s="16"/>
       <c r="H194" s="32"/>
-      <c r="I194" s="13"/>
+      <c r="I194" s="13" t="s">
+        <v>501</v>
+      </c>
       <c r="J194" s="13"/>
       <c r="K194" s="13"/>
       <c r="L194" s="13"/>
@@ -8008,23 +8027,21 @@
     </row>
     <row r="195" spans="1:13">
       <c r="A195" s="13">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B195" s="13">
         <v>1</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D195" s="19" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E195" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="F195" s="16">
-        <v>0.8</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="F195" s="16"/>
       <c r="H195" s="32"/>
       <c r="I195" s="13"/>
       <c r="J195" s="13"/>
@@ -8034,21 +8051,23 @@
     </row>
     <row r="196" spans="1:13">
       <c r="A196" s="13">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B196" s="13">
         <v>1</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D196" s="19" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E196" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="F196" s="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="F196" s="16">
+        <v>0.8</v>
+      </c>
       <c r="H196" s="32"/>
       <c r="I196" s="13"/>
       <c r="J196" s="13"/>
@@ -8058,23 +8077,23 @@
     </row>
     <row r="197" spans="1:13">
       <c r="A197" s="13">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B197" s="13">
         <v>1</v>
       </c>
       <c r="C197" s="13" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D197" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="E197" s="16"/>
+        <v>507</v>
+      </c>
+      <c r="E197" s="16">
+        <v>0.7</v>
+      </c>
       <c r="F197" s="16"/>
       <c r="H197" s="32"/>
-      <c r="I197" s="13" t="s">
-        <v>506</v>
-      </c>
+      <c r="I197" s="13"/>
       <c r="J197" s="13"/>
       <c r="K197" s="13"/>
       <c r="L197" s="13"/>
@@ -8082,96 +8101,96 @@
     </row>
     <row r="198" spans="1:13">
       <c r="A198" s="13">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B198" s="13">
         <v>1</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D198" s="19" t="s">
-        <v>508</v>
-      </c>
-      <c r="E198" s="16">
-        <v>0.6</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="E198" s="16"/>
       <c r="F198" s="16"/>
       <c r="H198" s="32"/>
       <c r="I198" s="13" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J198" s="13"/>
       <c r="K198" s="13"/>
       <c r="L198" s="13"/>
       <c r="M198" s="13"/>
     </row>
-    <row r="199" spans="2:13">
-      <c r="B199" s="13"/>
-      <c r="C199" s="13"/>
-      <c r="D199" s="19"/>
-      <c r="E199" s="16"/>
+    <row r="199" spans="1:13">
+      <c r="A199" s="13">
+        <v>735</v>
+      </c>
+      <c r="B199" s="13">
+        <v>1</v>
+      </c>
+      <c r="C199" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="D199" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="E199" s="16">
+        <v>0.6</v>
+      </c>
       <c r="F199" s="16"/>
       <c r="H199" s="32"/>
-      <c r="I199" s="13"/>
+      <c r="I199" s="13" t="s">
+        <v>513</v>
+      </c>
       <c r="J199" s="13"/>
       <c r="K199" s="13"/>
       <c r="L199" s="13"/>
       <c r="M199" s="13"/>
     </row>
-    <row r="200" s="8" customFormat="1" spans="1:13">
-      <c r="A200" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="B200" s="22"/>
-      <c r="C200" s="22"/>
-      <c r="D200" s="23"/>
-      <c r="E200" s="33"/>
-      <c r="F200" s="33"/>
-      <c r="G200" s="33"/>
-      <c r="H200" s="34"/>
-      <c r="I200" s="22"/>
-      <c r="J200" s="22"/>
-      <c r="K200" s="22"/>
-      <c r="L200" s="22"/>
-      <c r="M200" s="22"/>
-    </row>
-    <row r="201" spans="1:13">
-      <c r="A201" s="13">
-        <v>101</v>
-      </c>
-      <c r="B201" s="13">
-        <v>2</v>
-      </c>
-      <c r="C201" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="D201" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="E201" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="F201" s="16"/>
-      <c r="H201" s="32"/>
-      <c r="I201" s="13"/>
-      <c r="J201" s="13"/>
-      <c r="K201" s="13"/>
-      <c r="L201" s="13"/>
-      <c r="M201" s="13"/>
+    <row r="200" spans="2:13">
+      <c r="B200" s="13"/>
+      <c r="C200" s="13"/>
+      <c r="D200" s="19"/>
+      <c r="E200" s="16"/>
+      <c r="F200" s="16"/>
+      <c r="H200" s="32"/>
+      <c r="I200" s="13"/>
+      <c r="J200" s="13"/>
+      <c r="K200" s="13"/>
+      <c r="L200" s="13"/>
+      <c r="M200" s="13"/>
+    </row>
+    <row r="201" s="8" customFormat="1" spans="1:13">
+      <c r="A201" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="B201" s="22"/>
+      <c r="C201" s="22"/>
+      <c r="D201" s="23"/>
+      <c r="E201" s="33"/>
+      <c r="F201" s="33"/>
+      <c r="G201" s="33"/>
+      <c r="H201" s="34"/>
+      <c r="I201" s="22"/>
+      <c r="J201" s="22"/>
+      <c r="K201" s="22"/>
+      <c r="L201" s="22"/>
+      <c r="M201" s="22"/>
     </row>
     <row r="202" spans="1:13">
       <c r="A202" s="13">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B202" s="13">
         <v>2</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D202" s="19" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E202" s="16">
         <v>0.8</v>
@@ -8186,16 +8205,16 @@
     </row>
     <row r="203" spans="1:13">
       <c r="A203" s="13">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B203" s="13">
         <v>2</v>
       </c>
       <c r="C203" s="13" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D203" s="19" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E203" s="16">
         <v>0.8</v>
@@ -8210,16 +8229,16 @@
     </row>
     <row r="204" spans="1:13">
       <c r="A204" s="13">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B204" s="13">
         <v>2</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D204" s="19" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E204" s="16">
         <v>0.8</v>
@@ -8234,16 +8253,16 @@
     </row>
     <row r="205" spans="1:13">
       <c r="A205" s="13">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B205" s="13">
         <v>2</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D205" s="19" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E205" s="16">
         <v>0.8</v>
@@ -8258,16 +8277,16 @@
     </row>
     <row r="206" spans="1:13">
       <c r="A206" s="13">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B206" s="13">
         <v>2</v>
       </c>
       <c r="C206" s="13" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D206" s="19" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E206" s="16">
         <v>0.8</v>
@@ -8282,23 +8301,21 @@
     </row>
     <row r="207" spans="1:13">
       <c r="A207" s="13">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B207" s="13">
         <v>2</v>
       </c>
       <c r="C207" s="13" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D207" s="19" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E207" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="F207" s="16">
-        <v>0.75</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="F207" s="16"/>
       <c r="H207" s="32"/>
       <c r="I207" s="13"/>
       <c r="J207" s="13"/>
@@ -8308,22 +8325,22 @@
     </row>
     <row r="208" spans="1:13">
       <c r="A208" s="13">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B208" s="13">
         <v>2</v>
       </c>
       <c r="C208" s="13" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D208" s="19" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E208" s="16">
-        <v>0.46</v>
+        <v>0.6</v>
       </c>
       <c r="F208" s="16">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="H208" s="32"/>
       <c r="I208" s="13"/>
@@ -8334,21 +8351,23 @@
     </row>
     <row r="209" spans="1:13">
       <c r="A209" s="13">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B209" s="13">
         <v>2</v>
       </c>
       <c r="C209" s="13" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D209" s="19" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E209" s="16">
-        <v>0.85</v>
-      </c>
-      <c r="F209" s="16"/>
+        <v>0.46</v>
+      </c>
+      <c r="F209" s="16">
+        <v>0.6</v>
+      </c>
       <c r="H209" s="32"/>
       <c r="I209" s="13"/>
       <c r="J209" s="13"/>
@@ -8358,19 +8377,19 @@
     </row>
     <row r="210" spans="1:13">
       <c r="A210" s="13">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B210" s="13">
         <v>2</v>
       </c>
       <c r="C210" s="13" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D210" s="19" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E210" s="16">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="F210" s="16"/>
       <c r="H210" s="32"/>
@@ -8382,27 +8401,23 @@
     </row>
     <row r="211" spans="1:13">
       <c r="A211" s="13">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B211" s="13">
         <v>2</v>
       </c>
       <c r="C211" s="13" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D211" s="19" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E211" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="F211" s="16">
-        <v>0.9</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="F211" s="16"/>
       <c r="H211" s="32"/>
-      <c r="I211" s="13" t="s">
-        <v>533</v>
-      </c>
+      <c r="I211" s="13"/>
       <c r="J211" s="13"/>
       <c r="K211" s="13"/>
       <c r="L211" s="13"/>
@@ -8410,16 +8425,16 @@
     </row>
     <row r="212" spans="1:13">
       <c r="A212" s="13">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B212" s="13">
         <v>2</v>
       </c>
       <c r="C212" s="13" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="D212" s="19" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E212" s="16">
         <v>0.8</v>
@@ -8428,7 +8443,9 @@
         <v>0.9</v>
       </c>
       <c r="H212" s="32"/>
-      <c r="I212" s="13"/>
+      <c r="I212" s="13" t="s">
+        <v>537</v>
+      </c>
       <c r="J212" s="13"/>
       <c r="K212" s="13"/>
       <c r="L212" s="13"/>
@@ -8436,16 +8453,16 @@
     </row>
     <row r="213" spans="1:13">
       <c r="A213" s="13">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B213" s="13">
         <v>2</v>
       </c>
       <c r="C213" s="13" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="D213" s="19" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="E213" s="16">
         <v>0.8</v>
@@ -8460,12 +8477,25 @@
       <c r="L213" s="13"/>
       <c r="M213" s="13"/>
     </row>
-    <row r="214" spans="2:13">
-      <c r="B214" s="13"/>
-      <c r="C214" s="13"/>
-      <c r="D214" s="19"/>
-      <c r="E214" s="16"/>
-      <c r="F214" s="16"/>
+    <row r="214" spans="1:13">
+      <c r="A214" s="13">
+        <v>113</v>
+      </c>
+      <c r="B214" s="13">
+        <v>2</v>
+      </c>
+      <c r="C214" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="D214" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="E214" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="F214" s="16">
+        <v>0.9</v>
+      </c>
       <c r="H214" s="32"/>
       <c r="I214" s="13"/>
       <c r="J214" s="13"/>
@@ -8473,52 +8503,39 @@
       <c r="L214" s="13"/>
       <c r="M214" s="13"/>
     </row>
-    <row r="215" s="12" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A215" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="B215" s="21"/>
-      <c r="C215" s="21"/>
-      <c r="D215" s="45"/>
-      <c r="E215" s="46"/>
-      <c r="F215" s="46"/>
-      <c r="G215" s="46"/>
-      <c r="H215" s="47"/>
-      <c r="I215" s="21"/>
-      <c r="J215" s="21"/>
-      <c r="K215" s="21"/>
-      <c r="L215" s="21"/>
-      <c r="M215" s="21"/>
-    </row>
-    <row r="216" spans="1:13">
-      <c r="A216" s="13">
+    <row r="215" spans="2:13">
+      <c r="B215" s="13"/>
+      <c r="C215" s="13"/>
+      <c r="D215" s="19"/>
+      <c r="E215" s="16"/>
+      <c r="F215" s="16"/>
+      <c r="H215" s="32"/>
+      <c r="I215" s="13"/>
+      <c r="J215" s="13"/>
+      <c r="K215" s="13"/>
+      <c r="L215" s="13"/>
+      <c r="M215" s="13"/>
+    </row>
+    <row r="216" s="12" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A216" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="B216" s="21"/>
+      <c r="C216" s="21"/>
+      <c r="D216" s="45"/>
+      <c r="E216" s="46"/>
+      <c r="F216" s="46"/>
+      <c r="G216" s="46"/>
+      <c r="H216" s="47"/>
+      <c r="I216" s="21"/>
+      <c r="J216" s="21"/>
+      <c r="K216" s="21"/>
+      <c r="L216" s="21"/>
+      <c r="M216" s="21"/>
+    </row>
+    <row r="217" spans="1:13">
+      <c r="A217" s="13">
         <v>201</v>
-      </c>
-      <c r="B216" s="13">
-        <v>2</v>
-      </c>
-      <c r="C216" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="D216" s="19" t="s">
-        <v>537</v>
-      </c>
-      <c r="E216" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="F216" s="16"/>
-      <c r="H216" s="32"/>
-      <c r="I216" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="J216" s="13"/>
-      <c r="K216" s="13"/>
-      <c r="L216" s="13"/>
-      <c r="M216" s="13"/>
-    </row>
-    <row r="217" spans="1:13">
-      <c r="A217" s="13" t="s">
-        <v>539</v>
       </c>
       <c r="B217" s="13">
         <v>2</v>
@@ -8530,11 +8547,9 @@
         <v>541</v>
       </c>
       <c r="E217" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="F217" s="16">
-        <v>0.8</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="F217" s="16"/>
       <c r="H217" s="32"/>
       <c r="I217" s="13" t="s">
         <v>542</v>
@@ -8555,76 +8570,78 @@
         <v>544</v>
       </c>
       <c r="D218" s="19" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E218" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="F218" s="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="F218" s="16">
+        <v>0.8</v>
+      </c>
       <c r="H218" s="32"/>
       <c r="I218" s="13" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="J218" s="13"/>
       <c r="K218" s="13"/>
       <c r="L218" s="13"/>
       <c r="M218" s="13"/>
     </row>
-    <row r="219" s="8" customFormat="1" spans="1:13">
-      <c r="A219" s="22" t="s">
+    <row r="219" spans="1:13">
+      <c r="A219" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="B219" s="13">
+        <v>2</v>
+      </c>
+      <c r="C219" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="D219" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="E219" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="F219" s="16"/>
+      <c r="H219" s="32"/>
+      <c r="I219" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="J219" s="13"/>
+      <c r="K219" s="13"/>
+      <c r="L219" s="13"/>
+      <c r="M219" s="13"/>
+    </row>
+    <row r="220" s="8" customFormat="1" spans="1:13">
+      <c r="A220" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B219" s="22"/>
-      <c r="C219" s="22"/>
-      <c r="D219" s="23"/>
-      <c r="E219" s="33"/>
-      <c r="F219" s="33"/>
-      <c r="G219" s="33"/>
-      <c r="H219" s="34"/>
-      <c r="I219" s="22"/>
-      <c r="J219" s="22"/>
-      <c r="K219" s="22"/>
-      <c r="L219" s="22"/>
-      <c r="M219" s="22"/>
-    </row>
-    <row r="220" spans="1:13">
-      <c r="A220" s="13">
-        <v>301</v>
-      </c>
-      <c r="B220" s="13">
-        <v>2</v>
-      </c>
-      <c r="C220" s="13" t="s">
-        <v>546</v>
-      </c>
-      <c r="D220" s="19" t="s">
-        <v>547</v>
-      </c>
-      <c r="E220" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="F220" s="16"/>
-      <c r="H220" s="32"/>
-      <c r="I220" s="13" t="s">
-        <v>548</v>
-      </c>
-      <c r="J220" s="13"/>
-      <c r="K220" s="13"/>
-      <c r="L220" s="13"/>
-      <c r="M220" s="13"/>
+      <c r="B220" s="22"/>
+      <c r="C220" s="22"/>
+      <c r="D220" s="23"/>
+      <c r="E220" s="33"/>
+      <c r="F220" s="33"/>
+      <c r="G220" s="33"/>
+      <c r="H220" s="34"/>
+      <c r="I220" s="22"/>
+      <c r="J220" s="22"/>
+      <c r="K220" s="22"/>
+      <c r="L220" s="22"/>
+      <c r="M220" s="22"/>
     </row>
     <row r="221" spans="1:13">
       <c r="A221" s="13">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B221" s="13">
         <v>2</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D221" s="19" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E221" s="16">
         <v>0.6</v>
@@ -8632,18 +8649,16 @@
       <c r="F221" s="16"/>
       <c r="H221" s="32"/>
       <c r="I221" s="13" t="s">
-        <v>551</v>
-      </c>
-      <c r="J221" s="13" t="s">
         <v>552</v>
       </c>
+      <c r="J221" s="13"/>
       <c r="K221" s="13"/>
       <c r="L221" s="13"/>
       <c r="M221" s="13"/>
     </row>
     <row r="222" spans="1:13">
       <c r="A222" s="13">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B222" s="13">
         <v>2</v>
@@ -8655,11 +8670,9 @@
         <v>554</v>
       </c>
       <c r="E222" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="F222" s="16">
-        <v>0.7</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="F222" s="16"/>
       <c r="H222" s="32"/>
       <c r="I222" s="13" t="s">
         <v>555</v>
@@ -8671,48 +8684,52 @@
       <c r="L222" s="13"/>
       <c r="M222" s="13"/>
     </row>
-    <row r="223" s="8" customFormat="1" spans="1:13">
-      <c r="A223" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="B223" s="22"/>
-      <c r="C223" s="22"/>
-      <c r="D223" s="23"/>
-      <c r="E223" s="33"/>
-      <c r="F223" s="33"/>
-      <c r="G223" s="33"/>
-      <c r="H223" s="34"/>
-      <c r="I223" s="22"/>
-      <c r="J223" s="22"/>
-      <c r="K223" s="22"/>
-      <c r="L223" s="22"/>
-      <c r="M223" s="22"/>
-    </row>
-    <row r="224" spans="1:13">
-      <c r="A224" s="13" t="s">
+    <row r="223" spans="1:13">
+      <c r="A223" s="13">
+        <v>303</v>
+      </c>
+      <c r="B223" s="13">
+        <v>2</v>
+      </c>
+      <c r="C223" s="13" t="s">
         <v>557</v>
       </c>
-      <c r="B224" s="13">
-        <v>2</v>
-      </c>
-      <c r="C224" s="13" t="s">
+      <c r="D223" s="19" t="s">
         <v>558</v>
       </c>
-      <c r="D224" s="19" t="s">
+      <c r="E223" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="F223" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="H223" s="32"/>
+      <c r="I223" s="13" t="s">
         <v>559</v>
       </c>
-      <c r="E224" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="F224" s="16"/>
-      <c r="H224" s="32"/>
-      <c r="I224" s="13" t="s">
+      <c r="J223" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="J224" s="13"/>
-      <c r="K224" s="13"/>
-      <c r="L224" s="13"/>
-      <c r="M224" s="13"/>
+      <c r="K223" s="13"/>
+      <c r="L223" s="13"/>
+      <c r="M223" s="13"/>
+    </row>
+    <row r="224" s="8" customFormat="1" spans="1:13">
+      <c r="A224" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="B224" s="22"/>
+      <c r="C224" s="22"/>
+      <c r="D224" s="23"/>
+      <c r="E224" s="33"/>
+      <c r="F224" s="33"/>
+      <c r="G224" s="33"/>
+      <c r="H224" s="34"/>
+      <c r="I224" s="22"/>
+      <c r="J224" s="22"/>
+      <c r="K224" s="22"/>
+      <c r="L224" s="22"/>
+      <c r="M224" s="22"/>
     </row>
     <row r="225" spans="1:13">
       <c r="A225" s="13" t="s">
@@ -8724,87 +8741,85 @@
       <c r="C225" s="13" t="s">
         <v>562</v>
       </c>
-      <c r="D225" s="19"/>
+      <c r="D225" s="19" t="s">
+        <v>563</v>
+      </c>
       <c r="E225" s="16">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F225" s="16"/>
       <c r="H225" s="32"/>
       <c r="I225" s="13" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="J225" s="13"/>
       <c r="K225" s="13"/>
       <c r="L225" s="13"/>
       <c r="M225" s="13"/>
     </row>
-    <row r="226" s="8" customFormat="1" spans="1:13">
-      <c r="A226" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="B226" s="22"/>
-      <c r="C226" s="22"/>
-      <c r="D226" s="23"/>
-      <c r="E226" s="33"/>
-      <c r="F226" s="33"/>
-      <c r="G226" s="33"/>
-      <c r="H226" s="34"/>
-      <c r="I226" s="22"/>
-      <c r="J226" s="22"/>
-      <c r="K226" s="22"/>
-      <c r="L226" s="22"/>
-      <c r="M226" s="22"/>
-    </row>
-    <row r="227" spans="1:13">
-      <c r="A227" s="13">
-        <v>501</v>
-      </c>
-      <c r="B227" s="13">
+    <row r="226" spans="1:13">
+      <c r="A226" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="B226" s="13">
         <v>2</v>
       </c>
-      <c r="C227" s="13" t="s">
-        <v>564</v>
-      </c>
-      <c r="D227" s="19" t="s">
-        <v>565</v>
-      </c>
-      <c r="E227" s="16">
+      <c r="C226" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="D226" s="19"/>
+      <c r="E226" s="16">
         <v>0.4</v>
       </c>
-      <c r="F227" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="H227" s="32"/>
-      <c r="I227" s="13" t="s">
-        <v>566</v>
-      </c>
-      <c r="J227" s="13"/>
-      <c r="K227" s="13"/>
-      <c r="L227" s="13"/>
-      <c r="M227" s="13"/>
+      <c r="F226" s="16"/>
+      <c r="H226" s="32"/>
+      <c r="I226" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="J226" s="13"/>
+      <c r="K226" s="13"/>
+      <c r="L226" s="13"/>
+      <c r="M226" s="13"/>
+    </row>
+    <row r="227" s="8" customFormat="1" spans="1:13">
+      <c r="A227" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B227" s="22"/>
+      <c r="C227" s="22"/>
+      <c r="D227" s="23"/>
+      <c r="E227" s="33"/>
+      <c r="F227" s="33"/>
+      <c r="G227" s="33"/>
+      <c r="H227" s="34"/>
+      <c r="I227" s="22"/>
+      <c r="J227" s="22"/>
+      <c r="K227" s="22"/>
+      <c r="L227" s="22"/>
+      <c r="M227" s="22"/>
     </row>
     <row r="228" spans="1:13">
       <c r="A228" s="13">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B228" s="13">
         <v>2</v>
       </c>
       <c r="C228" s="13" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D228" s="19" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E228" s="16">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F228" s="16">
         <v>0.8</v>
       </c>
       <c r="H228" s="32"/>
       <c r="I228" s="13" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="J228" s="13"/>
       <c r="K228" s="13"/>
@@ -8813,24 +8828,26 @@
     </row>
     <row r="229" spans="1:13">
       <c r="A229" s="13">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B229" s="13">
         <v>2</v>
       </c>
       <c r="C229" s="13" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D229" s="19" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E229" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="F229" s="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="F229" s="16">
+        <v>0.8</v>
+      </c>
       <c r="H229" s="32"/>
       <c r="I229" s="13" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="J229" s="13"/>
       <c r="K229" s="13"/>
@@ -8838,27 +8855,25 @@
       <c r="M229" s="13"/>
     </row>
     <row r="230" spans="1:13">
-      <c r="A230" s="13" t="s">
-        <v>184</v>
+      <c r="A230" s="13">
+        <v>503</v>
       </c>
       <c r="B230" s="13">
         <v>2</v>
       </c>
       <c r="C230" s="13" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D230" s="19" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E230" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="F230" s="16">
-        <v>0.8</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="F230" s="16"/>
       <c r="H230" s="32"/>
       <c r="I230" s="13" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="J230" s="13"/>
       <c r="K230" s="13"/>
@@ -8866,135 +8881,143 @@
       <c r="M230" s="13"/>
     </row>
     <row r="231" spans="1:13">
-      <c r="A231" s="13">
-        <v>505</v>
+      <c r="A231" s="13" t="s">
+        <v>188</v>
       </c>
       <c r="B231" s="13">
         <v>2</v>
       </c>
-      <c r="C231" s="13"/>
-      <c r="D231" s="19"/>
-      <c r="E231" s="16"/>
-      <c r="F231" s="16"/>
+      <c r="C231" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="D231" s="19" t="s">
+        <v>578</v>
+      </c>
+      <c r="E231" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="F231" s="16">
+        <v>0.8</v>
+      </c>
       <c r="H231" s="32"/>
-      <c r="I231" s="13"/>
+      <c r="I231" s="13" t="s">
+        <v>579</v>
+      </c>
       <c r="J231" s="13"/>
       <c r="K231" s="13"/>
       <c r="L231" s="13"/>
       <c r="M231" s="13"/>
     </row>
-    <row r="232" s="8" customFormat="1" spans="1:13">
-      <c r="A232" s="22" t="s">
-        <v>576</v>
-      </c>
-      <c r="B232" s="22"/>
-      <c r="C232" s="22"/>
-      <c r="D232" s="23"/>
-      <c r="E232" s="33"/>
-      <c r="F232" s="33"/>
-      <c r="G232" s="33"/>
-      <c r="H232" s="34"/>
-      <c r="I232" s="22"/>
-      <c r="J232" s="22"/>
-      <c r="K232" s="22"/>
-      <c r="L232" s="22"/>
-      <c r="M232" s="22"/>
-    </row>
-    <row r="233" spans="1:13">
-      <c r="A233" s="13">
+    <row r="232" spans="1:13">
+      <c r="A232" s="13">
+        <v>505</v>
+      </c>
+      <c r="B232" s="13">
+        <v>2</v>
+      </c>
+      <c r="C232" s="13"/>
+      <c r="D232" s="19"/>
+      <c r="E232" s="16"/>
+      <c r="F232" s="16"/>
+      <c r="H232" s="32"/>
+      <c r="I232" s="13"/>
+      <c r="J232" s="13"/>
+      <c r="K232" s="13"/>
+      <c r="L232" s="13"/>
+      <c r="M232" s="13"/>
+    </row>
+    <row r="233" s="8" customFormat="1" spans="1:13">
+      <c r="A233" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="B233" s="22"/>
+      <c r="C233" s="22"/>
+      <c r="D233" s="23"/>
+      <c r="E233" s="33"/>
+      <c r="F233" s="33"/>
+      <c r="G233" s="33"/>
+      <c r="H233" s="34"/>
+      <c r="I233" s="22"/>
+      <c r="J233" s="22"/>
+      <c r="K233" s="22"/>
+      <c r="L233" s="22"/>
+      <c r="M233" s="22"/>
+    </row>
+    <row r="234" spans="1:13">
+      <c r="A234" s="13">
         <v>601</v>
       </c>
-      <c r="B233" s="13">
+      <c r="B234" s="13">
         <v>2</v>
       </c>
-      <c r="C233" s="13" t="s">
-        <v>577</v>
-      </c>
-      <c r="D233" s="19" t="s">
-        <v>578</v>
-      </c>
-      <c r="E233" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="F233" s="16">
+      <c r="C234" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="D234" s="19" t="s">
+        <v>582</v>
+      </c>
+      <c r="E234" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="F234" s="16">
         <v>0.9</v>
       </c>
-      <c r="H233" s="32"/>
-      <c r="I233" s="13" t="s">
-        <v>579</v>
-      </c>
-      <c r="J233" s="13"/>
-      <c r="K233" s="13"/>
-      <c r="L233" s="13"/>
-      <c r="M233" s="13"/>
-    </row>
-    <row r="234" spans="2:13">
-      <c r="B234" s="13"/>
-      <c r="C234" s="13"/>
-      <c r="D234" s="19"/>
-      <c r="E234" s="16"/>
-      <c r="F234" s="16"/>
       <c r="H234" s="32"/>
-      <c r="I234" s="13"/>
+      <c r="I234" s="13" t="s">
+        <v>583</v>
+      </c>
       <c r="J234" s="13"/>
       <c r="K234" s="13"/>
       <c r="L234" s="13"/>
       <c r="M234" s="13"/>
     </row>
-    <row r="235" s="8" customFormat="1" spans="1:13">
-      <c r="A235" s="22" t="s">
-        <v>580</v>
-      </c>
-      <c r="B235" s="22"/>
-      <c r="C235" s="22"/>
-      <c r="D235" s="23"/>
-      <c r="E235" s="33"/>
-      <c r="F235" s="33"/>
-      <c r="G235" s="33"/>
-      <c r="H235" s="34"/>
-      <c r="I235" s="22"/>
-      <c r="J235" s="22"/>
-      <c r="K235" s="22"/>
-      <c r="L235" s="22"/>
-      <c r="M235" s="22"/>
-    </row>
-    <row r="236" spans="1:13">
-      <c r="A236" s="13">
-        <v>1</v>
-      </c>
-      <c r="B236" s="13">
-        <v>3</v>
-      </c>
-      <c r="C236" s="13" t="s">
-        <v>581</v>
-      </c>
-      <c r="D236" s="19"/>
-      <c r="E236" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="F236" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="H236" s="32"/>
-      <c r="I236" s="13"/>
-      <c r="J236" s="13"/>
-      <c r="K236" s="13"/>
-      <c r="L236" s="13"/>
-      <c r="M236" s="13"/>
+    <row r="235" spans="2:13">
+      <c r="B235" s="13"/>
+      <c r="C235" s="13"/>
+      <c r="D235" s="19"/>
+      <c r="E235" s="16"/>
+      <c r="F235" s="16"/>
+      <c r="H235" s="32"/>
+      <c r="I235" s="13"/>
+      <c r="J235" s="13"/>
+      <c r="K235" s="13"/>
+      <c r="L235" s="13"/>
+      <c r="M235" s="13"/>
+    </row>
+    <row r="236" s="8" customFormat="1" spans="1:13">
+      <c r="A236" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="B236" s="22"/>
+      <c r="C236" s="22"/>
+      <c r="D236" s="23"/>
+      <c r="E236" s="33"/>
+      <c r="F236" s="33"/>
+      <c r="G236" s="33"/>
+      <c r="H236" s="34"/>
+      <c r="I236" s="22"/>
+      <c r="J236" s="22"/>
+      <c r="K236" s="22"/>
+      <c r="L236" s="22"/>
+      <c r="M236" s="22"/>
     </row>
     <row r="237" spans="1:13">
       <c r="A237" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B237" s="13">
         <v>3</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="D237" s="19"/>
-      <c r="E237" s="16"/>
-      <c r="F237" s="16"/>
+      <c r="E237" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="F237" s="16">
+        <v>0.8</v>
+      </c>
       <c r="H237" s="32"/>
       <c r="I237" s="13"/>
       <c r="J237" s="13"/>
@@ -9004,23 +9027,17 @@
     </row>
     <row r="238" spans="1:13">
       <c r="A238" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B238" s="13">
         <v>3</v>
       </c>
       <c r="C238" s="13" t="s">
-        <v>583</v>
-      </c>
-      <c r="D238" s="19" t="s">
-        <v>584</v>
-      </c>
-      <c r="E238" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="F238" s="16">
-        <v>1.3</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="D238" s="19"/>
+      <c r="E238" s="16"/>
+      <c r="F238" s="16"/>
       <c r="H238" s="32"/>
       <c r="I238" s="13"/>
       <c r="J238" s="13"/>
@@ -9030,17 +9047,23 @@
     </row>
     <row r="239" spans="1:13">
       <c r="A239" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B239" s="13">
         <v>3</v>
       </c>
       <c r="C239" s="13" t="s">
-        <v>585</v>
-      </c>
-      <c r="D239" s="19"/>
-      <c r="E239" s="16"/>
-      <c r="F239" s="16"/>
+        <v>587</v>
+      </c>
+      <c r="D239" s="19" t="s">
+        <v>588</v>
+      </c>
+      <c r="E239" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="F239" s="16">
+        <v>1.3</v>
+      </c>
       <c r="H239" s="32"/>
       <c r="I239" s="13"/>
       <c r="J239" s="13"/>
@@ -9050,13 +9073,13 @@
     </row>
     <row r="240" spans="1:13">
       <c r="A240" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B240" s="13">
         <v>3</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="D240" s="19"/>
       <c r="E240" s="16"/>
@@ -9070,13 +9093,13 @@
     </row>
     <row r="241" spans="1:13">
       <c r="A241" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B241" s="13">
         <v>3</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="D241" s="19"/>
       <c r="E241" s="16"/>
@@ -9090,13 +9113,13 @@
     </row>
     <row r="242" spans="1:13">
       <c r="A242" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B242" s="13">
         <v>3</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D242" s="19"/>
       <c r="E242" s="16"/>
@@ -9108,9 +9131,16 @@
       <c r="L242" s="13"/>
       <c r="M242" s="13"/>
     </row>
-    <row r="243" spans="2:13">
-      <c r="B243" s="13"/>
-      <c r="C243" s="13"/>
+    <row r="243" spans="1:13">
+      <c r="A243" s="13">
+        <v>7</v>
+      </c>
+      <c r="B243" s="13">
+        <v>3</v>
+      </c>
+      <c r="C243" s="13" t="s">
+        <v>592</v>
+      </c>
       <c r="D243" s="19"/>
       <c r="E243" s="16"/>
       <c r="F243" s="16"/>
@@ -9121,9 +9151,22 @@
       <c r="L243" s="13"/>
       <c r="M243" s="13"/>
     </row>
+    <row r="244" spans="2:13">
+      <c r="B244" s="13"/>
+      <c r="C244" s="13"/>
+      <c r="D244" s="19"/>
+      <c r="E244" s="16"/>
+      <c r="F244" s="16"/>
+      <c r="H244" s="32"/>
+      <c r="I244" s="13"/>
+      <c r="J244" s="13"/>
+      <c r="K244" s="13"/>
+      <c r="L244" s="13"/>
+      <c r="M244" s="13"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J62" r:id="rId1" display="133226@146626"/>
+    <hyperlink ref="J63" r:id="rId1" display="133226@146626"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -9229,29 +9272,29 @@
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:17">
       <c r="A2" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="3" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
@@ -9260,7 +9303,7 @@
     </row>
     <row r="3" ht="26" customHeight="1" spans="2:17">
       <c r="B3" s="2" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -9268,7 +9311,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="6" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -9281,7 +9324,7 @@
     </row>
     <row r="4" ht="28" customHeight="1" spans="5:12">
       <c r="E4" s="4" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>

--- a/dist/modelsConfig.xlsx
+++ b/dist/modelsConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25820" windowHeight="12360"/>
+    <workbookView windowWidth="28000" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="611">
   <si>
     <t>类型 1=lora 2=lyco 3=embedding</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>eles2gg</t>
+  </si>
+  <si>
+    <t>elegant_back_tie_s1-ep7</t>
   </si>
   <si>
     <t>hwbatihh</t>
@@ -1858,14 +1861,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="181" formatCode="#\ ?/?"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1898,15 +1901,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1919,23 +1916,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1951,7 +1973,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1965,9 +2002,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1980,55 +2023,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2115,43 +2118,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2169,7 +2142,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2181,7 +2160,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2193,7 +2208,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2205,73 +2262,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2282,6 +2285,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2317,6 +2368,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2325,210 +2385,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2581,13 +2584,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="181" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2638,37 +2641,37 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2680,69 +2683,69 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3016,7 +3019,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -4347,9 +4350,11 @@
       <c r="B46" s="30">
         <v>1</v>
       </c>
-      <c r="C46" s="30"/>
+      <c r="C46" s="30" t="s">
+        <v>128</v>
+      </c>
       <c r="D46" s="33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E46" s="44">
         <v>0.4</v>
@@ -4360,7 +4365,7 @@
       <c r="G46" s="44"/>
       <c r="H46" s="45"/>
       <c r="I46" s="47" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J46" s="30"/>
       <c r="K46" s="30"/>
@@ -4369,16 +4374,16 @@
     </row>
     <row r="47" s="12" customFormat="1" ht="51" spans="1:13">
       <c r="A47" s="30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B47" s="30">
         <v>1</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E47" s="44">
         <v>0.3</v>
@@ -4389,7 +4394,7 @@
       <c r="G47" s="44"/>
       <c r="H47" s="45"/>
       <c r="I47" s="47" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J47" s="30"/>
       <c r="K47" s="30"/>
@@ -4398,16 +4403,16 @@
     </row>
     <row r="48" s="12" customFormat="1" ht="34" spans="1:13">
       <c r="A48" s="30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B48" s="30">
         <v>1</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E48" s="44">
         <v>0.3</v>
@@ -4418,7 +4423,7 @@
       <c r="G48" s="44"/>
       <c r="H48" s="45"/>
       <c r="I48" s="47" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J48" s="30"/>
       <c r="K48" s="30"/>
@@ -4427,16 +4432,16 @@
     </row>
     <row r="49" s="12" customFormat="1" ht="34" spans="1:13">
       <c r="A49" s="30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B49" s="30">
         <v>1</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E49" s="44">
         <v>0.3</v>
@@ -4447,7 +4452,7 @@
       <c r="G49" s="44"/>
       <c r="H49" s="45"/>
       <c r="I49" s="47" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J49" s="30"/>
       <c r="K49" s="30"/>
@@ -4456,7 +4461,7 @@
     </row>
     <row r="50" s="9" customFormat="1" ht="28.8" spans="1:13">
       <c r="A50" s="24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
@@ -4479,16 +4484,16 @@
         <v>1</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
       <c r="H51" s="35"/>
       <c r="I51" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J51" s="14"/>
       <c r="K51" s="14"/>
@@ -4503,10 +4508,10 @@
         <v>1</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E52" s="17">
         <v>0.6</v>
@@ -4514,7 +4519,7 @@
       <c r="F52" s="17"/>
       <c r="H52" s="35"/>
       <c r="I52" s="14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J52" s="14"/>
       <c r="K52" s="14"/>
@@ -4529,10 +4534,10 @@
         <v>1</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E53" s="17">
         <v>0.6</v>
@@ -4542,7 +4547,7 @@
       </c>
       <c r="H53" s="35"/>
       <c r="I53" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J53" s="14"/>
       <c r="K53" s="14"/>
@@ -4557,10 +4562,10 @@
         <v>1</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E54" s="17">
         <v>0.6</v>
@@ -4568,7 +4573,7 @@
       <c r="F54" s="17"/>
       <c r="H54" s="35"/>
       <c r="I54" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J54" s="14"/>
       <c r="K54" s="14"/>
@@ -4583,10 +4588,10 @@
         <v>1</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E55" s="17">
         <v>0.4</v>
@@ -4599,7 +4604,7 @@
       </c>
       <c r="H55" s="35"/>
       <c r="I55" s="14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J55" s="14"/>
       <c r="K55" s="14"/>
@@ -4614,10 +4619,10 @@
         <v>1</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E56" s="17">
         <v>0.7</v>
@@ -4627,7 +4632,7 @@
       </c>
       <c r="H56" s="35"/>
       <c r="I56" s="14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J56" s="14"/>
       <c r="K56" s="14"/>
@@ -4642,10 +4647,10 @@
         <v>1</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E57" s="36">
         <v>0.4</v>
@@ -4656,7 +4661,7 @@
       <c r="G57" s="36"/>
       <c r="H57" s="37"/>
       <c r="I57" s="21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
@@ -4671,10 +4676,10 @@
         <v>1</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E58" s="17">
         <v>0.7</v>
@@ -4682,7 +4687,7 @@
       <c r="F58" s="17"/>
       <c r="H58" s="35"/>
       <c r="I58" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J58" s="14"/>
       <c r="K58" s="14"/>
@@ -4697,10 +4702,10 @@
         <v>1</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E59" s="17">
         <v>0.6</v>
@@ -4710,7 +4715,7 @@
       </c>
       <c r="H59" s="35"/>
       <c r="I59" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J59" s="14"/>
       <c r="K59" s="14"/>
@@ -4725,10 +4730,10 @@
         <v>1</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E60" s="17">
         <v>0.6</v>
@@ -4738,7 +4743,7 @@
       </c>
       <c r="H60" s="35"/>
       <c r="I60" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J60" s="14"/>
       <c r="K60" s="14"/>
@@ -4753,16 +4758,16 @@
         <v>1</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E61" s="17"/>
       <c r="F61" s="17"/>
       <c r="H61" s="35"/>
       <c r="I61" s="14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J61" s="14"/>
       <c r="K61" s="14"/>
@@ -4777,10 +4782,10 @@
         <v>1</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E62" s="17">
         <v>0.6</v>
@@ -4790,7 +4795,7 @@
       </c>
       <c r="H62" s="35"/>
       <c r="I62" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J62" s="14"/>
       <c r="K62" s="14"/>
@@ -4805,10 +4810,10 @@
         <v>1</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E63" s="17">
         <v>0.8</v>
@@ -4816,7 +4821,7 @@
       <c r="F63" s="17"/>
       <c r="H63" s="35"/>
       <c r="I63" s="14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J63" s="14"/>
       <c r="K63" s="14"/>
@@ -4831,10 +4836,10 @@
         <v>1</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E64" s="17">
         <v>0.35</v>
@@ -4844,7 +4849,7 @@
       </c>
       <c r="H64" s="35"/>
       <c r="I64" s="14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J64" s="14"/>
       <c r="K64" s="14"/>
@@ -4853,16 +4858,16 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B65" s="14">
         <v>1</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E65" s="17">
         <v>0.6</v>
@@ -4870,7 +4875,7 @@
       <c r="F65" s="17"/>
       <c r="H65" s="35"/>
       <c r="I65" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
@@ -4885,10 +4890,10 @@
         <v>1</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E66" s="42">
         <v>0.7</v>
@@ -4899,10 +4904,10 @@
       <c r="G66" s="42"/>
       <c r="H66" s="35"/>
       <c r="I66" s="31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J66" s="49" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K66" s="31"/>
       <c r="L66" s="31"/>
@@ -4910,7 +4915,7 @@
     </row>
     <row r="67" s="9" customFormat="1" ht="28.8" spans="1:13">
       <c r="A67" s="24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
@@ -4927,16 +4932,16 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B68" s="14">
         <v>1</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E68" s="17">
         <v>0.4</v>
@@ -4946,7 +4951,7 @@
       </c>
       <c r="H68" s="35"/>
       <c r="I68" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J68" s="14"/>
       <c r="K68" s="14"/>
@@ -4981,16 +4986,16 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B71" s="14">
         <v>1</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E71" s="17">
         <v>0.7</v>
@@ -4998,7 +5003,7 @@
       <c r="F71" s="17"/>
       <c r="H71" s="35"/>
       <c r="I71" s="14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J71" s="14"/>
       <c r="K71" s="14"/>
@@ -5007,16 +5012,16 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B72" s="14">
         <v>1</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E72" s="17">
         <v>0.8</v>
@@ -5024,7 +5029,7 @@
       <c r="F72" s="17"/>
       <c r="H72" s="35"/>
       <c r="I72" s="14" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J72" s="14"/>
       <c r="K72" s="14"/>
@@ -5039,10 +5044,10 @@
         <v>1</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E73" s="17">
         <v>0.6</v>
@@ -5050,7 +5055,7 @@
       <c r="F73" s="17"/>
       <c r="H73" s="35"/>
       <c r="I73" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J73" s="14"/>
       <c r="K73" s="14"/>
@@ -5059,16 +5064,16 @@
     </row>
     <row r="74" s="8" customFormat="1" spans="1:13">
       <c r="A74" s="21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B74" s="21">
         <v>1</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E74" s="36">
         <v>0.6</v>
@@ -5079,7 +5084,7 @@
       <c r="G74" s="36"/>
       <c r="H74" s="37"/>
       <c r="I74" s="21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J74" s="21"/>
       <c r="K74" s="21"/>
@@ -5088,16 +5093,16 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B75" s="14">
         <v>1</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E75" s="17">
         <v>0.8</v>
@@ -5105,7 +5110,7 @@
       <c r="F75" s="17"/>
       <c r="H75" s="35"/>
       <c r="I75" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J75" s="14"/>
       <c r="K75" s="14"/>
@@ -5114,16 +5119,16 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B76" s="14">
         <v>1</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E76" s="17">
         <v>0.6</v>
@@ -5131,7 +5136,7 @@
       <c r="F76" s="17"/>
       <c r="H76" s="35"/>
       <c r="I76" s="14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J76" s="14"/>
       <c r="K76" s="14"/>
@@ -5174,10 +5179,10 @@
         <v>1</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E79" s="17">
         <v>0.6</v>
@@ -5187,7 +5192,7 @@
       </c>
       <c r="H79" s="35"/>
       <c r="I79" s="14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J79" s="14"/>
       <c r="K79" s="14"/>
@@ -5202,10 +5207,10 @@
         <v>1</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E80" s="17">
         <v>0.6</v>
@@ -5215,7 +5220,7 @@
       </c>
       <c r="H80" s="35"/>
       <c r="I80" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J80" s="14"/>
       <c r="K80" s="14"/>
@@ -5230,7 +5235,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D81" s="20"/>
       <c r="E81" s="17">
@@ -5254,7 +5259,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D82" s="22"/>
       <c r="E82" s="36">
@@ -5266,7 +5271,7 @@
       <c r="G82" s="36"/>
       <c r="H82" s="37"/>
       <c r="I82" s="21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J82" s="21"/>
       <c r="K82" s="21"/>
@@ -5275,7 +5280,7 @@
     </row>
     <row r="83" s="9" customFormat="1" ht="23.2" spans="1:13">
       <c r="A83" s="48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
@@ -5298,10 +5303,10 @@
         <v>1</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E84" s="17">
         <v>0.6</v>
@@ -5311,7 +5316,7 @@
       </c>
       <c r="H84" s="35"/>
       <c r="I84" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J84" s="14"/>
       <c r="K84" s="14"/>
@@ -5320,16 +5325,16 @@
     </row>
     <row r="85" s="8" customFormat="1" spans="1:13">
       <c r="A85" s="21" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B85" s="21">
         <v>1</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E85" s="36">
         <v>0.3</v>
@@ -5340,7 +5345,7 @@
       <c r="G85" s="36"/>
       <c r="H85" s="37"/>
       <c r="I85" s="21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J85" s="21"/>
       <c r="K85" s="21"/>
@@ -5349,16 +5354,16 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B86" s="14">
         <v>1</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E86" s="17">
         <v>0.4</v>
@@ -5368,7 +5373,7 @@
       </c>
       <c r="H86" s="35"/>
       <c r="I86" s="14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J86" s="14"/>
       <c r="K86" s="14"/>
@@ -5377,16 +5382,16 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B87" s="14">
         <v>1</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E87" s="17">
         <v>0.4</v>
@@ -5396,7 +5401,7 @@
       </c>
       <c r="H87" s="35"/>
       <c r="I87" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J87" s="14"/>
       <c r="K87" s="14"/>
@@ -5411,10 +5416,10 @@
         <v>1</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E88" s="17">
         <v>0.7</v>
@@ -5424,7 +5429,7 @@
       </c>
       <c r="H88" s="35"/>
       <c r="I88" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J88" s="14"/>
       <c r="K88" s="14"/>
@@ -5439,10 +5444,10 @@
         <v>1</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E89" s="17">
         <v>0.6</v>
@@ -5452,7 +5457,7 @@
       </c>
       <c r="H89" s="35"/>
       <c r="I89" s="14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J89" s="14"/>
       <c r="K89" s="14"/>
@@ -5461,7 +5466,7 @@
     </row>
     <row r="90" s="9" customFormat="1" ht="28.8" spans="1:13">
       <c r="A90" s="24" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B90" s="25"/>
       <c r="C90" s="25"/>
@@ -5484,10 +5489,10 @@
         <v>1</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E91" s="17">
         <v>0.4</v>
@@ -5510,10 +5515,10 @@
         <v>1</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E92" s="17">
         <v>0.8</v>
@@ -5521,7 +5526,7 @@
       <c r="F92" s="17"/>
       <c r="H92" s="35"/>
       <c r="I92" s="14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J92" s="14"/>
       <c r="K92" s="14"/>
@@ -5530,16 +5535,16 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B93" s="14">
         <v>1</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E93" s="17">
         <v>0.6</v>
@@ -5549,7 +5554,7 @@
       </c>
       <c r="H93" s="35"/>
       <c r="I93" s="14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J93" s="14"/>
       <c r="K93" s="14"/>
@@ -5558,16 +5563,16 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B94" s="14">
         <v>1</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E94" s="17">
         <v>0.6</v>
@@ -5577,7 +5582,7 @@
       </c>
       <c r="H94" s="35"/>
       <c r="I94" s="14" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J94" s="14"/>
       <c r="K94" s="14"/>
@@ -5592,10 +5597,10 @@
         <v>1</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E95" s="17">
         <v>0.6</v>
@@ -5605,7 +5610,7 @@
       </c>
       <c r="H95" s="35"/>
       <c r="I95" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J95" s="14"/>
       <c r="K95" s="14"/>
@@ -5620,10 +5625,10 @@
         <v>1</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E96" s="17">
         <v>0.6</v>
@@ -5633,7 +5638,7 @@
       </c>
       <c r="H96" s="35"/>
       <c r="I96" s="14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J96" s="14"/>
       <c r="K96" s="14"/>
@@ -5648,10 +5653,10 @@
         <v>1</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E97" s="17">
         <v>0.7</v>
@@ -5661,7 +5666,7 @@
       </c>
       <c r="H97" s="35"/>
       <c r="I97" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J97" s="14"/>
       <c r="K97" s="14"/>
@@ -5670,7 +5675,7 @@
     </row>
     <row r="98" s="9" customFormat="1" ht="28.8" spans="1:13">
       <c r="A98" s="24" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
@@ -5693,10 +5698,10 @@
         <v>1</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E99" s="17">
         <v>0.4</v>
@@ -5719,10 +5724,10 @@
         <v>1</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E100" s="17">
         <v>0.4</v>
@@ -5745,10 +5750,10 @@
         <v>1</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E101" s="17">
         <v>0.4</v>
@@ -5771,10 +5776,10 @@
         <v>1</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E102" s="17">
         <v>0.4</v>
@@ -5791,16 +5796,16 @@
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B103" s="14">
         <v>1</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E103" s="17">
         <v>0.4</v>
@@ -5823,10 +5828,10 @@
         <v>1</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E104" s="17">
         <v>0.4</v>
@@ -5843,7 +5848,7 @@
     </row>
     <row r="105" s="9" customFormat="1" ht="28.8" spans="1:13">
       <c r="A105" s="24" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B105" s="25"/>
       <c r="C105" s="25"/>
@@ -5866,10 +5871,10 @@
         <v>1</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E106" s="17">
         <v>0.5</v>
@@ -5877,7 +5882,7 @@
       <c r="F106" s="17"/>
       <c r="H106" s="35"/>
       <c r="I106" s="14" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J106" s="14"/>
       <c r="K106" s="14"/>
@@ -5892,10 +5897,10 @@
         <v>1</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E107" s="17">
         <v>0.6</v>
@@ -5905,7 +5910,7 @@
       </c>
       <c r="H107" s="35"/>
       <c r="I107" s="14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J107" s="14"/>
       <c r="K107" s="14"/>
@@ -5914,16 +5919,16 @@
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B108" s="14">
         <v>1</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E108" s="17">
         <v>0.6</v>
@@ -5931,7 +5936,7 @@
       <c r="F108" s="17"/>
       <c r="H108" s="35"/>
       <c r="I108" s="14" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J108" s="14"/>
       <c r="K108" s="14"/>
@@ -5946,10 +5951,10 @@
         <v>1</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E109" s="17">
         <v>0.6</v>
@@ -5957,7 +5962,7 @@
       <c r="F109" s="17"/>
       <c r="H109" s="35"/>
       <c r="I109" s="14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J109" s="14"/>
       <c r="K109" s="14"/>
@@ -5979,7 +5984,7 @@
     </row>
     <row r="111" s="9" customFormat="1" ht="28.8" spans="1:13">
       <c r="A111" s="24" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B111" s="25"/>
       <c r="C111" s="25"/>
@@ -5996,16 +6001,16 @@
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="14" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B112" s="14">
         <v>1</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E112" s="17">
         <v>0.4</v>
@@ -6015,7 +6020,7 @@
       </c>
       <c r="H112" s="35"/>
       <c r="I112" s="14" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J112" s="14"/>
       <c r="K112" s="14"/>
@@ -6043,10 +6048,10 @@
         <v>1</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E114" s="17">
         <v>0.8</v>
@@ -6054,7 +6059,7 @@
       <c r="F114" s="17"/>
       <c r="H114" s="35"/>
       <c r="I114" s="14" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J114" s="14"/>
       <c r="K114" s="14"/>
@@ -6069,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D115" s="20"/>
       <c r="E115" s="17">
@@ -6080,7 +6085,7 @@
       </c>
       <c r="H115" s="35"/>
       <c r="I115" s="14" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J115" s="14"/>
       <c r="K115" s="14"/>
@@ -6095,10 +6100,10 @@
         <v>1</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E116" s="17">
         <v>0.8</v>
@@ -6106,7 +6111,7 @@
       <c r="F116" s="17"/>
       <c r="H116" s="35"/>
       <c r="I116" s="14" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J116" s="14"/>
       <c r="K116" s="14"/>
@@ -6121,10 +6126,10 @@
         <v>1</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E117" s="17">
         <v>0.6</v>
@@ -6132,7 +6137,7 @@
       <c r="F117" s="17"/>
       <c r="H117" s="35"/>
       <c r="I117" s="14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J117" s="14"/>
       <c r="K117" s="14"/>
@@ -6147,10 +6152,10 @@
         <v>1</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E118" s="17">
         <v>0.5</v>
@@ -6160,7 +6165,7 @@
       </c>
       <c r="H118" s="35"/>
       <c r="I118" s="14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J118" s="14"/>
       <c r="K118" s="14"/>
@@ -6175,10 +6180,10 @@
         <v>1</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E119" s="17">
         <v>0.8</v>
@@ -6199,10 +6204,10 @@
         <v>1</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E120" s="17">
         <v>0.4</v>
@@ -6212,7 +6217,7 @@
       </c>
       <c r="H120" s="35"/>
       <c r="I120" s="14" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J120" s="14"/>
       <c r="K120" s="14"/>
@@ -6227,10 +6232,10 @@
         <v>1</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E121" s="17">
         <v>0.6</v>
@@ -6238,7 +6243,7 @@
       <c r="F121" s="17"/>
       <c r="H121" s="35"/>
       <c r="I121" s="14" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J121" s="14"/>
       <c r="K121" s="14"/>
@@ -6253,10 +6258,10 @@
         <v>1</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D122" s="20" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E122" s="17">
         <v>0.6</v>
@@ -6264,7 +6269,7 @@
       <c r="F122" s="17"/>
       <c r="H122" s="35"/>
       <c r="I122" s="14" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J122" s="14"/>
       <c r="K122" s="14"/>
@@ -6279,10 +6284,10 @@
         <v>1</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D123" s="20" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E123" s="17">
         <v>0.7</v>
@@ -6290,7 +6295,7 @@
       <c r="F123" s="17"/>
       <c r="H123" s="35"/>
       <c r="I123" s="14" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J123" s="14"/>
       <c r="K123" s="14"/>
@@ -6305,10 +6310,10 @@
         <v>1</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E124" s="17">
         <v>0.4</v>
@@ -6318,7 +6323,7 @@
       </c>
       <c r="H124" s="35"/>
       <c r="I124" s="14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J124" s="14"/>
       <c r="K124" s="14"/>
@@ -6333,10 +6338,10 @@
         <v>1</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D125" s="20" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E125" s="17">
         <v>0.8</v>
@@ -6344,7 +6349,7 @@
       <c r="F125" s="17"/>
       <c r="H125" s="35"/>
       <c r="I125" s="14" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J125" s="14"/>
       <c r="K125" s="14"/>
@@ -6366,7 +6371,7 @@
     </row>
     <row r="127" s="9" customFormat="1" ht="28.8" spans="1:13">
       <c r="A127" s="24" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B127" s="25"/>
       <c r="C127" s="25"/>
@@ -6389,10 +6394,10 @@
         <v>1</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E128" s="17">
         <v>0.4</v>
@@ -6402,7 +6407,7 @@
       </c>
       <c r="H128" s="35"/>
       <c r="I128" s="14" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J128" s="14"/>
       <c r="K128" s="14"/>
@@ -6417,10 +6422,10 @@
         <v>1</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D129" s="20" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E129" s="17">
         <v>0.4</v>
@@ -6443,10 +6448,10 @@
         <v>1</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D130" s="20" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E130" s="17">
         <v>0.8</v>
@@ -6454,7 +6459,7 @@
       <c r="F130" s="17"/>
       <c r="H130" s="35"/>
       <c r="I130" s="14" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J130" s="14"/>
       <c r="K130" s="14"/>
@@ -6463,16 +6468,16 @@
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="14" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B131" s="14">
         <v>1</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E131" s="17">
         <v>0.5</v>
@@ -6482,7 +6487,7 @@
       </c>
       <c r="H131" s="35"/>
       <c r="I131" s="14" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J131" s="14"/>
       <c r="K131" s="14"/>
@@ -6491,16 +6496,16 @@
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="14" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B132" s="14">
         <v>1</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E132" s="17">
         <v>0.6</v>
@@ -6510,7 +6515,7 @@
       </c>
       <c r="H132" s="35"/>
       <c r="I132" s="14" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J132" s="14"/>
       <c r="K132" s="14"/>
@@ -6519,16 +6524,16 @@
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B133" s="14">
         <v>1</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D133" s="20" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E133" s="17">
         <v>0.6</v>
@@ -6538,7 +6543,7 @@
       </c>
       <c r="H133" s="35"/>
       <c r="I133" s="14" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J133" s="14"/>
       <c r="K133" s="14"/>
@@ -6553,10 +6558,10 @@
         <v>1</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E134" s="17">
         <v>0.7</v>
@@ -6566,7 +6571,7 @@
       </c>
       <c r="H134" s="35"/>
       <c r="I134" s="14" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J134" s="14"/>
       <c r="K134" s="14"/>
@@ -6581,10 +6586,10 @@
         <v>1</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E135" s="17">
         <v>0.9</v>
@@ -6592,7 +6597,7 @@
       <c r="F135" s="17"/>
       <c r="H135" s="35"/>
       <c r="I135" s="14" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J135" s="14"/>
       <c r="K135" s="14"/>
@@ -6607,10 +6612,10 @@
         <v>1</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D136" s="20" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E136" s="17">
         <v>0.6</v>
@@ -6633,10 +6638,10 @@
         <v>1</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E137" s="17">
         <v>0.7</v>
@@ -6644,7 +6649,7 @@
       <c r="F137" s="17"/>
       <c r="H137" s="35"/>
       <c r="I137" s="14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J137" s="14"/>
       <c r="K137" s="14"/>
@@ -6659,10 +6664,10 @@
         <v>1</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D138" s="22" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E138" s="36">
         <v>0.6</v>
@@ -6671,7 +6676,7 @@
       <c r="G138" s="36"/>
       <c r="H138" s="37"/>
       <c r="I138" s="21" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J138" s="21"/>
       <c r="K138" s="21"/>
@@ -6686,10 +6691,10 @@
         <v>1</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D139" s="20" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E139" s="17">
         <v>0.6</v>
@@ -6697,7 +6702,7 @@
       <c r="F139" s="17"/>
       <c r="H139" s="35"/>
       <c r="I139" s="14" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J139" s="14"/>
       <c r="K139" s="14"/>
@@ -6706,16 +6711,16 @@
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="23" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B140" s="14">
         <v>1</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D140" s="20" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E140" s="17">
         <v>0.8</v>
@@ -6723,7 +6728,7 @@
       <c r="F140" s="17"/>
       <c r="H140" s="35"/>
       <c r="I140" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J140" s="14"/>
       <c r="K140" s="14"/>
@@ -6738,7 +6743,7 @@
         <v>1</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D141" s="20"/>
       <c r="E141" s="17">
@@ -6747,7 +6752,7 @@
       <c r="F141" s="17"/>
       <c r="H141" s="35"/>
       <c r="I141" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J141" s="14"/>
       <c r="K141" s="14"/>
@@ -6762,10 +6767,10 @@
         <v>1</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D142" s="20" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E142" s="17">
         <v>0.8</v>
@@ -6773,7 +6778,7 @@
       <c r="F142" s="17"/>
       <c r="H142" s="35"/>
       <c r="I142" s="14" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J142" s="14"/>
       <c r="K142" s="14"/>
@@ -6782,13 +6787,13 @@
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="14" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B143" s="14">
         <v>1</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D143" s="20"/>
       <c r="E143" s="17">
@@ -6799,7 +6804,7 @@
       </c>
       <c r="H143" s="35"/>
       <c r="I143" s="14" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J143" s="14"/>
       <c r="K143" s="14"/>
@@ -6808,16 +6813,16 @@
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="14" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B144" s="14">
         <v>1</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E144" s="17">
         <v>0.4</v>
@@ -6827,7 +6832,7 @@
       </c>
       <c r="H144" s="35"/>
       <c r="I144" s="14" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J144" s="14"/>
       <c r="K144" s="14"/>
@@ -6842,10 +6847,10 @@
         <v>1</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E145" s="17">
         <v>0.6</v>
@@ -6853,7 +6858,7 @@
       <c r="F145" s="17"/>
       <c r="H145" s="35"/>
       <c r="I145" s="14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J145" s="14"/>
       <c r="K145" s="14"/>
@@ -6868,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D146" s="20"/>
       <c r="E146" s="17">
@@ -6879,7 +6884,7 @@
       </c>
       <c r="H146" s="35"/>
       <c r="I146" s="14" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J146" s="14"/>
       <c r="K146" s="14"/>
@@ -6903,7 +6908,7 @@
     </row>
     <row r="148" s="9" customFormat="1" ht="28.8" spans="1:13">
       <c r="A148" s="24" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B148" s="25"/>
       <c r="C148" s="25"/>
@@ -6926,7 +6931,7 @@
         <v>1</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D149" s="20"/>
       <c r="E149" s="17">
@@ -6937,7 +6942,7 @@
       </c>
       <c r="H149" s="35"/>
       <c r="I149" s="14" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J149" s="14"/>
       <c r="K149" s="14"/>
@@ -6952,10 +6957,10 @@
         <v>1</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D150" s="20" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E150" s="17">
         <v>0.6</v>
@@ -6965,7 +6970,7 @@
       </c>
       <c r="H150" s="35"/>
       <c r="I150" s="14" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J150" s="14"/>
       <c r="K150" s="14"/>
@@ -6980,10 +6985,10 @@
         <v>1</v>
       </c>
       <c r="C151" s="21" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E151" s="36">
         <v>0.6</v>
@@ -6994,7 +6999,7 @@
       <c r="G151" s="36"/>
       <c r="H151" s="37"/>
       <c r="I151" s="21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="J151" s="21"/>
       <c r="K151" s="21"/>
@@ -7009,10 +7014,10 @@
         <v>1</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D152" s="20" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E152" s="17">
         <v>0.8</v>
@@ -7020,7 +7025,7 @@
       <c r="F152" s="17"/>
       <c r="H152" s="35"/>
       <c r="I152" s="14" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J152" s="14"/>
       <c r="K152" s="14"/>
@@ -7035,10 +7040,10 @@
         <v>1</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D153" s="20" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E153" s="17">
         <v>0.4</v>
@@ -7048,7 +7053,7 @@
       </c>
       <c r="H153" s="35"/>
       <c r="I153" s="14" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J153" s="14"/>
       <c r="K153" s="14"/>
@@ -7063,10 +7068,10 @@
         <v>1</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D154" s="20" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E154" s="17">
         <v>0.6</v>
@@ -7076,7 +7081,7 @@
       </c>
       <c r="H154" s="35"/>
       <c r="I154" s="14" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="J154" s="14"/>
       <c r="K154" s="14"/>
@@ -7098,7 +7103,7 @@
     </row>
     <row r="156" s="9" customFormat="1" ht="28.8" spans="1:13">
       <c r="A156" s="24" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B156" s="25"/>
       <c r="C156" s="25"/>
@@ -7121,10 +7126,10 @@
         <v>1</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D157" s="20" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E157" s="17">
         <v>0.5</v>
@@ -7134,7 +7139,7 @@
       </c>
       <c r="H157" s="35"/>
       <c r="I157" s="14" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J157" s="14"/>
       <c r="K157" s="14"/>
@@ -7149,10 +7154,10 @@
         <v>1</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D158" s="20" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E158" s="17">
         <v>0.8</v>
@@ -7160,7 +7165,7 @@
       <c r="F158" s="17"/>
       <c r="H158" s="35"/>
       <c r="I158" s="14" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J158" s="14"/>
       <c r="K158" s="14"/>
@@ -7182,7 +7187,7 @@
     </row>
     <row r="160" s="9" customFormat="1" ht="28.8" spans="1:13">
       <c r="A160" s="24" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B160" s="25"/>
       <c r="C160" s="25"/>
@@ -7205,7 +7210,7 @@
         <v>1</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D161" s="20"/>
       <c r="E161" s="17">
@@ -7216,7 +7221,7 @@
       </c>
       <c r="H161" s="35"/>
       <c r="I161" s="14" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="J161" s="14"/>
       <c r="K161" s="14"/>
@@ -7231,7 +7236,7 @@
         <v>1</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D162" s="20"/>
       <c r="E162" s="17">
@@ -7242,7 +7247,7 @@
       </c>
       <c r="H162" s="35"/>
       <c r="I162" s="14" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J162" s="14"/>
       <c r="K162" s="14"/>
@@ -7257,10 +7262,10 @@
         <v>1</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D163" s="20" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E163" s="17">
         <v>0.4</v>
@@ -7268,7 +7273,7 @@
       <c r="F163" s="17"/>
       <c r="H163" s="35"/>
       <c r="I163" s="14" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="J163" s="14"/>
       <c r="K163" s="14"/>
@@ -7283,7 +7288,7 @@
         <v>1</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D164" s="20"/>
       <c r="E164" s="17">
@@ -7292,7 +7297,7 @@
       <c r="F164" s="17"/>
       <c r="H164" s="35"/>
       <c r="I164" s="14" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J164" s="14"/>
       <c r="K164" s="14"/>
@@ -7307,7 +7312,7 @@
         <v>1</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D165" s="20"/>
       <c r="E165" s="17">
@@ -7318,7 +7323,7 @@
       </c>
       <c r="H165" s="35"/>
       <c r="I165" s="14" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J165" s="14"/>
       <c r="K165" s="14"/>
@@ -7340,7 +7345,7 @@
     </row>
     <row r="167" s="9" customFormat="1" ht="28.8" spans="1:13">
       <c r="A167" s="24" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B167" s="25"/>
       <c r="C167" s="25"/>
@@ -7363,10 +7368,10 @@
         <v>1</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D168" s="20" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E168" s="17">
         <v>0.6</v>
@@ -7387,10 +7392,10 @@
         <v>1</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D169" s="20" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E169" s="17">
         <v>0.7</v>
@@ -7402,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="I169" s="14" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J169" s="14"/>
       <c r="K169" s="14"/>
@@ -7417,10 +7422,10 @@
         <v>1</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D170" s="20" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E170" s="17">
         <v>0.8</v>
@@ -7428,7 +7433,7 @@
       <c r="F170" s="17"/>
       <c r="H170" s="35"/>
       <c r="I170" s="14" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="J170" s="14"/>
       <c r="K170" s="14"/>
@@ -7443,10 +7448,10 @@
         <v>1</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D171" s="20" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E171" s="17">
         <v>0.6</v>
@@ -7456,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="14" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="J171" s="14"/>
       <c r="K171" s="14"/>
@@ -7471,10 +7476,10 @@
         <v>1</v>
       </c>
       <c r="C172" s="21" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D172" s="22" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E172" s="36">
         <v>0.4</v>
@@ -7498,10 +7503,10 @@
         <v>1</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D173" s="20" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E173" s="17">
         <v>0.4</v>
@@ -7524,10 +7529,10 @@
         <v>1</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D174" s="20" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E174" s="17">
         <v>0.8</v>
@@ -7552,10 +7557,10 @@
         <v>1</v>
       </c>
       <c r="C175" s="21" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D175" s="22" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E175" s="36">
         <v>0.5</v>
@@ -7579,10 +7584,10 @@
         <v>1</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D176" s="20" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E176" s="17">
         <v>0.6</v>
@@ -7605,10 +7610,10 @@
         <v>1</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D177" s="20" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E177" s="17">
         <v>0.8</v>
@@ -7616,7 +7621,7 @@
       <c r="F177" s="17"/>
       <c r="H177" s="35"/>
       <c r="I177" s="14" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J177" s="14"/>
       <c r="K177" s="14"/>
@@ -7631,10 +7636,10 @@
         <v>1</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D178" s="20" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E178" s="17">
         <v>0.9</v>
@@ -7655,10 +7660,10 @@
         <v>1</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D179" s="20" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E179" s="17">
         <v>0.6</v>
@@ -7668,7 +7673,7 @@
         <v>1</v>
       </c>
       <c r="I179" s="14" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J179" s="14"/>
       <c r="K179" s="14"/>
@@ -7683,10 +7688,10 @@
         <v>1</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D180" s="20" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E180" s="17">
         <v>0.5</v>
@@ -7707,10 +7712,10 @@
         <v>1</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D181" s="20" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E181" s="17">
         <v>0.5</v>
@@ -7731,10 +7736,10 @@
         <v>1</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D182" s="20" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E182" s="17">
         <v>0.9</v>
@@ -7757,10 +7762,10 @@
         <v>1</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D183" s="20" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E183" s="17">
         <v>0.9</v>
@@ -7768,7 +7773,7 @@
       <c r="F183" s="17"/>
       <c r="H183" s="35"/>
       <c r="I183" s="14" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J183" s="14"/>
       <c r="K183" s="14"/>
@@ -7783,10 +7788,10 @@
         <v>1</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D184" s="20" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E184" s="17">
         <v>0.8</v>
@@ -7794,7 +7799,7 @@
       <c r="F184" s="17"/>
       <c r="H184" s="35"/>
       <c r="I184" s="14" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J184" s="14"/>
       <c r="K184" s="14"/>
@@ -7809,10 +7814,10 @@
         <v>1</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D185" s="20" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E185" s="17">
         <v>0.9</v>
@@ -7820,7 +7825,7 @@
       <c r="F185" s="17"/>
       <c r="H185" s="35"/>
       <c r="I185" s="14" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J185" s="14"/>
       <c r="K185" s="14"/>
@@ -7835,10 +7840,10 @@
         <v>1</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D186" s="20" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E186" s="17">
         <v>0.6</v>
@@ -7848,7 +7853,7 @@
       </c>
       <c r="H186" s="35"/>
       <c r="I186" s="14" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J186" s="14"/>
       <c r="K186" s="14"/>
@@ -7863,10 +7868,10 @@
         <v>1</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D187" s="20" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E187" s="17">
         <v>0.6</v>
@@ -7876,7 +7881,7 @@
       </c>
       <c r="H187" s="35"/>
       <c r="I187" s="14" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J187" s="14"/>
       <c r="K187" s="14"/>
@@ -7891,10 +7896,10 @@
         <v>1</v>
       </c>
       <c r="C188" s="14" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D188" s="20" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E188" s="17">
         <v>0.8</v>
@@ -7904,7 +7909,7 @@
         <v>1</v>
       </c>
       <c r="I188" s="14" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J188" s="14"/>
       <c r="K188" s="14"/>
@@ -7919,10 +7924,10 @@
         <v>1</v>
       </c>
       <c r="C189" s="14" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D189" s="20" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E189" s="17">
         <v>0.6</v>
@@ -7932,7 +7937,7 @@
       </c>
       <c r="H189" s="35"/>
       <c r="I189" s="14" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J189" s="14"/>
       <c r="K189" s="14"/>
@@ -7947,10 +7952,10 @@
         <v>1</v>
       </c>
       <c r="C190" s="14" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D190" s="20" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E190" s="17">
         <v>0.6</v>
@@ -7973,10 +7978,10 @@
         <v>1</v>
       </c>
       <c r="C191" s="14" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D191" s="20" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E191" s="17">
         <v>0.4</v>
@@ -7986,7 +7991,7 @@
       </c>
       <c r="H191" s="35"/>
       <c r="I191" s="14" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="J191" s="14"/>
       <c r="K191" s="14"/>
@@ -8001,10 +8006,10 @@
         <v>1</v>
       </c>
       <c r="C192" s="14" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D192" s="20" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E192" s="17">
         <v>0.4</v>
@@ -8027,10 +8032,10 @@
         <v>1</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D193" s="20" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E193" s="17">
         <v>0.8</v>
@@ -8038,7 +8043,7 @@
       <c r="F193" s="17"/>
       <c r="H193" s="35"/>
       <c r="I193" s="14" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="J193" s="14"/>
       <c r="K193" s="14"/>
@@ -8053,10 +8058,10 @@
         <v>1</v>
       </c>
       <c r="C194" s="14" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D194" s="20" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E194" s="17">
         <v>0.8</v>
@@ -8064,7 +8069,7 @@
       <c r="F194" s="17"/>
       <c r="H194" s="35"/>
       <c r="I194" s="14" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="J194" s="14"/>
       <c r="K194" s="14"/>
@@ -8079,10 +8084,10 @@
         <v>1</v>
       </c>
       <c r="C195" s="14" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D195" s="20" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E195" s="17">
         <v>0.8</v>
@@ -8090,7 +8095,7 @@
       <c r="F195" s="17"/>
       <c r="H195" s="35"/>
       <c r="I195" s="14" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J195" s="14"/>
       <c r="K195" s="14"/>
@@ -8105,10 +8110,10 @@
         <v>1</v>
       </c>
       <c r="C196" s="14" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D196" s="20" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E196" s="17">
         <v>0.9</v>
@@ -8118,7 +8123,7 @@
         <v>1</v>
       </c>
       <c r="I196" s="14" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J196" s="14"/>
       <c r="K196" s="14"/>
@@ -8133,10 +8138,10 @@
         <v>1</v>
       </c>
       <c r="C197" s="14" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D197" s="20" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E197" s="17">
         <v>0.6</v>
@@ -8144,7 +8149,7 @@
       <c r="F197" s="17"/>
       <c r="H197" s="35"/>
       <c r="I197" s="14" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J197" s="14"/>
       <c r="K197" s="14"/>
@@ -8159,10 +8164,10 @@
         <v>1</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D198" s="20" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E198" s="17">
         <v>0.8</v>
@@ -8183,10 +8188,10 @@
         <v>1</v>
       </c>
       <c r="C199" s="14" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D199" s="20" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E199" s="17">
         <v>0.6</v>
@@ -8209,10 +8214,10 @@
         <v>1</v>
       </c>
       <c r="C200" s="14" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D200" s="20" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E200" s="17">
         <v>0.7</v>
@@ -8233,16 +8238,16 @@
         <v>1</v>
       </c>
       <c r="C201" s="14" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D201" s="20" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E201" s="17"/>
       <c r="F201" s="17"/>
       <c r="H201" s="35"/>
       <c r="I201" s="14" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="J201" s="14"/>
       <c r="K201" s="14"/>
@@ -8257,10 +8262,10 @@
         <v>1</v>
       </c>
       <c r="C202" s="14" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D202" s="20" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E202" s="17">
         <v>0.6</v>
@@ -8268,7 +8273,7 @@
       <c r="F202" s="17"/>
       <c r="H202" s="35"/>
       <c r="I202" s="14" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="J202" s="14"/>
       <c r="K202" s="14"/>
@@ -8290,7 +8295,7 @@
     </row>
     <row r="204" s="9" customFormat="1" spans="1:13">
       <c r="A204" s="25" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B204" s="25"/>
       <c r="C204" s="25"/>
@@ -8313,10 +8318,10 @@
         <v>2</v>
       </c>
       <c r="C205" s="14" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D205" s="20" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E205" s="17">
         <v>0.8</v>
@@ -8337,10 +8342,10 @@
         <v>2</v>
       </c>
       <c r="C206" s="14" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D206" s="20" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E206" s="17">
         <v>0.8</v>
@@ -8361,10 +8366,10 @@
         <v>2</v>
       </c>
       <c r="C207" s="14" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D207" s="20" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E207" s="17">
         <v>0.8</v>
@@ -8385,10 +8390,10 @@
         <v>2</v>
       </c>
       <c r="C208" s="14" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D208" s="20" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E208" s="17">
         <v>0.8</v>
@@ -8409,10 +8414,10 @@
         <v>2</v>
       </c>
       <c r="C209" s="14" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D209" s="20" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E209" s="17">
         <v>0.8</v>
@@ -8433,10 +8438,10 @@
         <v>2</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D210" s="20" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E210" s="17">
         <v>0.8</v>
@@ -8457,10 +8462,10 @@
         <v>2</v>
       </c>
       <c r="C211" s="14" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D211" s="20" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E211" s="17">
         <v>0.6</v>
@@ -8483,10 +8488,10 @@
         <v>2</v>
       </c>
       <c r="C212" s="14" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D212" s="20" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E212" s="17">
         <v>0.46</v>
@@ -8509,10 +8514,10 @@
         <v>2</v>
       </c>
       <c r="C213" s="14" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D213" s="20" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E213" s="17">
         <v>0.85</v>
@@ -8533,10 +8538,10 @@
         <v>2</v>
       </c>
       <c r="C214" s="14" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D214" s="20" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E214" s="17">
         <v>0.6</v>
@@ -8557,10 +8562,10 @@
         <v>2</v>
       </c>
       <c r="C215" s="14" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D215" s="20" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E215" s="17">
         <v>0.8</v>
@@ -8570,7 +8575,7 @@
       </c>
       <c r="H215" s="35"/>
       <c r="I215" s="14" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="J215" s="14"/>
       <c r="K215" s="14"/>
@@ -8585,10 +8590,10 @@
         <v>2</v>
       </c>
       <c r="C216" s="14" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D216" s="20" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E216" s="17">
         <v>0.8</v>
@@ -8611,10 +8616,10 @@
         <v>2</v>
       </c>
       <c r="C217" s="14" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D217" s="20" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E217" s="17">
         <v>0.8</v>
@@ -8644,7 +8649,7 @@
     </row>
     <row r="219" s="13" customFormat="1" ht="28.8" spans="1:13">
       <c r="A219" s="24" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B219" s="24"/>
       <c r="C219" s="24"/>
@@ -8667,10 +8672,10 @@
         <v>2</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D220" s="20" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E220" s="17">
         <v>0.8</v>
@@ -8678,7 +8683,7 @@
       <c r="F220" s="17"/>
       <c r="H220" s="35"/>
       <c r="I220" s="14" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="J220" s="14"/>
       <c r="K220" s="14"/>
@@ -8687,16 +8692,16 @@
     </row>
     <row r="221" spans="1:13">
       <c r="A221" s="14" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B221" s="14">
         <v>2</v>
       </c>
       <c r="C221" s="14" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D221" s="20" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E221" s="17">
         <v>0.6</v>
@@ -8706,7 +8711,7 @@
       </c>
       <c r="H221" s="35"/>
       <c r="I221" s="14" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="J221" s="14"/>
       <c r="K221" s="14"/>
@@ -8715,16 +8720,16 @@
     </row>
     <row r="222" spans="1:13">
       <c r="A222" s="14" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B222" s="14">
         <v>2</v>
       </c>
       <c r="C222" s="14" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D222" s="20" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E222" s="17">
         <v>0.8</v>
@@ -8732,7 +8737,7 @@
       <c r="F222" s="17"/>
       <c r="H222" s="35"/>
       <c r="I222" s="14" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="J222" s="14"/>
       <c r="K222" s="14"/>
@@ -8764,10 +8769,10 @@
         <v>2</v>
       </c>
       <c r="C224" s="14" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D224" s="20" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E224" s="17">
         <v>0.6</v>
@@ -8775,7 +8780,7 @@
       <c r="F224" s="17"/>
       <c r="H224" s="35"/>
       <c r="I224" s="14" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="J224" s="14"/>
       <c r="K224" s="14"/>
@@ -8790,10 +8795,10 @@
         <v>2</v>
       </c>
       <c r="C225" s="14" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D225" s="20" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E225" s="17">
         <v>0.6</v>
@@ -8801,10 +8806,10 @@
       <c r="F225" s="17"/>
       <c r="H225" s="35"/>
       <c r="I225" s="14" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="J225" s="14" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K225" s="14"/>
       <c r="L225" s="14"/>
@@ -8818,10 +8823,10 @@
         <v>2</v>
       </c>
       <c r="C226" s="14" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D226" s="20" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E226" s="17">
         <v>0.5</v>
@@ -8831,10 +8836,10 @@
       </c>
       <c r="H226" s="35"/>
       <c r="I226" s="14" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="J226" s="14" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="K226" s="14"/>
       <c r="L226" s="14"/>
@@ -8842,7 +8847,7 @@
     </row>
     <row r="227" s="9" customFormat="1" spans="1:13">
       <c r="A227" s="25" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B227" s="25"/>
       <c r="C227" s="25"/>
@@ -8859,16 +8864,16 @@
     </row>
     <row r="228" spans="1:13">
       <c r="A228" s="14" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B228" s="14">
         <v>2</v>
       </c>
       <c r="C228" s="14" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D228" s="20" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E228" s="17">
         <v>0.8</v>
@@ -8876,7 +8881,7 @@
       <c r="F228" s="17"/>
       <c r="H228" s="35"/>
       <c r="I228" s="14" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="J228" s="14"/>
       <c r="K228" s="14"/>
@@ -8885,13 +8890,13 @@
     </row>
     <row r="229" spans="1:13">
       <c r="A229" s="14" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B229" s="14">
         <v>2</v>
       </c>
       <c r="C229" s="14" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D229" s="20"/>
       <c r="E229" s="17">
@@ -8900,7 +8905,7 @@
       <c r="F229" s="17"/>
       <c r="H229" s="35"/>
       <c r="I229" s="14" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="J229" s="14"/>
       <c r="K229" s="14"/>
@@ -8909,7 +8914,7 @@
     </row>
     <row r="230" s="9" customFormat="1" spans="1:13">
       <c r="A230" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B230" s="25"/>
       <c r="C230" s="25"/>
@@ -8932,10 +8937,10 @@
         <v>2</v>
       </c>
       <c r="C231" s="14" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D231" s="20" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E231" s="17">
         <v>0.4</v>
@@ -8945,7 +8950,7 @@
       </c>
       <c r="H231" s="35"/>
       <c r="I231" s="14" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="J231" s="14"/>
       <c r="K231" s="14"/>
@@ -8960,10 +8965,10 @@
         <v>2</v>
       </c>
       <c r="C232" s="14" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D232" s="20" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E232" s="17">
         <v>0.6</v>
@@ -8973,7 +8978,7 @@
       </c>
       <c r="H232" s="35"/>
       <c r="I232" s="14" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="J232" s="14"/>
       <c r="K232" s="14"/>
@@ -8988,10 +8993,10 @@
         <v>2</v>
       </c>
       <c r="C233" s="14" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D233" s="20" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E233" s="17">
         <v>0.8</v>
@@ -8999,7 +9004,7 @@
       <c r="F233" s="17"/>
       <c r="H233" s="35"/>
       <c r="I233" s="14" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="J233" s="14"/>
       <c r="K233" s="14"/>
@@ -9008,16 +9013,16 @@
     </row>
     <row r="234" spans="1:13">
       <c r="A234" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B234" s="14">
         <v>2</v>
       </c>
       <c r="C234" s="14" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D234" s="20" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E234" s="17">
         <v>0.4</v>
@@ -9027,7 +9032,7 @@
       </c>
       <c r="H234" s="35"/>
       <c r="I234" s="14" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="J234" s="14"/>
       <c r="K234" s="14"/>
@@ -9054,7 +9059,7 @@
     </row>
     <row r="236" s="9" customFormat="1" spans="1:13">
       <c r="A236" s="25" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B236" s="25"/>
       <c r="C236" s="25"/>
@@ -9077,10 +9082,10 @@
         <v>2</v>
       </c>
       <c r="C237" s="14" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D237" s="20" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E237" s="17">
         <v>0.8</v>
@@ -9090,7 +9095,7 @@
       </c>
       <c r="H237" s="35"/>
       <c r="I237" s="14" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="J237" s="14"/>
       <c r="K237" s="14"/>
@@ -9112,7 +9117,7 @@
     </row>
     <row r="239" s="9" customFormat="1" spans="1:13">
       <c r="A239" s="25" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B239" s="25"/>
       <c r="C239" s="25"/>
@@ -9135,7 +9140,7 @@
         <v>3</v>
       </c>
       <c r="C240" s="14" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D240" s="20"/>
       <c r="E240" s="17">
@@ -9159,7 +9164,7 @@
         <v>3</v>
       </c>
       <c r="C241" s="14" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D241" s="20"/>
       <c r="E241" s="17"/>
@@ -9179,10 +9184,10 @@
         <v>3</v>
       </c>
       <c r="C242" s="14" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D242" s="20" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E242" s="17">
         <v>0.8</v>
@@ -9205,7 +9210,7 @@
         <v>3</v>
       </c>
       <c r="C243" s="14" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D243" s="20"/>
       <c r="E243" s="17"/>
@@ -9225,7 +9230,7 @@
         <v>3</v>
       </c>
       <c r="C244" s="14" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D244" s="20"/>
       <c r="E244" s="17"/>
@@ -9245,7 +9250,7 @@
         <v>3</v>
       </c>
       <c r="C245" s="14" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D245" s="20"/>
       <c r="E245" s="17"/>
@@ -9265,7 +9270,7 @@
         <v>3</v>
       </c>
       <c r="C246" s="14" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D246" s="20"/>
       <c r="E246" s="17"/>
@@ -9398,29 +9403,29 @@
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:17">
       <c r="A2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
@@ -9429,7 +9434,7 @@
     </row>
     <row r="3" ht="26" customHeight="1" spans="2:17">
       <c r="B3" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -9437,7 +9442,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="6" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -9450,7 +9455,7 @@
     </row>
     <row r="4" ht="28" customHeight="1" spans="5:12">
       <c r="E4" s="4" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>

--- a/dist/modelsConfig.xlsx
+++ b/dist/modelsConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="12080"/>
+    <workbookView windowWidth="25820" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1861,14 +1861,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="181" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="176" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1901,16 +1901,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1918,6 +1939,14 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1941,6 +1970,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1948,24 +1985,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1979,16 +2001,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2003,13 +2024,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2017,21 +2031,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2118,7 +2118,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2130,13 +2142,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2148,43 +2226,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2196,79 +2262,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2285,6 +2285,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2312,30 +2351,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2351,26 +2366,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2390,148 +2390,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2584,13 +2584,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2641,37 +2641,37 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2683,69 +2683,69 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>

--- a/dist/modelsConfig.xlsx
+++ b/dist/modelsConfig.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="623">
   <si>
     <t>类型 1=lora 2=lyco 3=embedding</t>
   </si>
@@ -348,6 +348,121 @@
   </si>
   <si>
     <t>炼丹</t>
+  </si>
+  <si>
+    <t>smpan</t>
+  </si>
+  <si>
+    <t>smooth_pantyhose-ep4</t>
+  </si>
+  <si>
+    <t>smooth pantyhose</t>
+  </si>
+  <si>
+    <t>丝滑包裹感
+high_heels, skirt, ass, sitting, legs up, lying</t>
+  </si>
+  <si>
+    <t>extsh</t>
+  </si>
+  <si>
+    <t>extreme_smooth_black_pantyhose-ep7</t>
+  </si>
+  <si>
+    <t>hwextsmoblapan</t>
+  </si>
+  <si>
+    <t>极致丝滑
+breats, underwear, blurry,sitting, panties</t>
+  </si>
+  <si>
+    <t>ldgg</t>
+  </si>
+  <si>
+    <t>liuding hh-ep4</t>
+  </si>
+  <si>
+    <t>hwliudinghh</t>
+  </si>
+  <si>
+    <t>柳丁鞋
+long_hair, underwear, thighhighs, panties, skirt, short</t>
+  </si>
+  <si>
+    <t>ldggs1</t>
+  </si>
+  <si>
+    <t>white_liuding_hh-000004</t>
+  </si>
+  <si>
+    <t>hwwhliudgglx</t>
+  </si>
+  <si>
+    <t>白色柳丁凉鞋
+long_hair, underwear, thighhighs, white_legwear, standing, blurry</t>
+  </si>
+  <si>
+    <t>eles2gg</t>
+  </si>
+  <si>
+    <t>elegant_back_tie_s1-ep7</t>
+  </si>
+  <si>
+    <t>hwbatihh</t>
+  </si>
+  <si>
+    <t>优雅黑色高跟凉鞋
+long_hair, skirt, dress,pantyhose,sitting, red_dress, bare_shoulders</t>
+  </si>
+  <si>
+    <t>eles1gg</t>
+  </si>
+  <si>
+    <t>elegant air hh-ep5</t>
+  </si>
+  <si>
+    <t>hweleganthhsa</t>
+  </si>
+  <si>
+    <t>侧边镂空高跟凉鞋
+pantyhose, skirt, long_hair, sitting, underwear,ass, bracelet</t>
+  </si>
+  <si>
+    <t>gglxs2</t>
+  </si>
+  <si>
+    <t>elegant_air_gglx_s2-000004</t>
+  </si>
+  <si>
+    <t>hweleairgglgs2</t>
+  </si>
+  <si>
+    <t>镂空，前绑带凉鞋</t>
+  </si>
+  <si>
+    <t>gglxs3</t>
+  </si>
+  <si>
+    <t>elegant_air_gglx_s3-000004</t>
+  </si>
+  <si>
+    <t>hweleairgglgs3</t>
+  </si>
+  <si>
+    <t>钻石脚踝链凉鞋</t>
+  </si>
+  <si>
+    <t>transgg</t>
+  </si>
+  <si>
+    <t>transparent_heels-ep5</t>
+  </si>
+  <si>
+    <t>transparent heels</t>
+  </si>
+  <si>
+    <t>透明高跟凉鞋
+skirt, pantyhose, underwear</t>
   </si>
   <si>
     <t>xgg1</t>
@@ -361,84 +476,6 @@
   <si>
     <t>第一个细高跟lora
 pantyhose, lower_body</t>
-  </si>
-  <si>
-    <t>smpan</t>
-  </si>
-  <si>
-    <t>smooth_pantyhose-ep4</t>
-  </si>
-  <si>
-    <t>smooth pantyhose</t>
-  </si>
-  <si>
-    <t>丝滑包裹感
-high_heels, skirt, ass, sitting, legs up, lying</t>
-  </si>
-  <si>
-    <t>extsh</t>
-  </si>
-  <si>
-    <t>extreme_smooth_black_pantyhose-ep7</t>
-  </si>
-  <si>
-    <t>hwextsmoblapan</t>
-  </si>
-  <si>
-    <t>极致丝滑
-breats, underwear, blurry,sitting, panties</t>
-  </si>
-  <si>
-    <t>ldgg</t>
-  </si>
-  <si>
-    <t>liuding hh-000005</t>
-  </si>
-  <si>
-    <t>hwliudinghh</t>
-  </si>
-  <si>
-    <t>柳丁鞋
-long_hair, underwear, thighhighs, panties, skirt, short</t>
-  </si>
-  <si>
-    <t>eles2gg</t>
-  </si>
-  <si>
-    <t>elegant_back_tie_s1-ep7</t>
-  </si>
-  <si>
-    <t>hwbatihh</t>
-  </si>
-  <si>
-    <t>优雅黑色高跟凉鞋
-long_hair, skirt, dress,pantyhose,sitting, red_dress, bare_shoulders</t>
-  </si>
-  <si>
-    <t>eles1gg</t>
-  </si>
-  <si>
-    <t>elegant air hh-000001</t>
-  </si>
-  <si>
-    <t>hweleganthhsa</t>
-  </si>
-  <si>
-    <t>侧边镂空高跟凉鞋
-pantyhose, skirt, long_hair, sitting, underwear,ass, bracelet</t>
-  </si>
-  <si>
-    <t>transgg</t>
-  </si>
-  <si>
-    <t>transparent_heels-ep5</t>
-  </si>
-  <si>
-    <t>transparent heels</t>
-  </si>
-  <si>
-    <t>透明高跟凉鞋
-skirt, pantyhose, underwear</t>
   </si>
   <si>
     <t>goldgg</t>
@@ -1864,11 +1901,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1902,7 +1939,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1910,68 +1947,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1995,6 +1970,60 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2009,15 +2038,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2030,8 +2058,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2118,7 +2155,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2130,31 +2209,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2172,13 +2245,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2190,91 +2311,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2291,8 +2328,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2327,26 +2399,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2365,53 +2422,33 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2420,94 +2457,94 @@
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2516,22 +2553,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2569,12 +2606,12 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2629,15 +2666,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2662,22 +2699,22 @@
     <xf numFmtId="176" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3014,19 +3051,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M247"/>
+  <dimension ref="A1:M250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="12.6538461538462" style="14" customWidth="1"/>
     <col min="2" max="2" width="9.28846153846154" customWidth="1"/>
-    <col min="3" max="3" width="26.9230769230769" customWidth="1"/>
+    <col min="3" max="3" width="34.9326923076923" customWidth="1"/>
     <col min="4" max="4" width="20" style="15" customWidth="1"/>
     <col min="5" max="6" width="9.23076923076923" style="16"/>
     <col min="7" max="7" width="9.23076923076923" style="17"/>
@@ -3305,36 +3342,36 @@
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="14">
+    <row r="10" s="8" customFormat="1" spans="1:13">
+      <c r="A10" s="21">
         <v>109</v>
       </c>
-      <c r="B10" s="14">
-        <v>1</v>
-      </c>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="21">
+        <v>1</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="36">
         <v>0.4</v>
       </c>
-      <c r="F10" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="G10" s="17">
+      <c r="F10" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="G10" s="36">
         <v>0.6</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="14" t="s">
+      <c r="H10" s="37"/>
+      <c r="I10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
     </row>
     <row r="11" s="8" customFormat="1" spans="1:13">
       <c r="A11" s="21">
@@ -4231,17 +4268,17 @@
       <c r="A42" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B42" s="31">
-        <v>1</v>
-      </c>
-      <c r="C42" s="31" t="s">
+      <c r="B42" s="30">
+        <v>1</v>
+      </c>
+      <c r="C42" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="32" t="s">
+      <c r="D42" s="31" t="s">
         <v>113</v>
       </c>
       <c r="E42" s="42">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F42" s="42">
         <v>0.7</v>
@@ -4251,12 +4288,12 @@
       <c r="I42" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-    </row>
-    <row r="43" s="12" customFormat="1" ht="34" spans="1:13">
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+    </row>
+    <row r="43" s="11" customFormat="1" ht="34" spans="1:13">
       <c r="A43" s="30" t="s">
         <v>115</v>
       </c>
@@ -4266,18 +4303,18 @@
       <c r="C43" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="D43" s="33" t="s">
+      <c r="D43" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="E43" s="44">
-        <v>0.3</v>
-      </c>
-      <c r="F43" s="44">
-        <v>0.7</v>
-      </c>
-      <c r="G43" s="44"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="47" t="s">
+      <c r="E43" s="42">
+        <v>0.4</v>
+      </c>
+      <c r="F43" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="G43" s="42"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="46" t="s">
         <v>118</v>
       </c>
       <c r="J43" s="30"/>
@@ -4285,7 +4322,7 @@
       <c r="L43" s="30"/>
       <c r="M43" s="30"/>
     </row>
-    <row r="44" s="12" customFormat="1" ht="34" spans="1:13">
+    <row r="44" s="11" customFormat="1" ht="51" spans="1:13">
       <c r="A44" s="30" t="s">
         <v>119</v>
       </c>
@@ -4295,18 +4332,18 @@
       <c r="C44" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="33" t="s">
+      <c r="D44" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="E44" s="44">
-        <v>0.4</v>
-      </c>
-      <c r="F44" s="44">
-        <v>0.8</v>
-      </c>
-      <c r="G44" s="44"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="47" t="s">
+      <c r="E44" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="F44" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="G44" s="42"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="46" t="s">
         <v>122</v>
       </c>
       <c r="J44" s="30"/>
@@ -4314,7 +4351,7 @@
       <c r="L44" s="30"/>
       <c r="M44" s="30"/>
     </row>
-    <row r="45" s="12" customFormat="1" ht="51" spans="1:13">
+    <row r="45" s="11" customFormat="1" ht="51" spans="1:13">
       <c r="A45" s="30" t="s">
         <v>123</v>
       </c>
@@ -4324,18 +4361,18 @@
       <c r="C45" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="D45" s="33" t="s">
+      <c r="D45" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="E45" s="44">
-        <v>0.3</v>
-      </c>
-      <c r="F45" s="44">
-        <v>0.8</v>
-      </c>
-      <c r="G45" s="44"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="47" t="s">
+      <c r="E45" s="42">
+        <v>0.35</v>
+      </c>
+      <c r="F45" s="42">
+        <v>0.65</v>
+      </c>
+      <c r="G45" s="42"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="46" t="s">
         <v>126</v>
       </c>
       <c r="J45" s="30"/>
@@ -4343,7 +4380,7 @@
       <c r="L45" s="30"/>
       <c r="M45" s="30"/>
     </row>
-    <row r="46" s="12" customFormat="1" ht="51" spans="1:13">
+    <row r="46" s="11" customFormat="1" ht="51" spans="1:13">
       <c r="A46" s="30" t="s">
         <v>127</v>
       </c>
@@ -4353,18 +4390,18 @@
       <c r="C46" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="D46" s="33" t="s">
+      <c r="D46" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="E46" s="44">
+      <c r="E46" s="42">
         <v>0.4</v>
       </c>
-      <c r="F46" s="44">
-        <v>0.8</v>
-      </c>
-      <c r="G46" s="44"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="47" t="s">
+      <c r="F46" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="G46" s="42"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="46" t="s">
         <v>130</v>
       </c>
       <c r="J46" s="30"/>
@@ -4372,7 +4409,7 @@
       <c r="L46" s="30"/>
       <c r="M46" s="30"/>
     </row>
-    <row r="47" s="12" customFormat="1" ht="51" spans="1:13">
+    <row r="47" s="11" customFormat="1" ht="51" spans="1:13">
       <c r="A47" s="30" t="s">
         <v>131</v>
       </c>
@@ -4382,18 +4419,18 @@
       <c r="C47" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="D47" s="33" t="s">
+      <c r="D47" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="E47" s="44">
+      <c r="E47" s="42">
         <v>0.3</v>
       </c>
-      <c r="F47" s="44">
-        <v>0.8</v>
-      </c>
-      <c r="G47" s="44"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="47" t="s">
+      <c r="F47" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="G47" s="42"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="46" t="s">
         <v>134</v>
       </c>
       <c r="J47" s="30"/>
@@ -4401,7 +4438,7 @@
       <c r="L47" s="30"/>
       <c r="M47" s="30"/>
     </row>
-    <row r="48" s="12" customFormat="1" ht="34" spans="1:13">
+    <row r="48" s="11" customFormat="1" ht="17" spans="1:13">
       <c r="A48" s="30" t="s">
         <v>135</v>
       </c>
@@ -4411,18 +4448,18 @@
       <c r="C48" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="D48" s="33" t="s">
+      <c r="D48" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="E48" s="44">
-        <v>0.3</v>
-      </c>
-      <c r="F48" s="44">
-        <v>0.7</v>
-      </c>
-      <c r="G48" s="44"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="47" t="s">
+      <c r="E48" s="42">
+        <v>0.35</v>
+      </c>
+      <c r="F48" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="G48" s="42"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="46" t="s">
         <v>138</v>
       </c>
       <c r="J48" s="30"/>
@@ -4430,7 +4467,7 @@
       <c r="L48" s="30"/>
       <c r="M48" s="30"/>
     </row>
-    <row r="49" s="12" customFormat="1" ht="34" spans="1:13">
+    <row r="49" s="11" customFormat="1" ht="17" spans="1:13">
       <c r="A49" s="30" t="s">
         <v>139</v>
       </c>
@@ -4440,18 +4477,18 @@
       <c r="C49" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="D49" s="33" t="s">
+      <c r="D49" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="E49" s="44">
-        <v>0.3</v>
-      </c>
-      <c r="F49" s="44">
-        <v>0.8</v>
-      </c>
-      <c r="G49" s="44"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="47" t="s">
+      <c r="E49" s="42">
+        <v>0.35</v>
+      </c>
+      <c r="F49" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="G49" s="42"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="46" t="s">
         <v>142</v>
       </c>
       <c r="J49" s="30"/>
@@ -4459,121 +4496,128 @@
       <c r="L49" s="30"/>
       <c r="M49" s="30"/>
     </row>
-    <row r="50" s="9" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A50" s="24" t="s">
+    <row r="50" s="11" customFormat="1" ht="34" spans="1:13">
+      <c r="A50" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="14">
-        <v>301</v>
-      </c>
-      <c r="B51" s="14">
-        <v>1</v>
-      </c>
-      <c r="C51" s="14" t="s">
+      <c r="B50" s="30">
+        <v>1</v>
+      </c>
+      <c r="C50" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D50" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="14" t="s">
+      <c r="E50" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="F50" s="42">
+        <v>0.7</v>
+      </c>
+      <c r="G50" s="42"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="14">
-        <v>302</v>
-      </c>
-      <c r="B52" s="14">
-        <v>1</v>
-      </c>
-      <c r="C52" s="14" t="s">
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+    </row>
+    <row r="51" s="12" customFormat="1" ht="34" spans="1:13">
+      <c r="A51" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="B51" s="32">
+        <v>1</v>
+      </c>
+      <c r="C51" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="E52" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="F52" s="17"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="14" t="s">
+      <c r="D51" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="14">
-        <v>303</v>
-      </c>
-      <c r="B53" s="14">
-        <v>1</v>
-      </c>
-      <c r="C53" s="14" t="s">
+      <c r="E51" s="44">
+        <v>0.4</v>
+      </c>
+      <c r="F51" s="44">
+        <v>0.7</v>
+      </c>
+      <c r="G51" s="44"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+    </row>
+    <row r="52" s="11" customFormat="1" ht="34" spans="1:13">
+      <c r="A52" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="E53" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="F53" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="H53" s="35"/>
-      <c r="I53" s="14" t="s">
+      <c r="B52" s="30">
+        <v>1</v>
+      </c>
+      <c r="C52" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
+      <c r="D52" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="E52" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="F52" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="G52" s="42"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+    </row>
+    <row r="53" s="9" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A53" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B54" s="14">
         <v>1</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="E54" s="17">
-        <v>0.6</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="E54" s="17"/>
       <c r="F54" s="17"/>
       <c r="H54" s="35"/>
       <c r="I54" s="14" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J54" s="14"/>
       <c r="K54" s="14"/>
@@ -4582,29 +4626,24 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B55" s="14">
         <v>1</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E55" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="F55" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="G55" s="17">
         <v>0.6</v>
       </c>
+      <c r="F55" s="17"/>
       <c r="H55" s="35"/>
       <c r="I55" s="14" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J55" s="14"/>
       <c r="K55" s="14"/>
@@ -4613,81 +4652,83 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B56" s="14">
         <v>1</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E56" s="17">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F56" s="17">
         <v>0.8</v>
       </c>
       <c r="H56" s="35"/>
       <c r="I56" s="14" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J56" s="14"/>
       <c r="K56" s="14"/>
       <c r="L56" s="14"/>
       <c r="M56" s="14"/>
     </row>
-    <row r="57" s="8" customFormat="1" spans="1:13">
-      <c r="A57" s="21">
-        <v>307</v>
-      </c>
-      <c r="B57" s="21">
-        <v>1</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E57" s="36">
-        <v>0.4</v>
-      </c>
-      <c r="F57" s="36">
-        <v>0.65</v>
-      </c>
-      <c r="G57" s="36"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="21"/>
+    <row r="57" spans="1:13">
+      <c r="A57" s="14">
+        <v>304</v>
+      </c>
+      <c r="B57" s="14">
+        <v>1</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E57" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="F57" s="17"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B58" s="14">
         <v>1</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E58" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="F58" s="17"/>
+        <v>0.4</v>
+      </c>
+      <c r="F58" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="G58" s="17">
+        <v>0.6</v>
+      </c>
       <c r="H58" s="35"/>
       <c r="I58" s="14" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J58" s="14"/>
       <c r="K58" s="14"/>
@@ -4696,78 +4737,81 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B59" s="14">
         <v>1</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E59" s="17">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="F59" s="17">
         <v>0.8</v>
       </c>
       <c r="H59" s="35"/>
       <c r="I59" s="14" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J59" s="14"/>
       <c r="K59" s="14"/>
       <c r="L59" s="14"/>
       <c r="M59" s="14"/>
     </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="14">
-        <v>310</v>
-      </c>
-      <c r="B60" s="14">
-        <v>1</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="E60" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="F60" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="H60" s="35"/>
-      <c r="I60" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
+    <row r="60" s="8" customFormat="1" spans="1:13">
+      <c r="A60" s="21">
+        <v>307</v>
+      </c>
+      <c r="B60" s="21">
+        <v>1</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="E60" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="F60" s="36">
+        <v>0.65</v>
+      </c>
+      <c r="G60" s="36"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B61" s="14">
         <v>1</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="E61" s="17"/>
+        <v>178</v>
+      </c>
+      <c r="E61" s="17">
+        <v>0.7</v>
+      </c>
       <c r="F61" s="17"/>
       <c r="H61" s="35"/>
       <c r="I61" s="14" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J61" s="14"/>
       <c r="K61" s="14"/>
@@ -4776,26 +4820,26 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B62" s="14">
         <v>1</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E62" s="17">
         <v>0.6</v>
       </c>
       <c r="F62" s="17">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="H62" s="35"/>
       <c r="I62" s="14" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J62" s="14"/>
       <c r="K62" s="14"/>
@@ -4804,24 +4848,26 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B63" s="14">
         <v>1</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E63" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F63" s="17"/>
+        <v>0.6</v>
+      </c>
+      <c r="F63" s="17">
+        <v>0.8</v>
+      </c>
       <c r="H63" s="35"/>
       <c r="I63" s="14" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J63" s="14"/>
       <c r="K63" s="14"/>
@@ -4830,26 +4876,22 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B64" s="14">
         <v>1</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="E64" s="17">
-        <v>0.35</v>
-      </c>
-      <c r="F64" s="17">
-        <v>0.6</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
       <c r="H64" s="35"/>
       <c r="I64" s="14" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="J64" s="14"/>
       <c r="K64" s="14"/>
@@ -4857,206 +4899,210 @@
       <c r="M64" s="14"/>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="23" t="s">
-        <v>185</v>
+      <c r="A65" s="14">
+        <v>312</v>
       </c>
       <c r="B65" s="14">
         <v>1</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E65" s="17">
         <v>0.6</v>
       </c>
-      <c r="F65" s="17"/>
+      <c r="F65" s="17">
+        <v>0.75</v>
+      </c>
       <c r="H65" s="35"/>
       <c r="I65" s="14" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
       <c r="L65" s="14"/>
       <c r="M65" s="14"/>
     </row>
-    <row r="66" s="11" customFormat="1" spans="1:13">
+    <row r="66" spans="1:13">
       <c r="A66" s="14">
-        <v>316</v>
-      </c>
-      <c r="B66" s="31">
-        <v>1</v>
-      </c>
-      <c r="C66" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="D66" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="E66" s="42">
-        <v>0.7</v>
-      </c>
-      <c r="F66" s="42">
-        <v>0.8</v>
-      </c>
-      <c r="G66" s="42"/>
+        <v>313</v>
+      </c>
+      <c r="B66" s="14">
+        <v>1</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="E66" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="F66" s="17"/>
       <c r="H66" s="35"/>
-      <c r="I66" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="J66" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-    </row>
-    <row r="67" s="9" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A67" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="25"/>
+      <c r="I66" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="14">
+        <v>314</v>
+      </c>
+      <c r="B67" s="14">
+        <v>1</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E67" s="17">
+        <v>0.35</v>
+      </c>
+      <c r="F67" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="H67" s="35"/>
+      <c r="I67" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="14" t="s">
-        <v>193</v>
+      <c r="A68" s="23" t="s">
+        <v>197</v>
       </c>
       <c r="B68" s="14">
         <v>1</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E68" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="F68" s="17">
-        <v>0.8</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="F68" s="17"/>
       <c r="H68" s="35"/>
       <c r="I68" s="14" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="J68" s="14"/>
       <c r="K68" s="14"/>
       <c r="L68" s="14"/>
       <c r="M68" s="14"/>
     </row>
-    <row r="69" spans="2:13">
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
+    <row r="69" s="12" customFormat="1" spans="1:13">
+      <c r="A69" s="14">
+        <v>316</v>
+      </c>
+      <c r="B69" s="32">
+        <v>1</v>
+      </c>
+      <c r="C69" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D69" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="E69" s="44">
+        <v>0.7</v>
+      </c>
+      <c r="F69" s="44">
+        <v>0.8</v>
+      </c>
+      <c r="G69" s="44"/>
       <c r="H69" s="35"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-    </row>
-    <row r="70" spans="2:13">
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
+      <c r="I69" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="J69" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="K69" s="32"/>
+      <c r="L69" s="32"/>
+      <c r="M69" s="32"/>
+    </row>
+    <row r="70" s="9" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A70" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="25"/>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="23" t="s">
-        <v>197</v>
+      <c r="A71" s="14" t="s">
+        <v>205</v>
       </c>
       <c r="B71" s="14">
         <v>1</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="E71" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="F71" s="17"/>
+        <v>0.4</v>
+      </c>
+      <c r="F71" s="17">
+        <v>0.8</v>
+      </c>
       <c r="H71" s="35"/>
       <c r="I71" s="14" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="J71" s="14"/>
       <c r="K71" s="14"/>
       <c r="L71" s="14"/>
       <c r="M71" s="14"/>
     </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="B72" s="14">
-        <v>1</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="D72" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="E72" s="17">
-        <v>0.8</v>
-      </c>
+    <row r="72" spans="2:13">
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="17"/>
       <c r="F72" s="17"/>
       <c r="H72" s="35"/>
-      <c r="I72" s="14" t="s">
-        <v>204</v>
-      </c>
+      <c r="I72" s="14"/>
       <c r="J72" s="14"/>
       <c r="K72" s="14"/>
       <c r="L72" s="14"/>
       <c r="M72" s="14"/>
     </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="31">
-        <v>3006</v>
-      </c>
-      <c r="B73" s="14">
-        <v>1</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="E73" s="17">
-        <v>0.6</v>
-      </c>
+    <row r="73" spans="2:13">
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="17"/>
       <c r="F73" s="17"/>
       <c r="H73" s="35"/>
-      <c r="I73" s="14" t="s">
-        <v>207</v>
-      </c>
+      <c r="I73" s="14"/>
       <c r="J73" s="14"/>
       <c r="K73" s="14"/>
       <c r="L73" s="14"/>
@@ -5064,27 +5110,25 @@
     </row>
     <row r="74" s="8" customFormat="1" spans="1:13">
       <c r="A74" s="21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B74" s="21">
         <v>1</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E74" s="36">
-        <v>0.6</v>
-      </c>
-      <c r="F74" s="36">
-        <v>0.75</v>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="F74" s="36"/>
       <c r="G74" s="36"/>
       <c r="H74" s="37"/>
       <c r="I74" s="21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J74" s="21"/>
       <c r="K74" s="21"/>
@@ -5093,16 +5137,16 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B75" s="14">
         <v>1</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E75" s="17">
         <v>0.8</v>
@@ -5110,7 +5154,7 @@
       <c r="F75" s="17"/>
       <c r="H75" s="35"/>
       <c r="I75" s="14" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J75" s="14"/>
       <c r="K75" s="14"/>
@@ -5118,8 +5162,8 @@
       <c r="M75" s="14"/>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="23" t="s">
-        <v>216</v>
+      <c r="A76" s="32">
+        <v>3006</v>
       </c>
       <c r="B76" s="14">
         <v>1</v>
@@ -5128,7 +5172,7 @@
         <v>217</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="E76" s="17">
         <v>0.6</v>
@@ -5136,114 +5180,115 @@
       <c r="F76" s="17"/>
       <c r="H76" s="35"/>
       <c r="I76" s="14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J76" s="14"/>
       <c r="K76" s="14"/>
       <c r="L76" s="14"/>
       <c r="M76" s="14"/>
     </row>
-    <row r="77" s="9" customFormat="1" spans="1:13">
-      <c r="A77" s="25"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="25"/>
-      <c r="L77" s="25"/>
-      <c r="M77" s="25"/>
-    </row>
-    <row r="78" spans="2:13">
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="17"/>
+    <row r="77" s="8" customFormat="1" spans="1:13">
+      <c r="A77" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B77" s="21">
+        <v>1</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="E77" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="F77" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="G77" s="36"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="B78" s="14">
+        <v>1</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="E78" s="17">
+        <v>0.8</v>
+      </c>
       <c r="F78" s="17"/>
       <c r="H78" s="35"/>
-      <c r="I78" s="14"/>
+      <c r="I78" s="14" t="s">
+        <v>227</v>
+      </c>
       <c r="J78" s="14"/>
       <c r="K78" s="14"/>
       <c r="L78" s="14"/>
       <c r="M78" s="14"/>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="14">
-        <v>3101</v>
+      <c r="A79" s="23" t="s">
+        <v>228</v>
       </c>
       <c r="B79" s="14">
         <v>1</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="E79" s="17">
         <v>0.6</v>
       </c>
-      <c r="F79" s="17">
-        <v>0.8</v>
-      </c>
+      <c r="F79" s="17"/>
       <c r="H79" s="35"/>
       <c r="I79" s="14" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="J79" s="14"/>
       <c r="K79" s="14"/>
       <c r="L79" s="14"/>
       <c r="M79" s="14"/>
     </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="14">
-        <v>3102</v>
-      </c>
-      <c r="B80" s="14">
-        <v>1</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="D80" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="E80" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="F80" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="H80" s="35"/>
-      <c r="I80" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="14"/>
-    </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="14">
-        <v>3103</v>
-      </c>
-      <c r="B81" s="14">
-        <v>1</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>225</v>
-      </c>
+    <row r="80" s="9" customFormat="1" spans="1:13">
+      <c r="A80" s="25"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="25"/>
+      <c r="M80" s="25"/>
+    </row>
+    <row r="81" spans="2:13">
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
       <c r="D81" s="20"/>
-      <c r="E81" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="F81" s="17">
-        <v>0.8</v>
-      </c>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
       <c r="H81" s="35"/>
       <c r="I81" s="14"/>
       <c r="J81" s="14"/>
@@ -5251,138 +5296,133 @@
       <c r="L81" s="14"/>
       <c r="M81" s="14"/>
     </row>
-    <row r="82" s="8" customFormat="1" spans="1:13">
-      <c r="A82" s="21">
-        <v>3104</v>
-      </c>
-      <c r="B82" s="21">
-        <v>1</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="D82" s="22"/>
-      <c r="E82" s="36">
+    <row r="82" spans="1:13">
+      <c r="A82" s="14">
+        <v>3101</v>
+      </c>
+      <c r="B82" s="14">
+        <v>1</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="E82" s="17">
         <v>0.6</v>
       </c>
-      <c r="F82" s="36">
-        <v>0.8</v>
-      </c>
-      <c r="G82" s="36"/>
-      <c r="H82" s="37"/>
-      <c r="I82" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="J82" s="21"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="21"/>
-      <c r="M82" s="21"/>
-    </row>
-    <row r="83" s="9" customFormat="1" ht="23.2" spans="1:13">
-      <c r="A83" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="38"/>
-      <c r="F83" s="38"/>
-      <c r="G83" s="38"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="25"/>
-      <c r="J83" s="25"/>
-      <c r="K83" s="25"/>
-      <c r="L83" s="25"/>
-      <c r="M83" s="25"/>
+      <c r="F82" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="H82" s="35"/>
+      <c r="I82" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="14"/>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="14">
+        <v>3102</v>
+      </c>
+      <c r="B83" s="14">
+        <v>1</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="E83" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="F83" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="H83" s="35"/>
+      <c r="I83" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="14"/>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="14">
-        <v>3201</v>
+        <v>3103</v>
       </c>
       <c r="B84" s="14">
         <v>1</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>230</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="D84" s="20"/>
       <c r="E84" s="17">
         <v>0.6</v>
       </c>
       <c r="F84" s="17">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="H84" s="35"/>
-      <c r="I84" s="14" t="s">
-        <v>231</v>
-      </c>
+      <c r="I84" s="14"/>
       <c r="J84" s="14"/>
       <c r="K84" s="14"/>
       <c r="L84" s="14"/>
       <c r="M84" s="14"/>
     </row>
     <row r="85" s="8" customFormat="1" spans="1:13">
-      <c r="A85" s="21" t="s">
-        <v>232</v>
+      <c r="A85" s="21">
+        <v>3104</v>
       </c>
       <c r="B85" s="21">
         <v>1</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="D85" s="22" t="s">
-        <v>234</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="D85" s="22"/>
       <c r="E85" s="36">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F85" s="36">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="G85" s="36"/>
       <c r="H85" s="37"/>
       <c r="I85" s="21" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J85" s="21"/>
       <c r="K85" s="21"/>
       <c r="L85" s="21"/>
       <c r="M85" s="21"/>
     </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="B86" s="14">
-        <v>1</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D86" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="E86" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="F86" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="H86" s="35"/>
-      <c r="I86" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="J86" s="14"/>
-      <c r="K86" s="14"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="14"/>
+    <row r="86" s="9" customFormat="1" ht="23.2" spans="1:13">
+      <c r="A86" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="25"/>
+      <c r="M86" s="25"/>
     </row>
     <row r="87" spans="1:13">
-      <c r="A87" s="14" t="s">
-        <v>240</v>
+      <c r="A87" s="14">
+        <v>3201</v>
       </c>
       <c r="B87" s="14">
         <v>1</v>
@@ -5394,10 +5434,10 @@
         <v>242</v>
       </c>
       <c r="E87" s="17">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F87" s="17">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="H87" s="35"/>
       <c r="I87" s="14" t="s">
@@ -5408,100 +5448,114 @@
       <c r="L87" s="14"/>
       <c r="M87" s="14"/>
     </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="14">
-        <v>3205</v>
-      </c>
-      <c r="B88" s="14">
-        <v>1</v>
-      </c>
-      <c r="C88" s="14" t="s">
+    <row r="88" s="8" customFormat="1" spans="1:13">
+      <c r="A88" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="D88" s="20" t="s">
+      <c r="B88" s="21">
+        <v>1</v>
+      </c>
+      <c r="C88" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="E88" s="17">
+      <c r="D88" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="E88" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="F88" s="36">
         <v>0.7</v>
       </c>
-      <c r="F88" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="H88" s="35"/>
-      <c r="I88" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="J88" s="14"/>
-      <c r="K88" s="14"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="14"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="J88" s="21"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="21"/>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="14">
-        <v>3206</v>
+      <c r="A89" s="14" t="s">
+        <v>248</v>
       </c>
       <c r="B89" s="14">
         <v>1</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E89" s="17">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F89" s="17">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="H89" s="35"/>
       <c r="I89" s="14" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J89" s="14"/>
       <c r="K89" s="14"/>
       <c r="L89" s="14"/>
       <c r="M89" s="14"/>
     </row>
-    <row r="90" s="9" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A90" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="25"/>
-      <c r="J90" s="25"/>
-      <c r="K90" s="25"/>
-      <c r="L90" s="25"/>
-      <c r="M90" s="25"/>
+    <row r="90" spans="1:13">
+      <c r="A90" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B90" s="14">
+        <v>1</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="E90" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="F90" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="H90" s="35"/>
+      <c r="I90" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="14"/>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="14">
-        <v>3301</v>
+        <v>3205</v>
       </c>
       <c r="B91" s="14">
         <v>1</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E91" s="17">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="F91" s="17">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="H91" s="35"/>
-      <c r="I91" s="14"/>
+      <c r="I91" s="14" t="s">
+        <v>258</v>
+      </c>
       <c r="J91" s="14"/>
       <c r="K91" s="14"/>
       <c r="L91" s="14"/>
@@ -5509,81 +5563,70 @@
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="14">
-        <v>3302</v>
+        <v>3206</v>
       </c>
       <c r="B92" s="14">
         <v>1</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E92" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F92" s="17"/>
+        <v>0.6</v>
+      </c>
+      <c r="F92" s="17">
+        <v>0.85</v>
+      </c>
       <c r="H92" s="35"/>
       <c r="I92" s="14" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="J92" s="14"/>
       <c r="K92" s="14"/>
       <c r="L92" s="14"/>
       <c r="M92" s="14"/>
     </row>
-    <row r="93" spans="1:13">
-      <c r="A93" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="B93" s="14">
-        <v>1</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="D93" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="E93" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="F93" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="H93" s="35"/>
-      <c r="I93" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="J93" s="14"/>
-      <c r="K93" s="14"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="14"/>
+    <row r="93" s="9" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A93" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="B93" s="25"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="38"/>
+      <c r="G93" s="38"/>
+      <c r="H93" s="39"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="25"/>
+      <c r="L93" s="25"/>
+      <c r="M93" s="25"/>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="14" t="s">
-        <v>260</v>
+      <c r="A94" s="14">
+        <v>3301</v>
       </c>
       <c r="B94" s="14">
         <v>1</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E94" s="17">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F94" s="17">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="H94" s="35"/>
-      <c r="I94" s="14" t="s">
-        <v>263</v>
-      </c>
+      <c r="I94" s="14"/>
       <c r="J94" s="14"/>
       <c r="K94" s="14"/>
       <c r="L94" s="14"/>
@@ -5591,26 +5634,24 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="14">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="B95" s="14">
         <v>1</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E95" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="F95" s="17">
-        <v>0.8</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="F95" s="17"/>
       <c r="H95" s="35"/>
       <c r="I95" s="14" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J95" s="14"/>
       <c r="K95" s="14"/>
@@ -5618,17 +5659,17 @@
       <c r="M95" s="14"/>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="14">
-        <v>3306</v>
+      <c r="A96" s="14" t="s">
+        <v>268</v>
       </c>
       <c r="B96" s="14">
         <v>1</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E96" s="17">
         <v>0.6</v>
@@ -5638,7 +5679,7 @@
       </c>
       <c r="H96" s="35"/>
       <c r="I96" s="14" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J96" s="14"/>
       <c r="K96" s="14"/>
@@ -5646,71 +5687,84 @@
       <c r="M96" s="14"/>
     </row>
     <row r="97" spans="1:13">
-      <c r="A97" s="14">
-        <v>3307</v>
+      <c r="A97" s="14" t="s">
+        <v>272</v>
       </c>
       <c r="B97" s="14">
         <v>1</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E97" s="17">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F97" s="17">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H97" s="35"/>
       <c r="I97" s="14" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="J97" s="14"/>
       <c r="K97" s="14"/>
       <c r="L97" s="14"/>
       <c r="M97" s="14"/>
     </row>
-    <row r="98" s="9" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A98" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="B98" s="25"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="38"/>
-      <c r="F98" s="38"/>
-      <c r="G98" s="38"/>
-      <c r="H98" s="39"/>
-      <c r="I98" s="25"/>
-      <c r="J98" s="25"/>
-      <c r="K98" s="25"/>
-      <c r="L98" s="25"/>
-      <c r="M98" s="25"/>
+    <row r="98" spans="1:13">
+      <c r="A98" s="14">
+        <v>3305</v>
+      </c>
+      <c r="B98" s="14">
+        <v>1</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="E98" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="F98" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="H98" s="35"/>
+      <c r="I98" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="J98" s="14"/>
+      <c r="K98" s="14"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="14"/>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="14">
-        <v>3401</v>
+        <v>3306</v>
       </c>
       <c r="B99" s="14">
         <v>1</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="E99" s="17">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F99" s="17">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H99" s="35"/>
-      <c r="I99" s="14"/>
+      <c r="I99" s="14" t="s">
+        <v>281</v>
+      </c>
       <c r="J99" s="14"/>
       <c r="K99" s="14"/>
       <c r="L99" s="14"/>
@@ -5718,68 +5772,61 @@
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="14">
-        <v>3402</v>
+        <v>3307</v>
       </c>
       <c r="B100" s="14">
         <v>1</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E100" s="17">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="F100" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H100" s="35"/>
-      <c r="I100" s="14"/>
+      <c r="I100" s="14" t="s">
+        <v>284</v>
+      </c>
       <c r="J100" s="14"/>
       <c r="K100" s="14"/>
       <c r="L100" s="14"/>
       <c r="M100" s="14"/>
     </row>
-    <row r="101" spans="1:13">
-      <c r="A101" s="14">
-        <v>3403</v>
-      </c>
-      <c r="B101" s="14">
-        <v>1</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="D101" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="E101" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="F101" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="H101" s="35"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="14"/>
-      <c r="K101" s="14"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="14"/>
+    <row r="101" s="9" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A101" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="B101" s="25"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="38"/>
+      <c r="F101" s="38"/>
+      <c r="G101" s="38"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="25"/>
+      <c r="K101" s="25"/>
+      <c r="L101" s="25"/>
+      <c r="M101" s="25"/>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="14">
-        <v>3404</v>
+        <v>3401</v>
       </c>
       <c r="B102" s="14">
         <v>1</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E102" s="17">
         <v>0.4</v>
@@ -5795,17 +5842,17 @@
       <c r="M102" s="14"/>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="14" t="s">
-        <v>282</v>
+      <c r="A103" s="14">
+        <v>3402</v>
       </c>
       <c r="B103" s="14">
         <v>1</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E103" s="17">
         <v>0.4</v>
@@ -5822,16 +5869,16 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="14">
-        <v>3406</v>
+        <v>3403</v>
       </c>
       <c r="B104" s="14">
         <v>1</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="E104" s="17">
         <v>0.4</v>
@@ -5846,44 +5893,53 @@
       <c r="L104" s="14"/>
       <c r="M104" s="14"/>
     </row>
-    <row r="105" s="9" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A105" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="B105" s="25"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="38"/>
-      <c r="F105" s="38"/>
-      <c r="G105" s="38"/>
-      <c r="H105" s="39"/>
-      <c r="I105" s="25"/>
-      <c r="J105" s="25"/>
-      <c r="K105" s="25"/>
-      <c r="L105" s="25"/>
-      <c r="M105" s="25"/>
+    <row r="105" spans="1:13">
+      <c r="A105" s="14">
+        <v>3404</v>
+      </c>
+      <c r="B105" s="14">
+        <v>1</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="D105" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="E105" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="F105" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="H105" s="35"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="14"/>
+      <c r="K105" s="14"/>
+      <c r="L105" s="14"/>
+      <c r="M105" s="14"/>
     </row>
     <row r="106" spans="1:13">
-      <c r="A106" s="14">
-        <v>3501</v>
+      <c r="A106" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="B106" s="14">
         <v>1</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="E106" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="F106" s="17"/>
+        <v>0.4</v>
+      </c>
+      <c r="F106" s="17">
+        <v>0.7</v>
+      </c>
       <c r="H106" s="35"/>
-      <c r="I106" s="14" t="s">
-        <v>290</v>
-      </c>
+      <c r="I106" s="14"/>
       <c r="J106" s="14"/>
       <c r="K106" s="14"/>
       <c r="L106" s="14"/>
@@ -5891,136 +5947,147 @@
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="14">
-        <v>3502</v>
+        <v>3406</v>
       </c>
       <c r="B107" s="14">
         <v>1</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="E107" s="17">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F107" s="17">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H107" s="35"/>
-      <c r="I107" s="14" t="s">
-        <v>293</v>
-      </c>
+      <c r="I107" s="14"/>
       <c r="J107" s="14"/>
       <c r="K107" s="14"/>
       <c r="L107" s="14"/>
       <c r="M107" s="14"/>
     </row>
-    <row r="108" spans="1:13">
-      <c r="A108" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="B108" s="14">
-        <v>1</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="D108" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="E108" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="F108" s="17"/>
-      <c r="H108" s="35"/>
-      <c r="I108" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="J108" s="14"/>
-      <c r="K108" s="14"/>
-      <c r="L108" s="14"/>
-      <c r="M108" s="14"/>
+    <row r="108" s="9" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A108" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="B108" s="25"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="38"/>
+      <c r="F108" s="38"/>
+      <c r="G108" s="38"/>
+      <c r="H108" s="39"/>
+      <c r="I108" s="25"/>
+      <c r="J108" s="25"/>
+      <c r="K108" s="25"/>
+      <c r="L108" s="25"/>
+      <c r="M108" s="25"/>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="14">
-        <v>3504</v>
+        <v>3501</v>
       </c>
       <c r="B109" s="14">
         <v>1</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E109" s="17">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F109" s="17"/>
       <c r="H109" s="35"/>
       <c r="I109" s="14" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J109" s="14"/>
       <c r="K109" s="14"/>
       <c r="L109" s="14"/>
       <c r="M109" s="14"/>
     </row>
-    <row r="110" spans="2:13">
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="20"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
+    <row r="110" spans="1:13">
+      <c r="A110" s="14">
+        <v>3502</v>
+      </c>
+      <c r="B110" s="14">
+        <v>1</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D110" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="E110" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="F110" s="17">
+        <v>0.8</v>
+      </c>
       <c r="H110" s="35"/>
-      <c r="I110" s="14"/>
+      <c r="I110" s="14" t="s">
+        <v>305</v>
+      </c>
       <c r="J110" s="14"/>
       <c r="K110" s="14"/>
       <c r="L110" s="14"/>
       <c r="M110" s="14"/>
     </row>
-    <row r="111" s="9" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A111" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="B111" s="25"/>
-      <c r="C111" s="25"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="38"/>
-      <c r="F111" s="38"/>
-      <c r="G111" s="38"/>
-      <c r="H111" s="39"/>
-      <c r="I111" s="25"/>
-      <c r="J111" s="25"/>
-      <c r="K111" s="25"/>
-      <c r="L111" s="25"/>
-      <c r="M111" s="25"/>
+    <row r="111" spans="1:13">
+      <c r="A111" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B111" s="14">
+        <v>1</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D111" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="E111" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="F111" s="17"/>
+      <c r="H111" s="35"/>
+      <c r="I111" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="J111" s="14"/>
+      <c r="K111" s="14"/>
+      <c r="L111" s="14"/>
+      <c r="M111" s="14"/>
     </row>
     <row r="112" spans="1:13">
-      <c r="A112" s="14" t="s">
-        <v>302</v>
+      <c r="A112" s="14">
+        <v>3504</v>
       </c>
       <c r="B112" s="14">
         <v>1</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="E112" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="F112" s="17">
-        <v>0.7</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="F112" s="17"/>
       <c r="H112" s="35"/>
       <c r="I112" s="14" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="J112" s="14"/>
       <c r="K112" s="14"/>
@@ -6040,79 +6107,59 @@
       <c r="L113" s="14"/>
       <c r="M113" s="14"/>
     </row>
-    <row r="114" spans="1:13">
-      <c r="A114" s="14">
-        <v>403</v>
-      </c>
-      <c r="B114" s="14">
-        <v>1</v>
-      </c>
-      <c r="C114" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="D114" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="E114" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F114" s="17"/>
-      <c r="H114" s="35"/>
-      <c r="I114" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="J114" s="14"/>
-      <c r="K114" s="14"/>
-      <c r="L114" s="14"/>
-      <c r="M114" s="14"/>
+    <row r="114" s="9" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A114" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="B114" s="25"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="38"/>
+      <c r="F114" s="38"/>
+      <c r="G114" s="38"/>
+      <c r="H114" s="39"/>
+      <c r="I114" s="25"/>
+      <c r="J114" s="25"/>
+      <c r="K114" s="25"/>
+      <c r="L114" s="25"/>
+      <c r="M114" s="25"/>
     </row>
     <row r="115" spans="1:13">
-      <c r="A115" s="14">
-        <v>404</v>
+      <c r="A115" s="14" t="s">
+        <v>314</v>
       </c>
       <c r="B115" s="14">
         <v>1</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="D115" s="20"/>
+        <v>314</v>
+      </c>
+      <c r="D115" s="20" t="s">
+        <v>315</v>
+      </c>
       <c r="E115" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="F115" s="17">
         <v>0.7</v>
-      </c>
-      <c r="F115" s="17">
-        <v>0.8</v>
       </c>
       <c r="H115" s="35"/>
       <c r="I115" s="14" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="J115" s="14"/>
       <c r="K115" s="14"/>
       <c r="L115" s="14"/>
       <c r="M115" s="14"/>
     </row>
-    <row r="116" spans="1:13">
-      <c r="A116" s="14">
-        <v>405</v>
-      </c>
-      <c r="B116" s="14">
-        <v>1</v>
-      </c>
-      <c r="C116" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="D116" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="E116" s="17">
-        <v>0.8</v>
-      </c>
+    <row r="116" spans="2:13">
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="17"/>
       <c r="F116" s="17"/>
       <c r="H116" s="35"/>
-      <c r="I116" s="14" t="s">
-        <v>307</v>
-      </c>
+      <c r="I116" s="14"/>
       <c r="J116" s="14"/>
       <c r="K116" s="14"/>
       <c r="L116" s="14"/>
@@ -6120,24 +6167,24 @@
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="14">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B117" s="14">
         <v>1</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="E117" s="17">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F117" s="17"/>
       <c r="H117" s="35"/>
       <c r="I117" s="14" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="J117" s="14"/>
       <c r="K117" s="14"/>
@@ -6146,26 +6193,24 @@
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="14">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B118" s="14">
         <v>1</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="D118" s="20" t="s">
-        <v>316</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="D118" s="20"/>
       <c r="E118" s="17">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="F118" s="17">
         <v>0.8</v>
       </c>
       <c r="H118" s="35"/>
       <c r="I118" s="14" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="J118" s="14"/>
       <c r="K118" s="14"/>
@@ -6174,23 +6219,25 @@
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="14">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B119" s="14">
         <v>1</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E119" s="17">
         <v>0.8</v>
       </c>
       <c r="F119" s="17"/>
       <c r="H119" s="35"/>
-      <c r="I119" s="14"/>
+      <c r="I119" s="14" t="s">
+        <v>319</v>
+      </c>
       <c r="J119" s="14"/>
       <c r="K119" s="14"/>
       <c r="L119" s="14"/>
@@ -6198,26 +6245,24 @@
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="14">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B120" s="14">
         <v>1</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E120" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="F120" s="17">
         <v>0.6</v>
       </c>
+      <c r="F120" s="17"/>
       <c r="H120" s="35"/>
       <c r="I120" s="14" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="J120" s="14"/>
       <c r="K120" s="14"/>
@@ -6226,24 +6271,26 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="14">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B121" s="14">
         <v>1</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E121" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="F121" s="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="F121" s="17">
+        <v>0.8</v>
+      </c>
       <c r="H121" s="35"/>
       <c r="I121" s="14" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="J121" s="14"/>
       <c r="K121" s="14"/>
@@ -6252,25 +6299,23 @@
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="14">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B122" s="14">
         <v>1</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D122" s="20" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="E122" s="17">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F122" s="17"/>
       <c r="H122" s="35"/>
-      <c r="I122" s="14" t="s">
-        <v>328</v>
-      </c>
+      <c r="I122" s="14"/>
       <c r="J122" s="14"/>
       <c r="K122" s="14"/>
       <c r="L122" s="14"/>
@@ -6278,24 +6323,26 @@
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="14">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B123" s="14">
         <v>1</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D123" s="20" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E123" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="F123" s="17"/>
+        <v>0.4</v>
+      </c>
+      <c r="F123" s="17">
+        <v>0.6</v>
+      </c>
       <c r="H123" s="35"/>
       <c r="I123" s="14" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="J123" s="14"/>
       <c r="K123" s="14"/>
@@ -6304,26 +6351,24 @@
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="14">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B124" s="14">
         <v>1</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E124" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="F124" s="17">
-        <v>0.8</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="F124" s="17"/>
       <c r="H124" s="35"/>
       <c r="I124" s="14" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="J124" s="14"/>
       <c r="K124" s="14"/>
@@ -6332,107 +6377,116 @@
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="14">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B125" s="14">
         <v>1</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D125" s="20" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E125" s="17">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F125" s="17"/>
       <c r="H125" s="35"/>
       <c r="I125" s="14" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="J125" s="14"/>
       <c r="K125" s="14"/>
       <c r="L125" s="14"/>
       <c r="M125" s="14"/>
     </row>
-    <row r="126" spans="2:13">
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="20"/>
-      <c r="E126" s="17"/>
+    <row r="126" spans="1:13">
+      <c r="A126" s="14">
+        <v>412</v>
+      </c>
+      <c r="B126" s="14">
+        <v>1</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="D126" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="E126" s="17">
+        <v>0.7</v>
+      </c>
       <c r="F126" s="17"/>
       <c r="H126" s="35"/>
-      <c r="I126" s="14"/>
+      <c r="I126" s="14" t="s">
+        <v>343</v>
+      </c>
       <c r="J126" s="14"/>
       <c r="K126" s="14"/>
       <c r="L126" s="14"/>
       <c r="M126" s="14"/>
     </row>
-    <row r="127" s="9" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A127" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="B127" s="25"/>
-      <c r="C127" s="25"/>
-      <c r="D127" s="26"/>
-      <c r="E127" s="38"/>
-      <c r="F127" s="38"/>
-      <c r="G127" s="38"/>
-      <c r="H127" s="39"/>
-      <c r="I127" s="25"/>
-      <c r="J127" s="25"/>
-      <c r="K127" s="25"/>
-      <c r="L127" s="25"/>
-      <c r="M127" s="25"/>
+    <row r="127" spans="1:13">
+      <c r="A127" s="14">
+        <v>413</v>
+      </c>
+      <c r="B127" s="14">
+        <v>1</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="D127" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="E127" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="F127" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="H127" s="35"/>
+      <c r="I127" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="J127" s="14"/>
+      <c r="K127" s="14"/>
+      <c r="L127" s="14"/>
+      <c r="M127" s="14"/>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="14">
-        <v>501</v>
+        <v>414</v>
       </c>
       <c r="B128" s="14">
         <v>1</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="E128" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="F128" s="17">
-        <v>0.6</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="F128" s="17"/>
       <c r="H128" s="35"/>
       <c r="I128" s="14" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="J128" s="14"/>
       <c r="K128" s="14"/>
       <c r="L128" s="14"/>
       <c r="M128" s="14"/>
     </row>
-    <row r="129" spans="1:13">
-      <c r="A129" s="14">
-        <v>502</v>
-      </c>
-      <c r="B129" s="14">
-        <v>1</v>
-      </c>
-      <c r="C129" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="D129" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="E129" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="F129" s="17">
-        <v>0.7</v>
-      </c>
+    <row r="129" spans="2:13">
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="17"/>
       <c r="H129" s="35"/>
       <c r="I129" s="14"/>
       <c r="J129" s="14"/>
@@ -6440,54 +6494,45 @@
       <c r="L129" s="14"/>
       <c r="M129" s="14"/>
     </row>
-    <row r="130" spans="1:13">
-      <c r="A130" s="14">
-        <v>503</v>
-      </c>
-      <c r="B130" s="14">
-        <v>1</v>
-      </c>
-      <c r="C130" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="D130" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="E130" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F130" s="17"/>
-      <c r="H130" s="35"/>
-      <c r="I130" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="J130" s="14"/>
-      <c r="K130" s="14"/>
-      <c r="L130" s="14"/>
-      <c r="M130" s="14"/>
+    <row r="130" s="9" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A130" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="B130" s="25"/>
+      <c r="C130" s="25"/>
+      <c r="D130" s="26"/>
+      <c r="E130" s="38"/>
+      <c r="F130" s="38"/>
+      <c r="G130" s="38"/>
+      <c r="H130" s="39"/>
+      <c r="I130" s="25"/>
+      <c r="J130" s="25"/>
+      <c r="K130" s="25"/>
+      <c r="L130" s="25"/>
+      <c r="M130" s="25"/>
     </row>
     <row r="131" spans="1:13">
-      <c r="A131" s="14" t="s">
-        <v>347</v>
+      <c r="A131" s="14">
+        <v>501</v>
       </c>
       <c r="B131" s="14">
         <v>1</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E131" s="17">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F131" s="17">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="H131" s="35"/>
       <c r="I131" s="14" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="J131" s="14"/>
       <c r="K131" s="14"/>
@@ -6495,36 +6540,34 @@
       <c r="M131" s="14"/>
     </row>
     <row r="132" spans="1:13">
-      <c r="A132" s="14" t="s">
-        <v>351</v>
+      <c r="A132" s="14">
+        <v>502</v>
       </c>
       <c r="B132" s="14">
         <v>1</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E132" s="17">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F132" s="17">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H132" s="35"/>
-      <c r="I132" s="14" t="s">
-        <v>354</v>
-      </c>
+      <c r="I132" s="14"/>
       <c r="J132" s="14"/>
       <c r="K132" s="14"/>
       <c r="L132" s="14"/>
       <c r="M132" s="14"/>
     </row>
     <row r="133" spans="1:13">
-      <c r="A133" s="14" t="s">
-        <v>355</v>
+      <c r="A133" s="14">
+        <v>503</v>
       </c>
       <c r="B133" s="14">
         <v>1</v>
@@ -6536,11 +6579,9 @@
         <v>357</v>
       </c>
       <c r="E133" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="F133" s="17">
-        <v>0.8</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="F133" s="17"/>
       <c r="H133" s="35"/>
       <c r="I133" s="14" t="s">
         <v>358</v>
@@ -6551,27 +6592,27 @@
       <c r="M133" s="14"/>
     </row>
     <row r="134" spans="1:13">
-      <c r="A134" s="14">
-        <v>507</v>
+      <c r="A134" s="14" t="s">
+        <v>359</v>
       </c>
       <c r="B134" s="14">
         <v>1</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E134" s="17">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="F134" s="17">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="H134" s="35"/>
       <c r="I134" s="14" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J134" s="14"/>
       <c r="K134" s="14"/>
@@ -6579,25 +6620,27 @@
       <c r="M134" s="14"/>
     </row>
     <row r="135" spans="1:13">
-      <c r="A135" s="14">
-        <v>508</v>
+      <c r="A135" s="14" t="s">
+        <v>363</v>
       </c>
       <c r="B135" s="14">
         <v>1</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E135" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="F135" s="17"/>
+        <v>0.6</v>
+      </c>
+      <c r="F135" s="17">
+        <v>0.8</v>
+      </c>
       <c r="H135" s="35"/>
       <c r="I135" s="14" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="J135" s="14"/>
       <c r="K135" s="14"/>
@@ -6605,26 +6648,28 @@
       <c r="M135" s="14"/>
     </row>
     <row r="136" spans="1:13">
-      <c r="A136" s="14">
-        <v>509</v>
+      <c r="A136" s="14" t="s">
+        <v>367</v>
       </c>
       <c r="B136" s="14">
         <v>1</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D136" s="20" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E136" s="17">
         <v>0.6</v>
       </c>
       <c r="F136" s="17">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H136" s="35"/>
-      <c r="I136" s="14"/>
+      <c r="I136" s="14" t="s">
+        <v>370</v>
+      </c>
       <c r="J136" s="14"/>
       <c r="K136" s="14"/>
       <c r="L136" s="14"/>
@@ -6632,153 +6677,157 @@
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="14">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B137" s="14">
         <v>1</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="E137" s="17">
         <v>0.7</v>
       </c>
-      <c r="F137" s="17"/>
+      <c r="F137" s="17">
+        <v>0.85</v>
+      </c>
       <c r="H137" s="35"/>
       <c r="I137" s="14" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="J137" s="14"/>
       <c r="K137" s="14"/>
       <c r="L137" s="14"/>
       <c r="M137" s="14"/>
     </row>
-    <row r="138" s="8" customFormat="1" spans="1:13">
-      <c r="A138" s="21">
-        <v>511</v>
-      </c>
-      <c r="B138" s="21">
-        <v>1</v>
-      </c>
-      <c r="C138" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="D138" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="E138" s="36">
-        <v>0.6</v>
-      </c>
-      <c r="F138" s="36"/>
-      <c r="G138" s="36"/>
-      <c r="H138" s="37"/>
-      <c r="I138" s="21" t="s">
-        <v>372</v>
-      </c>
-      <c r="J138" s="21"/>
-      <c r="K138" s="21"/>
-      <c r="L138" s="21"/>
-      <c r="M138" s="21"/>
+    <row r="138" spans="1:13">
+      <c r="A138" s="14">
+        <v>508</v>
+      </c>
+      <c r="B138" s="14">
+        <v>1</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="D138" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="E138" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="F138" s="17"/>
+      <c r="H138" s="35"/>
+      <c r="I138" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="J138" s="14"/>
+      <c r="K138" s="14"/>
+      <c r="L138" s="14"/>
+      <c r="M138" s="14"/>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="14">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B139" s="14">
         <v>1</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D139" s="20" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E139" s="17">
         <v>0.6</v>
       </c>
-      <c r="F139" s="17"/>
+      <c r="F139" s="17">
+        <v>1</v>
+      </c>
       <c r="H139" s="35"/>
-      <c r="I139" s="14" t="s">
-        <v>375</v>
-      </c>
+      <c r="I139" s="14"/>
       <c r="J139" s="14"/>
       <c r="K139" s="14"/>
       <c r="L139" s="14"/>
       <c r="M139" s="14"/>
     </row>
     <row r="140" spans="1:13">
-      <c r="A140" s="23" t="s">
-        <v>376</v>
+      <c r="A140" s="14">
+        <v>510</v>
       </c>
       <c r="B140" s="14">
         <v>1</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D140" s="20" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E140" s="17">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F140" s="17"/>
       <c r="H140" s="35"/>
       <c r="I140" s="14" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J140" s="14"/>
       <c r="K140" s="14"/>
       <c r="L140" s="14"/>
       <c r="M140" s="14"/>
     </row>
-    <row r="141" spans="1:13">
-      <c r="A141" s="14">
-        <v>514</v>
-      </c>
-      <c r="B141" s="14">
-        <v>1</v>
-      </c>
-      <c r="C141" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="D141" s="20"/>
-      <c r="E141" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F141" s="17"/>
-      <c r="H141" s="35"/>
-      <c r="I141" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="J141" s="14"/>
-      <c r="K141" s="14"/>
-      <c r="L141" s="14"/>
-      <c r="M141" s="14"/>
+    <row r="141" s="8" customFormat="1" spans="1:13">
+      <c r="A141" s="21">
+        <v>511</v>
+      </c>
+      <c r="B141" s="21">
+        <v>1</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="D141" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="E141" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="F141" s="36"/>
+      <c r="G141" s="36"/>
+      <c r="H141" s="37"/>
+      <c r="I141" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="J141" s="21"/>
+      <c r="K141" s="21"/>
+      <c r="L141" s="21"/>
+      <c r="M141" s="21"/>
     </row>
     <row r="142" spans="1:13">
       <c r="A142" s="14">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B142" s="14">
         <v>1</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D142" s="20" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E142" s="17">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F142" s="17"/>
       <c r="H142" s="35"/>
       <c r="I142" s="14" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="J142" s="14"/>
       <c r="K142" s="14"/>
@@ -6786,25 +6835,25 @@
       <c r="M142" s="14"/>
     </row>
     <row r="143" spans="1:13">
-      <c r="A143" s="14" t="s">
-        <v>385</v>
+      <c r="A143" s="23" t="s">
+        <v>388</v>
       </c>
       <c r="B143" s="14">
         <v>1</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="D143" s="20"/>
+        <v>389</v>
+      </c>
+      <c r="D143" s="20" t="s">
+        <v>390</v>
+      </c>
       <c r="E143" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="F143" s="17">
-        <v>0.8</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="F143" s="17"/>
       <c r="H143" s="35"/>
       <c r="I143" s="14" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="J143" s="14"/>
       <c r="K143" s="14"/>
@@ -6812,27 +6861,23 @@
       <c r="M143" s="14"/>
     </row>
     <row r="144" spans="1:13">
-      <c r="A144" s="14" t="s">
-        <v>388</v>
+      <c r="A144" s="14">
+        <v>514</v>
       </c>
       <c r="B144" s="14">
         <v>1</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="D144" s="20" t="s">
-        <v>390</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="D144" s="20"/>
       <c r="E144" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="F144" s="17">
-        <v>0.8</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="F144" s="17"/>
       <c r="H144" s="35"/>
       <c r="I144" s="14" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="J144" s="14"/>
       <c r="K144" s="14"/>
@@ -6841,24 +6886,24 @@
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="14">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B145" s="14">
         <v>1</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E145" s="17">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F145" s="17"/>
       <c r="H145" s="35"/>
       <c r="I145" s="14" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="J145" s="14"/>
       <c r="K145" s="14"/>
@@ -6866,166 +6911,163 @@
       <c r="M145" s="14"/>
     </row>
     <row r="146" spans="1:13">
-      <c r="A146" s="14">
-        <v>519</v>
+      <c r="A146" s="14" t="s">
+        <v>397</v>
       </c>
       <c r="B146" s="14">
         <v>1</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D146" s="20"/>
       <c r="E146" s="17">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F146" s="17">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="H146" s="35"/>
       <c r="I146" s="14" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="J146" s="14"/>
       <c r="K146" s="14"/>
       <c r="L146" s="14"/>
       <c r="M146" s="14"/>
     </row>
-    <row r="147" spans="2:13">
+    <row r="147" spans="1:13">
+      <c r="A147" s="14" t="s">
+        <v>400</v>
+      </c>
       <c r="B147" s="14">
         <v>1</v>
       </c>
-      <c r="C147" s="14"/>
-      <c r="D147" s="20"/>
-      <c r="E147" s="17"/>
-      <c r="F147" s="17"/>
+      <c r="C147" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="D147" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="E147" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="F147" s="17">
+        <v>0.8</v>
+      </c>
       <c r="H147" s="35"/>
-      <c r="I147" s="14"/>
+      <c r="I147" s="14" t="s">
+        <v>403</v>
+      </c>
       <c r="J147" s="14"/>
       <c r="K147" s="14"/>
       <c r="L147" s="14"/>
       <c r="M147" s="14"/>
     </row>
-    <row r="148" s="9" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A148" s="24" t="s">
-        <v>397</v>
-      </c>
-      <c r="B148" s="25"/>
-      <c r="C148" s="25"/>
-      <c r="D148" s="26"/>
-      <c r="E148" s="38"/>
-      <c r="F148" s="38"/>
-      <c r="G148" s="38"/>
-      <c r="H148" s="39"/>
-      <c r="I148" s="25"/>
-      <c r="J148" s="25"/>
-      <c r="K148" s="25"/>
-      <c r="L148" s="25"/>
-      <c r="M148" s="25"/>
+    <row r="148" spans="1:13">
+      <c r="A148" s="14">
+        <v>518</v>
+      </c>
+      <c r="B148" s="14">
+        <v>1</v>
+      </c>
+      <c r="C148" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="D148" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="E148" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="F148" s="17"/>
+      <c r="H148" s="35"/>
+      <c r="I148" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="J148" s="14"/>
+      <c r="K148" s="14"/>
+      <c r="L148" s="14"/>
+      <c r="M148" s="14"/>
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="14">
-        <v>601</v>
+        <v>519</v>
       </c>
       <c r="B149" s="14">
         <v>1</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="D149" s="20"/>
       <c r="E149" s="17">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F149" s="17">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="H149" s="35"/>
       <c r="I149" s="14" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="J149" s="14"/>
       <c r="K149" s="14"/>
       <c r="L149" s="14"/>
       <c r="M149" s="14"/>
     </row>
-    <row r="150" spans="1:13">
-      <c r="A150" s="14">
-        <v>602</v>
-      </c>
+    <row r="150" spans="2:13">
       <c r="B150" s="14">
         <v>1</v>
       </c>
-      <c r="C150" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="D150" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="E150" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="F150" s="17">
-        <v>0.85</v>
-      </c>
+      <c r="C150" s="14"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="17"/>
+      <c r="F150" s="17"/>
       <c r="H150" s="35"/>
-      <c r="I150" s="14" t="s">
-        <v>402</v>
-      </c>
+      <c r="I150" s="14"/>
       <c r="J150" s="14"/>
       <c r="K150" s="14"/>
       <c r="L150" s="14"/>
       <c r="M150" s="14"/>
     </row>
-    <row r="151" s="8" customFormat="1" spans="1:13">
-      <c r="A151" s="21">
-        <v>603</v>
-      </c>
-      <c r="B151" s="21">
-        <v>1</v>
-      </c>
-      <c r="C151" s="21" t="s">
-        <v>403</v>
-      </c>
-      <c r="D151" s="22" t="s">
-        <v>404</v>
-      </c>
-      <c r="E151" s="36">
-        <v>0.6</v>
-      </c>
-      <c r="F151" s="36">
-        <v>0.8</v>
-      </c>
-      <c r="G151" s="36"/>
-      <c r="H151" s="37"/>
-      <c r="I151" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="J151" s="21"/>
-      <c r="K151" s="21"/>
-      <c r="L151" s="21"/>
-      <c r="M151" s="21"/>
+    <row r="151" s="9" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A151" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="B151" s="25"/>
+      <c r="C151" s="25"/>
+      <c r="D151" s="26"/>
+      <c r="E151" s="38"/>
+      <c r="F151" s="38"/>
+      <c r="G151" s="38"/>
+      <c r="H151" s="39"/>
+      <c r="I151" s="25"/>
+      <c r="J151" s="25"/>
+      <c r="K151" s="25"/>
+      <c r="L151" s="25"/>
+      <c r="M151" s="25"/>
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="14">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B152" s="14">
         <v>1</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="D152" s="20" t="s">
-        <v>407</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="D152" s="20"/>
       <c r="E152" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F152" s="17"/>
+        <v>0.6</v>
+      </c>
+      <c r="F152" s="17">
+        <v>0.7</v>
+      </c>
       <c r="H152" s="35"/>
       <c r="I152" s="14" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="J152" s="14"/>
       <c r="K152" s="14"/>
@@ -7034,270 +7076,277 @@
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="14">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B153" s="14">
         <v>1</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D153" s="20" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E153" s="17">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F153" s="17">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="H153" s="35"/>
       <c r="I153" s="14" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="J153" s="14"/>
       <c r="K153" s="14"/>
       <c r="L153" s="14"/>
       <c r="M153" s="14"/>
     </row>
-    <row r="154" spans="1:13">
-      <c r="A154" s="14">
-        <v>606</v>
-      </c>
-      <c r="B154" s="14">
-        <v>1</v>
-      </c>
-      <c r="C154" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="D154" s="20" t="s">
-        <v>413</v>
-      </c>
-      <c r="E154" s="17">
+    <row r="154" s="8" customFormat="1" spans="1:13">
+      <c r="A154" s="21">
+        <v>603</v>
+      </c>
+      <c r="B154" s="21">
+        <v>1</v>
+      </c>
+      <c r="C154" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="D154" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="E154" s="36">
         <v>0.6</v>
       </c>
-      <c r="F154" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="H154" s="35"/>
-      <c r="I154" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="J154" s="14"/>
-      <c r="K154" s="14"/>
-      <c r="L154" s="14"/>
-      <c r="M154" s="14"/>
-    </row>
-    <row r="155" spans="2:13">
-      <c r="B155" s="14"/>
-      <c r="C155" s="14"/>
-      <c r="D155" s="20"/>
-      <c r="E155" s="17"/>
+      <c r="F154" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="G154" s="36"/>
+      <c r="H154" s="37"/>
+      <c r="I154" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="J154" s="21"/>
+      <c r="K154" s="21"/>
+      <c r="L154" s="21"/>
+      <c r="M154" s="21"/>
+    </row>
+    <row r="155" spans="1:13">
+      <c r="A155" s="14">
+        <v>604</v>
+      </c>
+      <c r="B155" s="14">
+        <v>1</v>
+      </c>
+      <c r="C155" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="D155" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="E155" s="17">
+        <v>0.8</v>
+      </c>
       <c r="F155" s="17"/>
       <c r="H155" s="35"/>
-      <c r="I155" s="14"/>
+      <c r="I155" s="14" t="s">
+        <v>420</v>
+      </c>
       <c r="J155" s="14"/>
       <c r="K155" s="14"/>
       <c r="L155" s="14"/>
       <c r="M155" s="14"/>
     </row>
-    <row r="156" s="9" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A156" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="B156" s="25"/>
-      <c r="C156" s="25"/>
-      <c r="D156" s="26"/>
-      <c r="E156" s="38"/>
-      <c r="F156" s="38"/>
-      <c r="G156" s="38"/>
-      <c r="H156" s="39"/>
-      <c r="I156" s="25"/>
-      <c r="J156" s="25"/>
-      <c r="K156" s="25"/>
-      <c r="L156" s="25"/>
-      <c r="M156" s="25"/>
+    <row r="156" spans="1:13">
+      <c r="A156" s="14">
+        <v>605</v>
+      </c>
+      <c r="B156" s="14">
+        <v>1</v>
+      </c>
+      <c r="C156" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="D156" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="E156" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="F156" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="H156" s="35"/>
+      <c r="I156" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="J156" s="14"/>
+      <c r="K156" s="14"/>
+      <c r="L156" s="14"/>
+      <c r="M156" s="14"/>
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="14">
-        <v>801</v>
+        <v>606</v>
       </c>
       <c r="B157" s="14">
         <v>1</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="D157" s="20" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="E157" s="17">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F157" s="17">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H157" s="35"/>
       <c r="I157" s="14" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="J157" s="14"/>
       <c r="K157" s="14"/>
       <c r="L157" s="14"/>
       <c r="M157" s="14"/>
     </row>
-    <row r="158" spans="1:13">
-      <c r="A158" s="14">
-        <v>802</v>
-      </c>
-      <c r="B158" s="14">
-        <v>1</v>
-      </c>
-      <c r="C158" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="D158" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="E158" s="17">
-        <v>0.8</v>
-      </c>
+    <row r="158" spans="2:13">
+      <c r="B158" s="14"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="20"/>
+      <c r="E158" s="17"/>
       <c r="F158" s="17"/>
       <c r="H158" s="35"/>
-      <c r="I158" s="14" t="s">
-        <v>421</v>
-      </c>
+      <c r="I158" s="14"/>
       <c r="J158" s="14"/>
       <c r="K158" s="14"/>
       <c r="L158" s="14"/>
       <c r="M158" s="14"/>
     </row>
-    <row r="159" spans="2:13">
-      <c r="B159" s="14"/>
-      <c r="C159" s="14"/>
-      <c r="D159" s="20"/>
-      <c r="E159" s="17"/>
-      <c r="F159" s="17"/>
-      <c r="H159" s="35"/>
-      <c r="I159" s="14"/>
-      <c r="J159" s="14"/>
-      <c r="K159" s="14"/>
-      <c r="L159" s="14"/>
-      <c r="M159" s="14"/>
-    </row>
-    <row r="160" s="9" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A160" s="24" t="s">
-        <v>422</v>
-      </c>
-      <c r="B160" s="25"/>
-      <c r="C160" s="25"/>
-      <c r="D160" s="26"/>
-      <c r="E160" s="38"/>
-      <c r="F160" s="38"/>
-      <c r="G160" s="38"/>
-      <c r="H160" s="39"/>
-      <c r="I160" s="25"/>
-      <c r="J160" s="25"/>
-      <c r="K160" s="25"/>
-      <c r="L160" s="25"/>
-      <c r="M160" s="25"/>
+    <row r="159" s="9" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A159" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="B159" s="25"/>
+      <c r="C159" s="25"/>
+      <c r="D159" s="26"/>
+      <c r="E159" s="38"/>
+      <c r="F159" s="38"/>
+      <c r="G159" s="38"/>
+      <c r="H159" s="39"/>
+      <c r="I159" s="25"/>
+      <c r="J159" s="25"/>
+      <c r="K159" s="25"/>
+      <c r="L159" s="25"/>
+      <c r="M159" s="25"/>
+    </row>
+    <row r="160" spans="1:13">
+      <c r="A160" s="14">
+        <v>801</v>
+      </c>
+      <c r="B160" s="14">
+        <v>1</v>
+      </c>
+      <c r="C160" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="D160" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="E160" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F160" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="H160" s="35"/>
+      <c r="I160" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="J160" s="14"/>
+      <c r="K160" s="14"/>
+      <c r="L160" s="14"/>
+      <c r="M160" s="14"/>
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="14">
-        <v>901</v>
+        <v>802</v>
       </c>
       <c r="B161" s="14">
         <v>1</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="D161" s="20"/>
+        <v>431</v>
+      </c>
+      <c r="D161" s="20" t="s">
+        <v>432</v>
+      </c>
       <c r="E161" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="F161" s="17">
-        <v>2</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="F161" s="17"/>
       <c r="H161" s="35"/>
       <c r="I161" s="14" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="J161" s="14"/>
       <c r="K161" s="14"/>
       <c r="L161" s="14"/>
       <c r="M161" s="14"/>
     </row>
-    <row r="162" spans="1:13">
-      <c r="A162" s="14">
-        <v>902</v>
-      </c>
-      <c r="B162" s="14">
-        <v>1</v>
-      </c>
-      <c r="C162" s="14" t="s">
-        <v>425</v>
-      </c>
+    <row r="162" spans="2:13">
+      <c r="B162" s="14"/>
+      <c r="C162" s="14"/>
       <c r="D162" s="20"/>
-      <c r="E162" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="F162" s="17">
-        <v>1</v>
-      </c>
+      <c r="E162" s="17"/>
+      <c r="F162" s="17"/>
       <c r="H162" s="35"/>
-      <c r="I162" s="14" t="s">
-        <v>426</v>
-      </c>
+      <c r="I162" s="14"/>
       <c r="J162" s="14"/>
       <c r="K162" s="14"/>
       <c r="L162" s="14"/>
       <c r="M162" s="14"/>
     </row>
-    <row r="163" spans="1:13">
-      <c r="A163" s="14">
-        <v>903</v>
-      </c>
-      <c r="B163" s="14">
-        <v>1</v>
-      </c>
-      <c r="C163" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="D163" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="E163" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="F163" s="17"/>
-      <c r="H163" s="35"/>
-      <c r="I163" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="J163" s="14"/>
-      <c r="K163" s="14"/>
-      <c r="L163" s="14"/>
-      <c r="M163" s="14"/>
+    <row r="163" s="9" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A163" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="B163" s="25"/>
+      <c r="C163" s="25"/>
+      <c r="D163" s="26"/>
+      <c r="E163" s="38"/>
+      <c r="F163" s="38"/>
+      <c r="G163" s="38"/>
+      <c r="H163" s="39"/>
+      <c r="I163" s="25"/>
+      <c r="J163" s="25"/>
+      <c r="K163" s="25"/>
+      <c r="L163" s="25"/>
+      <c r="M163" s="25"/>
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="14">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B164" s="14">
         <v>1</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D164" s="20"/>
       <c r="E164" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="F164" s="17"/>
+        <v>0.4</v>
+      </c>
+      <c r="F164" s="17">
+        <v>2</v>
+      </c>
       <c r="H164" s="35"/>
       <c r="I164" s="14" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="J164" s="14"/>
       <c r="K164" s="14"/>
@@ -7306,216 +7355,211 @@
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="14">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B165" s="14">
         <v>1</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D165" s="20"/>
       <c r="E165" s="17">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="F165" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H165" s="35"/>
       <c r="I165" s="14" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="J165" s="14"/>
       <c r="K165" s="14"/>
       <c r="L165" s="14"/>
       <c r="M165" s="14"/>
     </row>
-    <row r="166" spans="2:13">
-      <c r="B166" s="14"/>
-      <c r="C166" s="14"/>
-      <c r="D166" s="20"/>
-      <c r="E166" s="17"/>
+    <row r="166" spans="1:13">
+      <c r="A166" s="14">
+        <v>903</v>
+      </c>
+      <c r="B166" s="14">
+        <v>1</v>
+      </c>
+      <c r="C166" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="D166" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="E166" s="17">
+        <v>0.4</v>
+      </c>
       <c r="F166" s="17"/>
       <c r="H166" s="35"/>
-      <c r="I166" s="14"/>
+      <c r="I166" s="14" t="s">
+        <v>441</v>
+      </c>
       <c r="J166" s="14"/>
       <c r="K166" s="14"/>
       <c r="L166" s="14"/>
       <c r="M166" s="14"/>
     </row>
-    <row r="167" s="9" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A167" s="24" t="s">
-        <v>434</v>
-      </c>
-      <c r="B167" s="25"/>
-      <c r="C167" s="25"/>
-      <c r="D167" s="26"/>
-      <c r="E167" s="38"/>
-      <c r="F167" s="38"/>
-      <c r="G167" s="38"/>
-      <c r="H167" s="39"/>
-      <c r="I167" s="25"/>
-      <c r="J167" s="25"/>
-      <c r="K167" s="25"/>
-      <c r="L167" s="25"/>
-      <c r="M167" s="25"/>
+    <row r="167" spans="1:13">
+      <c r="A167" s="14">
+        <v>904</v>
+      </c>
+      <c r="B167" s="14">
+        <v>1</v>
+      </c>
+      <c r="C167" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="D167" s="20"/>
+      <c r="E167" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="F167" s="17"/>
+      <c r="H167" s="35"/>
+      <c r="I167" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="J167" s="14"/>
+      <c r="K167" s="14"/>
+      <c r="L167" s="14"/>
+      <c r="M167" s="14"/>
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="14">
-        <v>701</v>
+        <v>905</v>
       </c>
       <c r="B168" s="14">
         <v>1</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="D168" s="20" t="s">
-        <v>436</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="D168" s="20"/>
       <c r="E168" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="F168" s="17"/>
+        <v>0.1</v>
+      </c>
+      <c r="F168" s="17">
+        <v>2</v>
+      </c>
       <c r="H168" s="35"/>
-      <c r="I168" s="14"/>
+      <c r="I168" s="14" t="s">
+        <v>445</v>
+      </c>
       <c r="J168" s="14"/>
       <c r="K168" s="14"/>
       <c r="L168" s="14"/>
       <c r="M168" s="14"/>
     </row>
-    <row r="169" spans="1:13">
-      <c r="A169" s="14">
-        <v>702</v>
-      </c>
-      <c r="B169" s="14">
-        <v>1</v>
-      </c>
-      <c r="C169" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="D169" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="E169" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="F169" s="17">
-        <v>0.85</v>
-      </c>
-      <c r="H169" s="35">
-        <v>1</v>
-      </c>
-      <c r="I169" s="14" t="s">
-        <v>439</v>
-      </c>
+    <row r="169" spans="2:13">
+      <c r="B169" s="14"/>
+      <c r="C169" s="14"/>
+      <c r="D169" s="20"/>
+      <c r="E169" s="17"/>
+      <c r="F169" s="17"/>
+      <c r="H169" s="35"/>
+      <c r="I169" s="14"/>
       <c r="J169" s="14"/>
       <c r="K169" s="14"/>
       <c r="L169" s="14"/>
       <c r="M169" s="14"/>
     </row>
-    <row r="170" spans="1:13">
-      <c r="A170" s="14">
-        <v>703</v>
-      </c>
-      <c r="B170" s="14">
-        <v>1</v>
-      </c>
-      <c r="C170" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="D170" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="E170" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F170" s="17"/>
-      <c r="H170" s="35"/>
-      <c r="I170" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="J170" s="14"/>
-      <c r="K170" s="14"/>
-      <c r="L170" s="14"/>
-      <c r="M170" s="14"/>
+    <row r="170" s="9" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A170" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="B170" s="25"/>
+      <c r="C170" s="25"/>
+      <c r="D170" s="26"/>
+      <c r="E170" s="38"/>
+      <c r="F170" s="38"/>
+      <c r="G170" s="38"/>
+      <c r="H170" s="39"/>
+      <c r="I170" s="25"/>
+      <c r="J170" s="25"/>
+      <c r="K170" s="25"/>
+      <c r="L170" s="25"/>
+      <c r="M170" s="25"/>
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="14">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B171" s="14">
         <v>1</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D171" s="20" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="E171" s="17">
         <v>0.6</v>
       </c>
       <c r="F171" s="17"/>
-      <c r="H171" s="35">
-        <v>1</v>
-      </c>
-      <c r="I171" s="14" t="s">
-        <v>445</v>
-      </c>
+      <c r="H171" s="35"/>
+      <c r="I171" s="14"/>
       <c r="J171" s="14"/>
       <c r="K171" s="14"/>
       <c r="L171" s="14"/>
       <c r="M171" s="14"/>
     </row>
-    <row r="172" s="8" customFormat="1" spans="1:13">
-      <c r="A172" s="21">
-        <v>705</v>
-      </c>
-      <c r="B172" s="21">
-        <v>1</v>
-      </c>
-      <c r="C172" s="21" t="s">
-        <v>446</v>
-      </c>
-      <c r="D172" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="E172" s="36">
-        <v>0.4</v>
-      </c>
-      <c r="F172" s="36">
+    <row r="172" spans="1:13">
+      <c r="A172" s="14">
+        <v>702</v>
+      </c>
+      <c r="B172" s="14">
+        <v>1</v>
+      </c>
+      <c r="C172" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="D172" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="E172" s="17">
         <v>0.7</v>
       </c>
-      <c r="G172" s="36"/>
-      <c r="H172" s="37"/>
-      <c r="I172" s="21"/>
-      <c r="J172" s="21"/>
-      <c r="K172" s="21"/>
-      <c r="L172" s="21"/>
-      <c r="M172" s="21"/>
+      <c r="F172" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="H172" s="35">
+        <v>1</v>
+      </c>
+      <c r="I172" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="J172" s="14"/>
+      <c r="K172" s="14"/>
+      <c r="L172" s="14"/>
+      <c r="M172" s="14"/>
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="14">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B173" s="14">
         <v>1</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D173" s="20" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E173" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="F173" s="17">
-        <v>0.7</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="F173" s="17"/>
       <c r="H173" s="35"/>
-      <c r="I173" s="14"/>
+      <c r="I173" s="14" t="s">
+        <v>454</v>
+      </c>
       <c r="J173" s="14"/>
       <c r="K173" s="14"/>
       <c r="L173" s="14"/>
@@ -7523,27 +7567,27 @@
     </row>
     <row r="174" spans="1:13">
       <c r="A174" s="14">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B174" s="14">
         <v>1</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D174" s="20" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E174" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F174" s="17">
-        <v>1</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="F174" s="17"/>
       <c r="H174" s="35">
         <v>1</v>
       </c>
-      <c r="I174" s="14"/>
+      <c r="I174" s="14" t="s">
+        <v>457</v>
+      </c>
       <c r="J174" s="14"/>
       <c r="K174" s="14"/>
       <c r="L174" s="14"/>
@@ -7551,19 +7595,19 @@
     </row>
     <row r="175" s="8" customFormat="1" spans="1:13">
       <c r="A175" s="21">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B175" s="21">
         <v>1</v>
       </c>
       <c r="C175" s="21" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="D175" s="22" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="E175" s="36">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F175" s="36">
         <v>0.7</v>
@@ -7578,22 +7622,22 @@
     </row>
     <row r="176" spans="1:13">
       <c r="A176" s="14">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B176" s="14">
         <v>1</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D176" s="20" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="E176" s="17">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F176" s="17">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H176" s="35"/>
       <c r="I176" s="14"/>
@@ -7604,77 +7648,80 @@
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="14">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B177" s="14">
         <v>1</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D177" s="20" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="E177" s="17">
         <v>0.8</v>
       </c>
-      <c r="F177" s="17"/>
-      <c r="H177" s="35"/>
-      <c r="I177" s="14" t="s">
-        <v>458</v>
-      </c>
+      <c r="F177" s="17">
+        <v>1</v>
+      </c>
+      <c r="H177" s="35">
+        <v>1</v>
+      </c>
+      <c r="I177" s="14"/>
       <c r="J177" s="14"/>
       <c r="K177" s="14"/>
       <c r="L177" s="14"/>
       <c r="M177" s="14"/>
     </row>
-    <row r="178" spans="1:13">
-      <c r="A178" s="14">
-        <v>711</v>
-      </c>
-      <c r="B178" s="14">
-        <v>1</v>
-      </c>
-      <c r="C178" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="D178" s="20" t="s">
-        <v>460</v>
-      </c>
-      <c r="E178" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="F178" s="17"/>
-      <c r="H178" s="35"/>
-      <c r="I178" s="14"/>
-      <c r="J178" s="14"/>
-      <c r="K178" s="14"/>
-      <c r="L178" s="14"/>
-      <c r="M178" s="14"/>
+    <row r="178" s="8" customFormat="1" spans="1:13">
+      <c r="A178" s="21">
+        <v>708</v>
+      </c>
+      <c r="B178" s="21">
+        <v>1</v>
+      </c>
+      <c r="C178" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="D178" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="E178" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="F178" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="G178" s="36"/>
+      <c r="H178" s="37"/>
+      <c r="I178" s="21"/>
+      <c r="J178" s="21"/>
+      <c r="K178" s="21"/>
+      <c r="L178" s="21"/>
+      <c r="M178" s="21"/>
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="14">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B179" s="14">
         <v>1</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D179" s="20" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="E179" s="17">
         <v>0.6</v>
       </c>
-      <c r="F179" s="17"/>
-      <c r="H179" s="35">
-        <v>1</v>
-      </c>
-      <c r="I179" s="14" t="s">
-        <v>463</v>
-      </c>
+      <c r="F179" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="H179" s="35"/>
+      <c r="I179" s="14"/>
       <c r="J179" s="14"/>
       <c r="K179" s="14"/>
       <c r="L179" s="14"/>
@@ -7682,23 +7729,25 @@
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="14">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B180" s="14">
         <v>1</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D180" s="20" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="E180" s="17">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F180" s="17"/>
       <c r="H180" s="35"/>
-      <c r="I180" s="14"/>
+      <c r="I180" s="14" t="s">
+        <v>470</v>
+      </c>
       <c r="J180" s="14"/>
       <c r="K180" s="14"/>
       <c r="L180" s="14"/>
@@ -7706,19 +7755,19 @@
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="14">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B181" s="14">
         <v>1</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="D181" s="20" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="E181" s="17">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F181" s="17"/>
       <c r="H181" s="35"/>
@@ -7730,25 +7779,27 @@
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="14">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B182" s="14">
         <v>1</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D182" s="20" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="E182" s="17">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="F182" s="17"/>
       <c r="H182" s="35">
         <v>1</v>
       </c>
-      <c r="I182" s="14"/>
+      <c r="I182" s="14" t="s">
+        <v>475</v>
+      </c>
       <c r="J182" s="14"/>
       <c r="K182" s="14"/>
       <c r="L182" s="14"/>
@@ -7756,25 +7807,23 @@
     </row>
     <row r="183" spans="1:13">
       <c r="A183" s="14">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B183" s="14">
         <v>1</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="D183" s="20" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="E183" s="17">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F183" s="17"/>
       <c r="H183" s="35"/>
-      <c r="I183" s="14" t="s">
-        <v>472</v>
-      </c>
+      <c r="I183" s="14"/>
       <c r="J183" s="14"/>
       <c r="K183" s="14"/>
       <c r="L183" s="14"/>
@@ -7782,25 +7831,23 @@
     </row>
     <row r="184" spans="1:13">
       <c r="A184" s="14">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B184" s="14">
         <v>1</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D184" s="20" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="E184" s="17">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F184" s="17"/>
       <c r="H184" s="35"/>
-      <c r="I184" s="14" t="s">
-        <v>475</v>
-      </c>
+      <c r="I184" s="14"/>
       <c r="J184" s="14"/>
       <c r="K184" s="14"/>
       <c r="L184" s="14"/>
@@ -7808,25 +7855,25 @@
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="14">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B185" s="14">
         <v>1</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D185" s="20" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="E185" s="17">
         <v>0.9</v>
       </c>
       <c r="F185" s="17"/>
-      <c r="H185" s="35"/>
-      <c r="I185" s="14" t="s">
-        <v>478</v>
-      </c>
+      <c r="H185" s="35">
+        <v>1</v>
+      </c>
+      <c r="I185" s="14"/>
       <c r="J185" s="14"/>
       <c r="K185" s="14"/>
       <c r="L185" s="14"/>
@@ -7834,26 +7881,24 @@
     </row>
     <row r="186" spans="1:13">
       <c r="A186" s="14">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B186" s="14">
         <v>1</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D186" s="20" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E186" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="F186" s="17">
         <v>0.9</v>
       </c>
+      <c r="F186" s="17"/>
       <c r="H186" s="35"/>
       <c r="I186" s="14" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="J186" s="14"/>
       <c r="K186" s="14"/>
@@ -7862,26 +7907,24 @@
     </row>
     <row r="187" spans="1:13">
       <c r="A187" s="14">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B187" s="14">
         <v>1</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D187" s="20" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E187" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="F187" s="17">
-        <v>0.8</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="F187" s="17"/>
       <c r="H187" s="35"/>
       <c r="I187" s="14" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="J187" s="14"/>
       <c r="K187" s="14"/>
@@ -7890,26 +7933,24 @@
     </row>
     <row r="188" spans="1:13">
       <c r="A188" s="14">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B188" s="14">
         <v>1</v>
       </c>
       <c r="C188" s="14" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D188" s="20" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E188" s="17">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F188" s="17"/>
-      <c r="H188" s="35">
-        <v>1</v>
-      </c>
+      <c r="H188" s="35"/>
       <c r="I188" s="14" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="J188" s="14"/>
       <c r="K188" s="14"/>
@@ -7918,16 +7959,16 @@
     </row>
     <row r="189" spans="1:13">
       <c r="A189" s="14">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B189" s="14">
         <v>1</v>
       </c>
       <c r="C189" s="14" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D189" s="20" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="E189" s="17">
         <v>0.6</v>
@@ -7937,7 +7978,7 @@
       </c>
       <c r="H189" s="35"/>
       <c r="I189" s="14" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="J189" s="14"/>
       <c r="K189" s="14"/>
@@ -7946,25 +7987,27 @@
     </row>
     <row r="190" spans="1:13">
       <c r="A190" s="14">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B190" s="14">
         <v>1</v>
       </c>
       <c r="C190" s="14" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="D190" s="20" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E190" s="17">
         <v>0.6</v>
       </c>
       <c r="F190" s="17">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H190" s="35"/>
-      <c r="I190" s="14"/>
+      <c r="I190" s="14" t="s">
+        <v>496</v>
+      </c>
       <c r="J190" s="14"/>
       <c r="K190" s="14"/>
       <c r="L190" s="14"/>
@@ -7972,26 +8015,26 @@
     </row>
     <row r="191" spans="1:13">
       <c r="A191" s="14">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B191" s="14">
         <v>1</v>
       </c>
       <c r="C191" s="14" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="D191" s="20" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="E191" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="F191" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="H191" s="35"/>
+        <v>0.8</v>
+      </c>
+      <c r="F191" s="17"/>
+      <c r="H191" s="35">
+        <v>1</v>
+      </c>
       <c r="I191" s="14" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="J191" s="14"/>
       <c r="K191" s="14"/>
@@ -8000,25 +8043,27 @@
     </row>
     <row r="192" spans="1:13">
       <c r="A192" s="14">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B192" s="14">
         <v>1</v>
       </c>
       <c r="C192" s="14" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="D192" s="20" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="E192" s="17">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F192" s="17">
         <v>0.9</v>
       </c>
       <c r="H192" s="35"/>
-      <c r="I192" s="14"/>
+      <c r="I192" s="14" t="s">
+        <v>502</v>
+      </c>
       <c r="J192" s="14"/>
       <c r="K192" s="14"/>
       <c r="L192" s="14"/>
@@ -8026,25 +8071,25 @@
     </row>
     <row r="193" spans="1:13">
       <c r="A193" s="14">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B193" s="14">
         <v>1</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D193" s="20" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="E193" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F193" s="17"/>
+        <v>0.6</v>
+      </c>
+      <c r="F193" s="17">
+        <v>0.9</v>
+      </c>
       <c r="H193" s="35"/>
-      <c r="I193" s="14" t="s">
-        <v>498</v>
-      </c>
+      <c r="I193" s="14"/>
       <c r="J193" s="14"/>
       <c r="K193" s="14"/>
       <c r="L193" s="14"/>
@@ -8052,24 +8097,26 @@
     </row>
     <row r="194" spans="1:13">
       <c r="A194" s="14">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B194" s="14">
         <v>1</v>
       </c>
       <c r="C194" s="14" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="D194" s="20" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="E194" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F194" s="17"/>
+        <v>0.4</v>
+      </c>
+      <c r="F194" s="17">
+        <v>0.9</v>
+      </c>
       <c r="H194" s="35"/>
       <c r="I194" s="14" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="J194" s="14"/>
       <c r="K194" s="14"/>
@@ -8078,25 +8125,25 @@
     </row>
     <row r="195" spans="1:13">
       <c r="A195" s="14">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B195" s="14">
         <v>1</v>
       </c>
       <c r="C195" s="14" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D195" s="20" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="E195" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F195" s="17"/>
+        <v>0.4</v>
+      </c>
+      <c r="F195" s="17">
+        <v>0.9</v>
+      </c>
       <c r="H195" s="35"/>
-      <c r="I195" s="14" t="s">
-        <v>504</v>
-      </c>
+      <c r="I195" s="14"/>
       <c r="J195" s="14"/>
       <c r="K195" s="14"/>
       <c r="L195" s="14"/>
@@ -8104,26 +8151,24 @@
     </row>
     <row r="196" spans="1:13">
       <c r="A196" s="14">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B196" s="14">
         <v>1</v>
       </c>
       <c r="C196" s="14" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D196" s="20" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E196" s="17">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F196" s="17"/>
-      <c r="H196" s="35">
-        <v>1</v>
-      </c>
+      <c r="H196" s="35"/>
       <c r="I196" s="14" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="J196" s="14"/>
       <c r="K196" s="14"/>
@@ -8132,24 +8177,24 @@
     </row>
     <row r="197" spans="1:13">
       <c r="A197" s="14">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B197" s="14">
         <v>1</v>
       </c>
       <c r="C197" s="14" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D197" s="20" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E197" s="17">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F197" s="17"/>
       <c r="H197" s="35"/>
       <c r="I197" s="14" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="J197" s="14"/>
       <c r="K197" s="14"/>
@@ -8158,23 +8203,25 @@
     </row>
     <row r="198" spans="1:13">
       <c r="A198" s="14">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B198" s="14">
         <v>1</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D198" s="20" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E198" s="17">
         <v>0.8</v>
       </c>
       <c r="F198" s="17"/>
       <c r="H198" s="35"/>
-      <c r="I198" s="14"/>
+      <c r="I198" s="14" t="s">
+        <v>516</v>
+      </c>
       <c r="J198" s="14"/>
       <c r="K198" s="14"/>
       <c r="L198" s="14"/>
@@ -8182,25 +8229,27 @@
     </row>
     <row r="199" spans="1:13">
       <c r="A199" s="14">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B199" s="14">
         <v>1</v>
       </c>
       <c r="C199" s="14" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D199" s="20" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E199" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="F199" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="H199" s="35"/>
-      <c r="I199" s="14"/>
+        <v>0.9</v>
+      </c>
+      <c r="F199" s="17"/>
+      <c r="H199" s="35">
+        <v>1</v>
+      </c>
+      <c r="I199" s="14" t="s">
+        <v>519</v>
+      </c>
       <c r="J199" s="14"/>
       <c r="K199" s="14"/>
       <c r="L199" s="14"/>
@@ -8208,23 +8257,25 @@
     </row>
     <row r="200" spans="1:13">
       <c r="A200" s="14">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B200" s="14">
         <v>1</v>
       </c>
       <c r="C200" s="14" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="D200" s="20" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="E200" s="17">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F200" s="17"/>
       <c r="H200" s="35"/>
-      <c r="I200" s="14"/>
+      <c r="I200" s="14" t="s">
+        <v>522</v>
+      </c>
       <c r="J200" s="14"/>
       <c r="K200" s="14"/>
       <c r="L200" s="14"/>
@@ -8232,23 +8283,23 @@
     </row>
     <row r="201" spans="1:13">
       <c r="A201" s="14">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B201" s="14">
         <v>1</v>
       </c>
       <c r="C201" s="14" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="D201" s="20" t="s">
-        <v>518</v>
-      </c>
-      <c r="E201" s="17"/>
+        <v>524</v>
+      </c>
+      <c r="E201" s="17">
+        <v>0.8</v>
+      </c>
       <c r="F201" s="17"/>
       <c r="H201" s="35"/>
-      <c r="I201" s="14" t="s">
-        <v>519</v>
-      </c>
+      <c r="I201" s="14"/>
       <c r="J201" s="14"/>
       <c r="K201" s="14"/>
       <c r="L201" s="14"/>
@@ -8256,35 +8307,46 @@
     </row>
     <row r="202" spans="1:13">
       <c r="A202" s="14">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B202" s="14">
         <v>1</v>
       </c>
       <c r="C202" s="14" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="D202" s="20" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="E202" s="17">
         <v>0.6</v>
       </c>
-      <c r="F202" s="17"/>
+      <c r="F202" s="17">
+        <v>0.8</v>
+      </c>
       <c r="H202" s="35"/>
-      <c r="I202" s="14" t="s">
-        <v>522</v>
-      </c>
+      <c r="I202" s="14"/>
       <c r="J202" s="14"/>
       <c r="K202" s="14"/>
       <c r="L202" s="14"/>
       <c r="M202" s="14"/>
     </row>
-    <row r="203" spans="2:13">
-      <c r="B203" s="14"/>
-      <c r="C203" s="14"/>
-      <c r="D203" s="20"/>
-      <c r="E203" s="17"/>
+    <row r="203" spans="1:13">
+      <c r="A203" s="14">
+        <v>733</v>
+      </c>
+      <c r="B203" s="14">
+        <v>1</v>
+      </c>
+      <c r="C203" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="D203" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="E203" s="17">
+        <v>0.7</v>
+      </c>
       <c r="F203" s="17"/>
       <c r="H203" s="35"/>
       <c r="I203" s="14"/>
@@ -8293,63 +8355,61 @@
       <c r="L203" s="14"/>
       <c r="M203" s="14"/>
     </row>
-    <row r="204" s="9" customFormat="1" spans="1:13">
-      <c r="A204" s="25" t="s">
-        <v>523</v>
-      </c>
-      <c r="B204" s="25"/>
-      <c r="C204" s="25"/>
-      <c r="D204" s="26"/>
-      <c r="E204" s="38"/>
-      <c r="F204" s="38"/>
-      <c r="G204" s="38"/>
-      <c r="H204" s="39"/>
-      <c r="I204" s="25"/>
-      <c r="J204" s="25"/>
-      <c r="K204" s="25"/>
-      <c r="L204" s="25"/>
-      <c r="M204" s="25"/>
+    <row r="204" spans="1:13">
+      <c r="A204" s="14">
+        <v>734</v>
+      </c>
+      <c r="B204" s="14">
+        <v>1</v>
+      </c>
+      <c r="C204" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="D204" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="E204" s="17"/>
+      <c r="F204" s="17"/>
+      <c r="H204" s="35"/>
+      <c r="I204" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="J204" s="14"/>
+      <c r="K204" s="14"/>
+      <c r="L204" s="14"/>
+      <c r="M204" s="14"/>
     </row>
     <row r="205" spans="1:13">
       <c r="A205" s="14">
-        <v>101</v>
+        <v>735</v>
       </c>
       <c r="B205" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C205" s="14" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="D205" s="20" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="E205" s="17">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F205" s="17"/>
       <c r="H205" s="35"/>
-      <c r="I205" s="14"/>
+      <c r="I205" s="14" t="s">
+        <v>534</v>
+      </c>
       <c r="J205" s="14"/>
       <c r="K205" s="14"/>
       <c r="L205" s="14"/>
       <c r="M205" s="14"/>
     </row>
-    <row r="206" spans="1:13">
-      <c r="A206" s="14">
-        <v>102</v>
-      </c>
-      <c r="B206" s="14">
-        <v>2</v>
-      </c>
-      <c r="C206" s="14" t="s">
-        <v>526</v>
-      </c>
-      <c r="D206" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="E206" s="17">
-        <v>0.8</v>
-      </c>
+    <row r="206" spans="2:13">
+      <c r="B206" s="14"/>
+      <c r="C206" s="14"/>
+      <c r="D206" s="20"/>
+      <c r="E206" s="17"/>
       <c r="F206" s="17"/>
       <c r="H206" s="35"/>
       <c r="I206" s="14"/>
@@ -8358,42 +8418,35 @@
       <c r="L206" s="14"/>
       <c r="M206" s="14"/>
     </row>
-    <row r="207" spans="1:13">
-      <c r="A207" s="14">
-        <v>103</v>
-      </c>
-      <c r="B207" s="14">
-        <v>2</v>
-      </c>
-      <c r="C207" s="14" t="s">
-        <v>528</v>
-      </c>
-      <c r="D207" s="20" t="s">
-        <v>529</v>
-      </c>
-      <c r="E207" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F207" s="17"/>
-      <c r="H207" s="35"/>
-      <c r="I207" s="14"/>
-      <c r="J207" s="14"/>
-      <c r="K207" s="14"/>
-      <c r="L207" s="14"/>
-      <c r="M207" s="14"/>
+    <row r="207" s="9" customFormat="1" spans="1:13">
+      <c r="A207" s="25" t="s">
+        <v>535</v>
+      </c>
+      <c r="B207" s="25"/>
+      <c r="C207" s="25"/>
+      <c r="D207" s="26"/>
+      <c r="E207" s="38"/>
+      <c r="F207" s="38"/>
+      <c r="G207" s="38"/>
+      <c r="H207" s="39"/>
+      <c r="I207" s="25"/>
+      <c r="J207" s="25"/>
+      <c r="K207" s="25"/>
+      <c r="L207" s="25"/>
+      <c r="M207" s="25"/>
     </row>
     <row r="208" spans="1:13">
       <c r="A208" s="14">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B208" s="14">
         <v>2</v>
       </c>
       <c r="C208" s="14" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="D208" s="20" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E208" s="17">
         <v>0.8</v>
@@ -8408,16 +8461,16 @@
     </row>
     <row r="209" spans="1:13">
       <c r="A209" s="14">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B209" s="14">
         <v>2</v>
       </c>
       <c r="C209" s="14" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="D209" s="20" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="E209" s="17">
         <v>0.8</v>
@@ -8432,16 +8485,16 @@
     </row>
     <row r="210" spans="1:13">
       <c r="A210" s="14">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B210" s="14">
         <v>2</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D210" s="20" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="E210" s="17">
         <v>0.8</v>
@@ -8456,23 +8509,21 @@
     </row>
     <row r="211" spans="1:13">
       <c r="A211" s="14">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B211" s="14">
         <v>2</v>
       </c>
       <c r="C211" s="14" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="D211" s="20" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="E211" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="F211" s="17">
-        <v>0.75</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="F211" s="17"/>
       <c r="H211" s="35"/>
       <c r="I211" s="14"/>
       <c r="J211" s="14"/>
@@ -8482,23 +8533,21 @@
     </row>
     <row r="212" spans="1:13">
       <c r="A212" s="14">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B212" s="14">
         <v>2</v>
       </c>
       <c r="C212" s="14" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="D212" s="20" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="E212" s="17">
-        <v>0.46</v>
-      </c>
-      <c r="F212" s="17">
-        <v>0.6</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="F212" s="17"/>
       <c r="H212" s="35"/>
       <c r="I212" s="14"/>
       <c r="J212" s="14"/>
@@ -8508,19 +8557,19 @@
     </row>
     <row r="213" spans="1:13">
       <c r="A213" s="14">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B213" s="14">
         <v>2</v>
       </c>
       <c r="C213" s="14" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="D213" s="20" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="E213" s="17">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="F213" s="17"/>
       <c r="H213" s="35"/>
@@ -8532,21 +8581,23 @@
     </row>
     <row r="214" spans="1:13">
       <c r="A214" s="14">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B214" s="14">
         <v>2</v>
       </c>
       <c r="C214" s="14" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="D214" s="20" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="E214" s="17">
         <v>0.6</v>
       </c>
-      <c r="F214" s="17"/>
+      <c r="F214" s="17">
+        <v>0.75</v>
+      </c>
       <c r="H214" s="35"/>
       <c r="I214" s="14"/>
       <c r="J214" s="14"/>
@@ -8556,27 +8607,25 @@
     </row>
     <row r="215" spans="1:13">
       <c r="A215" s="14">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B215" s="14">
         <v>2</v>
       </c>
       <c r="C215" s="14" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="D215" s="20" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="E215" s="17">
-        <v>0.8</v>
+        <v>0.46</v>
       </c>
       <c r="F215" s="17">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H215" s="35"/>
-      <c r="I215" s="14" t="s">
-        <v>546</v>
-      </c>
+      <c r="I215" s="14"/>
       <c r="J215" s="14"/>
       <c r="K215" s="14"/>
       <c r="L215" s="14"/>
@@ -8584,23 +8633,21 @@
     </row>
     <row r="216" spans="1:13">
       <c r="A216" s="14">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B216" s="14">
         <v>2</v>
       </c>
       <c r="C216" s="14" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="D216" s="20" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="E216" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F216" s="17">
-        <v>0.9</v>
-      </c>
+        <v>0.85</v>
+      </c>
+      <c r="F216" s="17"/>
       <c r="H216" s="35"/>
       <c r="I216" s="14"/>
       <c r="J216" s="14"/>
@@ -8610,23 +8657,21 @@
     </row>
     <row r="217" spans="1:13">
       <c r="A217" s="14">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B217" s="14">
         <v>2</v>
       </c>
       <c r="C217" s="14" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="D217" s="20" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="E217" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F217" s="17">
-        <v>0.9</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="F217" s="17"/>
       <c r="H217" s="35"/>
       <c r="I217" s="14"/>
       <c r="J217" s="14"/>
@@ -8634,153 +8679,164 @@
       <c r="L217" s="14"/>
       <c r="M217" s="14"/>
     </row>
-    <row r="218" spans="2:13">
-      <c r="B218" s="14"/>
-      <c r="C218" s="14"/>
-      <c r="D218" s="20"/>
-      <c r="E218" s="17"/>
-      <c r="F218" s="17"/>
+    <row r="218" spans="1:13">
+      <c r="A218" s="14">
+        <v>111</v>
+      </c>
+      <c r="B218" s="14">
+        <v>2</v>
+      </c>
+      <c r="C218" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="D218" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="E218" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="F218" s="17">
+        <v>0.9</v>
+      </c>
       <c r="H218" s="35"/>
-      <c r="I218" s="14"/>
+      <c r="I218" s="14" t="s">
+        <v>558</v>
+      </c>
       <c r="J218" s="14"/>
       <c r="K218" s="14"/>
       <c r="L218" s="14"/>
       <c r="M218" s="14"/>
     </row>
-    <row r="219" s="13" customFormat="1" ht="28.8" spans="1:13">
-      <c r="A219" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="B219" s="24"/>
-      <c r="C219" s="24"/>
-      <c r="D219" s="50"/>
-      <c r="E219" s="51"/>
-      <c r="F219" s="51"/>
-      <c r="G219" s="51"/>
-      <c r="H219" s="52"/>
-      <c r="I219" s="24"/>
-      <c r="J219" s="24"/>
-      <c r="K219" s="24"/>
-      <c r="L219" s="24"/>
-      <c r="M219" s="24"/>
+    <row r="219" spans="1:13">
+      <c r="A219" s="14">
+        <v>112</v>
+      </c>
+      <c r="B219" s="14">
+        <v>2</v>
+      </c>
+      <c r="C219" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="D219" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="E219" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="F219" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="H219" s="35"/>
+      <c r="I219" s="14"/>
+      <c r="J219" s="14"/>
+      <c r="K219" s="14"/>
+      <c r="L219" s="14"/>
+      <c r="M219" s="14"/>
     </row>
     <row r="220" spans="1:13">
       <c r="A220" s="14">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="B220" s="14">
         <v>2</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="D220" s="20" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="E220" s="17">
         <v>0.8</v>
       </c>
-      <c r="F220" s="17"/>
+      <c r="F220" s="17">
+        <v>0.9</v>
+      </c>
       <c r="H220" s="35"/>
-      <c r="I220" s="14" t="s">
-        <v>551</v>
-      </c>
+      <c r="I220" s="14"/>
       <c r="J220" s="14"/>
       <c r="K220" s="14"/>
       <c r="L220" s="14"/>
       <c r="M220" s="14"/>
     </row>
-    <row r="221" spans="1:13">
-      <c r="A221" s="14" t="s">
-        <v>552</v>
-      </c>
-      <c r="B221" s="14">
-        <v>2</v>
-      </c>
-      <c r="C221" s="14" t="s">
-        <v>553</v>
-      </c>
-      <c r="D221" s="20" t="s">
-        <v>554</v>
-      </c>
-      <c r="E221" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="F221" s="17">
-        <v>0.8</v>
-      </c>
+    <row r="221" spans="2:13">
+      <c r="B221" s="14"/>
+      <c r="C221" s="14"/>
+      <c r="D221" s="20"/>
+      <c r="E221" s="17"/>
+      <c r="F221" s="17"/>
       <c r="H221" s="35"/>
-      <c r="I221" s="14" t="s">
-        <v>555</v>
-      </c>
+      <c r="I221" s="14"/>
       <c r="J221" s="14"/>
       <c r="K221" s="14"/>
       <c r="L221" s="14"/>
       <c r="M221" s="14"/>
     </row>
-    <row r="222" spans="1:13">
-      <c r="A222" s="14" t="s">
-        <v>556</v>
-      </c>
-      <c r="B222" s="14">
+    <row r="222" s="13" customFormat="1" ht="28.8" spans="1:13">
+      <c r="A222" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="B222" s="24"/>
+      <c r="C222" s="24"/>
+      <c r="D222" s="50"/>
+      <c r="E222" s="51"/>
+      <c r="F222" s="51"/>
+      <c r="G222" s="51"/>
+      <c r="H222" s="52"/>
+      <c r="I222" s="24"/>
+      <c r="J222" s="24"/>
+      <c r="K222" s="24"/>
+      <c r="L222" s="24"/>
+      <c r="M222" s="24"/>
+    </row>
+    <row r="223" spans="1:13">
+      <c r="A223" s="14">
+        <v>201</v>
+      </c>
+      <c r="B223" s="14">
         <v>2</v>
       </c>
-      <c r="C222" s="14" t="s">
-        <v>557</v>
-      </c>
-      <c r="D222" s="20" t="s">
-        <v>557</v>
-      </c>
-      <c r="E222" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F222" s="17"/>
-      <c r="H222" s="35"/>
-      <c r="I222" s="14" t="s">
-        <v>558</v>
-      </c>
-      <c r="J222" s="14"/>
-      <c r="K222" s="14"/>
-      <c r="L222" s="14"/>
-      <c r="M222" s="14"/>
-    </row>
-    <row r="223" s="9" customFormat="1" spans="1:13">
-      <c r="A223" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B223" s="25"/>
-      <c r="C223" s="25"/>
-      <c r="D223" s="26"/>
-      <c r="E223" s="38"/>
-      <c r="F223" s="38"/>
-      <c r="G223" s="38"/>
-      <c r="H223" s="39"/>
-      <c r="I223" s="25"/>
-      <c r="J223" s="25"/>
-      <c r="K223" s="25"/>
-      <c r="L223" s="25"/>
-      <c r="M223" s="25"/>
+      <c r="C223" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="D223" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="E223" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="F223" s="17"/>
+      <c r="H223" s="35"/>
+      <c r="I223" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="J223" s="14"/>
+      <c r="K223" s="14"/>
+      <c r="L223" s="14"/>
+      <c r="M223" s="14"/>
     </row>
     <row r="224" spans="1:13">
-      <c r="A224" s="14">
-        <v>301</v>
+      <c r="A224" s="14" t="s">
+        <v>564</v>
       </c>
       <c r="B224" s="14">
         <v>2</v>
       </c>
       <c r="C224" s="14" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="D224" s="20" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="E224" s="17">
         <v>0.6</v>
       </c>
-      <c r="F224" s="17"/>
+      <c r="F224" s="17">
+        <v>0.8</v>
+      </c>
       <c r="H224" s="35"/>
       <c r="I224" s="14" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="J224" s="14"/>
       <c r="K224" s="14"/>
@@ -8788,133 +8844,135 @@
       <c r="M224" s="14"/>
     </row>
     <row r="225" spans="1:13">
-      <c r="A225" s="14">
-        <v>302</v>
+      <c r="A225" s="14" t="s">
+        <v>568</v>
       </c>
       <c r="B225" s="14">
         <v>2</v>
       </c>
       <c r="C225" s="14" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="D225" s="20" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="E225" s="17">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F225" s="17"/>
       <c r="H225" s="35"/>
       <c r="I225" s="14" t="s">
-        <v>564</v>
-      </c>
-      <c r="J225" s="14" t="s">
-        <v>565</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="J225" s="14"/>
       <c r="K225" s="14"/>
       <c r="L225" s="14"/>
       <c r="M225" s="14"/>
     </row>
-    <row r="226" spans="1:13">
-      <c r="A226" s="14">
-        <v>303</v>
-      </c>
-      <c r="B226" s="14">
+    <row r="226" s="9" customFormat="1" spans="1:13">
+      <c r="A226" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B226" s="25"/>
+      <c r="C226" s="25"/>
+      <c r="D226" s="26"/>
+      <c r="E226" s="38"/>
+      <c r="F226" s="38"/>
+      <c r="G226" s="38"/>
+      <c r="H226" s="39"/>
+      <c r="I226" s="25"/>
+      <c r="J226" s="25"/>
+      <c r="K226" s="25"/>
+      <c r="L226" s="25"/>
+      <c r="M226" s="25"/>
+    </row>
+    <row r="227" spans="1:13">
+      <c r="A227" s="14">
+        <v>301</v>
+      </c>
+      <c r="B227" s="14">
         <v>2</v>
       </c>
-      <c r="C226" s="14" t="s">
-        <v>566</v>
-      </c>
-      <c r="D226" s="20" t="s">
-        <v>567</v>
-      </c>
-      <c r="E226" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="F226" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="H226" s="35"/>
-      <c r="I226" s="14" t="s">
-        <v>568</v>
-      </c>
-      <c r="J226" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="K226" s="14"/>
-      <c r="L226" s="14"/>
-      <c r="M226" s="14"/>
-    </row>
-    <row r="227" s="9" customFormat="1" spans="1:13">
-      <c r="A227" s="25" t="s">
-        <v>397</v>
-      </c>
-      <c r="B227" s="25"/>
-      <c r="C227" s="25"/>
-      <c r="D227" s="26"/>
-      <c r="E227" s="38"/>
-      <c r="F227" s="38"/>
-      <c r="G227" s="38"/>
-      <c r="H227" s="39"/>
-      <c r="I227" s="25"/>
-      <c r="J227" s="25"/>
-      <c r="K227" s="25"/>
-      <c r="L227" s="25"/>
-      <c r="M227" s="25"/>
+      <c r="C227" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="D227" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="E227" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="F227" s="17"/>
+      <c r="H227" s="35"/>
+      <c r="I227" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="J227" s="14"/>
+      <c r="K227" s="14"/>
+      <c r="L227" s="14"/>
+      <c r="M227" s="14"/>
     </row>
     <row r="228" spans="1:13">
-      <c r="A228" s="14" t="s">
-        <v>570</v>
+      <c r="A228" s="14">
+        <v>302</v>
       </c>
       <c r="B228" s="14">
         <v>2</v>
       </c>
       <c r="C228" s="14" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="D228" s="20" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="E228" s="17">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F228" s="17"/>
       <c r="H228" s="35"/>
       <c r="I228" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="J228" s="14"/>
+        <v>576</v>
+      </c>
+      <c r="J228" s="14" t="s">
+        <v>577</v>
+      </c>
       <c r="K228" s="14"/>
       <c r="L228" s="14"/>
       <c r="M228" s="14"/>
     </row>
     <row r="229" spans="1:13">
-      <c r="A229" s="14" t="s">
-        <v>574</v>
+      <c r="A229" s="14">
+        <v>303</v>
       </c>
       <c r="B229" s="14">
         <v>2</v>
       </c>
       <c r="C229" s="14" t="s">
-        <v>575</v>
-      </c>
-      <c r="D229" s="20"/>
+        <v>578</v>
+      </c>
+      <c r="D229" s="20" t="s">
+        <v>579</v>
+      </c>
       <c r="E229" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="F229" s="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="F229" s="17">
+        <v>0.7</v>
+      </c>
       <c r="H229" s="35"/>
       <c r="I229" s="14" t="s">
-        <v>576</v>
-      </c>
-      <c r="J229" s="14"/>
+        <v>580</v>
+      </c>
+      <c r="J229" s="14" t="s">
+        <v>581</v>
+      </c>
       <c r="K229" s="14"/>
       <c r="L229" s="14"/>
       <c r="M229" s="14"/>
     </row>
     <row r="230" s="9" customFormat="1" spans="1:13">
       <c r="A230" s="25" t="s">
-        <v>143</v>
+        <v>409</v>
       </c>
       <c r="B230" s="25"/>
       <c r="C230" s="25"/>
@@ -8930,27 +8988,25 @@
       <c r="M230" s="25"/>
     </row>
     <row r="231" spans="1:13">
-      <c r="A231" s="14">
-        <v>501</v>
+      <c r="A231" s="14" t="s">
+        <v>582</v>
       </c>
       <c r="B231" s="14">
         <v>2</v>
       </c>
       <c r="C231" s="14" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="D231" s="20" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="E231" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="F231" s="17">
-        <v>0.8</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="F231" s="17"/>
       <c r="H231" s="35"/>
       <c r="I231" s="14" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="J231" s="14"/>
       <c r="K231" s="14"/>
@@ -8958,71 +9014,58 @@
       <c r="M231" s="14"/>
     </row>
     <row r="232" spans="1:13">
-      <c r="A232" s="14">
-        <v>502</v>
+      <c r="A232" s="14" t="s">
+        <v>586</v>
       </c>
       <c r="B232" s="14">
         <v>2</v>
       </c>
       <c r="C232" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="D232" s="20" t="s">
-        <v>581</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="D232" s="20"/>
       <c r="E232" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="F232" s="17">
-        <v>0.8</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="F232" s="17"/>
       <c r="H232" s="35"/>
       <c r="I232" s="14" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="J232" s="14"/>
       <c r="K232" s="14"/>
       <c r="L232" s="14"/>
       <c r="M232" s="14"/>
     </row>
-    <row r="233" spans="1:13">
-      <c r="A233" s="14">
-        <v>503</v>
-      </c>
-      <c r="B233" s="14">
-        <v>2</v>
-      </c>
-      <c r="C233" s="14" t="s">
-        <v>583</v>
-      </c>
-      <c r="D233" s="20" t="s">
-        <v>584</v>
-      </c>
-      <c r="E233" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F233" s="17"/>
-      <c r="H233" s="35"/>
-      <c r="I233" s="14" t="s">
-        <v>585</v>
-      </c>
-      <c r="J233" s="14"/>
-      <c r="K233" s="14"/>
-      <c r="L233" s="14"/>
-      <c r="M233" s="14"/>
+    <row r="233" s="9" customFormat="1" spans="1:13">
+      <c r="A233" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B233" s="25"/>
+      <c r="C233" s="25"/>
+      <c r="D233" s="26"/>
+      <c r="E233" s="38"/>
+      <c r="F233" s="38"/>
+      <c r="G233" s="38"/>
+      <c r="H233" s="39"/>
+      <c r="I233" s="25"/>
+      <c r="J233" s="25"/>
+      <c r="K233" s="25"/>
+      <c r="L233" s="25"/>
+      <c r="M233" s="25"/>
     </row>
     <row r="234" spans="1:13">
-      <c r="A234" s="14" t="s">
-        <v>197</v>
+      <c r="A234" s="14">
+        <v>501</v>
       </c>
       <c r="B234" s="14">
         <v>2</v>
       </c>
       <c r="C234" s="14" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="D234" s="20" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="E234" s="17">
         <v>0.4</v>
@@ -9032,7 +9075,7 @@
       </c>
       <c r="H234" s="35"/>
       <c r="I234" s="14" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="J234" s="14"/>
       <c r="K234" s="14"/>
@@ -9041,69 +9084,93 @@
     </row>
     <row r="235" spans="1:13">
       <c r="A235" s="14">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B235" s="14">
         <v>2</v>
       </c>
-      <c r="C235" s="14"/>
-      <c r="D235" s="20"/>
-      <c r="E235" s="17"/>
-      <c r="F235" s="17"/>
+      <c r="C235" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="D235" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="E235" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="F235" s="17">
+        <v>0.8</v>
+      </c>
       <c r="H235" s="35"/>
-      <c r="I235" s="14"/>
+      <c r="I235" s="14" t="s">
+        <v>594</v>
+      </c>
       <c r="J235" s="14"/>
       <c r="K235" s="14"/>
       <c r="L235" s="14"/>
       <c r="M235" s="14"/>
     </row>
-    <row r="236" s="9" customFormat="1" spans="1:13">
-      <c r="A236" s="25" t="s">
-        <v>589</v>
-      </c>
-      <c r="B236" s="25"/>
-      <c r="C236" s="25"/>
-      <c r="D236" s="26"/>
-      <c r="E236" s="38"/>
-      <c r="F236" s="38"/>
-      <c r="G236" s="38"/>
-      <c r="H236" s="39"/>
-      <c r="I236" s="25"/>
-      <c r="J236" s="25"/>
-      <c r="K236" s="25"/>
-      <c r="L236" s="25"/>
-      <c r="M236" s="25"/>
+    <row r="236" spans="1:13">
+      <c r="A236" s="14">
+        <v>503</v>
+      </c>
+      <c r="B236" s="14">
+        <v>2</v>
+      </c>
+      <c r="C236" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="D236" s="20" t="s">
+        <v>596</v>
+      </c>
+      <c r="E236" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="F236" s="17"/>
+      <c r="H236" s="35"/>
+      <c r="I236" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="J236" s="14"/>
+      <c r="K236" s="14"/>
+      <c r="L236" s="14"/>
+      <c r="M236" s="14"/>
     </row>
     <row r="237" spans="1:13">
-      <c r="A237" s="14">
-        <v>601</v>
+      <c r="A237" s="14" t="s">
+        <v>209</v>
       </c>
       <c r="B237" s="14">
         <v>2</v>
       </c>
       <c r="C237" s="14" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="D237" s="20" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="E237" s="17">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F237" s="17">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H237" s="35"/>
       <c r="I237" s="14" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="J237" s="14"/>
       <c r="K237" s="14"/>
       <c r="L237" s="14"/>
       <c r="M237" s="14"/>
     </row>
-    <row r="238" spans="2:13">
-      <c r="B238" s="14"/>
+    <row r="238" spans="1:13">
+      <c r="A238" s="14">
+        <v>505</v>
+      </c>
+      <c r="B238" s="14">
+        <v>2</v>
+      </c>
       <c r="C238" s="14"/>
       <c r="D238" s="20"/>
       <c r="E238" s="17"/>
@@ -9117,7 +9184,7 @@
     </row>
     <row r="239" s="9" customFormat="1" spans="1:13">
       <c r="A239" s="25" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="B239" s="25"/>
       <c r="C239" s="25"/>
@@ -9134,38 +9201,35 @@
     </row>
     <row r="240" spans="1:13">
       <c r="A240" s="14">
-        <v>1</v>
+        <v>601</v>
       </c>
       <c r="B240" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C240" s="14" t="s">
-        <v>594</v>
-      </c>
-      <c r="D240" s="20"/>
+        <v>602</v>
+      </c>
+      <c r="D240" s="20" t="s">
+        <v>603</v>
+      </c>
       <c r="E240" s="17">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="F240" s="17">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H240" s="35"/>
-      <c r="I240" s="14"/>
+      <c r="I240" s="14" t="s">
+        <v>604</v>
+      </c>
       <c r="J240" s="14"/>
       <c r="K240" s="14"/>
       <c r="L240" s="14"/>
       <c r="M240" s="14"/>
     </row>
-    <row r="241" spans="1:13">
-      <c r="A241" s="14">
-        <v>2</v>
-      </c>
-      <c r="B241" s="14">
-        <v>3</v>
-      </c>
-      <c r="C241" s="14" t="s">
-        <v>595</v>
-      </c>
+    <row r="241" spans="2:13">
+      <c r="B241" s="14"/>
+      <c r="C241" s="14"/>
       <c r="D241" s="20"/>
       <c r="E241" s="17"/>
       <c r="F241" s="17"/>
@@ -9176,45 +9240,40 @@
       <c r="L241" s="14"/>
       <c r="M241" s="14"/>
     </row>
-    <row r="242" spans="1:13">
-      <c r="A242" s="14">
-        <v>3</v>
-      </c>
-      <c r="B242" s="14">
-        <v>3</v>
-      </c>
-      <c r="C242" s="14" t="s">
-        <v>596</v>
-      </c>
-      <c r="D242" s="20" t="s">
-        <v>597</v>
-      </c>
-      <c r="E242" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F242" s="17">
-        <v>1.3</v>
-      </c>
-      <c r="H242" s="35"/>
-      <c r="I242" s="14"/>
-      <c r="J242" s="14"/>
-      <c r="K242" s="14"/>
-      <c r="L242" s="14"/>
-      <c r="M242" s="14"/>
+    <row r="242" s="9" customFormat="1" spans="1:13">
+      <c r="A242" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="B242" s="25"/>
+      <c r="C242" s="25"/>
+      <c r="D242" s="26"/>
+      <c r="E242" s="38"/>
+      <c r="F242" s="38"/>
+      <c r="G242" s="38"/>
+      <c r="H242" s="39"/>
+      <c r="I242" s="25"/>
+      <c r="J242" s="25"/>
+      <c r="K242" s="25"/>
+      <c r="L242" s="25"/>
+      <c r="M242" s="25"/>
     </row>
     <row r="243" spans="1:13">
       <c r="A243" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B243" s="14">
         <v>3</v>
       </c>
       <c r="C243" s="14" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="D243" s="20"/>
-      <c r="E243" s="17"/>
-      <c r="F243" s="17"/>
+      <c r="E243" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="F243" s="17">
+        <v>0.8</v>
+      </c>
       <c r="H243" s="35"/>
       <c r="I243" s="14"/>
       <c r="J243" s="14"/>
@@ -9224,13 +9283,13 @@
     </row>
     <row r="244" spans="1:13">
       <c r="A244" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B244" s="14">
         <v>3</v>
       </c>
       <c r="C244" s="14" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="D244" s="20"/>
       <c r="E244" s="17"/>
@@ -9244,17 +9303,23 @@
     </row>
     <row r="245" spans="1:13">
       <c r="A245" s="14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B245" s="14">
         <v>3</v>
       </c>
       <c r="C245" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="D245" s="20"/>
-      <c r="E245" s="17"/>
-      <c r="F245" s="17"/>
+        <v>608</v>
+      </c>
+      <c r="D245" s="20" t="s">
+        <v>609</v>
+      </c>
+      <c r="E245" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="F245" s="17">
+        <v>1.3</v>
+      </c>
       <c r="H245" s="35"/>
       <c r="I245" s="14"/>
       <c r="J245" s="14"/>
@@ -9264,13 +9329,13 @@
     </row>
     <row r="246" spans="1:13">
       <c r="A246" s="14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B246" s="14">
         <v>3</v>
       </c>
       <c r="C246" s="14" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="D246" s="20"/>
       <c r="E246" s="17"/>
@@ -9282,9 +9347,16 @@
       <c r="L246" s="14"/>
       <c r="M246" s="14"/>
     </row>
-    <row r="247" spans="2:13">
-      <c r="B247" s="14"/>
-      <c r="C247" s="14"/>
+    <row r="247" spans="1:13">
+      <c r="A247" s="14">
+        <v>5</v>
+      </c>
+      <c r="B247" s="14">
+        <v>3</v>
+      </c>
+      <c r="C247" s="14" t="s">
+        <v>611</v>
+      </c>
       <c r="D247" s="20"/>
       <c r="E247" s="17"/>
       <c r="F247" s="17"/>
@@ -9295,9 +9367,62 @@
       <c r="L247" s="14"/>
       <c r="M247" s="14"/>
     </row>
+    <row r="248" spans="1:13">
+      <c r="A248" s="14">
+        <v>6</v>
+      </c>
+      <c r="B248" s="14">
+        <v>3</v>
+      </c>
+      <c r="C248" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="D248" s="20"/>
+      <c r="E248" s="17"/>
+      <c r="F248" s="17"/>
+      <c r="H248" s="35"/>
+      <c r="I248" s="14"/>
+      <c r="J248" s="14"/>
+      <c r="K248" s="14"/>
+      <c r="L248" s="14"/>
+      <c r="M248" s="14"/>
+    </row>
+    <row r="249" spans="1:13">
+      <c r="A249" s="14">
+        <v>7</v>
+      </c>
+      <c r="B249" s="14">
+        <v>3</v>
+      </c>
+      <c r="C249" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="D249" s="20"/>
+      <c r="E249" s="17"/>
+      <c r="F249" s="17"/>
+      <c r="H249" s="35"/>
+      <c r="I249" s="14"/>
+      <c r="J249" s="14"/>
+      <c r="K249" s="14"/>
+      <c r="L249" s="14"/>
+      <c r="M249" s="14"/>
+    </row>
+    <row r="250" spans="2:13">
+      <c r="B250" s="14"/>
+      <c r="C250" s="14"/>
+      <c r="D250" s="20"/>
+      <c r="E250" s="17"/>
+      <c r="F250" s="17"/>
+      <c r="H250" s="35"/>
+      <c r="I250" s="14"/>
+      <c r="J250" s="14"/>
+      <c r="K250" s="14"/>
+      <c r="L250" s="14"/>
+      <c r="M250" s="14"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J66" r:id="rId1" display="133226@146626"/>
+    <hyperlink ref="J69" r:id="rId1" display="133226@146626"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -9403,29 +9528,29 @@
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:17">
       <c r="A2" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="3" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="7" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
@@ -9434,7 +9559,7 @@
     </row>
     <row r="3" ht="26" customHeight="1" spans="2:17">
       <c r="B3" s="2" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -9442,7 +9567,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="6" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -9455,7 +9580,7 @@
     </row>
     <row r="4" ht="28" customHeight="1" spans="5:12">
       <c r="E4" s="4" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>

--- a/dist/modelsConfig.xlsx
+++ b/dist/modelsConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="699">
   <si>
     <t>类型 1=lora 2=lyco 3=embedding</t>
   </si>
@@ -477,7 +477,7 @@
     <t>hwstrahh</t>
   </si>
   <si>
-    <t>绑带高跟凉鞋</t>
+    <t>脚踝绑带高跟凉鞋</t>
   </si>
   <si>
     <t>hw121</t>
@@ -489,7 +489,7 @@
     <t>hweleairgglgs4</t>
   </si>
   <si>
-    <t>复杂带子的高跟凉鞋？区别在哪里</t>
+    <t>复杂带子的白色高跟，比较失败的作品</t>
   </si>
   <si>
     <t>hw122</t>
@@ -499,1243 +499,1253 @@
   </si>
   <si>
     <t>hwbatihh</t>
+  </si>
+  <si>
+    <t>优雅黑色高跟凉鞋, 后脚跟镂空
+long_hair, skirt, dress,pantyhose,sitting, red_dress, bare_shoulders</t>
+  </si>
+  <si>
+    <t>hw123</t>
+  </si>
+  <si>
+    <t>elegant air hh-ep5</t>
+  </si>
+  <si>
+    <t>hweleganthhsa</t>
+  </si>
+  <si>
+    <t>侧边镂空高跟凉鞋
+pantyhose, skirt, long_hair, sitting, underwear,ass, bracelet</t>
+  </si>
+  <si>
+    <t>hw124</t>
+  </si>
+  <si>
+    <t>elegant_air_gglx_s2-ep4</t>
+  </si>
+  <si>
+    <t>hweleairgglgs2</t>
+  </si>
+  <si>
+    <t>钻石脚踝绑带高跟</t>
+  </si>
+  <si>
+    <t>hw125</t>
+  </si>
+  <si>
+    <t>elegant_air_gglx_s3-000004</t>
+  </si>
+  <si>
+    <t>hweleairgglgs3</t>
+  </si>
+  <si>
+    <t>前面一条绑带，后跟镂空凉鞋</t>
+  </si>
+  <si>
+    <t>hw126</t>
+  </si>
+  <si>
+    <t>elegant_simple_gglx-000005</t>
+  </si>
+  <si>
+    <t>白色简约凉鞋</t>
+  </si>
+  <si>
+    <t>hw127</t>
+  </si>
+  <si>
+    <t>transparent_heels-ep5</t>
+  </si>
+  <si>
+    <t>transparent heels</t>
+  </si>
+  <si>
+    <t>透明高跟凉鞋
+skirt, pantyhose, underwear</t>
+  </si>
+  <si>
+    <t>衣服</t>
+  </si>
+  <si>
+    <t>LiquidClothes</t>
+  </si>
+  <si>
+    <t>liquid clothes, water, blue_theme,</t>
+  </si>
+  <si>
+    <t>液体裙</t>
+  </si>
+  <si>
+    <t>HaremDancer_v1</t>
+  </si>
+  <si>
+    <t>harem outfit, dancer, dancing, see-through,</t>
+  </si>
+  <si>
+    <t>★★★★ 舞娘服</t>
+  </si>
+  <si>
+    <t>GreekClothes</t>
+  </si>
+  <si>
+    <t>greek clothes, peplos,</t>
+  </si>
+  <si>
+    <t>希腊裙</t>
+  </si>
+  <si>
+    <t>LWclothLora</t>
+  </si>
+  <si>
+    <t>LuxuriousWheelsCostume,  silver dress,</t>
+  </si>
+  <si>
+    <t>★★★★ 圣姨裙</t>
+  </si>
+  <si>
+    <t>SheerSkirtV2</t>
+  </si>
+  <si>
+    <t>sheer skirt, sheer dress,</t>
+  </si>
+  <si>
+    <t>★★★ 海滩裙</t>
+  </si>
+  <si>
+    <t>Glitter_bead_dress</t>
+  </si>
+  <si>
+    <t>huge breasts,pink dress,</t>
+  </si>
+  <si>
+    <t>★★★★ Glitter bead dress 粉丝性感裙</t>
+  </si>
+  <si>
+    <t>Elegant_mature_clothing4</t>
+  </si>
+  <si>
+    <t>print dress, pink flower,pink theme, ancient Chinese town,ancient Chinese building, chinese garden,</t>
+  </si>
+  <si>
+    <t>★★★★ Elegant mature clothing S4 类似碎花裙</t>
+  </si>
+  <si>
+    <t>nightdress v2_20230708132300</t>
+  </si>
+  <si>
+    <t>white skirt, white bra, underwear,</t>
+  </si>
+  <si>
+    <t>nightdress S2</t>
+  </si>
+  <si>
+    <t>AphroditeROR</t>
+  </si>
+  <si>
+    <t>a woman, white dress, sleeveless, blonde hair, hair ornament,very long hair, underwear, arm bracelet, ring, hair flower, flower, sensual pose, perfect female body, (beautiful eyes:1),</t>
+  </si>
+  <si>
+    <t>sexy cosplay costume / Aphrodite 一种性感衣服</t>
+  </si>
+  <si>
+    <t>NakedApron</t>
+  </si>
+  <si>
+    <t>2girls, apron,naked apron,heart print,ass,</t>
+  </si>
+  <si>
+    <t>yellowdress</t>
+  </si>
+  <si>
+    <t>coatdress</t>
+  </si>
+  <si>
+    <t>dress,</t>
+  </si>
+  <si>
+    <t>★★★★★ coat dress 129969@142529</t>
+  </si>
+  <si>
+    <t>Fashionable sexy outfit</t>
+  </si>
+  <si>
+    <t>dress,navel,cleavage</t>
+  </si>
+  <si>
+    <t>133226@146626</t>
+  </si>
+  <si>
+    <t>leg wear</t>
+  </si>
+  <si>
+    <t>siwa_rou</t>
+  </si>
+  <si>
+    <t>Nude_pantyhose</t>
+  </si>
+  <si>
+    <t>pantyhose</t>
+  </si>
+  <si>
+    <t>肉色全身</t>
+  </si>
+  <si>
+    <t>xuegao</t>
+  </si>
+  <si>
+    <t>white_legwear_2d</t>
+  </si>
+  <si>
+    <t>(white pantyhose), thighs,</t>
+  </si>
+  <si>
+    <t>★★★★ 雪糕 (white legwear &amp; feet)</t>
+  </si>
+  <si>
+    <t>Oilgor_2d</t>
+  </si>
+  <si>
+    <t>oil skin, sweating, blush, pantyhose, wet,</t>
+  </si>
+  <si>
+    <t>GIRL 水润少女 Oil pantyhose</t>
+  </si>
+  <si>
+    <t>siwa_oil</t>
+  </si>
+  <si>
+    <t>REALOilpantyhose</t>
+  </si>
+  <si>
+    <t>OIL PANTYHOSE</t>
+  </si>
+  <si>
+    <t>liantisiwa</t>
+  </si>
+  <si>
+    <t>bodystocking</t>
+  </si>
+  <si>
+    <t>苍铭明月的情趣服装系列 - body suit</t>
+  </si>
+  <si>
+    <t>diaodaiwav</t>
+  </si>
+  <si>
+    <t>garter belt,</t>
+  </si>
+  <si>
+    <t>black lace suspenders</t>
+  </si>
+  <si>
+    <t>cmmy_Lingerie</t>
+  </si>
+  <si>
+    <t>制服</t>
+  </si>
+  <si>
+    <t>nurse1</t>
+  </si>
+  <si>
+    <t>nurse_v11</t>
+  </si>
+  <si>
+    <t>nurse_uniform, nurse, white thighhighs,</t>
+  </si>
+  <si>
+    <t>★★★★ nurse_uniform</t>
+  </si>
+  <si>
+    <t>Nurse-08</t>
+  </si>
+  <si>
+    <t>nurse, huge breasts, thick thighs, hospital, puffy nipples, shiny skin, pov, bed, stethoscope,nurse cap,</t>
+  </si>
+  <si>
+    <t>Nurse Clothes - Clothes Pack</t>
+  </si>
+  <si>
+    <t>中国风</t>
+  </si>
+  <si>
+    <t>ChinaDress</t>
+  </si>
+  <si>
+    <t>china dress,</t>
+  </si>
+  <si>
+    <t>OutfitGlorious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(outfit-glorious, no panties), underboob </t>
+  </si>
+  <si>
+    <t>★★★ 敞开性感的</t>
+  </si>
+  <si>
+    <t>dundudou</t>
+  </si>
+  <si>
+    <t>Dunhuang_apsaras_dudou</t>
+  </si>
+  <si>
+    <t>(dress,underwear, see-through, chinese clothes, panties),</t>
+  </si>
+  <si>
+    <t>★★★★ 敦煌仙子肚兜</t>
+  </si>
+  <si>
+    <t>Petal_cheongsam</t>
+  </si>
+  <si>
+    <t>china dress, chinese clothes, dress,</t>
+  </si>
+  <si>
+    <t>汉旗袍</t>
+  </si>
+  <si>
+    <t>qinghua50</t>
+  </si>
+  <si>
+    <t>qinghua, cheongsam, blue floral background,</t>
+  </si>
+  <si>
+    <t>青花 blue-and-white | Chinese ornament</t>
+  </si>
+  <si>
+    <t>Chinese_cheongsam_high_slit</t>
+  </si>
+  <si>
+    <t>chinese clothes, china dress, White dress,thighs, white underwear,</t>
+  </si>
+  <si>
+    <t>cheongsam with a high slit 128508@140717</t>
+  </si>
+  <si>
+    <t>裙子系列</t>
+  </si>
+  <si>
+    <t>legdress</t>
+  </si>
+  <si>
+    <t>leg_split_dress</t>
+  </si>
+  <si>
+    <t>(wearing leg_split_dress:1.2),</t>
+  </si>
+  <si>
+    <t>jk</t>
+  </si>
+  <si>
+    <t>schooljk</t>
+  </si>
+  <si>
+    <t>CatholicSchoolUniformDogu</t>
+  </si>
+  <si>
+    <t>catholic school uniform, thighs,</t>
+  </si>
+  <si>
+    <t>★★★★★ 👍🏻我理想中的 Sexy Catholic school uniform</t>
+  </si>
+  <si>
+    <t>饰物</t>
+  </si>
+  <si>
+    <t>Gem-Studded</t>
+  </si>
+  <si>
+    <t>gems</t>
+  </si>
+  <si>
+    <t>★★★ 水晶</t>
+  </si>
+  <si>
+    <t>crystal_3d</t>
+  </si>
+  <si>
+    <t>水晶质感</t>
+  </si>
+  <si>
+    <t>Crystal-fC-V1</t>
+  </si>
+  <si>
+    <t>crystal, crystal armor,</t>
+  </si>
+  <si>
+    <t>attire_nakedbandage</t>
+  </si>
+  <si>
+    <t>naked bandage, claw pose,</t>
+  </si>
+  <si>
+    <t>★★★ 绑带</t>
+  </si>
+  <si>
+    <t>ButterflyPasties</t>
+  </si>
+  <si>
+    <t>completely nude, butterflypasties, butterfly, navel, narrow waist,</t>
+  </si>
+  <si>
+    <t>蝴蝶遮熊</t>
+  </si>
+  <si>
+    <t>womb_tattoo</t>
+  </si>
+  <si>
+    <t>(womb tattoo, Pubic tattoo),</t>
+  </si>
+  <si>
+    <t>纹身 animate</t>
+  </si>
+  <si>
+    <t>womb_tattoo_v5.1.15</t>
+  </si>
+  <si>
+    <t>(tattoo on crotch),</t>
+  </si>
+  <si>
+    <t>★★★★★ 👍🏻 纹身</t>
+  </si>
+  <si>
+    <t>Ice-Fashion-V1</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>★★★ Elemental Series - Ice - FC</t>
+  </si>
+  <si>
+    <t>风格Style</t>
+  </si>
+  <si>
+    <t>masusu_breast</t>
+  </si>
+  <si>
+    <t>large breast, nipples,</t>
+  </si>
+  <si>
+    <t>更好看的胸部的</t>
+  </si>
+  <si>
+    <t>thick_red_book_face_1600</t>
+  </si>
+  <si>
+    <t>thick_red_book_face,</t>
+  </si>
+  <si>
+    <t>小红书</t>
+  </si>
+  <si>
+    <t>shinya</t>
+  </si>
+  <si>
+    <t>ShinyAngel</t>
+  </si>
+  <si>
+    <t>princess, partially underwater shot, solo, angel, full body, huge wings, model pose, blue rose, blue wings, ice, crystal wings, glowing wings, ice jewelry,</t>
+  </si>
+  <si>
+    <t>★★★★ 璀璨天使 82294@108027</t>
+  </si>
+  <si>
+    <t>icea</t>
+  </si>
+  <si>
+    <t>SnowAngel</t>
+  </si>
+  <si>
+    <t>Snow_Angel, princess, blue eyes, blue gown, blue rose, angel wings, blue jewel, satan, hellfire, full body, demon, flame, lucifer, (ice blue flame), (icicle), crystal wings, glowing wings,</t>
+  </si>
+  <si>
+    <t>★★★★ 冰雪天使 82294@96576</t>
+  </si>
+  <si>
+    <t>chinesestyle</t>
+  </si>
+  <si>
+    <t>Chinese_style</t>
+  </si>
+  <si>
+    <t>Chinese style,</t>
+  </si>
+  <si>
+    <t>★★★★ 花想容/Chinese style/古风/</t>
+  </si>
+  <si>
+    <t>MultipleAsses</t>
+  </si>
+  <si>
+    <t>multiple girls, 2girls, all fours with butt expressions, pussy, smile, looking back,</t>
+  </si>
+  <si>
+    <t>★★★★★ Multiple Asses https://civitai.com/models/21856/multiple-asses</t>
+  </si>
+  <si>
+    <t>HugeASS</t>
+  </si>
+  <si>
+    <t>ass, ass focus, from behind, shiny skin, huge ass,</t>
+  </si>
+  <si>
+    <t>TCTH_Fairy</t>
+  </si>
+  <si>
+    <t>fairy, butterfly_wings, gem,  blue_dress,</t>
+  </si>
+  <si>
+    <t>★★★ TCTH-Fairy 蝴蝶裙子</t>
+  </si>
+  <si>
+    <t>fullmm</t>
+  </si>
+  <si>
+    <t>PerfectFullBreasts</t>
+  </si>
+  <si>
+    <t>breasts</t>
+  </si>
+  <si>
+    <t>Perfect Full Round Breasts &amp; Slim Waist 61099@120037</t>
+  </si>
+  <si>
+    <t>DreamArt</t>
+  </si>
+  <si>
+    <t>DreamART Style</t>
+  </si>
+  <si>
+    <t>ax</t>
+  </si>
+  <si>
+    <t>anxiang_L</t>
+  </si>
+  <si>
+    <t>anxiang | 暗香 (fp16/lite)</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>bar1</t>
+  </si>
+  <si>
+    <t>bar, wine, nightclub,</t>
+  </si>
+  <si>
+    <t>Twinkling Twilight Taproom 128228@140369</t>
+  </si>
+  <si>
+    <t>背景</t>
+  </si>
+  <si>
+    <t>DANWGFWL</t>
+  </si>
+  <si>
+    <t>(hanfu, neon lights),</t>
+  </si>
+  <si>
+    <t>★★★★ 中国风与未来科技感的结合</t>
+  </si>
+  <si>
+    <t>starlight</t>
+  </si>
+  <si>
+    <t>starlight, star, HDR.UHD.4K,8K,64K,Highly detailed,ultra-finepainting,extreme detail description,Professional,</t>
+  </si>
+  <si>
+    <t>发光星星</t>
+  </si>
+  <si>
+    <t>butterfly</t>
+  </si>
+  <si>
+    <t>butterfly style, flowers, butterflies, garden,</t>
+  </si>
+  <si>
+    <t>🦋和花</t>
+  </si>
+  <si>
+    <t>glowingdust</t>
+  </si>
+  <si>
+    <t>bokeh, glowingdust,</t>
+  </si>
+  <si>
+    <t>Bokeh and Glowing Dust 129763@142279</t>
+  </si>
+  <si>
+    <t>视角</t>
+  </si>
+  <si>
+    <t>POV_KISS</t>
+  </si>
+  <si>
+    <t>(pov, girl on top, straddling, outstretched arms, 1boy), hetero,</t>
+  </si>
+  <si>
+    <t>★★★ pov kiss</t>
+  </si>
+  <si>
+    <t>PovFromBelowV1</t>
+  </si>
+  <si>
+    <t>(pov, from below),</t>
+  </si>
+  <si>
+    <t>★★★ pov压迫感</t>
+  </si>
+  <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>add_detail</t>
+  </si>
+  <si>
+    <t>Detail Tweaker LoRA (细节调整LoRA)</t>
+  </si>
+  <si>
+    <t>more_details</t>
+  </si>
+  <si>
+    <t>Add More Details - Detail Enhancer / Tweaker (细节调整)</t>
+  </si>
+  <si>
+    <t>Ahegaoo</t>
+  </si>
+  <si>
+    <t>ahegao, blush, rolling eyes, tongue out,  saliva,</t>
+  </si>
+  <si>
+    <t>Ahegao</t>
+  </si>
+  <si>
+    <t>With_dropout_noise_version</t>
+  </si>
+  <si>
+    <t>Cumbersome / 繁雑度 Concept (With dropout &amp; noise version)</t>
+  </si>
+  <si>
+    <t>pose</t>
+  </si>
+  <si>
+    <t>ass_up_wait_feet.v2</t>
+  </si>
+  <si>
+    <t>(ass up wait feet, completely nude, pussy, big ass),</t>
+  </si>
+  <si>
+    <t>PovDoggyAnal-v3</t>
+  </si>
+  <si>
+    <t>close up photo of beautiful blonde white glossy skin woman supermodel doggystyle anal by pool, looking back, perfect lighting, masterpiece, perfect detailed face, from above, wet,  very long hair,</t>
+  </si>
+  <si>
+    <t>菊花残</t>
+  </si>
+  <si>
+    <t>AllFoursFromAboveV1</t>
+  </si>
+  <si>
+    <t>all fours,</t>
+  </si>
+  <si>
+    <t>爬向你</t>
+  </si>
+  <si>
+    <t>panties_pulled_aside_fuck.v1.0</t>
+  </si>
+  <si>
+    <t>panties pulled aside fuck, large breasts, long hair, navel, blue eyes,</t>
+  </si>
+  <si>
+    <t>★★★★★</t>
+  </si>
+  <si>
+    <t>MS_Real_POVDoggyStyle_Lite</t>
+  </si>
+  <si>
+    <t>1girl, 1boy, ass, hetero, penis, sex, solo focus,pussy, anus, sex from behind, pov, doggystyle, all fours, back, from behind,</t>
+  </si>
+  <si>
+    <t>BUTTJOB_V2</t>
+  </si>
+  <si>
+    <t>1boy, 1girl, pov hands gabbing another's ass, pov boy grabbing girl's ass, girl bending down, hetero, huge breasts, lace panties, completely nude, huge ass, pov, (pov boy's hands), buttjob, penis, girl on top</t>
+  </si>
+  <si>
+    <t>fucsil</t>
+  </si>
+  <si>
+    <t>on bed, indoors, fucked silly, sex from behind, 1boy, completely nude,</t>
+  </si>
+  <si>
+    <t>3d,2.5d表现不好，适用于animate</t>
+  </si>
+  <si>
+    <t>POVDoggy</t>
+  </si>
+  <si>
+    <t>1boy, penis, doggystyle, from behind, (facing away, completely nude, implied sex), pov hands, ass grab, spread ass,</t>
+  </si>
+  <si>
+    <t>waistGrab</t>
+  </si>
+  <si>
+    <t>missiongrab, missionary, 1girl, sex, pov, on bed, lying, penis, pussy, pussu juice, large breasts, completely nude, sweatdrop, narrow waist, jewelry, waist chain, chest jewelry,</t>
+  </si>
+  <si>
+    <t>适用于2d</t>
+  </si>
+  <si>
+    <t>DDcowfeet</t>
+  </si>
+  <si>
+    <t>1boy, penis, anal, pov, nude, soles, from behind,</t>
+  </si>
+  <si>
+    <t>eropose_allfours</t>
+  </si>
+  <si>
+    <t>(nude, from behind, all fours, looking at viewer, ass, pussy, barefoot),</t>
+  </si>
+  <si>
+    <t>amzn-000019</t>
+  </si>
+  <si>
+    <t>huge breasts, long hair, navel, nipples, nude, pov, pussy, pussy juice, smile, sweat, uncensored, narrow waist,</t>
+  </si>
+  <si>
+    <t>PSCowgirl</t>
+  </si>
+  <si>
+    <t>1boy,squatting cowgirl position, vaginal, pov,</t>
+  </si>
+  <si>
+    <t>1m</t>
+  </si>
+  <si>
+    <t>EkuneCowgirl</t>
+  </si>
+  <si>
+    <t>cowgirlpose, 1boy, penis, cowgirl position, ass, ass focus, facing away, anal, pussy juice, cum on ass,</t>
+  </si>
+  <si>
+    <t>Cowgirl Position, from back</t>
+  </si>
+  <si>
+    <t>pov_spitroast</t>
+  </si>
+  <si>
+    <t>pov, spitroast, top-down bottom-up, sex, 2boys,</t>
+  </si>
+  <si>
+    <t>Pov spitroast</t>
+  </si>
+  <si>
+    <t>DOGGY3rd-000007</t>
+  </si>
+  <si>
+    <t>sex from behind</t>
+  </si>
+  <si>
+    <t>Standing Sex/ Doggystyle | LoRA</t>
+  </si>
+  <si>
+    <t>ThighSexMS</t>
+  </si>
+  <si>
+    <t>1girl, 1boy, hetero, penis, thigh sex, grinding,thighs, pussy, thick thighs, grabbing from behind, ass, cum,</t>
+  </si>
+  <si>
+    <t>Thigh Sex</t>
+  </si>
+  <si>
+    <t>concept_xiaoma_dache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onesyotahug, syota,1boy,large breasts,  hug,vaginal,sex, nude,nsfw,1girl,  grabbing breast, breast sucking,leg lock,mating press, on bed, </t>
+  </si>
+  <si>
+    <t>效果一般，很难出好图</t>
+  </si>
+  <si>
+    <t>ridingsexscene_lora_01-i4</t>
+  </si>
+  <si>
+    <t>ridingsexscene, closed eyes, nude, open mouth, arms up, on bed,</t>
+  </si>
+  <si>
+    <t>骑乘</t>
+  </si>
+  <si>
+    <t>ridingsexscene,closed eyes, nude, open mouth, arms up,sex, pov,penis, pussy juice, on bed,</t>
+  </si>
+  <si>
+    <t>POVBREASTGRAB_V2</t>
+  </si>
+  <si>
+    <t>1girl, 1boy, huge breast, fit and petite body, nude, grabbing, guided breast grab, guiding hand, in the bedroom,pov hands,</t>
+  </si>
+  <si>
+    <t>抓奈子 Guided Breast Grab</t>
+  </si>
+  <si>
+    <t>guided breast grab, guiding hand, pov hands, 1boy,1girl, hetero, navel,</t>
+  </si>
+  <si>
+    <t>CONCEPT_HipGrabCowgirl</t>
+  </si>
+  <si>
+    <t>1girl, 1boy, POVHipGrabCowgirl, hetero, vaginal, open mouth, blushing, on bed, bedroom, completely nude,</t>
+  </si>
+  <si>
+    <t>Holding Waist POV Cowgirl Position</t>
+  </si>
+  <si>
+    <t>cowgirl_with_hands_on_knees_v1.0</t>
+  </si>
+  <si>
+    <t>nsfw,pov,astride,thrusting,pussy juice,</t>
+  </si>
+  <si>
+    <t>cowgirl with hands on knees #128170@140297</t>
+  </si>
+  <si>
+    <t>BREAST_GRAB_V2</t>
+  </si>
+  <si>
+    <t>breast grab, cowgirl position, girl on top, straddling, grabbing, sex, vaginal,nude,1boy,pov, pussy juice,blush,penis,</t>
+  </si>
+  <si>
+    <t>POV Breast Grab Cowgirl # 111022@138862</t>
+  </si>
+  <si>
+    <t>pose_glass_sex</t>
+  </si>
+  <si>
+    <t>1girl, 3boy, against glass, huge breasts, sex from behind, overflow, breasts on glass, hand up, doggystyle, grabbing from behind,school uniform, thigh sex,penis, cum,panties, train interior,kiss,</t>
+  </si>
+  <si>
+    <t>Against glass sex #126935@138852</t>
+  </si>
+  <si>
+    <t>breasts_on_glass</t>
+  </si>
+  <si>
+    <t>breasts_on_glass ，nipples,breast press, against glass, navel, completely nude,</t>
+  </si>
+  <si>
+    <t>挤玻璃</t>
+  </si>
+  <si>
+    <t>pussy_on_glass</t>
+  </si>
+  <si>
+    <t>crotch on glass, from below, facing away, (no panties, pussy,  big ass),</t>
+  </si>
+  <si>
+    <t>Ass_On_Glass_9k</t>
+  </si>
+  <si>
+    <t>ass on glass, big ass, no panties, pussy, lower body focus, from below, close up, wet,</t>
+  </si>
+  <si>
+    <t>ass_on_glass_2k</t>
+  </si>
+  <si>
+    <t>ass on glass, ass focus, from behind, completely nude, against glass, huge ass, pussy, anus, bathroom, wet,</t>
+  </si>
+  <si>
+    <t>sitcrossleg</t>
+  </si>
+  <si>
+    <t>sitcrossleg, sitting, crosslegged,</t>
+  </si>
+  <si>
+    <t>Sitcrossleg (legs/shoes concept/helper)</t>
+  </si>
+  <si>
+    <t>hugging_own_legs</t>
+  </si>
+  <si>
+    <t>hugging own legs, thighs,</t>
+  </si>
+  <si>
+    <t>Hugging own legs</t>
+  </si>
+  <si>
+    <t>lyco</t>
+  </si>
+  <si>
+    <t>Saya-pov_missionary_strangling</t>
+  </si>
+  <si>
+    <t>(vaginal,strangling, lying, pussy juice),</t>
+  </si>
+  <si>
+    <t>Saya-pov_missionary_holdinghands</t>
+  </si>
+  <si>
+    <t>(vaginal,holding hands, interlocked fingers, lying, pussy juice)</t>
+  </si>
+  <si>
+    <t>Saya-pov_missionary_breastgrab</t>
+  </si>
+  <si>
+    <t>(vaginal, breast grab,arms up, lying, pussy juice),</t>
+  </si>
+  <si>
+    <t>Saya-pov_missionary_thighgrab</t>
+  </si>
+  <si>
+    <t>(vaginal,thigh grab, lying, pussy juice),</t>
+  </si>
+  <si>
+    <t>Saya-pov_missionary_torsograb</t>
+  </si>
+  <si>
+    <t>(vaginal,torso grab, lying, pussy juice),</t>
+  </si>
+  <si>
+    <t>Saya-pov_missionary_holdinganotherwrist</t>
+  </si>
+  <si>
+    <t>(vaginal, lying, pussy juice),</t>
+  </si>
+  <si>
+    <t>headboardangle</t>
+  </si>
+  <si>
+    <t>detailed body,detailed arms,detailed face, (headboardangle, missionary, on back, legs up, 1girl, 1boy, nude,),</t>
+  </si>
+  <si>
+    <t>ASSv12</t>
+  </si>
+  <si>
+    <t>pov, makelove from behind, straddling, ass focus, sex, 1boy, penis, ass, shiny skin, from behind,</t>
+  </si>
+  <si>
+    <t>front_view_doggystyle_armgrab</t>
+  </si>
+  <si>
+    <t>front view doggystyle, facing viewer, arm grab, standing doggystyle, men behind girl's back, 1boy, hetero,</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>TranT, train, standing, bent over, skirt, shirt, pantyhose, netorare, chikan, molestation, public indecency, horny, ahegao, open mouth, blush, hetero, pussy juice, fingering, multiple boys, faceless male,</t>
+  </si>
+  <si>
+    <t>PovGroupSex_v10</t>
+  </si>
+  <si>
+    <t>(3girls,multiple girls:1), sex ,1boy,pov,cowgirl position,smile,blush,large breasts, looking at viewer, nipples,pussy,pussy juice,penis, thighhighs,garter belt,mature female,</t>
+  </si>
+  <si>
+    <t>★★★★★ POV Group Sex | Sex with multiple girls</t>
+  </si>
+  <si>
+    <t>(3girls,multiple girls:1), sex ,1boy,pov, missionary, smile,blush,large breasts, looking at viewer, nipples,pussy,pussy juice,penis, thighhighs,garter belt,mature female,</t>
+  </si>
+  <si>
+    <t>(3girls,multiple girls:1), sex ,1boy,pov, reverse cowgirl position, ass, sex from behind, girl on top  smile,blush,large breasts, looking at viewer, nipples,pussy,pussy juice,penis, thighhighs,garter belt,mature female,</t>
+  </si>
+  <si>
+    <t>bl</t>
+  </si>
+  <si>
+    <t>beautylegs_v01</t>
+  </si>
+  <si>
+    <t>beautylegs, high heels, skirt, transparent blouse, standing, full body,</t>
+  </si>
+  <si>
+    <t>★★★★★ beautylegs 111195@119933</t>
+  </si>
+  <si>
+    <t>dream</t>
+  </si>
+  <si>
+    <t>Dreamwave</t>
+  </si>
+  <si>
+    <t>★★★★ 改变画风，很炸裂★★★★★ 62293@94944</t>
+  </si>
+  <si>
+    <t>BelialV2</t>
+  </si>
+  <si>
+    <t>belialglory, ponytail, heterochromia,</t>
+  </si>
+  <si>
+    <t>Belial (Seven Mortal Sins) 七宗罪审判大姐姐</t>
+  </si>
+  <si>
+    <t>https://civitai.com/models/74577/belial-seven-mortal-sins</t>
+  </si>
+  <si>
+    <t>HypnoHarem</t>
+  </si>
+  <si>
+    <t>HypHarem, (highleg panties, see-through, miniskirt), waist chain,narrow waist, navel,chest jewel, symbol-shaped pupils, heart-shaped pupils, expressionless, :o, mind control,</t>
+  </si>
+  <si>
+    <t>Hypnotized Harem</t>
+  </si>
+  <si>
+    <t>https://civitai.com/models/80314/change-a-character-hypnotized-harem-your-waifu-has-been-forced-to-join-a-harem</t>
+  </si>
+  <si>
+    <t>sinsya</t>
+  </si>
+  <si>
+    <t>Sinsya_Concept</t>
+  </si>
+  <si>
+    <t>sinsya, tassel, red flower,</t>
+  </si>
+  <si>
+    <t>辰砂，中国古代风格</t>
+  </si>
+  <si>
+    <t>bg_hal</t>
+  </si>
+  <si>
+    <t>Background halation</t>
+  </si>
+  <si>
+    <t>彩度優化器 Concept</t>
+  </si>
+  <si>
+    <t>NakedTowel</t>
+  </si>
+  <si>
+    <t>nakedtowel, towel, ass focus, ass, huge ass,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">浴袍sexy </t>
+  </si>
+  <si>
+    <t>edgVyshivankaPanties</t>
+  </si>
+  <si>
+    <t>edgVyshivanka,edgPanties,</t>
+  </si>
+  <si>
+    <t>一种性感nn</t>
+  </si>
+  <si>
+    <t>edgApron</t>
+  </si>
+  <si>
+    <t>dudou, LnF, edgApron, embroidery, ([edgApron|dudou|LnF]::0.5),</t>
+  </si>
+  <si>
+    <t>Sexy Attire | Aprons: Easten Aprons 东方风格围裙</t>
+  </si>
+  <si>
+    <t>siwa_torn</t>
+  </si>
+  <si>
+    <t>TORN_PANTYHOSE</t>
+  </si>
+  <si>
+    <t>PANTYHOSE,TORN PANTYHOSE, cowboy shot,</t>
+  </si>
+  <si>
+    <t>★★★★★ 撕裂的</t>
+  </si>
+  <si>
+    <t>func</t>
+  </si>
+  <si>
+    <t>ehegao_v2</t>
+  </si>
+  <si>
+    <t>ehegao, blush,</t>
+  </si>
+  <si>
+    <t>ehegao Concept 😌</t>
+  </si>
+  <si>
+    <t>EMB</t>
+  </si>
+  <si>
+    <t>ulzzang-6500</t>
+  </si>
+  <si>
+    <t>zhubao</t>
+  </si>
+  <si>
+    <t>suijing</t>
+  </si>
+  <si>
+    <t>(ice crystal dress), princess of the crystal,</t>
+  </si>
+  <si>
+    <t>beautiful_mistake-8500</t>
+  </si>
+  <si>
+    <t>pureerosface_v1</t>
+  </si>
+  <si>
+    <t>fcHeatPortrait</t>
+  </si>
+  <si>
+    <t>fcDetailPortrait</t>
+  </si>
+  <si>
+    <t>PerfectNwsjMajic_4</t>
+  </si>
+  <si>
+    <t>PerfectNwsjMajic</t>
+  </si>
+  <si>
+    <t>nwsj</t>
+  </si>
+  <si>
+    <t>jwy___v1</t>
+  </si>
+  <si>
+    <t>jwy1</t>
+  </si>
+  <si>
+    <t>JANG_WON</t>
+  </si>
+  <si>
+    <t>badgirl-v1.5-lora</t>
+  </si>
+  <si>
+    <t>bad-girl, mature female</t>
+  </si>
+  <si>
+    <t>坏女孩</t>
+  </si>
+  <si>
+    <t>makina69_karina</t>
+  </si>
+  <si>
+    <t>KARINA_MAKINA</t>
+  </si>
+  <si>
+    <t>ChilloutMixss</t>
+  </si>
+  <si>
+    <t>photorealistic</t>
+  </si>
+  <si>
+    <t>专业为CHILLOUT优化的脸，表现不错</t>
+  </si>
+  <si>
+    <t>Onesama</t>
+  </si>
+  <si>
+    <t>大姐姐，animate，3d表现也可以</t>
+  </si>
+  <si>
+    <t>kda_v3</t>
+  </si>
+  <si>
+    <t>kda</t>
+  </si>
+  <si>
+    <t>KDA (league of legends)</t>
+  </si>
+  <si>
+    <t>ALLmai_shiranui</t>
+  </si>
+  <si>
+    <t>不知火舞</t>
+  </si>
+  <si>
+    <t>Mobile_Legends_Alice</t>
+  </si>
+  <si>
+    <t>(Mobile_Legends_Alice, blunt_bangs, thigh_highs, pink_eyes),</t>
+  </si>
+  <si>
+    <t>Mobile Legends Alice 𓆩♡𓆪 2d ok,3d不能看。。</t>
+  </si>
+  <si>
+    <t>SaekiSayoko</t>
+  </si>
+  <si>
+    <t>SaekiSayoko, mature female, milf, full body shot, side view, sitting on chair, makeup, blue suit, blue pencil skirt, thighhighs, high heels, curvy, cleavage, ass, thighs,</t>
+  </si>
+  <si>
+    <t>★★★★ Saeki Sayoko, 2d极佳，3d效果一般，需要hires</t>
+  </si>
+  <si>
+    <t>celestine-lora-v1.5-naivae-4ep-32dim</t>
+  </si>
+  <si>
+    <t>celestine lucullus, blonde hair, head wreath, laurel crown, green eyes, o-ring, elf, pointy ears,</t>
+  </si>
+  <si>
+    <t>精灵  Lucullus from Kuroinu， 2d角色</t>
+  </si>
+  <si>
+    <t>FormidableSwimsuit</t>
+  </si>
+  <si>
+    <t>formidableswim,blue_bikini, (white_single_thighhigh), pool, wet,</t>
+  </si>
+  <si>
+    <t>★★★★ Formidable (Azur Lane) Swimsuit 可畏 泳装</t>
+  </si>
+  <si>
+    <t>smpan</t>
+  </si>
+  <si>
+    <t>extsh</t>
+  </si>
+  <si>
+    <t>jks1</t>
+  </si>
+  <si>
+    <t>ldgg</t>
+  </si>
+  <si>
+    <t>liuding hh-ep4</t>
+  </si>
+  <si>
+    <t>hwliudinghh</t>
+  </si>
+  <si>
+    <t>柳丁鞋
+long_hair, underwear, thighhighs, panties, skirt, short</t>
+  </si>
+  <si>
+    <t>ldggs1</t>
+  </si>
+  <si>
+    <t>eles2gg</t>
   </si>
   <si>
     <t>优雅黑色高跟凉鞋
 long_hair, skirt, dress,pantyhose,sitting, red_dress, bare_shoulders</t>
   </si>
   <si>
-    <t>hw123</t>
-  </si>
-  <si>
-    <t>elegant air hh-ep5</t>
-  </si>
-  <si>
-    <t>hweleganthhsa</t>
-  </si>
-  <si>
-    <t>侧边镂空高跟凉鞋
-pantyhose, skirt, long_hair, sitting, underwear,ass, bracelet</t>
-  </si>
-  <si>
-    <t>hw124</t>
-  </si>
-  <si>
-    <t>elegant_air_gglx_s2-ep4</t>
-  </si>
-  <si>
-    <t>hweleairgglgs3</t>
+    <t>eles1gg</t>
+  </si>
+  <si>
+    <t>gglxs2</t>
+  </si>
+  <si>
+    <t>elegant_air_gglx_s2-000004</t>
   </si>
   <si>
     <t>镂空，前绑带凉鞋</t>
   </si>
   <si>
-    <t>hw125</t>
-  </si>
-  <si>
-    <t>elegant_air_gglx_s3-000004</t>
-  </si>
-  <si>
-    <t>hweleairgglgs2</t>
+    <t>gglxs3</t>
   </si>
   <si>
     <t>钻石脚踝链凉鞋</t>
-  </si>
-  <si>
-    <t>hw126</t>
-  </si>
-  <si>
-    <t>elegant_simple_gglx-000005</t>
-  </si>
-  <si>
-    <t>白色简约凉鞋</t>
-  </si>
-  <si>
-    <t>hw127</t>
-  </si>
-  <si>
-    <t>transparent_heels-ep5</t>
-  </si>
-  <si>
-    <t>transparent heels</t>
-  </si>
-  <si>
-    <t>透明高跟凉鞋
-skirt, pantyhose, underwear</t>
-  </si>
-  <si>
-    <t>衣服</t>
-  </si>
-  <si>
-    <t>LiquidClothes</t>
-  </si>
-  <si>
-    <t>liquid clothes, water, blue_theme,</t>
-  </si>
-  <si>
-    <t>液体裙</t>
-  </si>
-  <si>
-    <t>HaremDancer_v1</t>
-  </si>
-  <si>
-    <t>harem outfit, dancer, dancing, see-through,</t>
-  </si>
-  <si>
-    <t>★★★★ 舞娘服</t>
-  </si>
-  <si>
-    <t>GreekClothes</t>
-  </si>
-  <si>
-    <t>greek clothes, peplos,</t>
-  </si>
-  <si>
-    <t>希腊裙</t>
-  </si>
-  <si>
-    <t>LWclothLora</t>
-  </si>
-  <si>
-    <t>LuxuriousWheelsCostume,  silver dress,</t>
-  </si>
-  <si>
-    <t>★★★★ 圣姨裙</t>
-  </si>
-  <si>
-    <t>SheerSkirtV2</t>
-  </si>
-  <si>
-    <t>sheer skirt, sheer dress,</t>
-  </si>
-  <si>
-    <t>★★★ 海滩裙</t>
-  </si>
-  <si>
-    <t>Glitter_bead_dress</t>
-  </si>
-  <si>
-    <t>huge breasts,pink dress,</t>
-  </si>
-  <si>
-    <t>★★★★ Glitter bead dress 粉丝性感裙</t>
-  </si>
-  <si>
-    <t>Elegant_mature_clothing4</t>
-  </si>
-  <si>
-    <t>print dress, pink flower,pink theme, ancient Chinese town,ancient Chinese building, chinese garden,</t>
-  </si>
-  <si>
-    <t>★★★★ Elegant mature clothing S4 类似碎花裙</t>
-  </si>
-  <si>
-    <t>nightdress v2_20230708132300</t>
-  </si>
-  <si>
-    <t>white skirt, white bra, underwear,</t>
-  </si>
-  <si>
-    <t>nightdress S2</t>
-  </si>
-  <si>
-    <t>AphroditeROR</t>
-  </si>
-  <si>
-    <t>a woman, white dress, sleeveless, blonde hair, hair ornament,very long hair, underwear, arm bracelet, ring, hair flower, flower, sensual pose, perfect female body, (beautiful eyes:1),</t>
-  </si>
-  <si>
-    <t>sexy cosplay costume / Aphrodite 一种性感衣服</t>
-  </si>
-  <si>
-    <t>NakedApron</t>
-  </si>
-  <si>
-    <t>2girls, apron,naked apron,heart print,ass,</t>
-  </si>
-  <si>
-    <t>yellowdress</t>
-  </si>
-  <si>
-    <t>coatdress</t>
-  </si>
-  <si>
-    <t>dress,</t>
-  </si>
-  <si>
-    <t>★★★★★ coat dress 129969@142529</t>
-  </si>
-  <si>
-    <t>Fashionable sexy outfit</t>
-  </si>
-  <si>
-    <t>dress,navel,cleavage</t>
-  </si>
-  <si>
-    <t>133226@146626</t>
-  </si>
-  <si>
-    <t>leg wear</t>
-  </si>
-  <si>
-    <t>siwa_rou</t>
-  </si>
-  <si>
-    <t>Nude_pantyhose</t>
-  </si>
-  <si>
-    <t>pantyhose</t>
-  </si>
-  <si>
-    <t>肉色全身</t>
-  </si>
-  <si>
-    <t>xuegao</t>
-  </si>
-  <si>
-    <t>white_legwear_2d</t>
-  </si>
-  <si>
-    <t>(white pantyhose), thighs,</t>
-  </si>
-  <si>
-    <t>★★★★ 雪糕 (white legwear &amp; feet)</t>
-  </si>
-  <si>
-    <t>Oilgor_2d</t>
-  </si>
-  <si>
-    <t>oil skin, sweating, blush, pantyhose, wet,</t>
-  </si>
-  <si>
-    <t>GIRL 水润少女 Oil pantyhose</t>
-  </si>
-  <si>
-    <t>siwa_oil</t>
-  </si>
-  <si>
-    <t>REALOilpantyhose</t>
-  </si>
-  <si>
-    <t>OIL PANTYHOSE</t>
-  </si>
-  <si>
-    <t>liantisiwa</t>
-  </si>
-  <si>
-    <t>bodystocking</t>
-  </si>
-  <si>
-    <t>苍铭明月的情趣服装系列 - body suit</t>
-  </si>
-  <si>
-    <t>diaodaiwav</t>
-  </si>
-  <si>
-    <t>garter belt,</t>
-  </si>
-  <si>
-    <t>black lace suspenders</t>
-  </si>
-  <si>
-    <t>cmmy_Lingerie</t>
-  </si>
-  <si>
-    <t>制服</t>
-  </si>
-  <si>
-    <t>nurse1</t>
-  </si>
-  <si>
-    <t>nurse_v11</t>
-  </si>
-  <si>
-    <t>nurse_uniform, nurse, white thighhighs,</t>
-  </si>
-  <si>
-    <t>★★★★ nurse_uniform</t>
-  </si>
-  <si>
-    <t>Nurse-08</t>
-  </si>
-  <si>
-    <t>nurse, huge breasts, thick thighs, hospital, puffy nipples, shiny skin, pov, bed, stethoscope,nurse cap,</t>
-  </si>
-  <si>
-    <t>Nurse Clothes - Clothes Pack</t>
-  </si>
-  <si>
-    <t>中国风</t>
-  </si>
-  <si>
-    <t>ChinaDress</t>
-  </si>
-  <si>
-    <t>china dress,</t>
-  </si>
-  <si>
-    <t>OutfitGlorious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(outfit-glorious, no panties), underboob </t>
-  </si>
-  <si>
-    <t>★★★ 敞开性感的</t>
-  </si>
-  <si>
-    <t>dundudou</t>
-  </si>
-  <si>
-    <t>Dunhuang_apsaras_dudou</t>
-  </si>
-  <si>
-    <t>(dress,underwear, see-through, chinese clothes, panties),</t>
-  </si>
-  <si>
-    <t>★★★★ 敦煌仙子肚兜</t>
-  </si>
-  <si>
-    <t>Petal_cheongsam</t>
-  </si>
-  <si>
-    <t>china dress, chinese clothes, dress,</t>
-  </si>
-  <si>
-    <t>汉旗袍</t>
-  </si>
-  <si>
-    <t>qinghua50</t>
-  </si>
-  <si>
-    <t>qinghua, cheongsam, blue floral background,</t>
-  </si>
-  <si>
-    <t>青花 blue-and-white | Chinese ornament</t>
-  </si>
-  <si>
-    <t>Chinese_cheongsam_high_slit</t>
-  </si>
-  <si>
-    <t>chinese clothes, china dress, White dress,thighs, white underwear,</t>
-  </si>
-  <si>
-    <t>cheongsam with a high slit 128508@140717</t>
-  </si>
-  <si>
-    <t>裙子系列</t>
-  </si>
-  <si>
-    <t>legdress</t>
-  </si>
-  <si>
-    <t>leg_split_dress</t>
-  </si>
-  <si>
-    <t>(wearing leg_split_dress:1.2),</t>
-  </si>
-  <si>
-    <t>jk</t>
-  </si>
-  <si>
-    <t>schooljk</t>
-  </si>
-  <si>
-    <t>CatholicSchoolUniformDogu</t>
-  </si>
-  <si>
-    <t>catholic school uniform, thighs,</t>
-  </si>
-  <si>
-    <t>★★★★★ 👍🏻我理想中的 Sexy Catholic school uniform</t>
-  </si>
-  <si>
-    <t>饰物</t>
-  </si>
-  <si>
-    <t>Gem-Studded</t>
-  </si>
-  <si>
-    <t>gems</t>
-  </si>
-  <si>
-    <t>★★★ 水晶</t>
-  </si>
-  <si>
-    <t>crystal_3d</t>
-  </si>
-  <si>
-    <t>水晶质感</t>
-  </si>
-  <si>
-    <t>Crystal-fC-V1</t>
-  </si>
-  <si>
-    <t>crystal, crystal armor,</t>
-  </si>
-  <si>
-    <t>attire_nakedbandage</t>
-  </si>
-  <si>
-    <t>naked bandage, claw pose,</t>
-  </si>
-  <si>
-    <t>★★★ 绑带</t>
-  </si>
-  <si>
-    <t>ButterflyPasties</t>
-  </si>
-  <si>
-    <t>completely nude, butterflypasties, butterfly, navel, narrow waist,</t>
-  </si>
-  <si>
-    <t>蝴蝶遮熊</t>
-  </si>
-  <si>
-    <t>womb_tattoo</t>
-  </si>
-  <si>
-    <t>(womb tattoo, Pubic tattoo),</t>
-  </si>
-  <si>
-    <t>纹身 animate</t>
-  </si>
-  <si>
-    <t>womb_tattoo_v5.1.15</t>
-  </si>
-  <si>
-    <t>(tattoo on crotch),</t>
-  </si>
-  <si>
-    <t>★★★★★ 👍🏻 纹身</t>
-  </si>
-  <si>
-    <t>Ice-Fashion-V1</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>★★★ Elemental Series - Ice - FC</t>
-  </si>
-  <si>
-    <t>风格Style</t>
-  </si>
-  <si>
-    <t>masusu_breast</t>
-  </si>
-  <si>
-    <t>large breast, nipples,</t>
-  </si>
-  <si>
-    <t>更好看的胸部的</t>
-  </si>
-  <si>
-    <t>thick_red_book_face_1600</t>
-  </si>
-  <si>
-    <t>thick_red_book_face,</t>
-  </si>
-  <si>
-    <t>小红书</t>
-  </si>
-  <si>
-    <t>shinya</t>
-  </si>
-  <si>
-    <t>ShinyAngel</t>
-  </si>
-  <si>
-    <t>princess, partially underwater shot, solo, angel, full body, huge wings, model pose, blue rose, blue wings, ice, crystal wings, glowing wings, ice jewelry,</t>
-  </si>
-  <si>
-    <t>★★★★ 璀璨天使 82294@108027</t>
-  </si>
-  <si>
-    <t>icea</t>
-  </si>
-  <si>
-    <t>SnowAngel</t>
-  </si>
-  <si>
-    <t>Snow_Angel, princess, blue eyes, blue gown, blue rose, angel wings, blue jewel, satan, hellfire, full body, demon, flame, lucifer, (ice blue flame), (icicle), crystal wings, glowing wings,</t>
-  </si>
-  <si>
-    <t>★★★★ 冰雪天使 82294@96576</t>
-  </si>
-  <si>
-    <t>chinesestyle</t>
-  </si>
-  <si>
-    <t>Chinese_style</t>
-  </si>
-  <si>
-    <t>Chinese style,</t>
-  </si>
-  <si>
-    <t>★★★★ 花想容/Chinese style/古风/</t>
-  </si>
-  <si>
-    <t>MultipleAsses</t>
-  </si>
-  <si>
-    <t>multiple girls, 2girls, all fours with butt expressions, pussy, smile, looking back,</t>
-  </si>
-  <si>
-    <t>★★★★★ Multiple Asses https://civitai.com/models/21856/multiple-asses</t>
-  </si>
-  <si>
-    <t>HugeASS</t>
-  </si>
-  <si>
-    <t>ass, ass focus, from behind, shiny skin, huge ass,</t>
-  </si>
-  <si>
-    <t>TCTH_Fairy</t>
-  </si>
-  <si>
-    <t>fairy, butterfly_wings, gem,  blue_dress,</t>
-  </si>
-  <si>
-    <t>★★★ TCTH-Fairy 蝴蝶裙子</t>
-  </si>
-  <si>
-    <t>fullmm</t>
-  </si>
-  <si>
-    <t>PerfectFullBreasts</t>
-  </si>
-  <si>
-    <t>breasts</t>
-  </si>
-  <si>
-    <t>Perfect Full Round Breasts &amp; Slim Waist 61099@120037</t>
-  </si>
-  <si>
-    <t>DreamArt</t>
-  </si>
-  <si>
-    <t>DreamART Style</t>
-  </si>
-  <si>
-    <t>ax</t>
-  </si>
-  <si>
-    <t>anxiang_L</t>
-  </si>
-  <si>
-    <t>anxiang | 暗香 (fp16/lite)</t>
-  </si>
-  <si>
-    <t>bar</t>
-  </si>
-  <si>
-    <t>bar1</t>
-  </si>
-  <si>
-    <t>bar, wine, nightclub,</t>
-  </si>
-  <si>
-    <t>Twinkling Twilight Taproom 128228@140369</t>
-  </si>
-  <si>
-    <t>背景</t>
-  </si>
-  <si>
-    <t>DANWGFWL</t>
-  </si>
-  <si>
-    <t>(hanfu, neon lights),</t>
-  </si>
-  <si>
-    <t>★★★★ 中国风与未来科技感的结合</t>
-  </si>
-  <si>
-    <t>starlight</t>
-  </si>
-  <si>
-    <t>starlight, star, HDR.UHD.4K,8K,64K,Highly detailed,ultra-finepainting,extreme detail description,Professional,</t>
-  </si>
-  <si>
-    <t>发光星星</t>
-  </si>
-  <si>
-    <t>butterfly</t>
-  </si>
-  <si>
-    <t>butterfly style, flowers, butterflies, garden,</t>
-  </si>
-  <si>
-    <t>🦋和花</t>
-  </si>
-  <si>
-    <t>glowingdust</t>
-  </si>
-  <si>
-    <t>bokeh, glowingdust,</t>
-  </si>
-  <si>
-    <t>Bokeh and Glowing Dust 129763@142279</t>
-  </si>
-  <si>
-    <t>视角</t>
-  </si>
-  <si>
-    <t>POV_KISS</t>
-  </si>
-  <si>
-    <t>(pov, girl on top, straddling, outstretched arms, 1boy), hetero,</t>
-  </si>
-  <si>
-    <t>★★★ pov kiss</t>
-  </si>
-  <si>
-    <t>PovFromBelowV1</t>
-  </si>
-  <si>
-    <t>(pov, from below),</t>
-  </si>
-  <si>
-    <t>★★★ pov压迫感</t>
-  </si>
-  <si>
-    <t>功能</t>
-  </si>
-  <si>
-    <t>add_detail</t>
-  </si>
-  <si>
-    <t>Detail Tweaker LoRA (细节调整LoRA)</t>
-  </si>
-  <si>
-    <t>more_details</t>
-  </si>
-  <si>
-    <t>Add More Details - Detail Enhancer / Tweaker (细节调整)</t>
-  </si>
-  <si>
-    <t>Ahegaoo</t>
-  </si>
-  <si>
-    <t>ahegao, blush, rolling eyes, tongue out,  saliva,</t>
-  </si>
-  <si>
-    <t>Ahegao</t>
-  </si>
-  <si>
-    <t>With_dropout_noise_version</t>
-  </si>
-  <si>
-    <t>Cumbersome / 繁雑度 Concept (With dropout &amp; noise version)</t>
-  </si>
-  <si>
-    <t>pose</t>
-  </si>
-  <si>
-    <t>ass_up_wait_feet.v2</t>
-  </si>
-  <si>
-    <t>(ass up wait feet, completely nude, pussy, big ass),</t>
-  </si>
-  <si>
-    <t>PovDoggyAnal-v3</t>
-  </si>
-  <si>
-    <t>close up photo of beautiful blonde white glossy skin woman supermodel doggystyle anal by pool, looking back, perfect lighting, masterpiece, perfect detailed face, from above, wet,  very long hair,</t>
-  </si>
-  <si>
-    <t>菊花残</t>
-  </si>
-  <si>
-    <t>AllFoursFromAboveV1</t>
-  </si>
-  <si>
-    <t>all fours,</t>
-  </si>
-  <si>
-    <t>爬向你</t>
-  </si>
-  <si>
-    <t>panties_pulled_aside_fuck.v1.0</t>
-  </si>
-  <si>
-    <t>panties pulled aside fuck, large breasts, long hair, navel, blue eyes,</t>
-  </si>
-  <si>
-    <t>★★★★★</t>
-  </si>
-  <si>
-    <t>MS_Real_POVDoggyStyle_Lite</t>
-  </si>
-  <si>
-    <t>1girl, 1boy, ass, hetero, penis, sex, solo focus,pussy, anus, sex from behind, pov, doggystyle, all fours, back, from behind,</t>
-  </si>
-  <si>
-    <t>BUTTJOB_V2</t>
-  </si>
-  <si>
-    <t>1boy, 1girl, pov hands gabbing another's ass, pov boy grabbing girl's ass, girl bending down, hetero, huge breasts, lace panties, completely nude, huge ass, pov, (pov boy's hands), buttjob, penis, girl on top</t>
-  </si>
-  <si>
-    <t>fucsil</t>
-  </si>
-  <si>
-    <t>on bed, indoors, fucked silly, sex from behind, 1boy, completely nude,</t>
-  </si>
-  <si>
-    <t>3d,2.5d表现不好，适用于animate</t>
-  </si>
-  <si>
-    <t>POVDoggy</t>
-  </si>
-  <si>
-    <t>1boy, penis, doggystyle, from behind, (facing away, completely nude, implied sex), pov hands, ass grab, spread ass,</t>
-  </si>
-  <si>
-    <t>waistGrab</t>
-  </si>
-  <si>
-    <t>missiongrab, missionary, 1girl, sex, pov, on bed, lying, penis, pussy, pussu juice, large breasts, completely nude, sweatdrop, narrow waist, jewelry, waist chain, chest jewelry,</t>
-  </si>
-  <si>
-    <t>适用于2d</t>
-  </si>
-  <si>
-    <t>DDcowfeet</t>
-  </si>
-  <si>
-    <t>1boy, penis, anal, pov, nude, soles, from behind,</t>
-  </si>
-  <si>
-    <t>eropose_allfours</t>
-  </si>
-  <si>
-    <t>(nude, from behind, all fours, looking at viewer, ass, pussy, barefoot),</t>
-  </si>
-  <si>
-    <t>amzn-000019</t>
-  </si>
-  <si>
-    <t>huge breasts, long hair, navel, nipples, nude, pov, pussy, pussy juice, smile, sweat, uncensored, narrow waist,</t>
-  </si>
-  <si>
-    <t>PSCowgirl</t>
-  </si>
-  <si>
-    <t>1boy,squatting cowgirl position, vaginal, pov,</t>
-  </si>
-  <si>
-    <t>1m</t>
-  </si>
-  <si>
-    <t>EkuneCowgirl</t>
-  </si>
-  <si>
-    <t>cowgirlpose, 1boy, penis, cowgirl position, ass, ass focus, facing away, anal, pussy juice, cum on ass,</t>
-  </si>
-  <si>
-    <t>Cowgirl Position, from back</t>
-  </si>
-  <si>
-    <t>pov_spitroast</t>
-  </si>
-  <si>
-    <t>pov, spitroast, top-down bottom-up, sex, 2boys,</t>
-  </si>
-  <si>
-    <t>Pov spitroast</t>
-  </si>
-  <si>
-    <t>DOGGY3rd-000007</t>
-  </si>
-  <si>
-    <t>sex from behind</t>
-  </si>
-  <si>
-    <t>Standing Sex/ Doggystyle | LoRA</t>
-  </si>
-  <si>
-    <t>ThighSexMS</t>
-  </si>
-  <si>
-    <t>1girl, 1boy, hetero, penis, thigh sex, grinding,thighs, pussy, thick thighs, grabbing from behind, ass, cum,</t>
-  </si>
-  <si>
-    <t>Thigh Sex</t>
-  </si>
-  <si>
-    <t>concept_xiaoma_dache</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onesyotahug, syota,1boy,large breasts,  hug,vaginal,sex, nude,nsfw,1girl,  grabbing breast, breast sucking,leg lock,mating press, on bed, </t>
-  </si>
-  <si>
-    <t>效果一般，很难出好图</t>
-  </si>
-  <si>
-    <t>ridingsexscene_lora_01-i4</t>
-  </si>
-  <si>
-    <t>ridingsexscene, closed eyes, nude, open mouth, arms up, on bed,</t>
-  </si>
-  <si>
-    <t>骑乘</t>
-  </si>
-  <si>
-    <t>ridingsexscene,closed eyes, nude, open mouth, arms up,sex, pov,penis, pussy juice, on bed,</t>
-  </si>
-  <si>
-    <t>POVBREASTGRAB_V2</t>
-  </si>
-  <si>
-    <t>1girl, 1boy, huge breast, fit and petite body, nude, grabbing, guided breast grab, guiding hand, in the bedroom,pov hands,</t>
-  </si>
-  <si>
-    <t>抓奈子 Guided Breast Grab</t>
-  </si>
-  <si>
-    <t>guided breast grab, guiding hand, pov hands, 1boy,1girl, hetero, navel,</t>
-  </si>
-  <si>
-    <t>CONCEPT_HipGrabCowgirl</t>
-  </si>
-  <si>
-    <t>1girl, 1boy, POVHipGrabCowgirl, hetero, vaginal, open mouth, blushing, on bed, bedroom, completely nude,</t>
-  </si>
-  <si>
-    <t>Holding Waist POV Cowgirl Position</t>
-  </si>
-  <si>
-    <t>cowgirl_with_hands_on_knees_v1.0</t>
-  </si>
-  <si>
-    <t>nsfw,pov,astride,thrusting,pussy juice,</t>
-  </si>
-  <si>
-    <t>cowgirl with hands on knees #128170@140297</t>
-  </si>
-  <si>
-    <t>BREAST_GRAB_V2</t>
-  </si>
-  <si>
-    <t>breast grab, cowgirl position, girl on top, straddling, grabbing, sex, vaginal,nude,1boy,pov, pussy juice,blush,penis,</t>
-  </si>
-  <si>
-    <t>POV Breast Grab Cowgirl # 111022@138862</t>
-  </si>
-  <si>
-    <t>pose_glass_sex</t>
-  </si>
-  <si>
-    <t>1girl, 3boy, against glass, huge breasts, sex from behind, overflow, breasts on glass, hand up, doggystyle, grabbing from behind,school uniform, thigh sex,penis, cum,panties, train interior,kiss,</t>
-  </si>
-  <si>
-    <t>Against glass sex #126935@138852</t>
-  </si>
-  <si>
-    <t>breasts_on_glass</t>
-  </si>
-  <si>
-    <t>breasts_on_glass ，nipples,breast press, against glass, navel, completely nude,</t>
-  </si>
-  <si>
-    <t>挤玻璃</t>
-  </si>
-  <si>
-    <t>pussy_on_glass</t>
-  </si>
-  <si>
-    <t>crotch on glass, from below, facing away, (no panties, pussy,  big ass),</t>
-  </si>
-  <si>
-    <t>Ass_On_Glass_9k</t>
-  </si>
-  <si>
-    <t>ass on glass, big ass, no panties, pussy, lower body focus, from below, close up, wet,</t>
-  </si>
-  <si>
-    <t>ass_on_glass_2k</t>
-  </si>
-  <si>
-    <t>ass on glass, ass focus, from behind, completely nude, against glass, huge ass, pussy, anus, bathroom, wet,</t>
-  </si>
-  <si>
-    <t>sitcrossleg</t>
-  </si>
-  <si>
-    <t>sitcrossleg, sitting, crosslegged,</t>
-  </si>
-  <si>
-    <t>Sitcrossleg (legs/shoes concept/helper)</t>
-  </si>
-  <si>
-    <t>hugging_own_legs</t>
-  </si>
-  <si>
-    <t>hugging own legs, thighs,</t>
-  </si>
-  <si>
-    <t>Hugging own legs</t>
-  </si>
-  <si>
-    <t>lyco</t>
-  </si>
-  <si>
-    <t>Saya-pov_missionary_strangling</t>
-  </si>
-  <si>
-    <t>(vaginal,strangling, lying, pussy juice),</t>
-  </si>
-  <si>
-    <t>Saya-pov_missionary_holdinghands</t>
-  </si>
-  <si>
-    <t>(vaginal,holding hands, interlocked fingers, lying, pussy juice)</t>
-  </si>
-  <si>
-    <t>Saya-pov_missionary_breastgrab</t>
-  </si>
-  <si>
-    <t>(vaginal, breast grab,arms up, lying, pussy juice),</t>
-  </si>
-  <si>
-    <t>Saya-pov_missionary_thighgrab</t>
-  </si>
-  <si>
-    <t>(vaginal,thigh grab, lying, pussy juice),</t>
-  </si>
-  <si>
-    <t>Saya-pov_missionary_torsograb</t>
-  </si>
-  <si>
-    <t>(vaginal,torso grab, lying, pussy juice),</t>
-  </si>
-  <si>
-    <t>Saya-pov_missionary_holdinganotherwrist</t>
-  </si>
-  <si>
-    <t>(vaginal, lying, pussy juice),</t>
-  </si>
-  <si>
-    <t>headboardangle</t>
-  </si>
-  <si>
-    <t>detailed body,detailed arms,detailed face, (headboardangle, missionary, on back, legs up, 1girl, 1boy, nude,),</t>
-  </si>
-  <si>
-    <t>ASSv12</t>
-  </si>
-  <si>
-    <t>pov, makelove from behind, straddling, ass focus, sex, 1boy, penis, ass, shiny skin, from behind,</t>
-  </si>
-  <si>
-    <t>front_view_doggystyle_armgrab</t>
-  </si>
-  <si>
-    <t>front view doggystyle, facing viewer, arm grab, standing doggystyle, men behind girl's back, 1boy, hetero,</t>
-  </si>
-  <si>
-    <t>Train</t>
-  </si>
-  <si>
-    <t>TranT, train, standing, bent over, skirt, shirt, pantyhose, netorare, chikan, molestation, public indecency, horny, ahegao, open mouth, blush, hetero, pussy juice, fingering, multiple boys, faceless male,</t>
-  </si>
-  <si>
-    <t>PovGroupSex_v10</t>
-  </si>
-  <si>
-    <t>(3girls,multiple girls:1), sex ,1boy,pov,cowgirl position,smile,blush,large breasts, looking at viewer, nipples,pussy,pussy juice,penis, thighhighs,garter belt,mature female,</t>
-  </si>
-  <si>
-    <t>★★★★★ POV Group Sex | Sex with multiple girls</t>
-  </si>
-  <si>
-    <t>(3girls,multiple girls:1), sex ,1boy,pov, missionary, smile,blush,large breasts, looking at viewer, nipples,pussy,pussy juice,penis, thighhighs,garter belt,mature female,</t>
-  </si>
-  <si>
-    <t>(3girls,multiple girls:1), sex ,1boy,pov, reverse cowgirl position, ass, sex from behind, girl on top  smile,blush,large breasts, looking at viewer, nipples,pussy,pussy juice,penis, thighhighs,garter belt,mature female,</t>
-  </si>
-  <si>
-    <t>bl</t>
-  </si>
-  <si>
-    <t>beautylegs_v01</t>
-  </si>
-  <si>
-    <t>beautylegs, high heels, skirt, transparent blouse, standing, full body,</t>
-  </si>
-  <si>
-    <t>★★★★★ beautylegs 111195@119933</t>
-  </si>
-  <si>
-    <t>dream</t>
-  </si>
-  <si>
-    <t>Dreamwave</t>
-  </si>
-  <si>
-    <t>★★★★ 改变画风，很炸裂★★★★★ 62293@94944</t>
-  </si>
-  <si>
-    <t>BelialV2</t>
-  </si>
-  <si>
-    <t>belialglory, ponytail, heterochromia,</t>
-  </si>
-  <si>
-    <t>Belial (Seven Mortal Sins) 七宗罪审判大姐姐</t>
-  </si>
-  <si>
-    <t>https://civitai.com/models/74577/belial-seven-mortal-sins</t>
-  </si>
-  <si>
-    <t>HypnoHarem</t>
-  </si>
-  <si>
-    <t>HypHarem, (highleg panties, see-through, miniskirt), waist chain,narrow waist, navel,chest jewel, symbol-shaped pupils, heart-shaped pupils, expressionless, :o, mind control,</t>
-  </si>
-  <si>
-    <t>Hypnotized Harem</t>
-  </si>
-  <si>
-    <t>https://civitai.com/models/80314/change-a-character-hypnotized-harem-your-waifu-has-been-forced-to-join-a-harem</t>
-  </si>
-  <si>
-    <t>sinsya</t>
-  </si>
-  <si>
-    <t>Sinsya_Concept</t>
-  </si>
-  <si>
-    <t>sinsya, tassel, red flower,</t>
-  </si>
-  <si>
-    <t>辰砂，中国古代风格</t>
-  </si>
-  <si>
-    <t>bg_hal</t>
-  </si>
-  <si>
-    <t>Background halation</t>
-  </si>
-  <si>
-    <t>彩度優化器 Concept</t>
-  </si>
-  <si>
-    <t>NakedTowel</t>
-  </si>
-  <si>
-    <t>nakedtowel, towel, ass focus, ass, huge ass,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">浴袍sexy </t>
-  </si>
-  <si>
-    <t>edgVyshivankaPanties</t>
-  </si>
-  <si>
-    <t>edgVyshivanka,edgPanties,</t>
-  </si>
-  <si>
-    <t>一种性感nn</t>
-  </si>
-  <si>
-    <t>edgApron</t>
-  </si>
-  <si>
-    <t>dudou, LnF, edgApron, embroidery, ([edgApron|dudou|LnF]::0.5),</t>
-  </si>
-  <si>
-    <t>Sexy Attire | Aprons: Easten Aprons 东方风格围裙</t>
-  </si>
-  <si>
-    <t>siwa_torn</t>
-  </si>
-  <si>
-    <t>TORN_PANTYHOSE</t>
-  </si>
-  <si>
-    <t>PANTYHOSE,TORN PANTYHOSE, cowboy shot,</t>
-  </si>
-  <si>
-    <t>★★★★★ 撕裂的</t>
-  </si>
-  <si>
-    <t>func</t>
-  </si>
-  <si>
-    <t>ehegao_v2</t>
-  </si>
-  <si>
-    <t>ehegao, blush,</t>
-  </si>
-  <si>
-    <t>ehegao Concept 😌</t>
-  </si>
-  <si>
-    <t>EMB</t>
-  </si>
-  <si>
-    <t>ulzzang-6500</t>
-  </si>
-  <si>
-    <t>zhubao</t>
-  </si>
-  <si>
-    <t>suijing</t>
-  </si>
-  <si>
-    <t>(ice crystal dress), princess of the crystal,</t>
-  </si>
-  <si>
-    <t>beautiful_mistake-8500</t>
-  </si>
-  <si>
-    <t>pureerosface_v1</t>
-  </si>
-  <si>
-    <t>fcHeatPortrait</t>
-  </si>
-  <si>
-    <t>fcDetailPortrait</t>
-  </si>
-  <si>
-    <t>PerfectNwsjMajic_4</t>
-  </si>
-  <si>
-    <t>PerfectNwsjMajic</t>
-  </si>
-  <si>
-    <t>nwsj</t>
-  </si>
-  <si>
-    <t>jwy___v1</t>
-  </si>
-  <si>
-    <t>jwy1</t>
-  </si>
-  <si>
-    <t>JANG_WON</t>
-  </si>
-  <si>
-    <t>badgirl-v1.5-lora</t>
-  </si>
-  <si>
-    <t>bad-girl, mature female</t>
-  </si>
-  <si>
-    <t>坏女孩</t>
-  </si>
-  <si>
-    <t>makina69_karina</t>
-  </si>
-  <si>
-    <t>KARINA_MAKINA</t>
-  </si>
-  <si>
-    <t>ChilloutMixss</t>
-  </si>
-  <si>
-    <t>photorealistic</t>
-  </si>
-  <si>
-    <t>专业为CHILLOUT优化的脸，表现不错</t>
-  </si>
-  <si>
-    <t>Onesama</t>
-  </si>
-  <si>
-    <t>大姐姐，animate，3d表现也可以</t>
-  </si>
-  <si>
-    <t>kda_v3</t>
-  </si>
-  <si>
-    <t>kda</t>
-  </si>
-  <si>
-    <t>KDA (league of legends)</t>
-  </si>
-  <si>
-    <t>ALLmai_shiranui</t>
-  </si>
-  <si>
-    <t>不知火舞</t>
-  </si>
-  <si>
-    <t>Mobile_Legends_Alice</t>
-  </si>
-  <si>
-    <t>(Mobile_Legends_Alice, blunt_bangs, thigh_highs, pink_eyes),</t>
-  </si>
-  <si>
-    <t>Mobile Legends Alice 𓆩♡𓆪 2d ok,3d不能看。。</t>
-  </si>
-  <si>
-    <t>SaekiSayoko</t>
-  </si>
-  <si>
-    <t>SaekiSayoko, mature female, milf, full body shot, side view, sitting on chair, makeup, blue suit, blue pencil skirt, thighhighs, high heels, curvy, cleavage, ass, thighs,</t>
-  </si>
-  <si>
-    <t>★★★★ Saeki Sayoko, 2d极佳，3d效果一般，需要hires</t>
-  </si>
-  <si>
-    <t>celestine-lora-v1.5-naivae-4ep-32dim</t>
-  </si>
-  <si>
-    <t>celestine lucullus, blonde hair, head wreath, laurel crown, green eyes, o-ring, elf, pointy ears,</t>
-  </si>
-  <si>
-    <t>精灵  Lucullus from Kuroinu， 2d角色</t>
-  </si>
-  <si>
-    <t>FormidableSwimsuit</t>
-  </si>
-  <si>
-    <t>formidableswim,blue_bikini, (white_single_thighhigh), pool, wet,</t>
-  </si>
-  <si>
-    <t>★★★★ Formidable (Azur Lane) Swimsuit 可畏 泳装</t>
-  </si>
-  <si>
-    <t>smpan</t>
-  </si>
-  <si>
-    <t>extsh</t>
-  </si>
-  <si>
-    <t>jks1</t>
-  </si>
-  <si>
-    <t>ldgg</t>
-  </si>
-  <si>
-    <t>liuding hh-ep4</t>
-  </si>
-  <si>
-    <t>hwliudinghh</t>
-  </si>
-  <si>
-    <t>柳丁鞋
-long_hair, underwear, thighhighs, panties, skirt, short</t>
-  </si>
-  <si>
-    <t>ldggs1</t>
-  </si>
-  <si>
-    <t>eles2gg</t>
-  </si>
-  <si>
-    <t>eles1gg</t>
-  </si>
-  <si>
-    <t>gglxs2</t>
-  </si>
-  <si>
-    <t>elegant_air_gglx_s2-000004</t>
-  </si>
-  <si>
-    <t>gglxs3</t>
   </si>
   <si>
     <t>white_gglxs3</t>
@@ -2120,12 +2130,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="#\ ?/?"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2180,14 +2190,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2202,107 +2312,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2395,13 +2405,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2413,73 +2459,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2497,7 +2483,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2509,7 +2525,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2521,37 +2549,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2570,6 +2580,30 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2598,11 +2632,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2632,159 +2672,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2793,19 +2803,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2867,13 +2877,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2930,43 +2940,43 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2987,7 +2997,7 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFill="1" applyAlignment="1">
@@ -2999,10 +3009,10 @@
     <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3335,9 +3345,9 @@
   <dimension ref="A1:M210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -4908,7 +4918,7 @@
         <v>174</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E56" s="46">
         <v>0.4</v>
@@ -10026,7 +10036,7 @@
       <c r="G47" s="46"/>
       <c r="H47" s="47"/>
       <c r="I47" s="52" t="s">
-        <v>160</v>
+        <v>567</v>
       </c>
       <c r="J47" s="32"/>
       <c r="K47" s="32"/>
@@ -10035,7 +10045,7 @@
     </row>
     <row r="48" s="11" customFormat="1" ht="51" spans="1:13">
       <c r="A48" s="32" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B48" s="32">
         <v>1</v>
@@ -10064,16 +10074,16 @@
     </row>
     <row r="49" s="11" customFormat="1" ht="17" spans="1:13">
       <c r="A49" s="32" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B49" s="32">
         <v>1</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E49" s="46">
         <v>0.35</v>
@@ -10084,7 +10094,7 @@
       <c r="G49" s="46"/>
       <c r="H49" s="47"/>
       <c r="I49" s="52" t="s">
-        <v>168</v>
+        <v>571</v>
       </c>
       <c r="J49" s="32"/>
       <c r="K49" s="32"/>
@@ -10093,7 +10103,7 @@
     </row>
     <row r="50" s="11" customFormat="1" ht="17" spans="1:13">
       <c r="A50" s="32" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B50" s="32">
         <v>1</v>
@@ -10102,7 +10112,7 @@
         <v>170</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E50" s="46">
         <v>0.35</v>
@@ -10113,7 +10123,7 @@
       <c r="G50" s="46"/>
       <c r="H50" s="47"/>
       <c r="I50" s="52" t="s">
-        <v>172</v>
+        <v>573</v>
       </c>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
@@ -10122,14 +10132,14 @@
     </row>
     <row r="51" s="11" customFormat="1" ht="17" spans="1:13">
       <c r="A51" s="32" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B51" s="32"/>
       <c r="C51" s="32" t="s">
         <v>174</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E51" s="46">
         <v>0.4</v>
@@ -10149,7 +10159,7 @@
     </row>
     <row r="52" s="11" customFormat="1" ht="34" spans="1:13">
       <c r="A52" s="32" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B52" s="32">
         <v>1</v>
@@ -10178,16 +10188,16 @@
     </row>
     <row r="53" s="12" customFormat="1" ht="34" spans="1:13">
       <c r="A53" s="34" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B53" s="35">
         <v>1</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="E53" s="48">
         <v>0.4</v>
@@ -10198,7 +10208,7 @@
       <c r="G53" s="48"/>
       <c r="H53" s="49"/>
       <c r="I53" s="53" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="J53" s="35"/>
       <c r="K53" s="35"/>
@@ -10207,16 +10217,16 @@
     </row>
     <row r="54" s="13" customFormat="1" ht="34" spans="1:13">
       <c r="A54" s="34" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B54" s="34">
         <v>1</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="E54" s="50">
         <v>0.3</v>
@@ -10227,7 +10237,7 @@
       <c r="G54" s="50"/>
       <c r="H54" s="51"/>
       <c r="I54" s="54" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="J54" s="34"/>
       <c r="K54" s="34"/>
@@ -10363,10 +10373,10 @@
         <v>1</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="E60" s="40">
         <v>0.4</v>
@@ -10379,7 +10389,7 @@
       </c>
       <c r="H60" s="41"/>
       <c r="I60" s="23" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="J60" s="23"/>
       <c r="K60" s="23"/>
@@ -10422,10 +10432,10 @@
         <v>1</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="E62" s="40">
         <v>0.4</v>
@@ -10436,7 +10446,7 @@
       <c r="G62" s="40"/>
       <c r="H62" s="41"/>
       <c r="I62" s="23" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="J62" s="23"/>
       <c r="K62" s="23"/>
@@ -10451,10 +10461,10 @@
         <v>1</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="E63" s="19">
         <v>0.7</v>
@@ -10462,7 +10472,7 @@
       <c r="F63" s="19"/>
       <c r="H63" s="39"/>
       <c r="I63" s="16" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="J63" s="16"/>
       <c r="K63" s="16"/>
@@ -10477,10 +10487,10 @@
         <v>1</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="E64" s="19">
         <v>0.6</v>
@@ -10490,7 +10500,7 @@
       </c>
       <c r="H64" s="39"/>
       <c r="I64" s="16" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="J64" s="16"/>
       <c r="K64" s="16"/>
@@ -10741,10 +10751,10 @@
         <v>1</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="E74" s="40">
         <v>0.7</v>
@@ -10753,7 +10763,7 @@
       <c r="G74" s="40"/>
       <c r="H74" s="41"/>
       <c r="I74" s="23" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="J74" s="23"/>
       <c r="K74" s="23"/>
@@ -10814,16 +10824,16 @@
     </row>
     <row r="77" s="8" customFormat="1" spans="1:13">
       <c r="A77" s="23" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B77" s="23">
         <v>1</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="E77" s="40">
         <v>0.6</v>
@@ -10834,7 +10844,7 @@
       <c r="G77" s="40"/>
       <c r="H77" s="41"/>
       <c r="I77" s="23" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="J77" s="23"/>
       <c r="K77" s="23"/>
@@ -10843,16 +10853,16 @@
     </row>
     <row r="78" s="8" customFormat="1" spans="1:13">
       <c r="A78" s="23" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B78" s="23">
         <v>1</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="E78" s="40">
         <v>0.8</v>
@@ -10861,7 +10871,7 @@
       <c r="G78" s="40"/>
       <c r="H78" s="41"/>
       <c r="I78" s="23" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="J78" s="23"/>
       <c r="K78" s="23"/>
@@ -11010,7 +11020,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="D85" s="24"/>
       <c r="E85" s="40">
@@ -11022,7 +11032,7 @@
       <c r="G85" s="40"/>
       <c r="H85" s="41"/>
       <c r="I85" s="23" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="J85" s="23"/>
       <c r="K85" s="23"/>
@@ -11054,10 +11064,10 @@
         <v>1</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="E87" s="40">
         <v>0.6</v>
@@ -11068,7 +11078,7 @@
       <c r="G87" s="40"/>
       <c r="H87" s="41"/>
       <c r="I87" s="23" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="J87" s="23"/>
       <c r="K87" s="23"/>
@@ -11077,16 +11087,16 @@
     </row>
     <row r="88" s="8" customFormat="1" spans="1:13">
       <c r="A88" s="23" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B88" s="23">
         <v>1</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="E88" s="40">
         <v>0.3</v>
@@ -11097,7 +11107,7 @@
       <c r="G88" s="40"/>
       <c r="H88" s="41"/>
       <c r="I88" s="23" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="J88" s="23"/>
       <c r="K88" s="23"/>
@@ -11134,16 +11144,16 @@
     </row>
     <row r="90" s="8" customFormat="1" spans="1:13">
       <c r="A90" s="23" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B90" s="23">
         <v>1</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="D90" s="24" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="E90" s="40">
         <v>0.4</v>
@@ -11154,7 +11164,7 @@
       <c r="G90" s="40"/>
       <c r="H90" s="41"/>
       <c r="I90" s="23" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="J90" s="23"/>
       <c r="K90" s="23"/>
@@ -11169,10 +11179,10 @@
         <v>1</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E91" s="40">
         <v>0.7</v>
@@ -11183,7 +11193,7 @@
       <c r="G91" s="40"/>
       <c r="H91" s="41"/>
       <c r="I91" s="23" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="J91" s="23"/>
       <c r="K91" s="23"/>
@@ -11289,16 +11299,16 @@
     </row>
     <row r="96" s="8" customFormat="1" spans="1:13">
       <c r="A96" s="23" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B96" s="23">
         <v>1</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="E96" s="40">
         <v>0.6</v>
@@ -11309,7 +11319,7 @@
       <c r="G96" s="40"/>
       <c r="H96" s="41"/>
       <c r="I96" s="23" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="J96" s="23"/>
       <c r="K96" s="23"/>
@@ -11453,10 +11463,10 @@
         <v>1</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D102" s="22" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="E102" s="19">
         <v>0.4</v>
@@ -11522,10 +11532,10 @@
         <v>1</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="E105" s="40">
         <v>0.5</v>
@@ -11534,7 +11544,7 @@
       <c r="G105" s="40"/>
       <c r="H105" s="41"/>
       <c r="I105" s="23" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="J105" s="23"/>
       <c r="K105" s="23"/>
@@ -11549,10 +11559,10 @@
         <v>1</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="E106" s="40">
         <v>0.6</v>
@@ -11563,7 +11573,7 @@
       <c r="G106" s="40"/>
       <c r="H106" s="41"/>
       <c r="I106" s="23" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="J106" s="23"/>
       <c r="K106" s="23"/>
@@ -11604,10 +11614,10 @@
         <v>1</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="E108" s="40">
         <v>0.6</v>
@@ -11616,7 +11626,7 @@
       <c r="G108" s="40"/>
       <c r="H108" s="41"/>
       <c r="I108" s="23" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="J108" s="23"/>
       <c r="K108" s="23"/>
@@ -11655,16 +11665,16 @@
     </row>
     <row r="111" s="8" customFormat="1" spans="1:13">
       <c r="A111" s="23" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B111" s="23">
         <v>1</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="E111" s="40">
         <v>0.4</v>
@@ -11675,7 +11685,7 @@
       <c r="G111" s="40"/>
       <c r="H111" s="41"/>
       <c r="I111" s="23" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="J111" s="23"/>
       <c r="K111" s="23"/>
@@ -11781,10 +11791,10 @@
         <v>1</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="D116" s="22" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="E116" s="19">
         <v>0.6</v>
@@ -11792,7 +11802,7 @@
       <c r="F116" s="19"/>
       <c r="H116" s="39"/>
       <c r="I116" s="16" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="J116" s="16"/>
       <c r="K116" s="16"/>
@@ -11807,10 +11817,10 @@
         <v>1</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D117" s="22" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="E117" s="19">
         <v>0.5</v>
@@ -11820,7 +11830,7 @@
       </c>
       <c r="H117" s="39"/>
       <c r="I117" s="16" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="J117" s="16"/>
       <c r="K117" s="16"/>
@@ -11835,10 +11845,10 @@
         <v>1</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="D118" s="22" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="E118" s="19">
         <v>0.8</v>
@@ -11859,10 +11869,10 @@
         <v>1</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="D119" s="22" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="E119" s="19">
         <v>0.4</v>
@@ -11872,7 +11882,7 @@
       </c>
       <c r="H119" s="39"/>
       <c r="I119" s="16" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="J119" s="16"/>
       <c r="K119" s="16"/>
@@ -12077,10 +12087,10 @@
         <v>1</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="D128" s="22" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="E128" s="19">
         <v>0.4</v>
@@ -12213,10 +12223,10 @@
         <v>1</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="D133" s="22" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="E133" s="19">
         <v>0.7</v>
@@ -12226,7 +12236,7 @@
       </c>
       <c r="H133" s="39"/>
       <c r="I133" s="16" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="J133" s="16"/>
       <c r="K133" s="16"/>
@@ -12293,10 +12303,10 @@
         <v>1</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="D136" s="22" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="E136" s="19">
         <v>0.7</v>
@@ -12304,7 +12314,7 @@
       <c r="F136" s="19"/>
       <c r="H136" s="39"/>
       <c r="I136" s="16" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="J136" s="16"/>
       <c r="K136" s="16"/>
@@ -12319,10 +12329,10 @@
         <v>1</v>
       </c>
       <c r="C137" s="23" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="D137" s="24" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="E137" s="40">
         <v>0.6</v>
@@ -12331,7 +12341,7 @@
       <c r="G137" s="40"/>
       <c r="H137" s="41"/>
       <c r="I137" s="23" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="J137" s="23"/>
       <c r="K137" s="23"/>
@@ -12422,10 +12432,10 @@
         <v>1</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="D141" s="22" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="E141" s="19">
         <v>0.8</v>
@@ -12433,7 +12443,7 @@
       <c r="F141" s="19"/>
       <c r="H141" s="39"/>
       <c r="I141" s="16" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="J141" s="16"/>
       <c r="K141" s="16"/>
@@ -12502,10 +12512,10 @@
         <v>1</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="D144" s="22" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="E144" s="19">
         <v>0.6</v>
@@ -12513,7 +12523,7 @@
       <c r="F144" s="19"/>
       <c r="H144" s="39"/>
       <c r="I144" s="16" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="J144" s="16"/>
       <c r="K144" s="16"/>
@@ -12528,7 +12538,7 @@
         <v>1</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="D145" s="22"/>
       <c r="E145" s="19">
@@ -12539,7 +12549,7 @@
       </c>
       <c r="H145" s="39"/>
       <c r="I145" s="16" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="J145" s="16"/>
       <c r="K145" s="16"/>
@@ -12586,7 +12596,7 @@
         <v>1</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="D148" s="22"/>
       <c r="E148" s="19">
@@ -12597,7 +12607,7 @@
       </c>
       <c r="H148" s="39"/>
       <c r="I148" s="16" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="J148" s="16"/>
       <c r="K148" s="16"/>
@@ -12640,10 +12650,10 @@
         <v>1</v>
       </c>
       <c r="C150" s="23" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="D150" s="24" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="E150" s="40">
         <v>0.6</v>
@@ -12654,7 +12664,7 @@
       <c r="G150" s="40"/>
       <c r="H150" s="41"/>
       <c r="I150" s="23" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="J150" s="23"/>
       <c r="K150" s="23"/>
@@ -12967,7 +12977,7 @@
         <v>1</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="D164" s="22"/>
       <c r="E164" s="19">
@@ -12978,7 +12988,7 @@
       </c>
       <c r="H164" s="39"/>
       <c r="I164" s="16" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="J164" s="16"/>
       <c r="K164" s="16"/>
@@ -13131,10 +13141,10 @@
         <v>1</v>
       </c>
       <c r="C171" s="23" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="D171" s="24" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="E171" s="40">
         <v>0.4</v>
@@ -13158,10 +13168,10 @@
         <v>1</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D172" s="22" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="E172" s="19">
         <v>0.4</v>
@@ -13212,10 +13222,10 @@
         <v>1</v>
       </c>
       <c r="C174" s="23" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D174" s="24" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="E174" s="40">
         <v>0.5</v>
@@ -14327,10 +14337,10 @@
         <v>2</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="D219" s="22" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="E219" s="19">
         <v>0.8</v>
@@ -14338,7 +14348,7 @@
       <c r="F219" s="19"/>
       <c r="H219" s="39"/>
       <c r="I219" s="16" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="J219" s="16"/>
       <c r="K219" s="16"/>
@@ -14424,10 +14434,10 @@
         <v>2</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="D223" s="22" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="E223" s="19">
         <v>0.6</v>
@@ -14435,7 +14445,7 @@
       <c r="F223" s="19"/>
       <c r="H223" s="39"/>
       <c r="I223" s="16" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="J223" s="16"/>
       <c r="K223" s="16"/>
@@ -15058,29 +15068,29 @@
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:17">
       <c r="A2" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="3" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="7" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
@@ -15089,7 +15099,7 @@
     </row>
     <row r="3" ht="26" customHeight="1" spans="2:17">
       <c r="B3" s="2" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -15097,7 +15107,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="6" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -15110,7 +15120,7 @@
     </row>
     <row r="4" ht="28" customHeight="1" spans="5:12">
       <c r="E4" s="4" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
